--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="110">
   <si>
     <t>Species</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Sea raven</t>
   </si>
   <si>
-    <t>Local biomass</t>
-  </si>
-  <si>
     <t>Total Biomass</t>
   </si>
   <si>
@@ -178,6 +175,180 @@
   </si>
   <si>
     <t>2020 Local Biomass</t>
+  </si>
+  <si>
+    <t>Local abundance</t>
+  </si>
+  <si>
+    <t>Condition increased with biomass and then may decrease slightly at highest densities</t>
+  </si>
+  <si>
+    <t>Bottom Temp Strata</t>
+  </si>
+  <si>
+    <t>2020 Bottom Temp Strata</t>
+  </si>
+  <si>
+    <t>2019 Bottom Temp Strata</t>
+  </si>
+  <si>
+    <t>Smooth Dogfish</t>
+  </si>
+  <si>
+    <t>Spiny Dogfish</t>
+  </si>
+  <si>
+    <t>Winter Skate</t>
+  </si>
+  <si>
+    <t>Little Skate</t>
+  </si>
+  <si>
+    <t>Thorny Skate</t>
+  </si>
+  <si>
+    <t>Atl Herring</t>
+  </si>
+  <si>
+    <t>Silver Hake</t>
+  </si>
+  <si>
+    <t>Atl Cod</t>
+  </si>
+  <si>
+    <t>White Hake</t>
+  </si>
+  <si>
+    <t>Red Hake</t>
+  </si>
+  <si>
+    <t>Spotted Hake</t>
+  </si>
+  <si>
+    <t>American Plaice</t>
+  </si>
+  <si>
+    <t>Summer Flounder</t>
+  </si>
+  <si>
+    <t>Yellowtail</t>
+  </si>
+  <si>
+    <t>Winter Flounder</t>
+  </si>
+  <si>
+    <t>Witch Flounder</t>
+  </si>
+  <si>
+    <t>Windowpane Flounder</t>
+  </si>
+  <si>
+    <t>Mackerel</t>
+  </si>
+  <si>
+    <t>Black Sea Bass</t>
+  </si>
+  <si>
+    <t>Acadian Redfish</t>
+  </si>
+  <si>
+    <t>Sea Raven</t>
+  </si>
+  <si>
+    <t>Ocean Pout</t>
+  </si>
+  <si>
+    <t>Condition increases with temp</t>
+  </si>
+  <si>
+    <t>Lowest condition around 13 degrees, higher at lower and higher temps</t>
+  </si>
+  <si>
+    <t>Condition highest around 14 degrees</t>
+  </si>
+  <si>
+    <t>Condition declines sharply with increased temp</t>
+  </si>
+  <si>
+    <t>TotalCopepodsMillions</t>
+  </si>
+  <si>
+    <t>Total Copepods 2020</t>
+  </si>
+  <si>
+    <t>Total Copepods 2019</t>
+  </si>
+  <si>
+    <t>Condition decreased slightly with total copepods</t>
+  </si>
+  <si>
+    <t>Peaked at 3,000 copepods and increased again at highest copepods</t>
+  </si>
+  <si>
+    <t>Highly variable but generally higher condition with more copepods</t>
+  </si>
+  <si>
+    <t>CopepodSmallLarge</t>
+  </si>
+  <si>
+    <t>Copepod Small to Large ratio 2020</t>
+  </si>
+  <si>
+    <t>Copepod Small to Large ratio 2019</t>
+  </si>
+  <si>
+    <t>ZooplBiomassAnomaly</t>
+  </si>
+  <si>
+    <t>Zooplankton Biomass Anomaly 2020</t>
+  </si>
+  <si>
+    <t>Zooplankton Biomass Anomaly 2019</t>
+  </si>
+  <si>
+    <t>AvgTempSpring</t>
+  </si>
+  <si>
+    <t>Average Spring Temp 2020</t>
+  </si>
+  <si>
+    <t>Variable but highest at zero</t>
+  </si>
+  <si>
+    <t>Increases with small copepods</t>
+  </si>
+  <si>
+    <t>Lowest near zero</t>
+  </si>
+  <si>
+    <t>No trend</t>
+  </si>
+  <si>
+    <t>Lowest around -0.5, highest around 0.25</t>
+  </si>
+  <si>
+    <t>Average Spring Temp 2019</t>
+  </si>
+  <si>
+    <t>Average Temp Summer 2020</t>
+  </si>
+  <si>
+    <t>AvgTempSummer</t>
+  </si>
+  <si>
+    <t>Average Temp Summer 2019</t>
+  </si>
+  <si>
+    <t>Lowest around -0.25</t>
+  </si>
+  <si>
+    <t>Average Temp Fall 2020</t>
+  </si>
+  <si>
+    <t>Average Temp Fall 2019</t>
+  </si>
+  <si>
+    <t>AvgTempFall</t>
   </si>
 </sst>
 </file>
@@ -733,14 +904,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1027,13 +1198,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="F312" sqref="F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1543,7 +1717,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2040,7 +2214,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2563,7 +2737,7 @@
         <v>857</v>
       </c>
       <c r="G79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -2648,10 +2822,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
@@ -2659,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -2677,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J86" t="s">
         <v>2</v>
@@ -2863,6 +3037,9 @@
       <c r="F91">
         <v>548</v>
       </c>
+      <c r="G91" t="s">
+        <v>53</v>
+      </c>
       <c r="H91" t="s">
         <v>10</v>
       </c>
@@ -3794,18 +3971,7028 @@
         <v>2650</v>
       </c>
     </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>55</v>
+      </c>
+      <c r="H117" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>54</v>
+      </c>
+      <c r="J118" t="s">
+        <v>2</v>
+      </c>
+      <c r="K118" t="s">
+        <v>3</v>
+      </c>
+      <c r="L118" t="s">
+        <v>4</v>
+      </c>
+      <c r="M118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C119">
+        <v>0.01</v>
+      </c>
+      <c r="D119">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E119">
+        <v>23.474</v>
+      </c>
+      <c r="F119">
+        <v>866</v>
+      </c>
+      <c r="H119" t="s">
+        <v>57</v>
+      </c>
+      <c r="I119">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J119">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K119">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L119">
+        <v>22.986000000000001</v>
+      </c>
+      <c r="M119">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C120">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D120">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E120">
+        <v>20.995999999999999</v>
+      </c>
+      <c r="F120">
+        <v>1363</v>
+      </c>
+      <c r="H120" t="s">
+        <v>58</v>
+      </c>
+      <c r="I120">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J120">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K120">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L120">
+        <v>19.683</v>
+      </c>
+      <c r="M120">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D121">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E121">
+        <v>28.297999999999998</v>
+      </c>
+      <c r="F121">
+        <v>811</v>
+      </c>
+      <c r="H121" t="s">
+        <v>59</v>
+      </c>
+      <c r="I121">
+        <v>1E-3</v>
+      </c>
+      <c r="J121">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K121">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L121">
+        <v>26.69</v>
+      </c>
+      <c r="M121">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C122">
+        <v>1E-3</v>
+      </c>
+      <c r="D122">
+        <v>2E-3</v>
+      </c>
+      <c r="E122">
+        <v>62.96</v>
+      </c>
+      <c r="F122">
+        <v>1490</v>
+      </c>
+      <c r="H122" t="s">
+        <v>60</v>
+      </c>
+      <c r="I122">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J122">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K122">
+        <v>0.01</v>
+      </c>
+      <c r="L122">
+        <v>59.948</v>
+      </c>
+      <c r="M122">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123">
+        <v>1E-3</v>
+      </c>
+      <c r="C123">
+        <v>0.02</v>
+      </c>
+      <c r="D123">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E123">
+        <v>47.189</v>
+      </c>
+      <c r="F123">
+        <v>494</v>
+      </c>
+      <c r="H123" t="s">
+        <v>61</v>
+      </c>
+      <c r="I123">
+        <v>2E-3</v>
+      </c>
+      <c r="J123">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K123">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L123">
+        <v>45.271999999999998</v>
+      </c>
+      <c r="M123">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124">
+        <v>1E-3</v>
+      </c>
+      <c r="C124">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D124">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E124">
+        <v>96.864000000000004</v>
+      </c>
+      <c r="F124">
+        <v>940</v>
+      </c>
+      <c r="H124" t="s">
+        <v>62</v>
+      </c>
+      <c r="I124">
+        <v>1E-3</v>
+      </c>
+      <c r="J124">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K124">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L124">
+        <v>101.684</v>
+      </c>
+      <c r="M124">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D125">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E125">
+        <v>55.789000000000001</v>
+      </c>
+      <c r="F125">
+        <v>1889</v>
+      </c>
+      <c r="H125" t="s">
+        <v>63</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K125">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L125">
+        <v>55.869</v>
+      </c>
+      <c r="M125">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D126">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E126">
+        <v>16.687000000000001</v>
+      </c>
+      <c r="F126">
+        <v>826</v>
+      </c>
+      <c r="H126" t="s">
+        <v>64</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K126">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L126">
+        <v>17.27</v>
+      </c>
+      <c r="M126">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>16.222999999999999</v>
+      </c>
+      <c r="F127">
+        <v>985</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J127">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K127">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L127">
+        <v>14.561999999999999</v>
+      </c>
+      <c r="M127">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>26.146000000000001</v>
+      </c>
+      <c r="F128">
+        <v>514</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J128">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K128">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L128">
+        <v>28.693000000000001</v>
+      </c>
+      <c r="M128">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D129">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E129">
+        <v>19.074999999999999</v>
+      </c>
+      <c r="F129">
+        <v>811</v>
+      </c>
+      <c r="H129" t="s">
+        <v>65</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K129">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L129">
+        <v>17.63</v>
+      </c>
+      <c r="M129">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0.05</v>
+      </c>
+      <c r="D130">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E130">
+        <v>60.948</v>
+      </c>
+      <c r="F130">
+        <v>1469</v>
+      </c>
+      <c r="G130" t="s">
+        <v>79</v>
+      </c>
+      <c r="H130" t="s">
+        <v>66</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K130">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L130">
+        <v>57.356999999999999</v>
+      </c>
+      <c r="M130">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>42</v>
+      </c>
+      <c r="B131">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C131">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D131">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E131">
+        <v>26.532</v>
+      </c>
+      <c r="F131">
+        <v>1437</v>
+      </c>
+      <c r="H131" t="s">
+        <v>67</v>
+      </c>
+      <c r="I131">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J131">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K131">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L131">
+        <v>26.314</v>
+      </c>
+      <c r="M131">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>24.599</v>
+      </c>
+      <c r="F132">
+        <v>750</v>
+      </c>
+      <c r="H132" t="s">
+        <v>68</v>
+      </c>
+      <c r="I132">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J132">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K132">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L132">
+        <v>23.15</v>
+      </c>
+      <c r="M132">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D133">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E133">
+        <v>13.935</v>
+      </c>
+      <c r="F133">
+        <v>1346</v>
+      </c>
+      <c r="H133" t="s">
+        <v>69</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K133">
+        <v>0.02</v>
+      </c>
+      <c r="L133">
+        <v>13.855</v>
+      </c>
+      <c r="M133">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D134">
+        <v>0.06</v>
+      </c>
+      <c r="E134">
+        <v>69.551000000000002</v>
+      </c>
+      <c r="F134">
+        <v>1461</v>
+      </c>
+      <c r="G134" t="s">
+        <v>80</v>
+      </c>
+      <c r="H134" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K134">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L134">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="M134">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C135">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D135">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E135">
+        <v>60.652000000000001</v>
+      </c>
+      <c r="F135">
+        <v>845</v>
+      </c>
+      <c r="H135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I135">
+        <v>0.249</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1E-3</v>
+      </c>
+      <c r="L135">
+        <v>49.302</v>
+      </c>
+      <c r="M135">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>13.148</v>
+      </c>
+      <c r="F136">
+        <v>1055</v>
+      </c>
+      <c r="H136" t="s">
+        <v>71</v>
+      </c>
+      <c r="I136">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J136">
+        <v>2E-3</v>
+      </c>
+      <c r="K136">
+        <v>2E-3</v>
+      </c>
+      <c r="L136">
+        <v>14.154</v>
+      </c>
+      <c r="M136">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>44</v>
+      </c>
+      <c r="B137">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C137">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D137">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E137">
+        <v>30.901</v>
+      </c>
+      <c r="F137">
+        <v>696</v>
+      </c>
+      <c r="H137" t="s">
+        <v>72</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K137">
+        <v>0.03</v>
+      </c>
+      <c r="L137">
+        <v>27.925999999999998</v>
+      </c>
+      <c r="M137">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D138">
+        <v>0.151</v>
+      </c>
+      <c r="E138">
+        <v>75.204999999999998</v>
+      </c>
+      <c r="F138">
+        <v>1298</v>
+      </c>
+      <c r="G138" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K138">
+        <v>0.151</v>
+      </c>
+      <c r="L138">
+        <v>73.016000000000005</v>
+      </c>
+      <c r="M138">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C139">
+        <v>0.01</v>
+      </c>
+      <c r="D139">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E139">
+        <v>25.106000000000002</v>
+      </c>
+      <c r="F139">
+        <v>438</v>
+      </c>
+      <c r="H139" t="s">
+        <v>74</v>
+      </c>
+      <c r="I139">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J139">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K139">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L139">
+        <v>23.783000000000001</v>
+      </c>
+      <c r="M139">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D140">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E140">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="F140">
+        <v>2219</v>
+      </c>
+      <c r="H140" t="s">
+        <v>23</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K140">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L140">
+        <v>145.29300000000001</v>
+      </c>
+      <c r="M140">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D141">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E141">
+        <v>18.215</v>
+      </c>
+      <c r="F141">
+        <v>803</v>
+      </c>
+      <c r="G141" t="s">
+        <v>81</v>
+      </c>
+      <c r="H141" t="s">
+        <v>24</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K141">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L141">
+        <v>17.974</v>
+      </c>
+      <c r="M141">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="C142">
+        <v>1E-3</v>
+      </c>
+      <c r="D142">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E142">
+        <v>57.006</v>
+      </c>
+      <c r="F142">
+        <v>652</v>
+      </c>
+      <c r="H142" t="s">
+        <v>75</v>
+      </c>
+      <c r="I142">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>56.680999999999997</v>
+      </c>
+      <c r="M142">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D143">
+        <v>0.183</v>
+      </c>
+      <c r="E143">
+        <v>54.914000000000001</v>
+      </c>
+      <c r="F143">
+        <v>779</v>
+      </c>
+      <c r="G143" t="s">
+        <v>82</v>
+      </c>
+      <c r="H143" t="s">
+        <v>45</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="K143">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="L143">
+        <v>55.506999999999998</v>
+      </c>
+      <c r="M143">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C144">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D144">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E144">
+        <v>16.981000000000002</v>
+      </c>
+      <c r="F144">
+        <v>602</v>
+      </c>
+      <c r="H144" t="s">
+        <v>76</v>
+      </c>
+      <c r="I144">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J144">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K144">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L144">
+        <v>15.369</v>
+      </c>
+      <c r="M144">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>46</v>
+      </c>
+      <c r="B145">
+        <v>0.38</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>79.656000000000006</v>
+      </c>
+      <c r="F145">
+        <v>421</v>
+      </c>
+      <c r="H145" t="s">
+        <v>77</v>
+      </c>
+      <c r="I145">
+        <v>0.629</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>74.162999999999997</v>
+      </c>
+      <c r="M145">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C146">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D146">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E146">
+        <v>34.359000000000002</v>
+      </c>
+      <c r="F146">
+        <v>559</v>
+      </c>
+      <c r="H146" t="s">
+        <v>78</v>
+      </c>
+      <c r="I146">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J146">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K146">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L146">
+        <v>36.076999999999998</v>
+      </c>
+      <c r="M146">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147">
+        <v>0.113</v>
+      </c>
+      <c r="C147">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D147">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E147">
+        <v>55.448999999999998</v>
+      </c>
+      <c r="F147">
+        <v>1180</v>
+      </c>
+      <c r="H147" t="s">
+        <v>28</v>
+      </c>
+      <c r="I147">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J147">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K147">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L147">
+        <v>58.454999999999998</v>
+      </c>
+      <c r="M147">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>84</v>
+      </c>
+      <c r="H149" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>83</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" t="s">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>83</v>
+      </c>
+      <c r="J150" t="s">
+        <v>2</v>
+      </c>
+      <c r="K150" t="s">
+        <v>3</v>
+      </c>
+      <c r="L150" t="s">
+        <v>4</v>
+      </c>
+      <c r="M150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D151">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E151">
+        <v>22.8</v>
+      </c>
+      <c r="F151">
+        <v>891</v>
+      </c>
+      <c r="H151" t="s">
+        <v>6</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K151">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L151">
+        <v>22.561</v>
+      </c>
+      <c r="M151">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C152">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D152">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E152">
+        <v>20.815000000000001</v>
+      </c>
+      <c r="F152">
+        <v>1361</v>
+      </c>
+      <c r="H152" t="s">
+        <v>7</v>
+      </c>
+      <c r="I152">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="J152">
+        <v>1E-3</v>
+      </c>
+      <c r="K152">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L152">
+        <v>19.628</v>
+      </c>
+      <c r="M152">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153">
+        <v>0.52</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>27.512</v>
+      </c>
+      <c r="F153">
+        <v>787</v>
+      </c>
+      <c r="H153" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>26.106000000000002</v>
+      </c>
+      <c r="M153">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C154">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D154">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E154">
+        <v>57.456000000000003</v>
+      </c>
+      <c r="F154">
+        <v>1500</v>
+      </c>
+      <c r="H154" t="s">
+        <v>9</v>
+      </c>
+      <c r="I154">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J154">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K154">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L154">
+        <v>55.723999999999997</v>
+      </c>
+      <c r="M154">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D155">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E155">
+        <v>48.106999999999999</v>
+      </c>
+      <c r="F155">
+        <v>362</v>
+      </c>
+      <c r="G155" t="s">
+        <v>87</v>
+      </c>
+      <c r="H155" t="s">
+        <v>10</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K155">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L155">
+        <v>46.026000000000003</v>
+      </c>
+      <c r="M155">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>41</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0.05</v>
+      </c>
+      <c r="D156">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E156">
+        <v>91.072000000000003</v>
+      </c>
+      <c r="F156">
+        <v>857</v>
+      </c>
+      <c r="G156" t="s">
+        <v>86</v>
+      </c>
+      <c r="H156" t="s">
+        <v>41</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>4.7E-2</v>
+      </c>
+      <c r="K156">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L156">
+        <v>93.019000000000005</v>
+      </c>
+      <c r="M156">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D157">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E157">
+        <v>57.927999999999997</v>
+      </c>
+      <c r="F157">
+        <v>1915</v>
+      </c>
+      <c r="H157" t="s">
+        <v>11</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0.02</v>
+      </c>
+      <c r="K157">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L157">
+        <v>58.935000000000002</v>
+      </c>
+      <c r="M157">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C158">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D158">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E158">
+        <v>16.344000000000001</v>
+      </c>
+      <c r="F158">
+        <v>673</v>
+      </c>
+      <c r="H158" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J158">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K158">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L158">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="M158">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159">
+        <v>1E-3</v>
+      </c>
+      <c r="C159">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D159">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E159">
+        <v>17.044</v>
+      </c>
+      <c r="F159">
+        <v>804</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K159">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L159">
+        <v>16.629000000000001</v>
+      </c>
+      <c r="M159">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="C160">
+        <v>-1E-3</v>
+      </c>
+      <c r="D160">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E160">
+        <v>28.169</v>
+      </c>
+      <c r="F160">
+        <v>371</v>
+      </c>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160">
+        <v>0.308</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1E-3</v>
+      </c>
+      <c r="L160">
+        <v>29.943999999999999</v>
+      </c>
+      <c r="M160">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C161">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D161">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E161">
+        <v>18.46</v>
+      </c>
+      <c r="F161">
+        <v>709</v>
+      </c>
+      <c r="H161" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J161">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K161">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L161">
+        <v>16.741</v>
+      </c>
+      <c r="M161">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162">
+        <v>0.75</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>63.584000000000003</v>
+      </c>
+      <c r="F162">
+        <v>1478</v>
+      </c>
+      <c r="H162" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K162">
+        <v>0.01</v>
+      </c>
+      <c r="L162">
+        <v>59.05</v>
+      </c>
+      <c r="M162">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>42</v>
+      </c>
+      <c r="B163">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C163">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D163">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E163">
+        <v>26.277000000000001</v>
+      </c>
+      <c r="F163">
+        <v>1547</v>
+      </c>
+      <c r="H163" t="s">
+        <v>42</v>
+      </c>
+      <c r="I163">
+        <v>2E-3</v>
+      </c>
+      <c r="J163">
+        <v>0.01</v>
+      </c>
+      <c r="K163">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L163">
+        <v>25.896999999999998</v>
+      </c>
+      <c r="M163">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>17</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D164">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E164">
+        <v>21.16</v>
+      </c>
+      <c r="F164">
+        <v>691</v>
+      </c>
+      <c r="G164" t="s">
+        <v>48</v>
+      </c>
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K164">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L164">
+        <v>20.282</v>
+      </c>
+      <c r="M164">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C165">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D165">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E165">
+        <v>14.135</v>
+      </c>
+      <c r="F165">
+        <v>1417</v>
+      </c>
+      <c r="H165" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K165">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L165">
+        <v>13.787000000000001</v>
+      </c>
+      <c r="M165">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>43</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0.02</v>
+      </c>
+      <c r="D166">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E166">
+        <v>70.629000000000005</v>
+      </c>
+      <c r="F166">
+        <v>1569</v>
+      </c>
+      <c r="H166" t="s">
+        <v>43</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K166">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L166">
+        <v>69.266999999999996</v>
+      </c>
+      <c r="M166">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D167">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E167">
+        <v>57.488</v>
+      </c>
+      <c r="F167">
+        <v>863</v>
+      </c>
+      <c r="H167" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K167">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L167">
+        <v>46.143999999999998</v>
+      </c>
+      <c r="M167">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>20</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D168">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E168">
+        <v>12.170999999999999</v>
+      </c>
+      <c r="F168">
+        <v>1003</v>
+      </c>
+      <c r="H168" t="s">
+        <v>20</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K168">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L168">
+        <v>12.507999999999999</v>
+      </c>
+      <c r="M168">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>44</v>
+      </c>
+      <c r="B169">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>33.292000000000002</v>
+      </c>
+      <c r="F169">
+        <v>618</v>
+      </c>
+      <c r="H169" t="s">
+        <v>44</v>
+      </c>
+      <c r="I169">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>29.992999999999999</v>
+      </c>
+      <c r="M169">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D170">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E170">
+        <v>87.662999999999997</v>
+      </c>
+      <c r="F170">
+        <v>1344</v>
+      </c>
+      <c r="H170" t="s">
+        <v>21</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K170">
+        <v>0.03</v>
+      </c>
+      <c r="L170">
+        <v>83.340999999999994</v>
+      </c>
+      <c r="M170">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D171">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E171">
+        <v>24.15</v>
+      </c>
+      <c r="F171">
+        <v>372</v>
+      </c>
+      <c r="G171" t="s">
+        <v>48</v>
+      </c>
+      <c r="H171" t="s">
+        <v>22</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="K171">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L171">
+        <v>23.067</v>
+      </c>
+      <c r="M171">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D172">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E172">
+        <v>153.45500000000001</v>
+      </c>
+      <c r="F172">
+        <v>2271</v>
+      </c>
+      <c r="H172" t="s">
+        <v>23</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K172">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L172">
+        <v>152.68100000000001</v>
+      </c>
+      <c r="M172">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>24</v>
+      </c>
+      <c r="B173">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C173">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D173">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E173">
+        <v>19.318999999999999</v>
+      </c>
+      <c r="F173">
+        <v>833</v>
+      </c>
+      <c r="H173" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J173">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K173">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L173">
+        <v>19.119</v>
+      </c>
+      <c r="M173">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C174">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D174">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E174">
+        <v>55.792999999999999</v>
+      </c>
+      <c r="F174">
+        <v>672</v>
+      </c>
+      <c r="H174" t="s">
+        <v>25</v>
+      </c>
+      <c r="I174">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J174">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K174">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L174">
+        <v>54.802999999999997</v>
+      </c>
+      <c r="M174">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>45</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D175">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E175">
+        <v>61.24</v>
+      </c>
+      <c r="F175">
+        <v>831</v>
+      </c>
+      <c r="G175" t="s">
+        <v>88</v>
+      </c>
+      <c r="H175" t="s">
+        <v>45</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K175">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L175">
+        <v>68.323999999999998</v>
+      </c>
+      <c r="M175">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>26</v>
+      </c>
+      <c r="B176">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C176">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D176">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E176">
+        <v>14.042</v>
+      </c>
+      <c r="F176">
+        <v>533</v>
+      </c>
+      <c r="H176" t="s">
+        <v>26</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0.04</v>
+      </c>
+      <c r="K176">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="L176">
+        <v>13.236000000000001</v>
+      </c>
+      <c r="M176">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B177">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>82.150999999999996</v>
+      </c>
+      <c r="F177">
+        <v>388</v>
+      </c>
+      <c r="H177" t="s">
+        <v>46</v>
+      </c>
+      <c r="I177">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>76.992999999999995</v>
+      </c>
+      <c r="M177">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C178">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D178">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E178">
+        <v>33.941000000000003</v>
+      </c>
+      <c r="F178">
+        <v>521</v>
+      </c>
+      <c r="H178" t="s">
+        <v>27</v>
+      </c>
+      <c r="I178">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J178">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K178">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L178">
+        <v>35.363999999999997</v>
+      </c>
+      <c r="M178">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>28</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D179">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E179">
+        <v>54.7</v>
+      </c>
+      <c r="F179">
+        <v>1171</v>
+      </c>
+      <c r="H179" t="s">
+        <v>28</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K179">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L179">
+        <v>55.554000000000002</v>
+      </c>
+      <c r="M179">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>90</v>
+      </c>
+      <c r="H181" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>89</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D183">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E183">
+        <v>22.661000000000001</v>
+      </c>
+      <c r="F183">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C184">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D184">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E184">
+        <v>20.193000000000001</v>
+      </c>
+      <c r="F184">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185">
+        <v>0.191</v>
+      </c>
+      <c r="C185">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D185">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E185">
+        <v>28.562000000000001</v>
+      </c>
+      <c r="F185">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D186">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E186">
+        <v>60.402999999999999</v>
+      </c>
+      <c r="F186">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>49.383000000000003</v>
+      </c>
+      <c r="F187">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>41</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D188">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E188">
+        <v>89.284000000000006</v>
+      </c>
+      <c r="F188">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D189">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E189">
+        <v>52.290999999999997</v>
+      </c>
+      <c r="F189">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B190">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C190">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D190">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E190">
+        <v>16.279</v>
+      </c>
+      <c r="F190">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D191">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E191">
+        <v>14.747999999999999</v>
+      </c>
+      <c r="F191">
+        <v>1085</v>
+      </c>
+      <c r="G191" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C192">
+        <v>0.01</v>
+      </c>
+      <c r="D192">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E192">
+        <v>24.663</v>
+      </c>
+      <c r="F192">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>15</v>
+      </c>
+      <c r="B193">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C193">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D193">
+        <v>0.01</v>
+      </c>
+      <c r="E193">
+        <v>17.45</v>
+      </c>
+      <c r="F193">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>16</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0.04</v>
+      </c>
+      <c r="D194">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E194">
+        <v>59.649000000000001</v>
+      </c>
+      <c r="F194">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>42</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D195">
+        <v>0.02</v>
+      </c>
+      <c r="E195">
+        <v>26.018999999999998</v>
+      </c>
+      <c r="F195">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0.106</v>
+      </c>
+      <c r="D196">
+        <v>0.111</v>
+      </c>
+      <c r="E196">
+        <v>22.003</v>
+      </c>
+      <c r="F196">
+        <v>901</v>
+      </c>
+      <c r="G196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D197">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E197">
+        <v>13.996</v>
+      </c>
+      <c r="F197">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>43</v>
+      </c>
+      <c r="B198">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C198">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D198">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E198">
+        <v>72.004000000000005</v>
+      </c>
+      <c r="F198">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+      <c r="C199">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D199">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E199">
+        <v>56.37</v>
+      </c>
+      <c r="F199">
+        <v>893</v>
+      </c>
+      <c r="G199" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D200">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E200">
+        <v>12.763</v>
+      </c>
+      <c r="F200">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>44</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D201">
+        <v>0.05</v>
+      </c>
+      <c r="E201">
+        <v>29.721</v>
+      </c>
+      <c r="F201">
+        <v>797</v>
+      </c>
+      <c r="G201" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D202">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E202">
+        <v>88.006</v>
+      </c>
+      <c r="F202">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>22</v>
+      </c>
+      <c r="B203">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C203">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D203">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E203">
+        <v>23.609000000000002</v>
+      </c>
+      <c r="F203">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D204">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E204">
+        <v>154.69</v>
+      </c>
+      <c r="F204">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>24</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D205">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E205">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="F205">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>25</v>
+      </c>
+      <c r="B206">
+        <v>2E-3</v>
+      </c>
+      <c r="C206">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D206">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E206">
+        <v>56.462000000000003</v>
+      </c>
+      <c r="F206">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0.06</v>
+      </c>
+      <c r="D207">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E207">
+        <v>62.027000000000001</v>
+      </c>
+      <c r="F207">
+        <v>798</v>
+      </c>
+      <c r="G207" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>26</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D208">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E208">
+        <v>15.52</v>
+      </c>
+      <c r="F208">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>46</v>
+      </c>
+      <c r="B209">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C209">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D209">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E209">
+        <v>78.289000000000001</v>
+      </c>
+      <c r="F209">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>27</v>
+      </c>
+      <c r="B210">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C210">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D210">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E210">
+        <v>34.704999999999998</v>
+      </c>
+      <c r="F210">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>28</v>
+      </c>
+      <c r="B211">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C211">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D211">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E211">
+        <v>56.018999999999998</v>
+      </c>
+      <c r="F211">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>93</v>
+      </c>
+      <c r="H213" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>92</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
+      <c r="E214" t="s">
+        <v>4</v>
+      </c>
+      <c r="F214" t="s">
+        <v>5</v>
+      </c>
+      <c r="H214" t="s">
+        <v>0</v>
+      </c>
+      <c r="I214" t="s">
+        <v>92</v>
+      </c>
+      <c r="J214" t="s">
+        <v>2</v>
+      </c>
+      <c r="K214" t="s">
+        <v>3</v>
+      </c>
+      <c r="L214" t="s">
+        <v>4</v>
+      </c>
+      <c r="M214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C215">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D215">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E215">
+        <v>22.882000000000001</v>
+      </c>
+      <c r="F215">
+        <v>859</v>
+      </c>
+      <c r="H215" t="s">
+        <v>57</v>
+      </c>
+      <c r="I215">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J215">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K215">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L215">
+        <v>22.666</v>
+      </c>
+      <c r="M215">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>20.231000000000002</v>
+      </c>
+      <c r="F216">
+        <v>1502</v>
+      </c>
+      <c r="H216" t="s">
+        <v>58</v>
+      </c>
+      <c r="I216">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>18.736000000000001</v>
+      </c>
+      <c r="M216">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C217">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D217">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E217">
+        <v>28.439</v>
+      </c>
+      <c r="F217">
+        <v>815</v>
+      </c>
+      <c r="H217" t="s">
+        <v>59</v>
+      </c>
+      <c r="I217">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J217">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K217">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L217">
+        <v>26.14</v>
+      </c>
+      <c r="M217">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D218">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E218">
+        <v>60.546999999999997</v>
+      </c>
+      <c r="F218">
+        <v>1530</v>
+      </c>
+      <c r="H218" t="s">
+        <v>60</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K218">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L218">
+        <v>58.360999999999997</v>
+      </c>
+      <c r="M218">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D219">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E219">
+        <v>47.389000000000003</v>
+      </c>
+      <c r="F219">
+        <v>510</v>
+      </c>
+      <c r="H219" t="s">
+        <v>61</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K219">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="L219">
+        <v>45.511000000000003</v>
+      </c>
+      <c r="M219">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>41</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D220">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E220">
+        <v>89.561999999999998</v>
+      </c>
+      <c r="F220">
+        <v>1104</v>
+      </c>
+      <c r="H220" t="s">
+        <v>62</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K220">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L220">
+        <v>103.92700000000001</v>
+      </c>
+      <c r="M220">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>0.02</v>
+      </c>
+      <c r="D221">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E221">
+        <v>53.082000000000001</v>
+      </c>
+      <c r="F221">
+        <v>2156</v>
+      </c>
+      <c r="H221" t="s">
+        <v>63</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0.02</v>
+      </c>
+      <c r="K221">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L221">
+        <v>52.223999999999997</v>
+      </c>
+      <c r="M221">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222">
+        <v>0.251</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1E-3</v>
+      </c>
+      <c r="E222">
+        <v>16.428999999999998</v>
+      </c>
+      <c r="F222">
+        <v>915</v>
+      </c>
+      <c r="H222" t="s">
+        <v>64</v>
+      </c>
+      <c r="I222">
+        <v>2E-3</v>
+      </c>
+      <c r="J222">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K222">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L222">
+        <v>16.832000000000001</v>
+      </c>
+      <c r="M222">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>13</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D223">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E223">
+        <v>15.18</v>
+      </c>
+      <c r="F223">
+        <v>1085</v>
+      </c>
+      <c r="H223" t="s">
+        <v>13</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K223">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L223">
+        <v>13.468</v>
+      </c>
+      <c r="M223">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>24.83</v>
+      </c>
+      <c r="F224">
+        <v>569</v>
+      </c>
+      <c r="H224" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>27.45</v>
+      </c>
+      <c r="M224">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>15</v>
+      </c>
+      <c r="B225">
+        <v>0.05</v>
+      </c>
+      <c r="C225">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D225">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E225">
+        <v>17.53</v>
+      </c>
+      <c r="F225">
+        <v>960</v>
+      </c>
+      <c r="H225" t="s">
+        <v>65</v>
+      </c>
+      <c r="I225">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J225">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K225">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L225">
+        <v>15.851000000000001</v>
+      </c>
+      <c r="M225">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>16</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0.03</v>
+      </c>
+      <c r="D226">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E226">
+        <v>60.331000000000003</v>
+      </c>
+      <c r="F226">
+        <v>1644</v>
+      </c>
+      <c r="H226" t="s">
+        <v>66</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K226">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L226">
+        <v>55.482999999999997</v>
+      </c>
+      <c r="M226">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>42</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D227">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E227">
+        <v>26.047999999999998</v>
+      </c>
+      <c r="F227">
+        <v>1471</v>
+      </c>
+      <c r="H227" t="s">
+        <v>67</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K227">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L227">
+        <v>25.818000000000001</v>
+      </c>
+      <c r="M227">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>17</v>
+      </c>
+      <c r="B228">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C228">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D228">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E228">
+        <v>24.259</v>
+      </c>
+      <c r="F228">
+        <v>901</v>
+      </c>
+      <c r="H228" t="s">
+        <v>68</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K228">
+        <v>0.03</v>
+      </c>
+      <c r="L228">
+        <v>22.716000000000001</v>
+      </c>
+      <c r="M228">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229">
+        <v>2E-3</v>
+      </c>
+      <c r="C229">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D229">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E229">
+        <v>14.111000000000001</v>
+      </c>
+      <c r="F229">
+        <v>1364</v>
+      </c>
+      <c r="H229" t="s">
+        <v>69</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K229">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L229">
+        <v>13.888999999999999</v>
+      </c>
+      <c r="M229">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>43</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D230">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E230">
+        <v>70.231999999999999</v>
+      </c>
+      <c r="F230">
+        <v>1532</v>
+      </c>
+      <c r="H230" t="s">
+        <v>43</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K230">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L230">
+        <v>68.674999999999997</v>
+      </c>
+      <c r="M230">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231">
+        <v>1E-3</v>
+      </c>
+      <c r="C231">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D231">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E231">
+        <v>58.481999999999999</v>
+      </c>
+      <c r="F231">
+        <v>893</v>
+      </c>
+      <c r="H231" t="s">
+        <v>70</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K231">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L231">
+        <v>47.100999999999999</v>
+      </c>
+      <c r="M231">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232">
+        <v>0.01</v>
+      </c>
+      <c r="C232">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D232">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E232">
+        <v>13.127000000000001</v>
+      </c>
+      <c r="F232">
+        <v>1117</v>
+      </c>
+      <c r="H232" t="s">
+        <v>71</v>
+      </c>
+      <c r="I232">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J232">
+        <v>0.01</v>
+      </c>
+      <c r="K232">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L232">
+        <v>13.894</v>
+      </c>
+      <c r="M232">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>44</v>
+      </c>
+      <c r="B233">
+        <v>1E-3</v>
+      </c>
+      <c r="C233">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D233">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E233">
+        <v>30.344000000000001</v>
+      </c>
+      <c r="F233">
+        <v>797</v>
+      </c>
+      <c r="H233" t="s">
+        <v>72</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K233">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L233">
+        <v>27.154</v>
+      </c>
+      <c r="M233">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>21</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D234">
+        <v>0.04</v>
+      </c>
+      <c r="E234">
+        <v>87.1</v>
+      </c>
+      <c r="F234">
+        <v>1306</v>
+      </c>
+      <c r="H234" t="s">
+        <v>73</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K234">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L234">
+        <v>82.512</v>
+      </c>
+      <c r="M234">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C235">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D235">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E235">
+        <v>23.574999999999999</v>
+      </c>
+      <c r="F235">
+        <v>448</v>
+      </c>
+      <c r="H235" t="s">
+        <v>74</v>
+      </c>
+      <c r="I235">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J235">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K235">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L235">
+        <v>22.539000000000001</v>
+      </c>
+      <c r="M235">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D236">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E236">
+        <v>152.733</v>
+      </c>
+      <c r="F236">
+        <v>2315</v>
+      </c>
+      <c r="H236" t="s">
+        <v>23</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K236">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L236">
+        <v>155.05799999999999</v>
+      </c>
+      <c r="M236">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>24</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>0.03</v>
+      </c>
+      <c r="D237">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E237">
+        <v>18.567</v>
+      </c>
+      <c r="F237">
+        <v>811</v>
+      </c>
+      <c r="H237" t="s">
+        <v>24</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K237">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L237">
+        <v>18.373999999999999</v>
+      </c>
+      <c r="M237">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>25</v>
+      </c>
+      <c r="B238">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C238">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D238">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E238">
+        <v>56.631</v>
+      </c>
+      <c r="F238">
+        <v>635</v>
+      </c>
+      <c r="H238" t="s">
+        <v>75</v>
+      </c>
+      <c r="I238">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J238">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K238">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L238">
+        <v>55.604999999999997</v>
+      </c>
+      <c r="M238">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>45</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D239">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E239">
+        <v>63.868000000000002</v>
+      </c>
+      <c r="F239">
+        <v>798</v>
+      </c>
+      <c r="H239" t="s">
+        <v>45</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K239">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L239">
+        <v>63.872</v>
+      </c>
+      <c r="M239">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>26</v>
+      </c>
+      <c r="B240">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C240">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D240">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E240">
+        <v>15.875</v>
+      </c>
+      <c r="F240">
+        <v>749</v>
+      </c>
+      <c r="H240" t="s">
+        <v>76</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K240">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L240">
+        <v>13.772</v>
+      </c>
+      <c r="M240">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>46</v>
+      </c>
+      <c r="B241">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>79.507999999999996</v>
+      </c>
+      <c r="F241">
+        <v>477</v>
+      </c>
+      <c r="H241" t="s">
+        <v>77</v>
+      </c>
+      <c r="I241">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>74.575000000000003</v>
+      </c>
+      <c r="M241">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>27</v>
+      </c>
+      <c r="B242">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>35.034999999999997</v>
+      </c>
+      <c r="F242">
+        <v>577</v>
+      </c>
+      <c r="H242" t="s">
+        <v>78</v>
+      </c>
+      <c r="I242">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>36.387999999999998</v>
+      </c>
+      <c r="M242">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>28</v>
+      </c>
+      <c r="B243">
+        <v>0.27</v>
+      </c>
+      <c r="C243">
+        <v>1E-3</v>
+      </c>
+      <c r="D243">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E243">
+        <v>56.195</v>
+      </c>
+      <c r="F243">
+        <v>1239</v>
+      </c>
+      <c r="H243" t="s">
+        <v>28</v>
+      </c>
+      <c r="I243">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J243">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K243">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L243">
+        <v>57.348999999999997</v>
+      </c>
+      <c r="M243">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>96</v>
+      </c>
+      <c r="H245" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" t="s">
+        <v>95</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>3</v>
+      </c>
+      <c r="E246" t="s">
+        <v>4</v>
+      </c>
+      <c r="F246" t="s">
+        <v>5</v>
+      </c>
+      <c r="H246" t="s">
+        <v>0</v>
+      </c>
+      <c r="I246" t="s">
+        <v>95</v>
+      </c>
+      <c r="J246" t="s">
+        <v>2</v>
+      </c>
+      <c r="K246" t="s">
+        <v>3</v>
+      </c>
+      <c r="L246" t="s">
+        <v>4</v>
+      </c>
+      <c r="M246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D247">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E247">
+        <v>23.015000000000001</v>
+      </c>
+      <c r="F247">
+        <v>917</v>
+      </c>
+      <c r="H247" t="s">
+        <v>6</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K247">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L247">
+        <v>22.869</v>
+      </c>
+      <c r="M247">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>20.327999999999999</v>
+      </c>
+      <c r="F248">
+        <v>1591</v>
+      </c>
+      <c r="H248" t="s">
+        <v>7</v>
+      </c>
+      <c r="I248">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>18.824000000000002</v>
+      </c>
+      <c r="M248">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C249">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D249">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E249">
+        <v>28.564</v>
+      </c>
+      <c r="F249">
+        <v>881</v>
+      </c>
+      <c r="H249" t="s">
+        <v>8</v>
+      </c>
+      <c r="I249">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J249">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K249">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L249">
+        <v>26.38</v>
+      </c>
+      <c r="M249">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>9</v>
+      </c>
+      <c r="B250">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C250">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D250">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E250">
+        <v>61.97</v>
+      </c>
+      <c r="F250">
+        <v>1652</v>
+      </c>
+      <c r="H250" t="s">
+        <v>9</v>
+      </c>
+      <c r="I250">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J250">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K250">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L250">
+        <v>59.155000000000001</v>
+      </c>
+      <c r="M250">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>49.323</v>
+      </c>
+      <c r="F251">
+        <v>548</v>
+      </c>
+      <c r="H251" t="s">
+        <v>10</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>47.713000000000001</v>
+      </c>
+      <c r="M251">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>41</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+      <c r="C252">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D252">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E252">
+        <v>86.576999999999998</v>
+      </c>
+      <c r="F252">
+        <v>1177</v>
+      </c>
+      <c r="H252" t="s">
+        <v>41</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K252">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L252">
+        <v>100.53100000000001</v>
+      </c>
+      <c r="M252">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D253">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E253">
+        <v>54.622</v>
+      </c>
+      <c r="F253">
+        <v>2329</v>
+      </c>
+      <c r="H253" t="s">
+        <v>11</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K253">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L253">
+        <v>52.651000000000003</v>
+      </c>
+      <c r="M253">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254">
+        <v>1E-3</v>
+      </c>
+      <c r="C254">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D254">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E254">
+        <v>16.292000000000002</v>
+      </c>
+      <c r="F254">
+        <v>954</v>
+      </c>
+      <c r="H254" t="s">
+        <v>12</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K254">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L254">
+        <v>16.417999999999999</v>
+      </c>
+      <c r="M254">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255">
+        <v>0.03</v>
+      </c>
+      <c r="C255">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D255">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E255">
+        <v>15.172000000000001</v>
+      </c>
+      <c r="F255">
+        <v>1180</v>
+      </c>
+      <c r="H255" t="s">
+        <v>13</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K255">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L255">
+        <v>13.458</v>
+      </c>
+      <c r="M255">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>14</v>
+      </c>
+      <c r="B256">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C256">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D256">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E256">
+        <v>24.992000000000001</v>
+      </c>
+      <c r="F256">
+        <v>597</v>
+      </c>
+      <c r="H256" t="s">
+        <v>14</v>
+      </c>
+      <c r="I256">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J256">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K256">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L256">
+        <v>27.696000000000002</v>
+      </c>
+      <c r="M256">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C257">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D257">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E257">
+        <v>17.423999999999999</v>
+      </c>
+      <c r="F257">
+        <v>1041</v>
+      </c>
+      <c r="H257" t="s">
+        <v>15</v>
+      </c>
+      <c r="I257">
+        <v>1E-3</v>
+      </c>
+      <c r="J257">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K257">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L257">
+        <v>16.062000000000001</v>
+      </c>
+      <c r="M257">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>16</v>
+      </c>
+      <c r="B258">
+        <v>1E-3</v>
+      </c>
+      <c r="C258">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D258">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E258">
+        <v>59.933</v>
+      </c>
+      <c r="F258">
+        <v>1793</v>
+      </c>
+      <c r="H258" t="s">
+        <v>16</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K258">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L258">
+        <v>55.445999999999998</v>
+      </c>
+      <c r="M258">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>42</v>
+      </c>
+      <c r="B259">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C259">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D259">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E259">
+        <v>26.338999999999999</v>
+      </c>
+      <c r="F259">
+        <v>1621</v>
+      </c>
+      <c r="H259" t="s">
+        <v>42</v>
+      </c>
+      <c r="I259">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J259">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K259">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L259">
+        <v>26.065000000000001</v>
+      </c>
+      <c r="M259">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>17</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D260">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E260">
+        <v>23.027999999999999</v>
+      </c>
+      <c r="F260">
+        <v>958</v>
+      </c>
+      <c r="G260" t="s">
+        <v>97</v>
+      </c>
+      <c r="H260" t="s">
+        <v>17</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K260">
+        <v>0.06</v>
+      </c>
+      <c r="L260">
+        <v>21.693000000000001</v>
+      </c>
+      <c r="M260">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>18</v>
+      </c>
+      <c r="B261">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C261">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D261">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E261">
+        <v>14.004</v>
+      </c>
+      <c r="F261">
+        <v>1465</v>
+      </c>
+      <c r="H261" t="s">
+        <v>18</v>
+      </c>
+      <c r="I261">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J261">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K261">
+        <v>0.01</v>
+      </c>
+      <c r="L261">
+        <v>13.714</v>
+      </c>
+      <c r="M261">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>43</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D262">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E262">
+        <v>71.667000000000002</v>
+      </c>
+      <c r="F262">
+        <v>1680</v>
+      </c>
+      <c r="H262" t="s">
+        <v>43</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K262">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L262">
+        <v>70.260000000000005</v>
+      </c>
+      <c r="M262">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>19</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D263">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E263">
+        <v>57.887999999999998</v>
+      </c>
+      <c r="F263">
+        <v>945</v>
+      </c>
+      <c r="H263" t="s">
+        <v>19</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K263">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L263">
+        <v>46.235999999999997</v>
+      </c>
+      <c r="M263">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>20</v>
+      </c>
+      <c r="B264">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="C264">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D264">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E264">
+        <v>12.987</v>
+      </c>
+      <c r="F264">
+        <v>1194</v>
+      </c>
+      <c r="H264" t="s">
+        <v>20</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K264">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L264">
+        <v>13.446</v>
+      </c>
+      <c r="M264">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>44</v>
+      </c>
+      <c r="B265">
+        <v>1E-3</v>
+      </c>
+      <c r="C265">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D265">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E265">
+        <v>29.757999999999999</v>
+      </c>
+      <c r="F265">
+        <v>853</v>
+      </c>
+      <c r="H265" t="s">
+        <v>44</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K265">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L265">
+        <v>26.779</v>
+      </c>
+      <c r="M265">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>21</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D266">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E266">
+        <v>84.933000000000007</v>
+      </c>
+      <c r="F266">
+        <v>1412</v>
+      </c>
+      <c r="H266" t="s">
+        <v>21</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K266">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L266">
+        <v>82.007999999999996</v>
+      </c>
+      <c r="M266">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D267">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E267">
+        <v>23.994</v>
+      </c>
+      <c r="F267">
+        <v>489</v>
+      </c>
+      <c r="G267" t="s">
+        <v>97</v>
+      </c>
+      <c r="H267" t="s">
+        <v>22</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K267">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L267">
+        <v>22.898</v>
+      </c>
+      <c r="M267">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D268">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E268">
+        <v>155.03299999999999</v>
+      </c>
+      <c r="F268">
+        <v>2491</v>
+      </c>
+      <c r="H268" t="s">
+        <v>23</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K268">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L268">
+        <v>155.93299999999999</v>
+      </c>
+      <c r="M268">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0.03</v>
+      </c>
+      <c r="D269">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E269">
+        <v>18.937999999999999</v>
+      </c>
+      <c r="F269">
+        <v>856</v>
+      </c>
+      <c r="H269" t="s">
+        <v>24</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K269">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L269">
+        <v>18.748999999999999</v>
+      </c>
+      <c r="M269">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>25</v>
+      </c>
+      <c r="B270">
+        <v>2E-3</v>
+      </c>
+      <c r="C270">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D270">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E270">
+        <v>55.201999999999998</v>
+      </c>
+      <c r="F270">
+        <v>704</v>
+      </c>
+      <c r="H270" t="s">
+        <v>25</v>
+      </c>
+      <c r="I270">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J270">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K270">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L270">
+        <v>54.293999999999997</v>
+      </c>
+      <c r="M270">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>45</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D271">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E271">
+        <v>64.801000000000002</v>
+      </c>
+      <c r="F271">
+        <v>857</v>
+      </c>
+      <c r="H271" t="s">
+        <v>45</v>
+      </c>
+      <c r="I271">
+        <v>1E-3</v>
+      </c>
+      <c r="J271">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K271">
+        <v>0.03</v>
+      </c>
+      <c r="L271">
+        <v>64.992000000000004</v>
+      </c>
+      <c r="M271">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>26</v>
+      </c>
+      <c r="B272">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C272">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D272">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E272">
+        <v>15.589</v>
+      </c>
+      <c r="F272">
+        <v>803</v>
+      </c>
+      <c r="H272" t="s">
+        <v>26</v>
+      </c>
+      <c r="I272">
+        <v>2E-3</v>
+      </c>
+      <c r="J272">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K272">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L272">
+        <v>13.648999999999999</v>
+      </c>
+      <c r="M272">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>46</v>
+      </c>
+      <c r="B273">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C273">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D273">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E273">
+        <v>79.162999999999997</v>
+      </c>
+      <c r="F273">
+        <v>477</v>
+      </c>
+      <c r="H273" t="s">
+        <v>46</v>
+      </c>
+      <c r="I273">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J273">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K273">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L273">
+        <v>74.034999999999997</v>
+      </c>
+      <c r="M273">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>27</v>
+      </c>
+      <c r="B274">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C274">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D274">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E274">
+        <v>34.801000000000002</v>
+      </c>
+      <c r="F274">
+        <v>631</v>
+      </c>
+      <c r="H274" t="s">
+        <v>27</v>
+      </c>
+      <c r="I274">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J274">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K274">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L274">
+        <v>36.095999999999997</v>
+      </c>
+      <c r="M274">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>28</v>
+      </c>
+      <c r="B275">
+        <v>2E-3</v>
+      </c>
+      <c r="C275">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D275">
+        <v>0.01</v>
+      </c>
+      <c r="E275">
+        <v>53.704999999999998</v>
+      </c>
+      <c r="F275">
+        <v>1385</v>
+      </c>
+      <c r="H275" t="s">
+        <v>28</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K275">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L275">
+        <v>55.17</v>
+      </c>
+      <c r="M275">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>103</v>
+      </c>
+      <c r="H277" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>104</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>3</v>
+      </c>
+      <c r="E278" t="s">
+        <v>4</v>
+      </c>
+      <c r="F278" t="s">
+        <v>5</v>
+      </c>
+      <c r="H278" t="s">
+        <v>0</v>
+      </c>
+      <c r="I278" t="s">
+        <v>104</v>
+      </c>
+      <c r="J278" t="s">
+        <v>2</v>
+      </c>
+      <c r="K278" t="s">
+        <v>3</v>
+      </c>
+      <c r="L278" t="s">
+        <v>4</v>
+      </c>
+      <c r="M278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279">
+        <v>0.11</v>
+      </c>
+      <c r="C279">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D279">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E279">
+        <v>23.728999999999999</v>
+      </c>
+      <c r="F279">
+        <v>917</v>
+      </c>
+      <c r="H279" t="s">
+        <v>6</v>
+      </c>
+      <c r="I279">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J279">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K279">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L279">
+        <v>23.494</v>
+      </c>
+      <c r="M279">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C280">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D280">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E280">
+        <v>20.352</v>
+      </c>
+      <c r="F280">
+        <v>1537</v>
+      </c>
+      <c r="H280" t="s">
+        <v>7</v>
+      </c>
+      <c r="I280">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J280">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K280">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L280">
+        <v>18.809000000000001</v>
+      </c>
+      <c r="M280">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>8</v>
+      </c>
+      <c r="B281">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>28.760999999999999</v>
+      </c>
+      <c r="F281">
+        <v>863</v>
+      </c>
+      <c r="H281" t="s">
+        <v>8</v>
+      </c>
+      <c r="I281">
+        <v>0.35</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>26.632999999999999</v>
+      </c>
+      <c r="M281">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>9</v>
+      </c>
+      <c r="B282">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C282">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D282">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E282">
+        <v>62.329000000000001</v>
+      </c>
+      <c r="F282">
+        <v>1619</v>
+      </c>
+      <c r="H282" t="s">
+        <v>9</v>
+      </c>
+      <c r="I282">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J282">
+        <v>1E-3</v>
+      </c>
+      <c r="K282">
+        <v>2E-3</v>
+      </c>
+      <c r="L282">
+        <v>59.475000000000001</v>
+      </c>
+      <c r="M282">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C283">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D283">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E283">
+        <v>48.941000000000003</v>
+      </c>
+      <c r="F283">
+        <v>506</v>
+      </c>
+      <c r="H283" t="s">
+        <v>10</v>
+      </c>
+      <c r="I283">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J283">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K283">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L283">
+        <v>47.207999999999998</v>
+      </c>
+      <c r="M283">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>41</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D284">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E284">
+        <v>91.194000000000003</v>
+      </c>
+      <c r="F284">
+        <v>1102</v>
+      </c>
+      <c r="H284" t="s">
+        <v>41</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K284">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L284">
+        <v>103.559</v>
+      </c>
+      <c r="M284">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D285">
+        <v>0.02</v>
+      </c>
+      <c r="E285">
+        <v>55.326000000000001</v>
+      </c>
+      <c r="F285">
+        <v>2240</v>
+      </c>
+      <c r="H285" t="s">
+        <v>11</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K285">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L285">
+        <v>53.008000000000003</v>
+      </c>
+      <c r="M285">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>12</v>
+      </c>
+      <c r="B286">
+        <v>0.159</v>
+      </c>
+      <c r="C286">
+        <v>1E-3</v>
+      </c>
+      <c r="D286">
+        <v>2E-3</v>
+      </c>
+      <c r="E286">
+        <v>16.332999999999998</v>
+      </c>
+      <c r="F286">
+        <v>893</v>
+      </c>
+      <c r="H286" t="s">
+        <v>12</v>
+      </c>
+      <c r="I286">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J286">
+        <v>2E-3</v>
+      </c>
+      <c r="K286">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L286">
+        <v>16.869</v>
+      </c>
+      <c r="M286">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287">
+        <v>0.02</v>
+      </c>
+      <c r="C287">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D287">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E287">
+        <v>15.558999999999999</v>
+      </c>
+      <c r="F287">
+        <v>1100</v>
+      </c>
+      <c r="H287" t="s">
+        <v>13</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K287">
+        <v>0.01</v>
+      </c>
+      <c r="L287">
+        <v>13.971</v>
+      </c>
+      <c r="M287">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>25.608000000000001</v>
+      </c>
+      <c r="F288">
+        <v>553</v>
+      </c>
+      <c r="H288" t="s">
+        <v>14</v>
+      </c>
+      <c r="I288">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>28.17</v>
+      </c>
+      <c r="M288">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C289">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D289">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E289">
+        <v>17.643000000000001</v>
+      </c>
+      <c r="F289">
+        <v>965</v>
+      </c>
+      <c r="H289" t="s">
+        <v>15</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K289">
+        <v>0.01</v>
+      </c>
+      <c r="L289">
+        <v>16.225999999999999</v>
+      </c>
+      <c r="M289">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>16</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D290">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E290">
+        <v>61.143000000000001</v>
+      </c>
+      <c r="F290">
+        <v>1709</v>
+      </c>
+      <c r="H290" t="s">
+        <v>16</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K290">
+        <v>0.03</v>
+      </c>
+      <c r="L290">
+        <v>56.655000000000001</v>
+      </c>
+      <c r="M290">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>42</v>
+      </c>
+      <c r="B291">
+        <v>1E-3</v>
+      </c>
+      <c r="C291">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D291">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E291">
+        <v>26.074999999999999</v>
+      </c>
+      <c r="F291">
+        <v>1617</v>
+      </c>
+      <c r="H291" t="s">
+        <v>42</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K291">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L291">
+        <v>25.774999999999999</v>
+      </c>
+      <c r="M291">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>17</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>0.04</v>
+      </c>
+      <c r="D292">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E292">
+        <v>23.596</v>
+      </c>
+      <c r="F292">
+        <v>896</v>
+      </c>
+      <c r="H292" t="s">
+        <v>17</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K292">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L292">
+        <v>22.452000000000002</v>
+      </c>
+      <c r="M292">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293">
+        <v>0.2</v>
+      </c>
+      <c r="C293">
+        <v>1E-3</v>
+      </c>
+      <c r="D293">
+        <v>2E-3</v>
+      </c>
+      <c r="E293">
+        <v>14.098000000000001</v>
+      </c>
+      <c r="F293">
+        <v>1458</v>
+      </c>
+      <c r="H293" t="s">
+        <v>18</v>
+      </c>
+      <c r="I293">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J293">
+        <v>2E-3</v>
+      </c>
+      <c r="K293">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L293">
+        <v>13.766</v>
+      </c>
+      <c r="M293">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>43</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D294">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E294">
+        <v>72.024000000000001</v>
+      </c>
+      <c r="F294">
+        <v>1665</v>
+      </c>
+      <c r="H294" t="s">
+        <v>43</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K294">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L294">
+        <v>70.311999999999998</v>
+      </c>
+      <c r="M294">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>19</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D295">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E295">
+        <v>57.682000000000002</v>
+      </c>
+      <c r="F295">
+        <v>916</v>
+      </c>
+      <c r="H295" t="s">
+        <v>19</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K295">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L295">
+        <v>46.485999999999997</v>
+      </c>
+      <c r="M295">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>20</v>
+      </c>
+      <c r="B296">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C296">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D296">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E296">
+        <v>13.005000000000001</v>
+      </c>
+      <c r="F296">
+        <v>1153</v>
+      </c>
+      <c r="H296" t="s">
+        <v>20</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K296">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L296">
+        <v>13.435</v>
+      </c>
+      <c r="M296">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>44</v>
+      </c>
+      <c r="B297">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C297">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D297">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E297">
+        <v>31.465</v>
+      </c>
+      <c r="F297">
+        <v>796</v>
+      </c>
+      <c r="H297" t="s">
+        <v>44</v>
+      </c>
+      <c r="I297">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J297">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K297">
+        <v>0.01</v>
+      </c>
+      <c r="L297">
+        <v>28.152999999999999</v>
+      </c>
+      <c r="M297">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>21</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D298">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E298">
+        <v>86.173000000000002</v>
+      </c>
+      <c r="F298">
+        <v>1399</v>
+      </c>
+      <c r="H298" t="s">
+        <v>21</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K298">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L298">
+        <v>82.655000000000001</v>
+      </c>
+      <c r="M298">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>22</v>
+      </c>
+      <c r="B299">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C299">
+        <v>0.02</v>
+      </c>
+      <c r="D299">
+        <v>0.03</v>
+      </c>
+      <c r="E299">
+        <v>24.754999999999999</v>
+      </c>
+      <c r="F299">
+        <v>468</v>
+      </c>
+      <c r="H299" t="s">
+        <v>22</v>
+      </c>
+      <c r="I299">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="J299">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K299">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L299">
+        <v>23.792999999999999</v>
+      </c>
+      <c r="M299">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D300">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E300">
+        <v>155.43600000000001</v>
+      </c>
+      <c r="F300">
+        <v>2471</v>
+      </c>
+      <c r="H300" t="s">
+        <v>23</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K300">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L300">
+        <v>156.69</v>
+      </c>
+      <c r="M300">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>24</v>
+      </c>
+      <c r="B301">
+        <v>1E-3</v>
+      </c>
+      <c r="C301">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D301">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E301">
+        <v>19.100999999999999</v>
+      </c>
+      <c r="F301">
+        <v>856</v>
+      </c>
+      <c r="H301" t="s">
+        <v>24</v>
+      </c>
+      <c r="I301">
+        <v>1E-3</v>
+      </c>
+      <c r="J301">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K301">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L301">
+        <v>18.919</v>
+      </c>
+      <c r="M301">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>25</v>
+      </c>
+      <c r="B302">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>55.944000000000003</v>
+      </c>
+      <c r="F302">
+        <v>704</v>
+      </c>
+      <c r="H302" t="s">
+        <v>25</v>
+      </c>
+      <c r="I302">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>55.186</v>
+      </c>
+      <c r="M302">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>45</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D303">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E303">
+        <v>62.055</v>
+      </c>
+      <c r="F303">
+        <v>857</v>
+      </c>
+      <c r="G303" t="s">
+        <v>106</v>
+      </c>
+      <c r="H303" t="s">
+        <v>45</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K303">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="L303">
+        <v>62.027000000000001</v>
+      </c>
+      <c r="M303">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>26</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D304">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E304">
+        <v>15.212999999999999</v>
+      </c>
+      <c r="F304">
+        <v>743</v>
+      </c>
+      <c r="H304" t="s">
+        <v>26</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K304">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L304">
+        <v>13.384</v>
+      </c>
+      <c r="M304">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>46</v>
+      </c>
+      <c r="B305">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C305">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D305">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E305">
+        <v>78.584999999999994</v>
+      </c>
+      <c r="F305">
+        <v>477</v>
+      </c>
+      <c r="H305" t="s">
+        <v>46</v>
+      </c>
+      <c r="I305">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J305">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K305">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L305">
+        <v>73.587000000000003</v>
+      </c>
+      <c r="M305">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>27</v>
+      </c>
+      <c r="B306">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>35.148000000000003</v>
+      </c>
+      <c r="F306">
+        <v>613</v>
+      </c>
+      <c r="H306" t="s">
+        <v>27</v>
+      </c>
+      <c r="I306">
+        <v>0.44</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>36.414000000000001</v>
+      </c>
+      <c r="M306">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>28</v>
+      </c>
+      <c r="B307">
+        <v>1E-3</v>
+      </c>
+      <c r="C307">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D307">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E307">
+        <v>55.118000000000002</v>
+      </c>
+      <c r="F307">
+        <v>1306</v>
+      </c>
+      <c r="H307" t="s">
+        <v>28</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K307">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L307">
+        <v>57.218000000000004</v>
+      </c>
+      <c r="M307">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>107</v>
+      </c>
+      <c r="H309" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H310" t="s">
+        <v>0</v>
+      </c>
+      <c r="I310" t="s">
+        <v>109</v>
+      </c>
+      <c r="J310" t="s">
+        <v>2</v>
+      </c>
+      <c r="K310" t="s">
+        <v>3</v>
+      </c>
+      <c r="L310" t="s">
+        <v>4</v>
+      </c>
+      <c r="M310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H311" t="s">
+        <v>6</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K311">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L311">
+        <v>23.129000000000001</v>
+      </c>
+      <c r="M311">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H312" t="s">
+        <v>7</v>
+      </c>
+      <c r="I312">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>18.824000000000002</v>
+      </c>
+      <c r="M312">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H313" t="s">
+        <v>8</v>
+      </c>
+      <c r="I313">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J313">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K313">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L313">
+        <v>26.407</v>
+      </c>
+      <c r="M313">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H314" t="s">
+        <v>9</v>
+      </c>
+      <c r="I314">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J314">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K314">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L314">
+        <v>59.298999999999999</v>
+      </c>
+      <c r="M314">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H315" t="s">
+        <v>10</v>
+      </c>
+      <c r="I315">
+        <v>0.104</v>
+      </c>
+      <c r="J315">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K315">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L315">
+        <v>47.637</v>
+      </c>
+      <c r="M315">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H316" t="s">
+        <v>41</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K316">
+        <v>0.04</v>
+      </c>
+      <c r="L316">
+        <v>100.072</v>
+      </c>
+      <c r="M316">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H317" t="s">
+        <v>11</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K317">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L317">
+        <v>52.860999999999997</v>
+      </c>
+      <c r="M317">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H318" t="s">
+        <v>12</v>
+      </c>
+      <c r="I318">
+        <v>0.44</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>16.835000000000001</v>
+      </c>
+      <c r="M318">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H319" t="s">
+        <v>13</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K319">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L319">
+        <v>13.433</v>
+      </c>
+      <c r="M319">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H320" t="s">
+        <v>14</v>
+      </c>
+      <c r="I320">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="J320">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K320">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L320">
+        <v>27.831</v>
+      </c>
+      <c r="M320">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="321" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H321" t="s">
+        <v>15</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K321">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L321">
+        <v>15.978999999999999</v>
+      </c>
+      <c r="M321">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="322" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H322" t="s">
+        <v>16</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K322">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L322">
+        <v>54.752000000000002</v>
+      </c>
+      <c r="M322">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="323" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H323" t="s">
+        <v>42</v>
+      </c>
+      <c r="I323">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="J323">
+        <v>2E-3</v>
+      </c>
+      <c r="K323">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L323">
+        <v>26.096</v>
+      </c>
+      <c r="M323">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="324" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H324" t="s">
+        <v>17</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K324">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L324">
+        <v>22.29</v>
+      </c>
+      <c r="M324">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="325" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H325" t="s">
+        <v>18</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K325">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L325">
+        <v>13.641999999999999</v>
+      </c>
+      <c r="M325">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="326" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H326" t="s">
+        <v>43</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K326">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="L326">
+        <v>69.63</v>
+      </c>
+      <c r="M326">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="327" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H327" t="s">
+        <v>19</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K327">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L327">
+        <v>46.506</v>
+      </c>
+      <c r="M327">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="328" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H328" t="s">
+        <v>20</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K328">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L328">
+        <v>13.333</v>
+      </c>
+      <c r="M328">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="329" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H329" t="s">
+        <v>44</v>
+      </c>
+      <c r="I329">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J329">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K329">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L329">
+        <v>26.89</v>
+      </c>
+      <c r="M329">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="330" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H330" t="s">
+        <v>21</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K330">
+        <v>0.04</v>
+      </c>
+      <c r="L330">
+        <v>81.230999999999995</v>
+      </c>
+      <c r="M330">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="331" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H331" t="s">
+        <v>22</v>
+      </c>
+      <c r="I331">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J331">
+        <v>0.02</v>
+      </c>
+      <c r="K331">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L331">
+        <v>23.225000000000001</v>
+      </c>
+      <c r="M331">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="332" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H332" t="s">
+        <v>23</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K332">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L332">
+        <v>154.727</v>
+      </c>
+      <c r="M332">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="333" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H333" t="s">
+        <v>24</v>
+      </c>
+      <c r="I333">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>19.22</v>
+      </c>
+      <c r="M333">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="334" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H334" t="s">
+        <v>25</v>
+      </c>
+      <c r="I334">
+        <v>0.125</v>
+      </c>
+      <c r="J334">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K334">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L334">
+        <v>54.81</v>
+      </c>
+      <c r="M334">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="335" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H335" t="s">
+        <v>45</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K335">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L335">
+        <v>63.441000000000003</v>
+      </c>
+      <c r="M335">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="336" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H336" t="s">
+        <v>26</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K336">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L336">
+        <v>13.5</v>
+      </c>
+      <c r="M336">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="337" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H337" t="s">
+        <v>46</v>
+      </c>
+      <c r="I337">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>74.575000000000003</v>
+      </c>
+      <c r="M337">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="338" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H338" t="s">
+        <v>27</v>
+      </c>
+      <c r="I338">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J338">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K338">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L338">
+        <v>36.012</v>
+      </c>
+      <c r="M338">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="339" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H339" t="s">
+        <v>28</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K339">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L339">
+        <v>55.139000000000003</v>
+      </c>
+      <c r="M339">
+        <v>3147</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D1:D116 D118:D1048576">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="B1:B116 B118:B1048576">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
-      <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
@@ -3814,11 +11001,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GAM_Summary_Fproxy_AvgCondStrat" sheetId="1" r:id="rId1"/>
+    <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
+    <sheet name="Mechanism GAMs" sheetId="3" r:id="rId2"/>
+    <sheet name="MechanismSummaryTable" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="132">
   <si>
     <t>Species</t>
   </si>
@@ -350,12 +352,78 @@
   <si>
     <t>AvgTempFall</t>
   </si>
+  <si>
+    <t>Plot wasn't produced</t>
+  </si>
+  <si>
+    <t>Average Temp Winter 2020</t>
+  </si>
+  <si>
+    <t>AvgTempWinter</t>
+  </si>
+  <si>
+    <t>Peak condition at -0.5</t>
+  </si>
+  <si>
+    <t>Possible peak around 0.75</t>
+  </si>
+  <si>
+    <t>GAM p-values for Environmental Variables</t>
+  </si>
+  <si>
+    <t>Local Density</t>
+  </si>
+  <si>
+    <t>Zooplankton</t>
+  </si>
+  <si>
+    <t>Temperature Anomaly</t>
+  </si>
+  <si>
+    <t>Average Stomach Fullness Strata Lag</t>
+  </si>
+  <si>
+    <t>Local Biomass Strata</t>
+  </si>
+  <si>
+    <t>Local Abundance Strata</t>
+  </si>
+  <si>
+    <t>Zooplankton Biomass Anomaly</t>
+  </si>
+  <si>
+    <t>Copepod Small/Large Ratio</t>
+  </si>
+  <si>
+    <t>Total Copepods Millions</t>
+  </si>
+  <si>
+    <t>Average Temp Spring</t>
+  </si>
+  <si>
+    <t>Average Temp Summer</t>
+  </si>
+  <si>
+    <t>Average Temp Fall</t>
+  </si>
+  <si>
+    <t>At least 1 stock with &lt;20 years of data</t>
+  </si>
+  <si>
+    <t>Unit or all stocks &lt;20 years of data</t>
+  </si>
+  <si>
+    <t>form.cond &lt;- formula(AvgRelCondStrata ~ s(AvgBottomTempStrata, k=10) +s(AvgExpcatchwtStrata, k=10) +s(TotalBiomass, k=10) +s(Fproxy, k=10) +s(CopepodSmallLarge, k=10) +s(AvgTempFall, k=10), data=condSPP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,8 +558,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,8 +752,44 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -787,6 +904,353 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -832,8 +1296,190 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1198,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M339"/>
+  <dimension ref="A1:M371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="F312" sqref="F312"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D351" sqref="D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1213,6 +1859,12 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1361,7 +2013,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B9">
@@ -1464,7 +2116,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B14">
@@ -1507,7 +2159,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="62" t="s">
         <v>19</v>
       </c>
       <c r="B16">
@@ -1527,7 +2179,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="62" t="s">
         <v>20</v>
       </c>
       <c r="B17">
@@ -1696,7 +2348,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="61" t="s">
         <v>28</v>
       </c>
       <c r="B25">
@@ -1841,7 +2493,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="A34" s="62" t="s">
         <v>11</v>
       </c>
       <c r="B34">
@@ -1861,7 +2513,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="A35" s="61" t="s">
         <v>12</v>
       </c>
       <c r="B35">
@@ -1964,7 +2616,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B40">
@@ -2007,7 +2659,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="A42" s="62" t="s">
         <v>19</v>
       </c>
       <c r="B42">
@@ -2027,7 +2679,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="62" t="s">
         <v>20</v>
       </c>
       <c r="B43">
@@ -2047,7 +2699,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="62" t="s">
         <v>21</v>
       </c>
       <c r="B44">
@@ -2193,7 +2845,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="A51" s="61" t="s">
         <v>28</v>
       </c>
       <c r="B51">
@@ -7137,6 +7789,9 @@
       <c r="F219">
         <v>510</v>
       </c>
+      <c r="G219" t="s">
+        <v>110</v>
+      </c>
       <c r="H219" t="s">
         <v>61</v>
       </c>
@@ -10382,6 +11037,24 @@
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>0</v>
+      </c>
+      <c r="B310" t="s">
+        <v>109</v>
+      </c>
+      <c r="C310" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>3</v>
+      </c>
+      <c r="E310" t="s">
+        <v>4</v>
+      </c>
+      <c r="F310" t="s">
+        <v>5</v>
+      </c>
       <c r="H310" t="s">
         <v>0</v>
       </c>
@@ -10402,6 +11075,24 @@
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311">
+        <v>1E-3</v>
+      </c>
+      <c r="C311">
+        <v>0.02</v>
+      </c>
+      <c r="D311">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E311">
+        <v>23.393000000000001</v>
+      </c>
+      <c r="F311">
+        <v>917</v>
+      </c>
       <c r="H311" t="s">
         <v>6</v>
       </c>
@@ -10422,6 +11113,24 @@
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>20.327999999999999</v>
+      </c>
+      <c r="F312">
+        <v>1591</v>
+      </c>
       <c r="H312" t="s">
         <v>7</v>
       </c>
@@ -10442,6 +11151,24 @@
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>8</v>
+      </c>
+      <c r="B313">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C313">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D313">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E313">
+        <v>28.539000000000001</v>
+      </c>
+      <c r="F313">
+        <v>881</v>
+      </c>
       <c r="H313" t="s">
         <v>8</v>
       </c>
@@ -10462,6 +11189,24 @@
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314">
+        <v>0.08</v>
+      </c>
+      <c r="C314">
+        <v>2E-3</v>
+      </c>
+      <c r="D314">
+        <v>2E-3</v>
+      </c>
+      <c r="E314">
+        <v>62.173999999999999</v>
+      </c>
+      <c r="F314">
+        <v>1652</v>
+      </c>
       <c r="H314" t="s">
         <v>9</v>
       </c>
@@ -10482,6 +11227,24 @@
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C315">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D315">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E315">
+        <v>49.307000000000002</v>
+      </c>
+      <c r="F315">
+        <v>548</v>
+      </c>
       <c r="H315" t="s">
         <v>10</v>
       </c>
@@ -10502,6 +11265,24 @@
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>41</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D316">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E316">
+        <v>87.027000000000001</v>
+      </c>
+      <c r="F316">
+        <v>1177</v>
+      </c>
       <c r="H316" t="s">
         <v>41</v>
       </c>
@@ -10522,6 +11303,24 @@
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>11</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D317">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E317">
+        <v>54.828000000000003</v>
+      </c>
+      <c r="F317">
+        <v>2329</v>
+      </c>
       <c r="H317" t="s">
         <v>11</v>
       </c>
@@ -10542,6 +11341,24 @@
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>16.474</v>
+      </c>
+      <c r="F318">
+        <v>954</v>
+      </c>
       <c r="H318" t="s">
         <v>12</v>
       </c>
@@ -10562,6 +11379,24 @@
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D319">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E319">
+        <v>15.022</v>
+      </c>
+      <c r="F319">
+        <v>1180</v>
+      </c>
       <c r="H319" t="s">
         <v>13</v>
       </c>
@@ -10582,6 +11417,24 @@
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>25.187000000000001</v>
+      </c>
+      <c r="F320">
+        <v>597</v>
+      </c>
       <c r="H320" t="s">
         <v>14</v>
       </c>
@@ -10601,7 +11454,25 @@
         <v>710</v>
       </c>
     </row>
-    <row r="321" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>15</v>
+      </c>
+      <c r="B321">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C321">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D321">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E321">
+        <v>17.475000000000001</v>
+      </c>
+      <c r="F321">
+        <v>1041</v>
+      </c>
       <c r="H321" t="s">
         <v>15</v>
       </c>
@@ -10621,7 +11492,25 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="322" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>16</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D322">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E322">
+        <v>59.515000000000001</v>
+      </c>
+      <c r="F322">
+        <v>1793</v>
+      </c>
       <c r="H322" t="s">
         <v>16</v>
       </c>
@@ -10641,7 +11530,25 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="323" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>42</v>
+      </c>
+      <c r="B323">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="C323">
+        <v>1E-3</v>
+      </c>
+      <c r="D323">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E323">
+        <v>26.393000000000001</v>
+      </c>
+      <c r="F323">
+        <v>1621</v>
+      </c>
       <c r="H323" t="s">
         <v>42</v>
       </c>
@@ -10661,7 +11568,25 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="324" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>17</v>
+      </c>
+      <c r="B324">
+        <v>0.02</v>
+      </c>
+      <c r="C324">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D324">
+        <v>0.02</v>
+      </c>
+      <c r="E324">
+        <v>23.841000000000001</v>
+      </c>
+      <c r="F324">
+        <v>958</v>
+      </c>
       <c r="H324" t="s">
         <v>17</v>
       </c>
@@ -10681,7 +11606,25 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="325" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>18</v>
+      </c>
+      <c r="B325">
+        <v>1E-3</v>
+      </c>
+      <c r="C325">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D325">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E325">
+        <v>13.972</v>
+      </c>
+      <c r="F325">
+        <v>1465</v>
+      </c>
       <c r="H325" t="s">
         <v>18</v>
       </c>
@@ -10701,7 +11644,25 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="326" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>43</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D326">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E326">
+        <v>71.477999999999994</v>
+      </c>
+      <c r="F326">
+        <v>1680</v>
+      </c>
       <c r="H326" t="s">
         <v>43</v>
       </c>
@@ -10721,7 +11682,25 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="327" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>19</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D327">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E327">
+        <v>57.759</v>
+      </c>
+      <c r="F327">
+        <v>945</v>
+      </c>
       <c r="H327" t="s">
         <v>19</v>
       </c>
@@ -10741,7 +11720,25 @@
         <v>3817</v>
       </c>
     </row>
-    <row r="328" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>20</v>
+      </c>
+      <c r="B328">
+        <v>2E-3</v>
+      </c>
+      <c r="C328">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D328">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E328">
+        <v>12.904999999999999</v>
+      </c>
+      <c r="F328">
+        <v>1194</v>
+      </c>
       <c r="H328" t="s">
         <v>20</v>
       </c>
@@ -10761,7 +11758,25 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="329" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>44</v>
+      </c>
+      <c r="B329">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C329">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D329">
+        <v>0.02</v>
+      </c>
+      <c r="E329">
+        <v>29.981999999999999</v>
+      </c>
+      <c r="F329">
+        <v>853</v>
+      </c>
       <c r="H329" t="s">
         <v>44</v>
       </c>
@@ -10781,7 +11796,25 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="330" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>21</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>0.04</v>
+      </c>
+      <c r="D330">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E330">
+        <v>84.358000000000004</v>
+      </c>
+      <c r="F330">
+        <v>1412</v>
+      </c>
       <c r="H330" t="s">
         <v>21</v>
       </c>
@@ -10801,7 +11834,25 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="331" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>22</v>
+      </c>
+      <c r="B331">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C331">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D331">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E331">
+        <v>24.507000000000001</v>
+      </c>
+      <c r="F331">
+        <v>489</v>
+      </c>
       <c r="H331" t="s">
         <v>22</v>
       </c>
@@ -10821,7 +11872,25 @@
         <v>535</v>
       </c>
     </row>
-    <row r="332" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>23</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D332">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E332">
+        <v>153.708</v>
+      </c>
+      <c r="F332">
+        <v>2491</v>
+      </c>
       <c r="H332" t="s">
         <v>23</v>
       </c>
@@ -10841,7 +11910,25 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="333" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>24</v>
+      </c>
+      <c r="B333">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F333">
+        <v>856</v>
+      </c>
       <c r="H333" t="s">
         <v>24</v>
       </c>
@@ -10861,7 +11948,25 @@
         <v>867</v>
       </c>
     </row>
-    <row r="334" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>25</v>
+      </c>
+      <c r="B334">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C334">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D334">
+        <v>0.01</v>
+      </c>
+      <c r="E334">
+        <v>55.82</v>
+      </c>
+      <c r="F334">
+        <v>704</v>
+      </c>
       <c r="H334" t="s">
         <v>25</v>
       </c>
@@ -10881,7 +11986,28 @@
         <v>777</v>
       </c>
     </row>
-    <row r="335" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>45</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D335">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E335">
+        <v>63.42</v>
+      </c>
+      <c r="F335">
+        <v>857</v>
+      </c>
+      <c r="G335" t="s">
+        <v>48</v>
+      </c>
       <c r="H335" t="s">
         <v>45</v>
       </c>
@@ -10901,7 +12027,25 @@
         <v>858</v>
       </c>
     </row>
-    <row r="336" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>26</v>
+      </c>
+      <c r="B336">
+        <v>1E-3</v>
+      </c>
+      <c r="C336">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D336">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E336">
+        <v>15.478999999999999</v>
+      </c>
+      <c r="F336">
+        <v>803</v>
+      </c>
       <c r="H336" t="s">
         <v>26</v>
       </c>
@@ -10921,7 +12065,25 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="337" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>46</v>
+      </c>
+      <c r="B337">
+        <v>0.624</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>79.507999999999996</v>
+      </c>
+      <c r="F337">
+        <v>477</v>
+      </c>
       <c r="H337" t="s">
         <v>46</v>
       </c>
@@ -10941,7 +12103,25 @@
         <v>554</v>
       </c>
     </row>
-    <row r="338" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>27</v>
+      </c>
+      <c r="B338">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C338">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D338">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E338">
+        <v>34.764000000000003</v>
+      </c>
+      <c r="F338">
+        <v>631</v>
+      </c>
       <c r="H338" t="s">
         <v>27</v>
       </c>
@@ -10961,7 +12141,25 @@
         <v>705</v>
       </c>
     </row>
-    <row r="339" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>28</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D339">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E339">
+        <v>53.372</v>
+      </c>
+      <c r="F339">
+        <v>1385</v>
+      </c>
       <c r="H339" t="s">
         <v>28</v>
       </c>
@@ -10979,6 +12177,617 @@
       </c>
       <c r="M339">
         <v>3147</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>0</v>
+      </c>
+      <c r="B342" t="s">
+        <v>112</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2</v>
+      </c>
+      <c r="D342" t="s">
+        <v>3</v>
+      </c>
+      <c r="E342" t="s">
+        <v>4</v>
+      </c>
+      <c r="F342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>6</v>
+      </c>
+      <c r="B343">
+        <v>1E-3</v>
+      </c>
+      <c r="C343">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D343">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E343">
+        <v>22.885000000000002</v>
+      </c>
+      <c r="F343">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344">
+        <v>1E-3</v>
+      </c>
+      <c r="C344">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D344">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E344">
+        <v>20.254999999999999</v>
+      </c>
+      <c r="F344">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>8</v>
+      </c>
+      <c r="B345">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C345">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D345">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E345">
+        <v>28.390999999999998</v>
+      </c>
+      <c r="F345">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C346">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D346">
+        <v>0.01</v>
+      </c>
+      <c r="E346">
+        <v>61.853000000000002</v>
+      </c>
+      <c r="F346">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="C347">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D347">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E347">
+        <v>48.901000000000003</v>
+      </c>
+      <c r="F347">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>41</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D348">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E348">
+        <v>90.183000000000007</v>
+      </c>
+      <c r="F348">
+        <v>972</v>
+      </c>
+      <c r="G348" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>11</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D349">
+        <v>0.02</v>
+      </c>
+      <c r="E349">
+        <v>54.712000000000003</v>
+      </c>
+      <c r="F349">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>12</v>
+      </c>
+      <c r="B350">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C350">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D350">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E350">
+        <v>16.14</v>
+      </c>
+      <c r="F350">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D351">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E351">
+        <v>15.78</v>
+      </c>
+      <c r="F351">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>14</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>24.568000000000001</v>
+      </c>
+      <c r="F352">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>15</v>
+      </c>
+      <c r="B353">
+        <v>1E-3</v>
+      </c>
+      <c r="C353">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D353">
+        <v>0.03</v>
+      </c>
+      <c r="E353">
+        <v>17.577000000000002</v>
+      </c>
+      <c r="F353">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>16</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D354">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E354">
+        <v>62.203000000000003</v>
+      </c>
+      <c r="F354">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>42</v>
+      </c>
+      <c r="B355">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C355">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D355">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E355">
+        <v>26.263000000000002</v>
+      </c>
+      <c r="F355">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>17</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D356">
+        <v>0.03</v>
+      </c>
+      <c r="E356">
+        <v>25.218</v>
+      </c>
+      <c r="F356">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>18</v>
+      </c>
+      <c r="B357">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>13.949</v>
+      </c>
+      <c r="F357">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>43</v>
+      </c>
+      <c r="B358">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C358">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D358">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E358">
+        <v>71.382000000000005</v>
+      </c>
+      <c r="F358">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>19</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D359">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E359">
+        <v>55.494999999999997</v>
+      </c>
+      <c r="F359">
+        <v>817</v>
+      </c>
+      <c r="G359" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>20</v>
+      </c>
+      <c r="B360">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C360">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D360">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E360">
+        <v>13.103</v>
+      </c>
+      <c r="F360">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>44</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D361">
+        <v>0.04</v>
+      </c>
+      <c r="E361">
+        <v>32.497999999999998</v>
+      </c>
+      <c r="F361">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>21</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0.02</v>
+      </c>
+      <c r="D362">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E362">
+        <v>87.542000000000002</v>
+      </c>
+      <c r="F362">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>22</v>
+      </c>
+      <c r="B363">
+        <v>0.24</v>
+      </c>
+      <c r="C363">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D363">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E363">
+        <v>23.725999999999999</v>
+      </c>
+      <c r="F363">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>23</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D364">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E364">
+        <v>156.83699999999999</v>
+      </c>
+      <c r="F364">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>24</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D365">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E365">
+        <v>18.861999999999998</v>
+      </c>
+      <c r="F365">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>25</v>
+      </c>
+      <c r="B366">
+        <v>1E-3</v>
+      </c>
+      <c r="C366">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D366">
+        <v>0.02</v>
+      </c>
+      <c r="E366">
+        <v>54.966999999999999</v>
+      </c>
+      <c r="F366">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>45</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D367">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E367">
+        <v>64.676000000000002</v>
+      </c>
+      <c r="F367">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>26</v>
+      </c>
+      <c r="B368">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C368">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D368">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E368">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="F368">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>46</v>
+      </c>
+      <c r="B369">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>78.387</v>
+      </c>
+      <c r="F369">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>27</v>
+      </c>
+      <c r="B370">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C370">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D370">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E370">
+        <v>34.905000000000001</v>
+      </c>
+      <c r="F370">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>28</v>
+      </c>
+      <c r="B371">
+        <v>0.128</v>
+      </c>
+      <c r="C371">
+        <v>1E-3</v>
+      </c>
+      <c r="D371">
+        <v>2E-3</v>
+      </c>
+      <c r="E371">
+        <v>56.68</v>
+      </c>
+      <c r="F371">
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -11011,4 +12820,1486 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
+    <col min="19" max="19" width="9.90625" customWidth="1"/>
+    <col min="20" max="20" width="11.08984375" customWidth="1"/>
+    <col min="21" max="21" width="9.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="O1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U3" s="10"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="46"/>
+      <c r="O5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="20">
+        <v>0.16</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="R5" s="22">
+        <v>0</v>
+      </c>
+      <c r="S5" s="23"/>
+      <c r="T5" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="U5" s="25"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="26">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="27">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="O6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="29">
+        <v>2E-3</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R6" s="31">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="S6" s="32"/>
+      <c r="T6" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="U6" s="34"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33">
+        <v>0</v>
+      </c>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="O7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="29">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R7" s="31">
+        <v>0.11</v>
+      </c>
+      <c r="S7" s="32"/>
+      <c r="T7" s="33">
+        <v>0</v>
+      </c>
+      <c r="U7" s="34"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="29">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>0.13</v>
+      </c>
+      <c r="R8" s="31">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="S8" s="32"/>
+      <c r="T8" s="33">
+        <v>0</v>
+      </c>
+      <c r="U8" s="34"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="29">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="O9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="35">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R9" s="31">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="S9" s="32"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="41">
+        <v>0.04</v>
+      </c>
+      <c r="V9" s="32"/>
+      <c r="W9" s="36">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="29">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="O10" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>0.38</v>
+      </c>
+      <c r="R10" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="V10" s="32"/>
+      <c r="W10" s="36">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="29">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="O11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="R11" s="42">
+        <v>0</v>
+      </c>
+      <c r="S11" s="32"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37">
+        <v>0</v>
+      </c>
+      <c r="V11" s="32"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="29">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="O12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="35">
+        <v>0.187</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R12" s="31">
+        <v>0.621</v>
+      </c>
+      <c r="S12" s="32"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="41">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="V12" s="32"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="41">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="29">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="O13" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="R13" s="42">
+        <v>0</v>
+      </c>
+      <c r="S13" s="32"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="40">
+        <v>0</v>
+      </c>
+      <c r="W13" s="36"/>
+      <c r="X13" s="41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="35">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="O14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>2E-3</v>
+      </c>
+      <c r="R14" s="31">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="S14" s="32"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="32">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="W14" s="36"/>
+      <c r="X14" s="41">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="29">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="53"/>
+      <c r="O15" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="43">
+        <v>0</v>
+      </c>
+      <c r="R15" s="31">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="S15" s="32"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="40">
+        <v>0</v>
+      </c>
+      <c r="W15" s="36"/>
+      <c r="X15" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="29">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
+      <c r="O16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R16" s="31">
+        <v>0.307</v>
+      </c>
+      <c r="S16" s="32"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="40">
+        <v>0</v>
+      </c>
+      <c r="W16" s="33">
+        <v>0</v>
+      </c>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="29">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A17" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
+      <c r="O17" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="35">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="31">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="S17" s="32"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="W17" s="45">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="29">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
+      <c r="O18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="35">
+        <v>0.753</v>
+      </c>
+      <c r="Q18" s="39">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="R18" s="42">
+        <v>0</v>
+      </c>
+      <c r="S18" s="32"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="32">
+        <v>9.4E-2</v>
+      </c>
+      <c r="W18" s="36"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="32">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="29">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="53"/>
+      <c r="O19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="R19" s="31"/>
+      <c r="S19" s="44">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T19" s="33">
+        <v>0</v>
+      </c>
+      <c r="U19" s="34"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="29">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="O20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="R20" s="31"/>
+      <c r="S20" s="32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T20" s="45">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="U20" s="34"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="29">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="53"/>
+      <c r="O21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="32">
+        <v>0.158</v>
+      </c>
+      <c r="T21" s="33">
+        <v>0</v>
+      </c>
+      <c r="U21" s="34"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="35">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
+      <c r="O22" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="P22" s="35">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>0.996</v>
+      </c>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32">
+        <v>0.161</v>
+      </c>
+      <c r="T22" s="36"/>
+      <c r="U22" s="37">
+        <v>0</v>
+      </c>
+      <c r="V22" s="32"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="32">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="53"/>
+      <c r="O23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="35">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="Q23" s="39">
+        <v>0.113</v>
+      </c>
+      <c r="R23" s="31"/>
+      <c r="S23" s="44">
+        <v>2.3E-2</v>
+      </c>
+      <c r="T23" s="36"/>
+      <c r="U23" s="41">
+        <v>1.4E-2</v>
+      </c>
+      <c r="V23" s="32"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="29">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
+      <c r="O24" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="39">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="R24" s="31"/>
+      <c r="S24" s="44">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="T24" s="36"/>
+      <c r="U24" s="37">
+        <v>0</v>
+      </c>
+      <c r="V24" s="32"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="53"/>
+      <c r="O25" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="39">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="R25" s="31"/>
+      <c r="S25" s="32">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="T25" s="36"/>
+      <c r="U25" s="37">
+        <v>0</v>
+      </c>
+      <c r="V25" s="32"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="29">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+      <c r="O26" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="32">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="T26" s="36"/>
+      <c r="U26" s="37">
+        <v>0</v>
+      </c>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33">
+        <v>0</v>
+      </c>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="35">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
+      <c r="O27" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="40">
+        <v>0</v>
+      </c>
+      <c r="T27" s="36"/>
+      <c r="U27" s="37">
+        <v>0</v>
+      </c>
+      <c r="V27" s="32"/>
+      <c r="W27" s="33">
+        <v>0</v>
+      </c>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="29">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="53"/>
+      <c r="O28" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="38">
+        <v>1E-3</v>
+      </c>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="40">
+        <v>0</v>
+      </c>
+      <c r="T28" s="36"/>
+      <c r="U28" s="37">
+        <v>0</v>
+      </c>
+      <c r="V28" s="32"/>
+      <c r="W28" s="33">
+        <v>0</v>
+      </c>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="35">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="53"/>
+      <c r="O29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="35">
+        <v>0.69</v>
+      </c>
+      <c r="Q29" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="R29" s="31"/>
+      <c r="S29" s="44">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T29" s="36"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="40">
+        <v>0</v>
+      </c>
+      <c r="W29" s="33">
+        <v>0</v>
+      </c>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="29">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="53"/>
+      <c r="O30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P30" s="35">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="R30" s="31"/>
+      <c r="S30" s="32">
+        <v>0.436</v>
+      </c>
+      <c r="T30" s="36"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="44">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W30" s="36">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="53"/>
+      <c r="O31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="39">
+        <v>0.38</v>
+      </c>
+      <c r="R31" s="31"/>
+      <c r="S31" s="44">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T31" s="36"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="40">
+        <v>0</v>
+      </c>
+      <c r="W31" s="36"/>
+      <c r="X31" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="29">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="53"/>
+      <c r="O32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>0.214</v>
+      </c>
+      <c r="R32" s="31"/>
+      <c r="S32" s="44">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T32" s="36"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="40">
+        <v>0</v>
+      </c>
+      <c r="W32" s="36"/>
+      <c r="X32" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="29">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="53"/>
+      <c r="O33" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="35">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="Q33" s="30">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R33" s="31"/>
+      <c r="S33" s="32">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="T33" s="36"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="44">
+        <v>0.02</v>
+      </c>
+      <c r="W33" s="36"/>
+      <c r="X33" s="41">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="29">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="P2:Y2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="Q3:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="132">
   <si>
     <t>Species</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>2020 Local Biomass</t>
-  </si>
-  <si>
-    <t>Local abundance</t>
   </si>
   <si>
     <t>Condition increased with biomass and then may decrease slightly at highest densities</t>
@@ -416,7 +413,10 @@
     <t>form.cond &lt;- formula(AvgRelCondStrata ~ s(AvgBottomTempStrata, k=10) +s(AvgExpcatchwtStrata, k=10) +s(TotalBiomass, k=10) +s(Fproxy, k=10) +s(CopepodSmallLarge, k=10) +s(AvgTempFall, k=10), data=condSPP)</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
+    <t>2020 Local abundance</t>
+  </si>
+  <si>
+    <t>2019 Local abundance</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1251,6 +1251,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1296,19 +1412,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1317,15 +1424,6 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,9 +1534,6 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1472,14 +1567,62 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1525,7 +1668,49 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1846,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D351" sqref="D351"/>
+    <sheetView topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1859,11 +2044,11 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>128</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2013,7 +2198,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B9">
@@ -2116,7 +2301,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B14">
@@ -2159,7 +2344,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="53" t="s">
         <v>19</v>
       </c>
       <c r="B16">
@@ -2179,7 +2364,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B17">
@@ -2348,7 +2533,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B25">
@@ -2493,7 +2678,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B34">
@@ -2513,7 +2698,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B35">
@@ -2616,7 +2801,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B40">
@@ -2659,7 +2844,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="53" t="s">
         <v>19</v>
       </c>
       <c r="B42">
@@ -2679,7 +2864,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B43">
@@ -2699,7 +2884,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="53" t="s">
         <v>21</v>
       </c>
       <c r="B44">
@@ -2801,7 +2986,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -2824,7 +3009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -2844,8 +3029,8 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="61" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B51">
@@ -2864,12 +3049,15 @@
         <v>659</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="H53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -2888,8 +3076,26 @@
       <c r="F54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2908,8 +3114,26 @@
       <c r="F55">
         <v>917</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J55">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K55">
+        <v>0.01</v>
+      </c>
+      <c r="L55">
+        <v>23.375</v>
+      </c>
+      <c r="M55">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2928,8 +3152,26 @@
       <c r="F56">
         <v>1590</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H56" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K56">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L56">
+        <v>18.666</v>
+      </c>
+      <c r="M56">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2948,8 +3190,26 @@
       <c r="F57">
         <v>881</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H57" t="s">
+        <v>58</v>
+      </c>
+      <c r="I57">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>26.536000000000001</v>
+      </c>
+      <c r="M57">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2968,8 +3228,26 @@
       <c r="F58">
         <v>1652</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58">
+        <v>0.182</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1E-3</v>
+      </c>
+      <c r="L58">
+        <v>59.37</v>
+      </c>
+      <c r="M58">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2988,8 +3266,26 @@
       <c r="F59">
         <v>548</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>60</v>
+      </c>
+      <c r="I59">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J59">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K59">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L59">
+        <v>47.716999999999999</v>
+      </c>
+      <c r="M59">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -3008,8 +3304,26 @@
       <c r="F60">
         <v>1177</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60" t="s">
+        <v>61</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K60">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="L60">
+        <v>95.646000000000001</v>
+      </c>
+      <c r="M60">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -3028,8 +3342,26 @@
       <c r="F61">
         <v>4436</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61">
+        <v>1E-3</v>
+      </c>
+      <c r="J61">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K61">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L61">
+        <v>53.750999999999998</v>
+      </c>
+      <c r="M61">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -3048,8 +3380,26 @@
       <c r="F62">
         <v>1305</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H62" t="s">
+        <v>63</v>
+      </c>
+      <c r="I62">
+        <v>0.17</v>
+      </c>
+      <c r="J62">
+        <v>1E-3</v>
+      </c>
+      <c r="K62">
+        <v>1E-3</v>
+      </c>
+      <c r="L62">
+        <v>17.236999999999998</v>
+      </c>
+      <c r="M62">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3068,8 +3418,26 @@
       <c r="F63">
         <v>2221</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>13.555999999999999</v>
+      </c>
+      <c r="M63">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3088,8 +3456,26 @@
       <c r="F64">
         <v>597</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>27.789000000000001</v>
+      </c>
+      <c r="M64">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -3108,8 +3494,26 @@
       <c r="F65">
         <v>1041</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J65">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K65">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L65">
+        <v>16.120999999999999</v>
+      </c>
+      <c r="M65">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -3128,8 +3532,26 @@
       <c r="F66">
         <v>3437</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H66" t="s">
+        <v>65</v>
+      </c>
+      <c r="I66">
+        <v>2E-3</v>
+      </c>
+      <c r="J66">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K66">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L66">
+        <v>55.545000000000002</v>
+      </c>
+      <c r="M66">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -3148,8 +3570,26 @@
       <c r="F67">
         <v>1621</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="K67">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L67">
+        <v>25.454000000000001</v>
+      </c>
+      <c r="M67">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -3168,8 +3608,26 @@
       <c r="F68">
         <v>958</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H68" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K68">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L68">
+        <v>22.251999999999999</v>
+      </c>
+      <c r="M68">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -3188,8 +3646,26 @@
       <c r="F69">
         <v>1465</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69">
+        <v>0.104</v>
+      </c>
+      <c r="J69">
+        <v>2E-3</v>
+      </c>
+      <c r="K69">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L69">
+        <v>13.779</v>
+      </c>
+      <c r="M69">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -3208,8 +3684,26 @@
       <c r="F70">
         <v>1680</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H70" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K70">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L70">
+        <v>70.722999999999999</v>
+      </c>
+      <c r="M70">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -3228,8 +3722,26 @@
       <c r="F71">
         <v>2705</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H71" t="s">
+        <v>69</v>
+      </c>
+      <c r="I71">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J71">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L71">
+        <v>47.277000000000001</v>
+      </c>
+      <c r="M71">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -3248,8 +3760,26 @@
       <c r="F72">
         <v>2661</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K72">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L72">
+        <v>13.647</v>
+      </c>
+      <c r="M72">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -3268,8 +3798,26 @@
       <c r="F73">
         <v>853</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>0.114</v>
+      </c>
+      <c r="J73">
+        <v>1E-3</v>
+      </c>
+      <c r="K73">
+        <v>2E-3</v>
+      </c>
+      <c r="L73">
+        <v>27.079000000000001</v>
+      </c>
+      <c r="M73">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -3288,8 +3836,26 @@
       <c r="F74">
         <v>2718</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H74" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K74">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L74">
+        <v>79.528999999999996</v>
+      </c>
+      <c r="M74">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -3308,8 +3874,26 @@
       <c r="F75">
         <v>489</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>23.489000000000001</v>
+      </c>
+      <c r="M75">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -3328,8 +3912,26 @@
       <c r="F76">
         <v>2491</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J76">
+        <v>2E-3</v>
+      </c>
+      <c r="K76">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L76">
+        <v>157.81399999999999</v>
+      </c>
+      <c r="M76">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -3348,8 +3950,26 @@
       <c r="F77">
         <v>856</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H77" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77">
+        <v>2E-3</v>
+      </c>
+      <c r="J77">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K77">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="L77">
+        <v>19.02</v>
+      </c>
+      <c r="M77">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -3368,8 +3988,26 @@
       <c r="F78">
         <v>704</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I78">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>54.875999999999998</v>
+      </c>
+      <c r="M78">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -3391,8 +4029,26 @@
       <c r="G79" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H79" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K79">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L79">
+        <v>60.649000000000001</v>
+      </c>
+      <c r="M79">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -3410,6 +4066,24 @@
       </c>
       <c r="F80">
         <v>803</v>
+      </c>
+      <c r="H80" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K80">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L80">
+        <v>13.612</v>
+      </c>
+      <c r="M80">
+        <v>1053</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -3431,6 +4105,24 @@
       <c r="F81">
         <v>477</v>
       </c>
+      <c r="H81" t="s">
+        <v>76</v>
+      </c>
+      <c r="I81">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J81">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K81">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L81">
+        <v>74.388999999999996</v>
+      </c>
+      <c r="M81">
+        <v>554</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -3451,6 +4143,24 @@
       <c r="F82">
         <v>631</v>
       </c>
+      <c r="H82" t="s">
+        <v>77</v>
+      </c>
+      <c r="I82">
+        <v>0.105</v>
+      </c>
+      <c r="J82">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K82">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L82">
+        <v>36.082000000000001</v>
+      </c>
+      <c r="M82">
+        <v>705</v>
+      </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -3471,6 +4181,24 @@
       <c r="F83">
         <v>2697</v>
       </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J83">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K83">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L83">
+        <v>54.857999999999997</v>
+      </c>
+      <c r="M83">
+        <v>1616</v>
+      </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -3690,7 +4418,7 @@
         <v>548</v>
       </c>
       <c r="G91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H91" t="s">
         <v>10</v>
@@ -4625,10 +5353,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>54</v>
+      </c>
+      <c r="H117" t="s">
         <v>55</v>
-      </c>
-      <c r="H117" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
@@ -4636,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -4654,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J118" t="s">
         <v>2</v>
@@ -4689,7 +5417,7 @@
         <v>866</v>
       </c>
       <c r="H119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I119">
         <v>6.5000000000000002E-2</v>
@@ -4727,7 +5455,7 @@
         <v>1363</v>
       </c>
       <c r="H120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I120">
         <v>1.4999999999999999E-2</v>
@@ -4765,7 +5493,7 @@
         <v>811</v>
       </c>
       <c r="H121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I121">
         <v>1E-3</v>
@@ -4803,7 +5531,7 @@
         <v>1490</v>
       </c>
       <c r="H122" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I122">
         <v>2.8000000000000001E-2</v>
@@ -4841,7 +5569,7 @@
         <v>494</v>
       </c>
       <c r="H123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I123">
         <v>2E-3</v>
@@ -4879,7 +5607,7 @@
         <v>940</v>
       </c>
       <c r="H124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I124">
         <v>1E-3</v>
@@ -4917,7 +5645,7 @@
         <v>1889</v>
       </c>
       <c r="H125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -4955,7 +5683,7 @@
         <v>826</v>
       </c>
       <c r="H126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5069,7 +5797,7 @@
         <v>811</v>
       </c>
       <c r="H129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5107,10 +5835,10 @@
         <v>1469</v>
       </c>
       <c r="G130" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H130" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -5148,7 +5876,7 @@
         <v>1437</v>
       </c>
       <c r="H131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I131">
         <v>1.2999999999999999E-2</v>
@@ -5186,7 +5914,7 @@
         <v>750</v>
       </c>
       <c r="H132" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I132">
         <v>0.14799999999999999</v>
@@ -5224,7 +5952,7 @@
         <v>1346</v>
       </c>
       <c r="H133" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -5262,7 +5990,7 @@
         <v>1461</v>
       </c>
       <c r="G134" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H134" t="s">
         <v>43</v>
@@ -5303,7 +6031,7 @@
         <v>845</v>
       </c>
       <c r="H135" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I135">
         <v>0.249</v>
@@ -5341,7 +6069,7 @@
         <v>1055</v>
       </c>
       <c r="H136" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I136">
         <v>8.5999999999999993E-2</v>
@@ -5379,7 +6107,7 @@
         <v>696</v>
       </c>
       <c r="H137" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -5417,10 +6145,10 @@
         <v>1298</v>
       </c>
       <c r="G138" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H138" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -5458,7 +6186,7 @@
         <v>438</v>
       </c>
       <c r="H139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I139">
         <v>2.8000000000000001E-2</v>
@@ -5534,7 +6262,7 @@
         <v>803</v>
       </c>
       <c r="G141" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H141" t="s">
         <v>24</v>
@@ -5575,7 +6303,7 @@
         <v>652</v>
       </c>
       <c r="H142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I142">
         <v>0.72799999999999998</v>
@@ -5613,7 +6341,7 @@
         <v>779</v>
       </c>
       <c r="G143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H143" t="s">
         <v>45</v>
@@ -5654,7 +6382,7 @@
         <v>602</v>
       </c>
       <c r="H144" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I144">
         <v>1.9E-2</v>
@@ -5692,7 +6420,7 @@
         <v>421</v>
       </c>
       <c r="H145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I145">
         <v>0.629</v>
@@ -5730,7 +6458,7 @@
         <v>559</v>
       </c>
       <c r="H146" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I146">
         <v>8.4000000000000005E-2</v>
@@ -5788,10 +6516,10 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
+        <v>83</v>
+      </c>
+      <c r="H149" t="s">
         <v>84</v>
-      </c>
-      <c r="H149" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
@@ -5799,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -5817,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J150" t="s">
         <v>2</v>
@@ -6004,7 +6732,7 @@
         <v>362</v>
       </c>
       <c r="G155" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H155" t="s">
         <v>10</v>
@@ -6045,7 +6773,7 @@
         <v>857</v>
       </c>
       <c r="G156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H156" t="s">
         <v>41</v>
@@ -6776,7 +7504,7 @@
         <v>831</v>
       </c>
       <c r="G175" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H175" t="s">
         <v>45</v>
@@ -6951,10 +7679,10 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
+        <v>89</v>
+      </c>
+      <c r="H181" t="s">
         <v>90</v>
-      </c>
-      <c r="H181" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
@@ -6962,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -7157,7 +7885,7 @@
         <v>1085</v>
       </c>
       <c r="G191" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
@@ -7260,7 +7988,7 @@
         <v>901</v>
       </c>
       <c r="G196" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -7323,7 +8051,7 @@
         <v>893</v>
       </c>
       <c r="G199" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -7366,7 +8094,7 @@
         <v>797</v>
       </c>
       <c r="G201" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -7489,7 +8217,7 @@
         <v>798</v>
       </c>
       <c r="G207" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -7574,10 +8302,10 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>92</v>
+      </c>
+      <c r="H213" t="s">
         <v>93</v>
-      </c>
-      <c r="H213" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.35">
@@ -7585,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -7603,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J214" t="s">
         <v>2</v>
@@ -7638,7 +8366,7 @@
         <v>859</v>
       </c>
       <c r="H215" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I215">
         <v>3.0000000000000001E-3</v>
@@ -7676,7 +8404,7 @@
         <v>1502</v>
       </c>
       <c r="H216" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I216">
         <v>0.32900000000000001</v>
@@ -7714,7 +8442,7 @@
         <v>815</v>
       </c>
       <c r="H217" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I217">
         <v>3.0000000000000001E-3</v>
@@ -7752,7 +8480,7 @@
         <v>1530</v>
       </c>
       <c r="H218" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -7790,10 +8518,10 @@
         <v>510</v>
       </c>
       <c r="G219" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H219" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -7831,7 +8559,7 @@
         <v>1104</v>
       </c>
       <c r="H220" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -7869,7 +8597,7 @@
         <v>2156</v>
       </c>
       <c r="H221" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -7907,7 +8635,7 @@
         <v>915</v>
       </c>
       <c r="H222" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I222">
         <v>2E-3</v>
@@ -8021,7 +8749,7 @@
         <v>960</v>
       </c>
       <c r="H225" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I225">
         <v>3.1E-2</v>
@@ -8059,7 +8787,7 @@
         <v>1644</v>
       </c>
       <c r="H226" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -8097,7 +8825,7 @@
         <v>1471</v>
       </c>
       <c r="H227" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -8135,7 +8863,7 @@
         <v>901</v>
       </c>
       <c r="H228" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -8173,7 +8901,7 @@
         <v>1364</v>
       </c>
       <c r="H229" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -8249,7 +8977,7 @@
         <v>893</v>
       </c>
       <c r="H231" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -8287,7 +9015,7 @@
         <v>1117</v>
       </c>
       <c r="H232" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I232">
         <v>5.0000000000000001E-3</v>
@@ -8325,7 +9053,7 @@
         <v>797</v>
       </c>
       <c r="H233" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -8363,7 +9091,7 @@
         <v>1306</v>
       </c>
       <c r="H234" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -8401,7 +9129,7 @@
         <v>448</v>
       </c>
       <c r="H235" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I235">
         <v>2.7E-2</v>
@@ -8515,7 +9243,7 @@
         <v>635</v>
       </c>
       <c r="H238" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I238">
         <v>8.0000000000000002E-3</v>
@@ -8591,7 +9319,7 @@
         <v>749</v>
       </c>
       <c r="H240" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -8629,7 +9357,7 @@
         <v>477</v>
       </c>
       <c r="H241" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I241">
         <v>0.67700000000000005</v>
@@ -8667,7 +9395,7 @@
         <v>577</v>
       </c>
       <c r="H242" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I242">
         <v>0.55200000000000005</v>
@@ -8725,10 +9453,10 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H245" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.35">
@@ -8736,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -8754,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J246" t="s">
         <v>2</v>
@@ -9283,7 +10011,7 @@
         <v>958</v>
       </c>
       <c r="G260" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H260" t="s">
         <v>17</v>
@@ -9552,7 +10280,7 @@
         <v>489</v>
       </c>
       <c r="G267" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H267" t="s">
         <v>22</v>
@@ -9879,10 +10607,10 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H277" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
@@ -9890,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C278" t="s">
         <v>2</v>
@@ -9908,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J278" t="s">
         <v>2</v>
@@ -10855,7 +11583,7 @@
         <v>857</v>
       </c>
       <c r="G303" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H303" t="s">
         <v>45</v>
@@ -11030,10 +11758,10 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
+        <v>106</v>
+      </c>
+      <c r="H309" t="s">
         <v>107</v>
-      </c>
-      <c r="H309" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.35">
@@ -11041,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="B310" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -11059,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J310" t="s">
         <v>2</v>
@@ -12181,7 +12909,7 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.35">
@@ -12189,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="B342" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -12324,7 +13052,7 @@
         <v>972</v>
       </c>
       <c r="G348" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.35">
@@ -12547,7 +13275,7 @@
         <v>817</v>
       </c>
       <c r="G359" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
@@ -12792,28 +13520,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D116 D118:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B116 B118:B1048576">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12824,1481 +13552,2364 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.107</v>
+      </c>
+      <c r="C3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J3">
+        <v>20.294</v>
+      </c>
+      <c r="K3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C4">
+        <v>1E-3</v>
+      </c>
+      <c r="D4">
+        <v>1E-3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J4">
+        <v>20.789000000000001</v>
+      </c>
+      <c r="K4">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.246</v>
+      </c>
+      <c r="F5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="J5">
+        <v>25.010999999999999</v>
+      </c>
+      <c r="K5">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="H6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J6">
+        <v>57.045999999999999</v>
+      </c>
+      <c r="K6">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1E-3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>0.158</v>
+      </c>
+      <c r="I7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="J7">
+        <v>40.627000000000002</v>
+      </c>
+      <c r="K7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H8">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J8">
+        <v>12.574999999999999</v>
+      </c>
+      <c r="K8">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.23</v>
+      </c>
+      <c r="G9">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="H9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>24.509</v>
+      </c>
+      <c r="K9">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C10">
+        <v>1E-3</v>
+      </c>
+      <c r="D10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="G10">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H10">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I10">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J10">
+        <v>13.86</v>
+      </c>
+      <c r="K10">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.154</v>
+      </c>
+      <c r="J11">
+        <v>57.262999999999998</v>
+      </c>
+      <c r="K11">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="G12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J12">
+        <v>12.635</v>
+      </c>
+      <c r="K12">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="C13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G13">
+        <v>0.16</v>
+      </c>
+      <c r="H13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>47.225000000000001</v>
+      </c>
+      <c r="K13">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C14">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.106</v>
+      </c>
+      <c r="J14">
+        <v>11.151</v>
+      </c>
+      <c r="K14">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C15">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D15">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.627</v>
+      </c>
+      <c r="H15">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.06</v>
+      </c>
+      <c r="J15">
+        <v>25.577999999999999</v>
+      </c>
+      <c r="K15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1E-3</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="J16">
+        <v>122.947</v>
+      </c>
+      <c r="K16">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F17">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G17">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H17">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I17">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="J17">
+        <v>14.313000000000001</v>
+      </c>
+      <c r="K17">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.93</v>
+      </c>
+      <c r="E18">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G18">
+        <v>0.437</v>
+      </c>
+      <c r="H18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J18">
+        <v>41.485999999999997</v>
+      </c>
+      <c r="K18">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D19">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.373</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.09</v>
+      </c>
+      <c r="I19">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J19">
+        <v>12.634</v>
+      </c>
+      <c r="K19">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="C20">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D20">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F20">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="H20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J20">
+        <v>30.338999999999999</v>
+      </c>
+      <c r="K20">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:G1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
-    <col min="15" max="15" width="15.54296875" customWidth="1"/>
-    <col min="19" max="19" width="9.90625" customWidth="1"/>
-    <col min="20" max="20" width="11.08984375" customWidth="1"/>
-    <col min="21" max="21" width="9.6328125" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" customWidth="1"/>
+    <col min="21" max="21" width="9.90625" customWidth="1"/>
+    <col min="22" max="22" width="11.08984375" customWidth="1"/>
+    <col min="23" max="23" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="O1">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="Q1">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="2" t="s">
+      <c r="G3" s="58"/>
+      <c r="H3" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3" s="59"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="T3" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="6"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="59" t="s">
+      <c r="U3" s="58"/>
+      <c r="V3" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="W3" s="59"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" spans="1:29" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="59" t="s">
+      <c r="G4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="61"/>
+      <c r="T4" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:27" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="16" t="s">
+      <c r="U4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="V4" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="W4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="X4" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="Y4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="Z4" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="AA4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="14" t="s">
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="40">
+        <v>0.107</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E5" s="65">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5" s="70">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G5" s="68"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="42">
+        <v>1</v>
+      </c>
+      <c r="N5" s="45"/>
+      <c r="O5" s="44">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="46"/>
-      <c r="O5" s="19" t="s">
+      <c r="R5" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="S5" s="15">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="T5" s="16">
+        <v>0</v>
+      </c>
+      <c r="U5" s="17"/>
+      <c r="V5" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="W5" s="19"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="20">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="21">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="46">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="67">
+        <v>1E-3</v>
+      </c>
+      <c r="F6" s="71">
+        <v>1</v>
+      </c>
+      <c r="G6" s="69"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="48">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="49">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N6" s="45"/>
+      <c r="O6" s="51">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="S6" s="24">
+        <v>3.9E-2</v>
+      </c>
+      <c r="T6" s="25">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="U6" s="26"/>
+      <c r="V6" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="W6" s="28"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="29">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="67">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="71">
+        <v>0.246</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="48">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="N7" s="45"/>
+      <c r="O7" s="51">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="23">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="S7" s="24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T7" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="27">
+        <v>0</v>
+      </c>
+      <c r="W7" s="28"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="23">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="46">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E8" s="67">
+        <v>0</v>
+      </c>
+      <c r="F8" s="71">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G8" s="69"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="49">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="N8" s="45"/>
+      <c r="O8" s="51">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="32">
+        <v>0</v>
+      </c>
+      <c r="S8" s="33">
+        <v>0.13</v>
+      </c>
+      <c r="T8" s="25">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="U8" s="26"/>
+      <c r="V8" s="27">
+        <v>0</v>
+      </c>
+      <c r="W8" s="28"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="23">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="46">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66">
+        <v>0</v>
+      </c>
+      <c r="E9" s="67">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F9" s="71">
+        <v>0</v>
+      </c>
+      <c r="G9" s="69"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="48">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="45"/>
+      <c r="O9" s="51">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="29">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="S9" s="33">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="T9" s="25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="U9" s="26"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="30">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="23">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="46"/>
+      <c r="Q10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S10" s="33">
+        <v>0.38</v>
+      </c>
+      <c r="T10" s="36">
+        <v>1E-3</v>
+      </c>
+      <c r="U10" s="26"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="35">
+        <v>2E-3</v>
+      </c>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="30">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="23">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+      <c r="Q11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="32">
+        <v>0</v>
+      </c>
+      <c r="S11" s="33">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="T11" s="36">
+        <v>0</v>
+      </c>
+      <c r="U11" s="26"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="31">
+        <v>0</v>
+      </c>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="23">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="46"/>
+      <c r="Q12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" s="29">
+        <v>0.187</v>
+      </c>
+      <c r="S12" s="24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T12" s="25">
+        <v>0.621</v>
+      </c>
+      <c r="U12" s="26"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="35">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="23">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="46">
+        <v>1</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E13" s="67">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F13" s="47">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="48">
+        <v>0</v>
+      </c>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="49">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N13" s="45"/>
+      <c r="O13" s="51">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="32">
+        <v>0</v>
+      </c>
+      <c r="S13" s="33">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="T13" s="36">
+        <v>0</v>
+      </c>
+      <c r="U13" s="26"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="29">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E14" s="67">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F14" s="47">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="48">
+        <v>0.23</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="49">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="N14" s="45"/>
+      <c r="O14" s="51">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="32">
+        <v>0</v>
+      </c>
+      <c r="S14" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="T14" s="25">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="U14" s="26"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="26">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="35">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="23">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="46">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66">
+        <v>1E-3</v>
+      </c>
+      <c r="E15" s="67">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F15" s="47">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="48">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="49">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N15" s="45"/>
+      <c r="O15" s="51">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="32">
+        <v>0</v>
+      </c>
+      <c r="S15" s="37">
+        <v>0</v>
+      </c>
+      <c r="T15" s="25">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="U15" s="26"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="23">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="46">
+        <v>0</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66">
+        <v>1</v>
+      </c>
+      <c r="E16" s="67">
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="48">
+        <v>0</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="49">
+        <v>0</v>
+      </c>
+      <c r="N16" s="45"/>
+      <c r="O16" s="51">
+        <v>0.154</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="32">
+        <v>0</v>
+      </c>
+      <c r="S16" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T16" s="25">
+        <v>0.307</v>
+      </c>
+      <c r="U16" s="26"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="23">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="20">
-        <v>0.16</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="R5" s="22">
-        <v>0</v>
-      </c>
-      <c r="S5" s="23"/>
-      <c r="T5" s="24">
+      <c r="B17" s="46"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
+      <c r="Q17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="29">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="S17" s="33"/>
+      <c r="T17" s="25">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="U17" s="26"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="Y17" s="39">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="23">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="Q18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="29">
+        <v>0.753</v>
+      </c>
+      <c r="S18" s="33">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="T18" s="36">
+        <v>0</v>
+      </c>
+      <c r="U18" s="26"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="26">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="26">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="23">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
+      <c r="Q19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="32">
+        <v>0</v>
+      </c>
+      <c r="S19" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T19" s="25"/>
+      <c r="U19" s="38">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="V19" s="27">
+        <v>0</v>
+      </c>
+      <c r="W19" s="28"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="23">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="46"/>
+      <c r="Q20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="32">
+        <v>0</v>
+      </c>
+      <c r="S20" s="33">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="26">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V20" s="39">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="W20" s="28"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="23">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="46"/>
+      <c r="Q21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" s="32">
+        <v>0</v>
+      </c>
+      <c r="S21" s="33"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="26">
+        <v>0.158</v>
+      </c>
+      <c r="V21" s="27">
+        <v>0</v>
+      </c>
+      <c r="W21" s="28"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="29">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
+      <c r="Q22" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="29">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="S22" s="33">
+        <v>0.996</v>
+      </c>
+      <c r="T22" s="25"/>
+      <c r="U22" s="26">
+        <v>0.161</v>
+      </c>
+      <c r="V22" s="30"/>
+      <c r="W22" s="31">
+        <v>0</v>
+      </c>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="26">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="29">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
+      <c r="Q23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" s="29">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="S23" s="33">
+        <v>0.113</v>
+      </c>
+      <c r="T23" s="25"/>
+      <c r="U23" s="38">
+        <v>2.3E-2</v>
+      </c>
+      <c r="V23" s="30"/>
+      <c r="W23" s="35">
+        <v>1.4E-2</v>
+      </c>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="34">
         <v>1E-3</v>
       </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="26">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="27">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="23">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="46"/>
+      <c r="Q24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="29">
+        <v>1</v>
+      </c>
+      <c r="S24" s="33">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="38">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="V24" s="30"/>
+      <c r="W24" s="31">
+        <v>0</v>
+      </c>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
+      <c r="Q25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="32">
+        <v>0</v>
+      </c>
+      <c r="S25" s="33">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="T25" s="25"/>
+      <c r="U25" s="26">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="V25" s="30"/>
+      <c r="W25" s="31">
+        <v>0</v>
+      </c>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="23">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="46"/>
+      <c r="Q26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" s="32">
+        <v>0</v>
+      </c>
+      <c r="S26" s="33"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="26">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="V26" s="30"/>
+      <c r="W26" s="31">
+        <v>0</v>
+      </c>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="29">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
+      <c r="Q27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="32">
+        <v>0</v>
+      </c>
+      <c r="S27" s="33"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="34">
+        <v>0</v>
+      </c>
+      <c r="V27" s="30"/>
+      <c r="W27" s="31">
+        <v>0</v>
+      </c>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="23">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="46"/>
+      <c r="Q28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="32">
+        <v>1E-3</v>
+      </c>
+      <c r="S28" s="33"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="34">
+        <v>0</v>
+      </c>
+      <c r="V28" s="30"/>
+      <c r="W28" s="31">
+        <v>0</v>
+      </c>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="29">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46"/>
+      <c r="Q29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="29">
+        <v>0.69</v>
+      </c>
+      <c r="S29" s="33">
+        <v>0.75</v>
+      </c>
+      <c r="T29" s="25"/>
+      <c r="U29" s="38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="V29" s="30"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="23">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="46"/>
+      <c r="Q30" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" s="29">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="S30" s="33">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="T30" s="25"/>
+      <c r="U30" s="26">
+        <v>0.436</v>
+      </c>
+      <c r="V30" s="30"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="38">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Y30" s="30">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="23">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="46"/>
+      <c r="Q31" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" s="32">
+        <v>0</v>
+      </c>
+      <c r="S31" s="33">
+        <v>0.38</v>
+      </c>
+      <c r="T31" s="25"/>
+      <c r="U31" s="38">
+        <v>1.4E-2</v>
+      </c>
+      <c r="V31" s="30"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="23">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="46"/>
+      <c r="Q32" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S32" s="33">
+        <v>0.214</v>
+      </c>
+      <c r="T32" s="25"/>
+      <c r="U32" s="38">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="V32" s="30"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="23">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A33" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="O6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="29">
-        <v>2E-3</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>3.9E-2</v>
-      </c>
-      <c r="R6" s="31">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="33">
-        <v>0</v>
-      </c>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="35">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="O7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="29">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R7" s="31">
-        <v>0.11</v>
-      </c>
-      <c r="S7" s="32"/>
-      <c r="T7" s="33">
-        <v>0</v>
-      </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="29">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
-      <c r="O8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="39">
-        <v>0.13</v>
-      </c>
-      <c r="R8" s="31">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33">
-        <v>0</v>
-      </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="40">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="29">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53"/>
-      <c r="O9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9" s="35">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="Q9" s="39">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="R9" s="31">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="41">
-        <v>0.04</v>
-      </c>
-      <c r="V9" s="32"/>
-      <c r="W9" s="36">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="29">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53"/>
-      <c r="O10" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="29">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="Q10" s="39">
-        <v>0.38</v>
-      </c>
-      <c r="R10" s="42">
-        <v>1E-3</v>
-      </c>
-      <c r="S10" s="32"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="41">
-        <v>2E-3</v>
-      </c>
-      <c r="V10" s="32"/>
-      <c r="W10" s="36">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="29">
-        <v>0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="O11" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="39">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="R11" s="42">
-        <v>0</v>
-      </c>
-      <c r="S11" s="32"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37">
-        <v>0</v>
-      </c>
-      <c r="V11" s="32"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="29">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53"/>
-      <c r="O12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="P12" s="35">
-        <v>0.187</v>
-      </c>
-      <c r="Q12" s="30">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="R12" s="31">
-        <v>0.621</v>
-      </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="41">
+      <c r="B33" s="46"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
+      <c r="Q33" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="R33" s="29">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="S33" s="24">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="T33" s="25"/>
+      <c r="U33" s="26">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="V33" s="30"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="35">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="V12" s="32"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="41">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="29">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="O13" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="39">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="R13" s="42">
-        <v>0</v>
-      </c>
-      <c r="S13" s="32"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="40">
-        <v>0</v>
-      </c>
-      <c r="W13" s="36"/>
-      <c r="X13" s="41">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="35">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="53"/>
-      <c r="O14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="30">
-        <v>2E-3</v>
-      </c>
-      <c r="R14" s="31">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="S14" s="32"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="32">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="W14" s="36"/>
-      <c r="X14" s="41">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="29">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="53"/>
-      <c r="O15" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="43">
-        <v>0</v>
-      </c>
-      <c r="R15" s="31">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="S15" s="32"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="40">
-        <v>0</v>
-      </c>
-      <c r="W15" s="36"/>
-      <c r="X15" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="29">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
-      <c r="O16" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="P16" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="30">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="R16" s="31">
-        <v>0.307</v>
-      </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="40">
-        <v>0</v>
-      </c>
-      <c r="W16" s="33">
-        <v>0</v>
-      </c>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="29">
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
-      <c r="O17" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="35">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="31">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="S17" s="32"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="W17" s="45">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="29">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="53"/>
-      <c r="O18" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="35">
-        <v>0.753</v>
-      </c>
-      <c r="Q18" s="39">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="R18" s="42">
-        <v>0</v>
-      </c>
-      <c r="S18" s="32"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="32">
-        <v>9.4E-2</v>
-      </c>
-      <c r="W18" s="36"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="32">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="29">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="53"/>
-      <c r="O19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="30">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="R19" s="31"/>
-      <c r="S19" s="44">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="T19" s="33">
-        <v>0</v>
-      </c>
-      <c r="U19" s="34"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="29">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="53"/>
-      <c r="O20" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="39">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="R20" s="31"/>
-      <c r="S20" s="32">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="T20" s="45">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="U20" s="34"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="29">
-        <v>0.38500000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="53"/>
-      <c r="O21" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="P21" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="32">
-        <v>0.158</v>
-      </c>
-      <c r="T21" s="33">
-        <v>0</v>
-      </c>
-      <c r="U21" s="34"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="40">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="35">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="53"/>
-      <c r="O22" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" s="35">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="Q22" s="39">
-        <v>0.996</v>
-      </c>
-      <c r="R22" s="31"/>
-      <c r="S22" s="32">
-        <v>0.161</v>
-      </c>
-      <c r="T22" s="36"/>
-      <c r="U22" s="37">
-        <v>0</v>
-      </c>
-      <c r="V22" s="32"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="32">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="35">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="O23" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="35">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="Q23" s="39">
-        <v>0.113</v>
-      </c>
-      <c r="R23" s="31"/>
-      <c r="S23" s="44">
-        <v>2.3E-2</v>
-      </c>
-      <c r="T23" s="36"/>
-      <c r="U23" s="41">
-        <v>1.4E-2</v>
-      </c>
-      <c r="V23" s="32"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="40">
-        <v>1E-3</v>
-      </c>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="29">
-        <v>0.22600000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="53"/>
-      <c r="O24" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="39">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="R24" s="31"/>
-      <c r="S24" s="44">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="T24" s="36"/>
-      <c r="U24" s="37">
-        <v>0</v>
-      </c>
-      <c r="V24" s="32"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="40">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="29">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="53"/>
-      <c r="O25" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="39">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="R25" s="31"/>
-      <c r="S25" s="32">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="T25" s="36"/>
-      <c r="U25" s="37">
-        <v>0</v>
-      </c>
-      <c r="V25" s="32"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="40">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="29">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="53"/>
-      <c r="O26" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="P26" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="32">
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="23">
         <v>0.20300000000000001</v>
       </c>
-      <c r="T26" s="36"/>
-      <c r="U26" s="37">
-        <v>0</v>
-      </c>
-      <c r="V26" s="32"/>
-      <c r="W26" s="33">
-        <v>0</v>
-      </c>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="35">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53"/>
-      <c r="O27" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="40">
-        <v>0</v>
-      </c>
-      <c r="T27" s="36"/>
-      <c r="U27" s="37">
-        <v>0</v>
-      </c>
-      <c r="V27" s="32"/>
-      <c r="W27" s="33">
-        <v>0</v>
-      </c>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="29">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="53"/>
-      <c r="O28" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28" s="38">
-        <v>1E-3</v>
-      </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="40">
-        <v>0</v>
-      </c>
-      <c r="T28" s="36"/>
-      <c r="U28" s="37">
-        <v>0</v>
-      </c>
-      <c r="V28" s="32"/>
-      <c r="W28" s="33">
-        <v>0</v>
-      </c>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="35">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
-      <c r="O29" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" s="35">
-        <v>0.69</v>
-      </c>
-      <c r="Q29" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="44">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="T29" s="36"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="40">
-        <v>0</v>
-      </c>
-      <c r="W29" s="33">
-        <v>0</v>
-      </c>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="29">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="53"/>
-      <c r="O30" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30" s="35">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="Q30" s="39">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="32">
-        <v>0.436</v>
-      </c>
-      <c r="T30" s="36"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="44">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="W30" s="36">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="29">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A31" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="53"/>
-      <c r="O31" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="39">
-        <v>0.38</v>
-      </c>
-      <c r="R31" s="31"/>
-      <c r="S31" s="44">
-        <v>1.4E-2</v>
-      </c>
-      <c r="T31" s="36"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="40">
-        <v>0</v>
-      </c>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="29">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="53"/>
-      <c r="O32" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P32" s="29">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q32" s="39">
-        <v>0.214</v>
-      </c>
-      <c r="R32" s="31"/>
-      <c r="S32" s="44">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="T32" s="36"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="40">
-        <v>0</v>
-      </c>
-      <c r="W32" s="36"/>
-      <c r="X32" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="29">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A33" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="53"/>
-      <c r="O33" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" s="35">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="Q33" s="30">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="R33" s="31"/>
-      <c r="S33" s="32">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="T33" s="36"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="44">
-        <v>0.02</v>
-      </c>
-      <c r="W33" s="36"/>
-      <c r="X33" s="41">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="29">
-        <v>0.20300000000000001</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="P2:Y2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
+  <mergeCells count="12">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B1:M1048576">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="133">
   <si>
     <t>Species</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>2019 Local abundance</t>
+  </si>
+  <si>
+    <t>better than best model without Fproxy and Total biomass</t>
   </si>
 </sst>
 </file>
@@ -1569,6 +1572,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1597,30 +1624,6 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1668,7 +1671,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2031,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M371"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" workbookViewId="0">
+    <sheetView topLeftCell="A314" workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
@@ -13520,28 +13551,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D116 D118:D1048576">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B116 B118:B1048576">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13552,20 +13583,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13600,7 +13631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -13635,7 +13666,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -13670,7 +13701,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -13705,7 +13736,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -13740,7 +13771,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -13775,472 +13806,656 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="J8">
+        <v>57.094000000000001</v>
+      </c>
+      <c r="K8">
+        <v>864</v>
+      </c>
+      <c r="L8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1E-3</v>
+      </c>
+      <c r="C9">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="H9">
+        <v>0.08</v>
+      </c>
+      <c r="I9">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="J9">
+        <v>15.787000000000001</v>
+      </c>
+      <c r="K9">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B10">
+        <v>0.628</v>
+      </c>
+      <c r="C10">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>2E-3</v>
+      </c>
+      <c r="G10">
+        <v>0.05</v>
+      </c>
+      <c r="H10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="J10">
+        <v>13.131</v>
+      </c>
+      <c r="K10">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="C11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="E11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.443</v>
+      </c>
+      <c r="G11">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.03</v>
+      </c>
+      <c r="I11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J11">
+        <v>24.696000000000002</v>
+      </c>
+      <c r="K11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.126</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I12">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>13.784000000000001</v>
+      </c>
+      <c r="K12">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="E8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H8">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.154</v>
+      </c>
+      <c r="J13">
+        <v>57.262999999999998</v>
+      </c>
+      <c r="K13">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.999</v>
+      </c>
+      <c r="C14">
+        <v>0.41</v>
+      </c>
+      <c r="D14">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.01</v>
+      </c>
+      <c r="H14">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="J14">
+        <v>21.567</v>
+      </c>
+      <c r="K14">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="G15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J15">
+        <v>12.635</v>
+      </c>
+      <c r="K15">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E16">
+        <v>2E-3</v>
+      </c>
+      <c r="F16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G16">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="I8">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="J8">
-        <v>12.574999999999999</v>
-      </c>
-      <c r="K8">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="C9">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="E9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F9">
-        <v>0.23</v>
-      </c>
-      <c r="G9">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="H9">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I9">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="J9">
-        <v>24.509</v>
-      </c>
-      <c r="K9">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C10">
+      <c r="H16">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I16">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J16">
+        <v>47.557000000000002</v>
+      </c>
+      <c r="K16">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C17">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H17">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J17">
+        <v>11.029</v>
+      </c>
+      <c r="K17">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C18">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="F18">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="J18">
+        <v>21.541</v>
+      </c>
+      <c r="K18">
+        <v>439</v>
+      </c>
+      <c r="L18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.215</v>
+      </c>
+      <c r="J19">
+        <v>65.866</v>
+      </c>
+      <c r="K19">
+        <v>977</v>
+      </c>
+      <c r="L19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="C20">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D20">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E20">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.627</v>
+      </c>
+      <c r="H20">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.06</v>
+      </c>
+      <c r="J20">
+        <v>25.577999999999999</v>
+      </c>
+      <c r="K20">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>1E-3</v>
       </c>
-      <c r="D10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E10">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F10">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="G10">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H10">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="I10">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="J10">
-        <v>13.86</v>
-      </c>
-      <c r="K10">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="J21">
+        <v>122.947</v>
+      </c>
+      <c r="K21">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.154</v>
-      </c>
-      <c r="J11">
-        <v>57.262999999999998</v>
-      </c>
-      <c r="K11">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="F12">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="G12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H12">
+      <c r="C22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G22">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H22">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I22">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="I12">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="J12">
-        <v>12.635</v>
-      </c>
-      <c r="K12">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="C13">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D13">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G13">
-        <v>0.16</v>
-      </c>
-      <c r="H13">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I13">
-        <v>0.1</v>
-      </c>
-      <c r="J13">
-        <v>47.225000000000001</v>
-      </c>
-      <c r="K13">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C14">
+      <c r="J22">
+        <v>14.313000000000001</v>
+      </c>
+      <c r="K22">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.93</v>
+      </c>
+      <c r="E23">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="F23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G23">
+        <v>0.437</v>
+      </c>
+      <c r="H23">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J23">
+        <v>41.485999999999997</v>
+      </c>
+      <c r="K23">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D24">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.373</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.09</v>
+      </c>
+      <c r="I24">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J24">
+        <v>12.634</v>
+      </c>
+      <c r="K24">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
         <v>0.56899999999999995</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H14">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="I14">
-        <v>0.106</v>
-      </c>
-      <c r="J14">
-        <v>11.151</v>
-      </c>
-      <c r="K14">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="C15">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="D15">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E15">
+      <c r="C25">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="D25">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F15">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.627</v>
-      </c>
-      <c r="H15">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="I15">
-        <v>0.06</v>
-      </c>
-      <c r="J15">
-        <v>25.577999999999999</v>
-      </c>
-      <c r="K15">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1E-3</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="J16">
-        <v>122.947</v>
-      </c>
-      <c r="K16">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D17">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="F17">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G17">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H17">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="I17">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="J17">
-        <v>14.313000000000001</v>
-      </c>
-      <c r="K17">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0.93</v>
-      </c>
-      <c r="E18">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="F18">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G18">
-        <v>0.437</v>
-      </c>
-      <c r="H18">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="I18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J18">
-        <v>41.485999999999997</v>
-      </c>
-      <c r="K18">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="D19">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="E19">
-        <v>0.373</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0.09</v>
-      </c>
-      <c r="I19">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="J19">
-        <v>12.634</v>
-      </c>
-      <c r="K19">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="C20">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="D20">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E20">
+      <c r="E25">
         <v>0.63800000000000001</v>
       </c>
-      <c r="F20">
+      <c r="F25">
         <v>1.9E-2</v>
       </c>
-      <c r="G20">
+      <c r="G25">
         <v>0.34300000000000003</v>
       </c>
-      <c r="H20">
+      <c r="H25">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I20">
+      <c r="I25">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J20">
+      <c r="J25">
         <v>30.338999999999999</v>
       </c>
-      <c r="K20">
+      <c r="K25">
         <v>340</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14251,10 +14466,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="P19" workbookViewId="0">
+      <selection activeCell="P20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14269,105 +14484,105 @@
     <col min="23" max="23" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
       <c r="Q1">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="56"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="64"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="57" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="57" t="s">
+      <c r="I3" s="67"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="58"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="66"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="60" t="s">
+      <c r="S3" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="T3" s="57" t="s">
+      <c r="T3" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="58"/>
-      <c r="V3" s="57" t="s">
+      <c r="U3" s="66"/>
+      <c r="V3" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="57" t="s">
+      <c r="W3" s="67"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="58"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="66"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6"/>
     </row>
-    <row r="4" spans="1:29" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="61"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="10" t="s">
         <v>119</v>
       </c>
@@ -14402,7 +14617,7 @@
       <c r="R4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="61"/>
+      <c r="S4" s="69"/>
       <c r="T4" s="10" t="s">
         <v>119</v>
       </c>
@@ -14431,25 +14646,46 @@
       <c r="AC4" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="40">
         <v>0.107</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="55">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="60">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="68"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="43"/>
       <c r="I5" s="41">
         <v>0.01</v>
@@ -14491,25 +14727,46 @@
       <c r="AC5" s="21">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF5">
+        <v>0.12</v>
+      </c>
+      <c r="AG5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AH5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AK5">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="46">
         <v>2.4E-2</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66">
+      <c r="C6" s="56"/>
+      <c r="D6" s="56">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="57">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="61">
         <v>1</v>
       </c>
-      <c r="G6" s="69"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="50"/>
       <c r="I6" s="48">
         <v>0.47599999999999998</v>
@@ -14551,25 +14808,46 @@
       <c r="AC6" s="29">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0.02</v>
+      </c>
+      <c r="AI6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AJ6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AK6">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="46">
         <v>0</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="57">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="61">
         <v>0.246</v>
       </c>
-      <c r="G7" s="69"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="50"/>
       <c r="I7" s="48">
         <v>2.7E-2</v>
@@ -14611,25 +14889,46 @@
       <c r="AC7" s="23">
         <v>0.122</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AH7">
+        <v>0.154</v>
+      </c>
+      <c r="AI7">
+        <v>0.122</v>
+      </c>
+      <c r="AJ7">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AK7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="46">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E8" s="67">
-        <v>0</v>
-      </c>
-      <c r="F8" s="71">
+      <c r="E8" s="57">
+        <v>0</v>
+      </c>
+      <c r="F8" s="61">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G8" s="69"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="50"/>
       <c r="I8" s="48">
         <v>3.0000000000000001E-3</v>
@@ -14671,25 +14970,46 @@
       <c r="AC8" s="23">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AG8">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0.191</v>
+      </c>
+      <c r="AJ8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AK8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="46">
         <v>1E-3</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66">
-        <v>0</v>
-      </c>
-      <c r="E9" s="67">
+      <c r="C9" s="56"/>
+      <c r="D9" s="56">
+        <v>0</v>
+      </c>
+      <c r="E9" s="57">
         <v>0.36599999999999999</v>
       </c>
-      <c r="F9" s="71">
-        <v>0</v>
-      </c>
-      <c r="G9" s="69"/>
+      <c r="F9" s="61">
+        <v>0</v>
+      </c>
+      <c r="G9" s="59"/>
       <c r="H9" s="50"/>
       <c r="I9" s="48">
         <v>1.7999999999999999E-2</v>
@@ -14731,14 +15051,35 @@
       <c r="AC9" s="23">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF9">
+        <v>2E-3</v>
+      </c>
+      <c r="AG9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AH9">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="AI9">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AJ9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AK9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="46"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
       <c r="G10" s="49"/>
@@ -14777,14 +15118,35 @@
       <c r="AC10" s="23">
         <v>0.23799999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF10">
+        <v>2E-3</v>
+      </c>
+      <c r="AG10">
+        <v>0.3</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AJ10">
+        <v>0.06</v>
+      </c>
+      <c r="AK10">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="46"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="47"/>
       <c r="F11" s="48"/>
       <c r="G11" s="49"/>
@@ -14823,14 +15185,35 @@
       <c r="AC11" s="23">
         <v>0.191</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AH11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AI11">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AK11">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="46"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="47"/>
       <c r="F12" s="48"/>
       <c r="G12" s="49"/>
@@ -14869,19 +15252,40 @@
       <c r="AC12" s="23">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG12">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AK12">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="46">
         <v>1</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66">
+      <c r="C13" s="56"/>
+      <c r="D13" s="56">
         <v>0.16700000000000001</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="57">
         <v>0.20799999999999999</v>
       </c>
       <c r="F13" s="47">
@@ -14929,19 +15333,40 @@
       <c r="AC13" s="29">
         <v>9.6000000000000002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF13">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="AG13">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="AH13">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AI13">
+        <v>0.215</v>
+      </c>
+      <c r="AJ13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="AK13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="46">
         <v>0.65200000000000002</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="57">
         <v>0.59599999999999997</v>
       </c>
       <c r="F14" s="47">
@@ -14989,19 +15414,40 @@
       <c r="AC14" s="23">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AH14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AI14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AJ14">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="AK14">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="46">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66">
+      <c r="C15" s="56"/>
+      <c r="D15" s="56">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="57">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F15" s="47">
@@ -15049,19 +15495,40 @@
       <c r="AC15" s="23">
         <v>0.42099999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AK15">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="46">
         <v>0</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66">
+      <c r="C16" s="56"/>
+      <c r="D16" s="56">
         <v>1</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="57">
         <v>0</v>
       </c>
       <c r="F16" s="47">
@@ -15109,14 +15576,35 @@
       <c r="AC16" s="23">
         <v>0.252</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0.154</v>
+      </c>
+      <c r="AK16">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="46"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="67"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="47"/>
       <c r="F17" s="48"/>
       <c r="G17" s="49"/>
@@ -15153,14 +15641,35 @@
       <c r="AC17" s="23">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0.53</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ17">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AK17">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="46"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="47"/>
       <c r="F18" s="48"/>
       <c r="G18" s="49"/>
@@ -15199,14 +15708,35 @@
       <c r="AC18" s="23">
         <v>0.19600000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF18">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AG18">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="AK18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="46"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="47"/>
       <c r="F19" s="48"/>
       <c r="G19" s="49"/>
@@ -15245,14 +15775,35 @@
       <c r="AC19" s="23">
         <v>0.21199999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF19">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="AG19">
+        <v>0.113</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AJ19">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="AK19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="46"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="47"/>
       <c r="F20" s="48"/>
       <c r="G20" s="49"/>
@@ -15291,14 +15842,35 @@
       <c r="AC20" s="23">
         <v>0.38500000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AG20">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AJ20">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AK20">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="46"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="47"/>
       <c r="F21" s="48"/>
       <c r="G21" s="49"/>
@@ -15335,14 +15907,35 @@
       <c r="AC21" s="29">
         <v>9.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0.19</v>
+      </c>
+      <c r="AH21">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0.189</v>
+      </c>
+      <c r="AK21">
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="46"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="47"/>
       <c r="F22" s="48"/>
       <c r="G22" s="49"/>
@@ -15381,14 +15974,35 @@
       <c r="AC22" s="29">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF22">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="AI22">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AJ22">
+        <v>0.04</v>
+      </c>
+      <c r="AK22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="46"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="67"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="47"/>
       <c r="F23" s="48"/>
       <c r="G23" s="49"/>
@@ -15427,14 +16041,35 @@
       <c r="AC23" s="23">
         <v>0.22600000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE23" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>4.7E-2</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>9.4E-2</v>
+      </c>
+      <c r="AK23">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="46"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="67"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="47"/>
       <c r="F24" s="48"/>
       <c r="G24" s="49"/>
@@ -15473,14 +16108,35 @@
       <c r="AC24" s="23">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0.108</v>
+      </c>
+      <c r="AJ24">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AK24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="47"/>
       <c r="F25" s="48"/>
       <c r="G25" s="49"/>
@@ -15519,14 +16175,35 @@
       <c r="AC25" s="23">
         <v>0.17199999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF25">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="AG25">
+        <v>6.2E-2</v>
+      </c>
+      <c r="AH25">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="AK25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="46"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="47"/>
       <c r="F26" s="48"/>
       <c r="G26" s="49"/>
@@ -15563,14 +16240,35 @@
       <c r="AC26" s="29">
         <v>9.0999999999999998E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF26">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AG26">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0.02</v>
+      </c>
+      <c r="AJ26">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AK26">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="46"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="47"/>
       <c r="F27" s="48"/>
       <c r="G27" s="49"/>
@@ -15607,14 +16305,35 @@
       <c r="AC27" s="23">
         <v>0.20799999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF27">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AG27">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="AH27">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AI27">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="AJ27">
+        <v>0.02</v>
+      </c>
+      <c r="AK27">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="46"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="47"/>
       <c r="F28" s="48"/>
       <c r="G28" s="49"/>
@@ -15652,13 +16371,13 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="46"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="67"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="47"/>
       <c r="F29" s="48"/>
       <c r="G29" s="49"/>
@@ -15698,13 +16417,13 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="46"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
       <c r="E30" s="47"/>
       <c r="F30" s="48"/>
       <c r="G30" s="49"/>
@@ -15744,13 +16463,13 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="46"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
       <c r="G31" s="49"/>
@@ -15790,13 +16509,13 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="46"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="47"/>
       <c r="F32" s="48"/>
       <c r="G32" s="49"/>
@@ -15841,8 +16560,8 @@
         <v>28</v>
       </c>
       <c r="B33" s="46"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="47"/>
       <c r="F33" s="48"/>
       <c r="G33" s="49"/>
@@ -15898,14 +16617,19 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK1:AK1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="140">
   <si>
     <t>Species</t>
   </si>
@@ -110,37 +110,16 @@
     <t>Goosefish</t>
   </si>
   <si>
-    <t>TotalBiomass</t>
-  </si>
-  <si>
-    <t>oscillating, no trend</t>
-  </si>
-  <si>
     <t>NOTES from jpgs</t>
   </si>
   <si>
     <t>increasing condition with total biomass</t>
   </si>
   <si>
-    <t>Highest condition at low biomass, increases again somewhat at highest biomass</t>
-  </si>
-  <si>
     <t>Highly variable, but possibly higher condition with increased F</t>
   </si>
   <si>
     <t>Highly variable, but possible peak condition at Fproxy = 0.06</t>
-  </si>
-  <si>
-    <t>Possible peak condition around 1.8 Fproxy</t>
-  </si>
-  <si>
-    <t>Strong decline in condition with Fproxy</t>
-  </si>
-  <si>
-    <t>Highest condition at highest Fproxy</t>
-  </si>
-  <si>
-    <t>CIs cross, no apparent trend</t>
   </si>
   <si>
     <t>AvgExpcatchnumStrata</t>
@@ -421,6 +400,48 @@
   <si>
     <t>better than best model without Fproxy and Total biomass</t>
   </si>
+  <si>
+    <t>Condition lowest around 0.3</t>
+  </si>
+  <si>
+    <t>Highest condition around F=1.5</t>
+  </si>
+  <si>
+    <t>Highly variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possible peak around 4,000 </t>
+  </si>
+  <si>
+    <t>Possible decline in condition with biomass</t>
+  </si>
+  <si>
+    <t>Decline in condition with biomass</t>
+  </si>
+  <si>
+    <t>Highest condition at low biomass</t>
+  </si>
+  <si>
+    <t>form.cond &lt;- formula(AvgRelCondStrata ~ s(AvgBottomTempStrata, k=10) +s(AvgExpcatchnumStrata, k=10) +s(TotalBiomass, k=10) +s(Fproxy, k=10) +s(CopepodSmallLarge, k=10) +s(AvgTempSpring, k=10), data=condSPP)</t>
+  </si>
+  <si>
+    <t>form.cond &lt;- formula(AvgRelCondStrata ~ s(AvgBottomTempStrata, k=10) +s(TotalBiomass, k=10) +s(Fproxy, k=10) +s(CopepodSmallLarge, k=10) +s(AvgTempSpring, k=10), data=condSPP)</t>
+  </si>
+  <si>
+    <t>AvgStomFullLag</t>
+  </si>
+  <si>
+    <t>Average Stomach Fullness by Strata Lagged 2020</t>
+  </si>
+  <si>
+    <t>AvgStomFullSpring</t>
+  </si>
+  <si>
+    <t>Average Stomach Fullness Spring</t>
+  </si>
+  <si>
+    <t>Lower condition with higher spring stomach volume</t>
+  </si>
 </sst>
 </file>
 
@@ -575,7 +596,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,6 +809,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,7 +1442,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1596,6 +1623,7 @@
     <xf numFmtId="0" fontId="19" fillId="36" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1671,7 +1699,42 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1711,13 +1774,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2060,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M371"/>
+  <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2076,10 +2132,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -2102,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2125,7 +2181,7 @@
         <v>558</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -2229,26 +2285,23 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
       <c r="B9">
+        <v>0.188</v>
+      </c>
+      <c r="C9">
         <v>2E-3</v>
       </c>
-      <c r="C9">
-        <v>9.8000000000000004E-2</v>
-      </c>
       <c r="D9">
-        <v>0.121</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E9">
-        <v>12.273999999999999</v>
+        <v>16.742000000000001</v>
       </c>
       <c r="F9">
-        <v>127</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2256,19 +2309,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C10">
-        <v>3.5000000000000003E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D10">
-        <v>3.7999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>12.619</v>
+        <v>12.382</v>
       </c>
       <c r="F10">
-        <v>758</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2276,19 +2329,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>7.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C11">
-        <v>2.3E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D11">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E11">
-        <v>24.212</v>
+        <v>24.628</v>
       </c>
       <c r="F11">
-        <v>430</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2296,19 +2349,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.20499999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="C12">
-        <v>5.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D12">
-        <v>1.0999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E12">
-        <v>13.234999999999999</v>
+        <v>13.095000000000001</v>
       </c>
       <c r="F12">
-        <v>612</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2332,26 +2385,26 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="52" t="s">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.125</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D14">
-        <v>0.13400000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E14">
-        <v>20.77</v>
+        <v>23.359000000000002</v>
       </c>
       <c r="F14">
-        <v>407</v>
+        <v>723</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -2379,19 +2432,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C16">
-        <v>2.9000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D16">
-        <v>4.1000000000000002E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E16">
-        <v>48.134999999999998</v>
+        <v>49.795000000000002</v>
       </c>
       <c r="F16">
-        <v>491</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2402,190 +2455,193 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.7999999999999999E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D17">
-        <v>4.7E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E17">
-        <v>11.481999999999999</v>
+        <v>11.388999999999999</v>
       </c>
       <c r="F17">
-        <v>773</v>
+        <v>790</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.9000000000000006E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D18">
-        <v>7.4999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E18">
-        <v>74.781999999999996</v>
+        <v>22.010999999999999</v>
       </c>
       <c r="F18">
-        <v>1059</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D19">
-        <v>8.0000000000000002E-3</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E19">
-        <v>25.567</v>
+        <v>73.762</v>
       </c>
       <c r="F19">
-        <v>336</v>
+        <v>1118</v>
+      </c>
+      <c r="G19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C20">
-        <v>6.0999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D20">
-        <v>6.6000000000000003E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E20">
-        <v>135.53899999999999</v>
+        <v>25.567</v>
       </c>
       <c r="F20">
-        <v>1637</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.8000000000000001E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D21">
-        <v>3.6999999999999998E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E21">
-        <v>15.388</v>
+        <v>135.53899999999999</v>
       </c>
       <c r="F21">
-        <v>324</v>
+        <v>1637</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>0.25900000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C22">
-        <v>1E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D22">
-        <v>3.0000000000000001E-3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E22">
-        <v>45.843000000000004</v>
+        <v>15.388</v>
       </c>
       <c r="F22">
-        <v>201</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="C23">
-        <v>4.9000000000000002E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="D23">
-        <v>6.2E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E23">
-        <v>12.211</v>
+        <v>45.843000000000004</v>
       </c>
       <c r="F23">
-        <v>489</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D24">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E24">
+        <v>12.211</v>
+      </c>
+      <c r="F24">
+        <v>489</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>31.088000000000001</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C25">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D25">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E25">
-        <v>40.097999999999999</v>
-      </c>
-      <c r="F25">
-        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2593,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2709,7 +2765,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="53" t="s">
+      <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34">
@@ -2729,23 +2785,23 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="52" t="s">
+      <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35">
-        <v>0.219</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="C35">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>13.234</v>
+        <v>16.518999999999998</v>
       </c>
       <c r="F35">
-        <v>127</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2753,22 +2809,19 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C36">
-        <v>4.3999999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D36">
-        <v>5.3999999999999999E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E36">
-        <v>12.59</v>
+        <v>12.238</v>
       </c>
       <c r="F36">
-        <v>758</v>
-      </c>
-      <c r="G36" t="s">
-        <v>30</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2776,19 +2829,19 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C37">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D37">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E37">
-        <v>24.484999999999999</v>
+        <v>24.86</v>
       </c>
       <c r="F37">
-        <v>430</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2796,19 +2849,19 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C38">
-        <v>3.5000000000000003E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D38">
-        <v>4.1000000000000002E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E38">
-        <v>12.833</v>
+        <v>12.849</v>
       </c>
       <c r="F38">
-        <v>612</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2832,26 +2885,26 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="52" t="s">
+      <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0.13200000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D40">
-        <v>0.14199999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E40">
-        <v>20.620999999999999</v>
+        <v>22.734999999999999</v>
       </c>
       <c r="F40">
-        <v>407</v>
+        <v>723</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2875,217 +2928,226 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="53" t="s">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42">
-        <v>0.113</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C42">
-        <v>0.01</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D42">
-        <v>1.7000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E42">
-        <v>48.841999999999999</v>
+        <v>49.564</v>
       </c>
       <c r="F42">
-        <v>491</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="53" t="s">
+      <c r="A43" t="s">
         <v>20</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>3.4000000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D43">
-        <v>4.2000000000000003E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E43">
-        <v>11.51</v>
+        <v>11.304</v>
       </c>
       <c r="F43">
-        <v>773</v>
+        <v>790</v>
+      </c>
+      <c r="G43" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="53" t="s">
-        <v>21</v>
+      <c r="A44" t="s">
+        <v>37</v>
       </c>
       <c r="B44">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1.9E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D44">
-        <v>2.5999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E44">
-        <v>76.584999999999994</v>
+        <v>21.54</v>
       </c>
       <c r="F44">
-        <v>880</v>
+        <v>586</v>
+      </c>
+      <c r="G44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45">
-        <v>7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1.6E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D45">
-        <v>2.5999999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E45">
-        <v>25.481000000000002</v>
+        <v>72.599000000000004</v>
       </c>
       <c r="F45">
-        <v>336</v>
+        <v>1118</v>
+      </c>
+      <c r="G45" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C46">
-        <v>5.8999999999999997E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D46">
-        <v>6.4000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E46">
-        <v>135.75899999999999</v>
+        <v>25.481000000000002</v>
       </c>
       <c r="F46">
-        <v>1637</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>2E-3</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D47">
-        <v>3.0000000000000001E-3</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E47">
-        <v>15.678000000000001</v>
+        <v>135.75899999999999</v>
       </c>
       <c r="F47">
-        <v>324</v>
+        <v>1637</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>0.217</v>
+        <v>0.221</v>
       </c>
       <c r="C48">
-        <v>1.9E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="D48">
-        <v>4.1000000000000002E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E48">
-        <v>46.033999999999999</v>
+        <v>15.678000000000001</v>
       </c>
       <c r="F48">
-        <v>201</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="C49">
-        <v>8.3000000000000004E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D49">
-        <v>9.7000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E49">
-        <v>11.798999999999999</v>
+        <v>46.033999999999999</v>
       </c>
       <c r="F49">
-        <v>489</v>
-      </c>
-      <c r="G49" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D50">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E50">
+        <v>11.798999999999999</v>
+      </c>
+      <c r="F50">
+        <v>489</v>
+      </c>
+      <c r="G50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>27</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>0.127</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>31.027000000000001</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>381</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D51">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E51">
-        <v>39.584000000000003</v>
-      </c>
-      <c r="F51">
-        <v>659</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H53" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
@@ -3093,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -3111,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J54" t="s">
         <v>2</v>
@@ -3146,7 +3208,7 @@
         <v>917</v>
       </c>
       <c r="H55" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I55">
         <v>7.0000000000000001E-3</v>
@@ -3184,7 +3246,7 @@
         <v>1590</v>
       </c>
       <c r="H56" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3222,7 +3284,7 @@
         <v>881</v>
       </c>
       <c r="H57" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I57">
         <v>0.33600000000000002</v>
@@ -3260,7 +3322,7 @@
         <v>1652</v>
       </c>
       <c r="H58" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I58">
         <v>0.182</v>
@@ -3298,7 +3360,7 @@
         <v>548</v>
       </c>
       <c r="H59" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I59">
         <v>0.17399999999999999</v>
@@ -3318,7 +3380,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>0.14599999999999999</v>
@@ -3336,7 +3398,7 @@
         <v>1177</v>
       </c>
       <c r="H60" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3374,7 +3436,7 @@
         <v>4436</v>
       </c>
       <c r="H61" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I61">
         <v>1E-3</v>
@@ -3412,7 +3474,7 @@
         <v>1305</v>
       </c>
       <c r="H62" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I62">
         <v>0.17</v>
@@ -3526,7 +3588,7 @@
         <v>1041</v>
       </c>
       <c r="H65" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I65">
         <v>5.0000000000000001E-3</v>
@@ -3564,7 +3626,7 @@
         <v>3437</v>
       </c>
       <c r="H66" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I66">
         <v>2E-3</v>
@@ -3584,7 +3646,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -3602,7 +3664,7 @@
         <v>1621</v>
       </c>
       <c r="H67" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -3640,7 +3702,7 @@
         <v>958</v>
       </c>
       <c r="H68" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3678,7 +3740,7 @@
         <v>1465</v>
       </c>
       <c r="H69" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I69">
         <v>0.104</v>
@@ -3698,7 +3760,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3716,7 +3778,7 @@
         <v>1680</v>
       </c>
       <c r="H70" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3754,7 +3816,7 @@
         <v>2705</v>
       </c>
       <c r="H71" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I71">
         <v>2.1999999999999999E-2</v>
@@ -3792,7 +3854,7 @@
         <v>2661</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3812,7 +3874,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3830,7 +3892,7 @@
         <v>853</v>
       </c>
       <c r="H73" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I73">
         <v>0.114</v>
@@ -3868,7 +3930,7 @@
         <v>2718</v>
       </c>
       <c r="H74" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3906,7 +3968,7 @@
         <v>489</v>
       </c>
       <c r="H75" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I75">
         <v>0.81499999999999995</v>
@@ -4020,7 +4082,7 @@
         <v>704</v>
       </c>
       <c r="H78" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I78">
         <v>0.42499999999999999</v>
@@ -4040,7 +4102,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4058,10 +4120,10 @@
         <v>857</v>
       </c>
       <c r="G79" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H79" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4099,7 +4161,7 @@
         <v>803</v>
       </c>
       <c r="H80" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4119,7 +4181,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B81">
         <v>0.125</v>
@@ -4137,7 +4199,7 @@
         <v>477</v>
       </c>
       <c r="H81" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I81">
         <v>9.2999999999999999E-2</v>
@@ -4175,7 +4237,7 @@
         <v>631</v>
       </c>
       <c r="H82" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I82">
         <v>0.105</v>
@@ -4233,10 +4295,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H85" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
@@ -4244,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -4262,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J86" t="s">
         <v>2</v>
@@ -4449,7 +4511,7 @@
         <v>548</v>
       </c>
       <c r="G91" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s">
         <v>10</v>
@@ -4472,7 +4534,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B92">
         <v>0.57099999999999995</v>
@@ -4490,7 +4552,7 @@
         <v>1177</v>
       </c>
       <c r="H92" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -4738,7 +4800,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4756,7 +4818,7 @@
         <v>1621</v>
       </c>
       <c r="H99" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -4852,7 +4914,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B102">
         <v>1.0999999999999999E-2</v>
@@ -4870,7 +4932,7 @@
         <v>1680</v>
       </c>
       <c r="H102" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I102">
         <v>5.0000000000000001E-3</v>
@@ -4966,7 +5028,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B105">
         <v>0.06</v>
@@ -4984,7 +5046,7 @@
         <v>853</v>
       </c>
       <c r="H105" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I105">
         <v>1.9E-2</v>
@@ -5194,7 +5256,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B111">
         <v>2E-3</v>
@@ -5212,7 +5274,7 @@
         <v>857</v>
       </c>
       <c r="H111" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -5270,7 +5332,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B113">
         <v>7.1999999999999995E-2</v>
@@ -5288,7 +5350,7 @@
         <v>477</v>
       </c>
       <c r="H113" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I113">
         <v>0.128</v>
@@ -5382,12 +5444,22 @@
         <v>2650</v>
       </c>
     </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <f>SUM(B87:B115)</f>
+        <v>7.0929999999999991</v>
+      </c>
+      <c r="I116">
+        <f>SUM(I87:I115)</f>
+        <v>5.194</v>
+      </c>
+    </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
@@ -5395,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
@@ -5413,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J118" t="s">
         <v>2</v>
@@ -5448,7 +5520,7 @@
         <v>866</v>
       </c>
       <c r="H119" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I119">
         <v>6.5000000000000002E-2</v>
@@ -5486,7 +5558,7 @@
         <v>1363</v>
       </c>
       <c r="H120" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I120">
         <v>1.4999999999999999E-2</v>
@@ -5524,7 +5596,7 @@
         <v>811</v>
       </c>
       <c r="H121" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I121">
         <v>1E-3</v>
@@ -5562,7 +5634,7 @@
         <v>1490</v>
       </c>
       <c r="H122" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I122">
         <v>2.8000000000000001E-2</v>
@@ -5600,7 +5672,7 @@
         <v>494</v>
       </c>
       <c r="H123" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I123">
         <v>2E-3</v>
@@ -5620,7 +5692,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B124">
         <v>1E-3</v>
@@ -5638,7 +5710,7 @@
         <v>940</v>
       </c>
       <c r="H124" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I124">
         <v>1E-3</v>
@@ -5676,7 +5748,7 @@
         <v>1889</v>
       </c>
       <c r="H125" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -5714,7 +5786,7 @@
         <v>826</v>
       </c>
       <c r="H126" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -5828,7 +5900,7 @@
         <v>811</v>
       </c>
       <c r="H129" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -5866,10 +5938,10 @@
         <v>1469</v>
       </c>
       <c r="G130" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H130" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -5889,7 +5961,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B131">
         <v>5.7000000000000002E-2</v>
@@ -5907,7 +5979,7 @@
         <v>1437</v>
       </c>
       <c r="H131" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I131">
         <v>1.2999999999999999E-2</v>
@@ -5945,7 +6017,7 @@
         <v>750</v>
       </c>
       <c r="H132" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I132">
         <v>0.14799999999999999</v>
@@ -5983,7 +6055,7 @@
         <v>1346</v>
       </c>
       <c r="H133" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -6003,7 +6075,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -6021,10 +6093,10 @@
         <v>1461</v>
       </c>
       <c r="G134" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H134" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -6062,7 +6134,7 @@
         <v>845</v>
       </c>
       <c r="H135" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I135">
         <v>0.249</v>
@@ -6100,7 +6172,7 @@
         <v>1055</v>
       </c>
       <c r="H136" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I136">
         <v>8.5999999999999993E-2</v>
@@ -6120,7 +6192,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B137">
         <v>7.0000000000000001E-3</v>
@@ -6138,7 +6210,7 @@
         <v>696</v>
       </c>
       <c r="H137" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -6176,10 +6248,10 @@
         <v>1298</v>
       </c>
       <c r="G138" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H138" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -6217,7 +6289,7 @@
         <v>438</v>
       </c>
       <c r="H139" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I139">
         <v>2.8000000000000001E-2</v>
@@ -6293,7 +6365,7 @@
         <v>803</v>
       </c>
       <c r="G141" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H141" t="s">
         <v>24</v>
@@ -6334,7 +6406,7 @@
         <v>652</v>
       </c>
       <c r="H142" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I142">
         <v>0.72799999999999998</v>
@@ -6354,7 +6426,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -6372,10 +6444,10 @@
         <v>779</v>
       </c>
       <c r="G143" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H143" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -6413,7 +6485,7 @@
         <v>602</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I144">
         <v>1.9E-2</v>
@@ -6433,7 +6505,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B145">
         <v>0.38</v>
@@ -6451,7 +6523,7 @@
         <v>421</v>
       </c>
       <c r="H145" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I145">
         <v>0.629</v>
@@ -6489,7 +6561,7 @@
         <v>559</v>
       </c>
       <c r="H146" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I146">
         <v>8.4000000000000005E-2</v>
@@ -6547,10 +6619,10 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H149" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.35">
@@ -6558,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
@@ -6576,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J150" t="s">
         <v>2</v>
@@ -6763,7 +6835,7 @@
         <v>362</v>
       </c>
       <c r="G155" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H155" t="s">
         <v>10</v>
@@ -6786,7 +6858,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -6804,10 +6876,10 @@
         <v>857</v>
       </c>
       <c r="G156" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H156" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -7055,7 +7127,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B163">
         <v>6.0000000000000001E-3</v>
@@ -7073,7 +7145,7 @@
         <v>1547</v>
       </c>
       <c r="H163" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I163">
         <v>2E-3</v>
@@ -7111,7 +7183,7 @@
         <v>691</v>
       </c>
       <c r="G164" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H164" t="s">
         <v>17</v>
@@ -7172,7 +7244,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -7190,7 +7262,7 @@
         <v>1569</v>
       </c>
       <c r="H166" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -7286,7 +7358,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B169">
         <v>0.53700000000000003</v>
@@ -7304,7 +7376,7 @@
         <v>618</v>
       </c>
       <c r="H169" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I169">
         <v>0.69199999999999995</v>
@@ -7380,7 +7452,7 @@
         <v>372</v>
       </c>
       <c r="G171" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H171" t="s">
         <v>22</v>
@@ -7517,7 +7589,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -7535,10 +7607,10 @@
         <v>831</v>
       </c>
       <c r="G175" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H175" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -7596,7 +7668,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B177">
         <v>0.45200000000000001</v>
@@ -7614,7 +7686,7 @@
         <v>388</v>
       </c>
       <c r="H177" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I177">
         <v>0.46600000000000003</v>
@@ -7710,10 +7782,10 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H181" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.35">
@@ -7721,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
@@ -7838,7 +7910,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -7916,7 +7988,7 @@
         <v>1085</v>
       </c>
       <c r="G191" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
@@ -7981,7 +8053,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -8019,7 +8091,7 @@
         <v>901</v>
       </c>
       <c r="G196" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -8044,7 +8116,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B198">
         <v>5.0000000000000001E-3</v>
@@ -8082,7 +8154,7 @@
         <v>893</v>
       </c>
       <c r="G199" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -8107,7 +8179,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -8125,7 +8197,7 @@
         <v>797</v>
       </c>
       <c r="G201" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -8230,7 +8302,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -8248,7 +8320,7 @@
         <v>798</v>
       </c>
       <c r="G207" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
@@ -8273,7 +8345,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B209">
         <v>6.0000000000000001E-3</v>
@@ -8333,10 +8405,10 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H213" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.35">
@@ -8344,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
@@ -8362,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J214" t="s">
         <v>2</v>
@@ -8397,7 +8469,7 @@
         <v>859</v>
       </c>
       <c r="H215" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I215">
         <v>3.0000000000000001E-3</v>
@@ -8435,7 +8507,7 @@
         <v>1502</v>
       </c>
       <c r="H216" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I216">
         <v>0.32900000000000001</v>
@@ -8473,7 +8545,7 @@
         <v>815</v>
       </c>
       <c r="H217" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I217">
         <v>3.0000000000000001E-3</v>
@@ -8511,7 +8583,7 @@
         <v>1530</v>
       </c>
       <c r="H218" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -8549,10 +8621,10 @@
         <v>510</v>
       </c>
       <c r="G219" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H219" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -8572,7 +8644,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -8590,7 +8662,7 @@
         <v>1104</v>
       </c>
       <c r="H220" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -8628,7 +8700,7 @@
         <v>2156</v>
       </c>
       <c r="H221" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -8666,7 +8738,7 @@
         <v>915</v>
       </c>
       <c r="H222" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I222">
         <v>2E-3</v>
@@ -8780,7 +8852,7 @@
         <v>960</v>
       </c>
       <c r="H225" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I225">
         <v>3.1E-2</v>
@@ -8818,7 +8890,7 @@
         <v>1644</v>
       </c>
       <c r="H226" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I226">
         <v>0</v>
@@ -8838,7 +8910,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -8856,7 +8928,7 @@
         <v>1471</v>
       </c>
       <c r="H227" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -8894,7 +8966,7 @@
         <v>901</v>
       </c>
       <c r="H228" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -8932,7 +9004,7 @@
         <v>1364</v>
       </c>
       <c r="H229" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -8952,7 +9024,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -8970,7 +9042,7 @@
         <v>1532</v>
       </c>
       <c r="H230" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -9008,7 +9080,7 @@
         <v>893</v>
       </c>
       <c r="H231" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I231">
         <v>0</v>
@@ -9046,7 +9118,7 @@
         <v>1117</v>
       </c>
       <c r="H232" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I232">
         <v>5.0000000000000001E-3</v>
@@ -9066,7 +9138,7 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B233">
         <v>1E-3</v>
@@ -9084,7 +9156,7 @@
         <v>797</v>
       </c>
       <c r="H233" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -9122,7 +9194,7 @@
         <v>1306</v>
       </c>
       <c r="H234" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -9160,7 +9232,7 @@
         <v>448</v>
       </c>
       <c r="H235" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I235">
         <v>2.7E-2</v>
@@ -9274,7 +9346,7 @@
         <v>635</v>
       </c>
       <c r="H238" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I238">
         <v>8.0000000000000002E-3</v>
@@ -9294,7 +9366,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -9312,7 +9384,7 @@
         <v>798</v>
       </c>
       <c r="H239" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -9350,7 +9422,7 @@
         <v>749</v>
       </c>
       <c r="H240" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -9370,7 +9442,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B241">
         <v>0.83299999999999996</v>
@@ -9388,7 +9460,7 @@
         <v>477</v>
       </c>
       <c r="H241" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I241">
         <v>0.67700000000000005</v>
@@ -9426,7 +9498,7 @@
         <v>577</v>
       </c>
       <c r="H242" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I242">
         <v>0.55200000000000005</v>
@@ -9484,10 +9556,10 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H245" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.35">
@@ -9495,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -9513,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J246" t="s">
         <v>2</v>
@@ -9720,7 +9792,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -9738,7 +9810,7 @@
         <v>1177</v>
       </c>
       <c r="H252" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I252">
         <v>0</v>
@@ -9986,7 +10058,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B259">
         <v>5.8999999999999997E-2</v>
@@ -10004,7 +10076,7 @@
         <v>1621</v>
       </c>
       <c r="H259" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I259">
         <v>7.8E-2</v>
@@ -10042,7 +10114,7 @@
         <v>958</v>
       </c>
       <c r="G260" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H260" t="s">
         <v>17</v>
@@ -10103,7 +10175,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -10121,7 +10193,7 @@
         <v>1680</v>
       </c>
       <c r="H262" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -10217,7 +10289,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B265">
         <v>1E-3</v>
@@ -10235,7 +10307,7 @@
         <v>853</v>
       </c>
       <c r="H265" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I265">
         <v>0</v>
@@ -10311,7 +10383,7 @@
         <v>489</v>
       </c>
       <c r="G267" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H267" t="s">
         <v>22</v>
@@ -10448,7 +10520,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -10466,7 +10538,7 @@
         <v>857</v>
       </c>
       <c r="H271" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I271">
         <v>1E-3</v>
@@ -10524,7 +10596,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B273">
         <v>8.1000000000000003E-2</v>
@@ -10542,7 +10614,7 @@
         <v>477</v>
       </c>
       <c r="H273" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I273">
         <v>3.4000000000000002E-2</v>
@@ -10638,10 +10710,10 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H277" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.35">
@@ -10649,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C278" t="s">
         <v>2</v>
@@ -10667,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J278" t="s">
         <v>2</v>
@@ -10874,7 +10946,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -10892,7 +10964,7 @@
         <v>1102</v>
       </c>
       <c r="H284" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I284">
         <v>0</v>
@@ -11140,7 +11212,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B291">
         <v>1E-3</v>
@@ -11158,7 +11230,7 @@
         <v>1617</v>
       </c>
       <c r="H291" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I291">
         <v>0</v>
@@ -11254,7 +11326,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -11272,7 +11344,7 @@
         <v>1665</v>
       </c>
       <c r="H294" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I294">
         <v>0</v>
@@ -11368,7 +11440,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B297">
         <v>6.2E-2</v>
@@ -11386,7 +11458,7 @@
         <v>796</v>
       </c>
       <c r="H297" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I297">
         <v>8.9999999999999993E-3</v>
@@ -11596,7 +11668,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -11614,10 +11686,10 @@
         <v>857</v>
       </c>
       <c r="G303" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H303" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I303">
         <v>0</v>
@@ -11675,7 +11747,7 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B305">
         <v>1.6E-2</v>
@@ -11693,7 +11765,7 @@
         <v>477</v>
       </c>
       <c r="H305" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I305">
         <v>7.0000000000000001E-3</v>
@@ -11789,10 +11861,10 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H309" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.35">
@@ -11800,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="B310" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C310" t="s">
         <v>2</v>
@@ -11818,7 +11890,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J310" t="s">
         <v>2</v>
@@ -12025,7 +12097,7 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -12043,7 +12115,7 @@
         <v>1177</v>
       </c>
       <c r="H316" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I316">
         <v>0</v>
@@ -12291,7 +12363,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B323">
         <v>0.23400000000000001</v>
@@ -12309,7 +12381,7 @@
         <v>1621</v>
       </c>
       <c r="H323" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I323">
         <v>0.18099999999999999</v>
@@ -12405,7 +12477,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -12423,7 +12495,7 @@
         <v>1680</v>
       </c>
       <c r="H326" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I326">
         <v>0</v>
@@ -12519,7 +12591,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B329">
         <v>1.6E-2</v>
@@ -12537,7 +12609,7 @@
         <v>853</v>
       </c>
       <c r="H329" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I329">
         <v>4.0000000000000001E-3</v>
@@ -12747,7 +12819,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -12765,10 +12837,10 @@
         <v>857</v>
       </c>
       <c r="G335" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H335" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I335">
         <v>0</v>
@@ -12826,7 +12898,7 @@
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B337">
         <v>0.624</v>
@@ -12844,7 +12916,7 @@
         <v>477</v>
       </c>
       <c r="H337" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I337">
         <v>0.57899999999999996</v>
@@ -12940,7 +13012,7 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.35">
@@ -12948,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="B342" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C342" t="s">
         <v>2</v>
@@ -13065,7 +13137,7 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -13083,7 +13155,7 @@
         <v>972</v>
       </c>
       <c r="G348" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.35">
@@ -13208,7 +13280,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B355">
         <v>8.9999999999999993E-3</v>
@@ -13268,7 +13340,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B358">
         <v>4.0000000000000001E-3</v>
@@ -13306,7 +13378,7 @@
         <v>817</v>
       </c>
       <c r="G359" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
@@ -13331,7 +13403,7 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -13451,7 +13523,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -13489,9 +13561,9 @@
         <v>634</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B369">
         <v>0.41099999999999998</v>
@@ -13509,7 +13581,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>27</v>
       </c>
@@ -13529,7 +13601,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>28</v>
       </c>
@@ -13549,30 +13621,1034 @@
         <v>1114</v>
       </c>
     </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>0</v>
+      </c>
+      <c r="B374" t="s">
+        <v>135</v>
+      </c>
+      <c r="C374" t="s">
+        <v>2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>3</v>
+      </c>
+      <c r="E374" t="s">
+        <v>4</v>
+      </c>
+      <c r="F374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="C375">
+        <v>0</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>20.236999999999998</v>
+      </c>
+      <c r="F375">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>7</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>0</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>16.148</v>
+      </c>
+      <c r="F376">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>8</v>
+      </c>
+      <c r="B377">
+        <v>1E-3</v>
+      </c>
+      <c r="C377">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D377">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E377">
+        <v>21.928999999999998</v>
+      </c>
+      <c r="F377">
+        <v>451</v>
+      </c>
+      <c r="G377" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C378">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D378">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E378">
+        <v>48.88</v>
+      </c>
+      <c r="F378">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>10</v>
+      </c>
+      <c r="B379">
+        <v>0.191</v>
+      </c>
+      <c r="C379">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D379">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E379">
+        <v>53.697000000000003</v>
+      </c>
+      <c r="F379">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>11</v>
+      </c>
+      <c r="B380">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>45.725999999999999</v>
+      </c>
+      <c r="F380">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>13</v>
+      </c>
+      <c r="B381">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>9.4280000000000008</v>
+      </c>
+      <c r="F381">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>14</v>
+      </c>
+      <c r="B382">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>23.535</v>
+      </c>
+      <c r="F382">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>15</v>
+      </c>
+      <c r="B383">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>13.928000000000001</v>
+      </c>
+      <c r="F383">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>16</v>
+      </c>
+      <c r="B384">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C384">
+        <v>2E-3</v>
+      </c>
+      <c r="D384">
+        <v>2E-3</v>
+      </c>
+      <c r="E384">
+        <v>47.140999999999998</v>
+      </c>
+      <c r="F384">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>35</v>
+      </c>
+      <c r="B385">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C385">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D385">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E385">
+        <v>22.614999999999998</v>
+      </c>
+      <c r="F385">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>17</v>
+      </c>
+      <c r="B386">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>18.408000000000001</v>
+      </c>
+      <c r="F386">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>18</v>
+      </c>
+      <c r="B387">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C387">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D387">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E387">
+        <v>12.226000000000001</v>
+      </c>
+      <c r="F387">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>36</v>
+      </c>
+      <c r="B388">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C388">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D388">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E388">
+        <v>57.697000000000003</v>
+      </c>
+      <c r="F388">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>20</v>
+      </c>
+      <c r="B389">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C389">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D389">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E389">
+        <v>9.94</v>
+      </c>
+      <c r="F389">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>37</v>
+      </c>
+      <c r="B390">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C390">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D390">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E390">
+        <v>17.259</v>
+      </c>
+      <c r="F390">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>23</v>
+      </c>
+      <c r="B391">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="C391">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D391">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E391">
+        <v>106.694</v>
+      </c>
+      <c r="F391">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>24</v>
+      </c>
+      <c r="B392">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C392">
+        <v>2E-3</v>
+      </c>
+      <c r="D392">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E392">
+        <v>20.588000000000001</v>
+      </c>
+      <c r="F392">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>25</v>
+      </c>
+      <c r="B393">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C393">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D393">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E393">
+        <v>38.926000000000002</v>
+      </c>
+      <c r="F393">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>38</v>
+      </c>
+      <c r="B394">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C394">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D394">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E394">
+        <v>40.145000000000003</v>
+      </c>
+      <c r="F394">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>26</v>
+      </c>
+      <c r="B395">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C395">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D395">
+        <v>0.05</v>
+      </c>
+      <c r="E395">
+        <v>8.6319999999999997</v>
+      </c>
+      <c r="F395">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>39</v>
+      </c>
+      <c r="B396">
+        <v>0.248</v>
+      </c>
+      <c r="C396">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D396">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E396">
+        <v>68.569000000000003</v>
+      </c>
+      <c r="F396">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>27</v>
+      </c>
+      <c r="B397">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>37.753</v>
+      </c>
+      <c r="F397">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>28</v>
+      </c>
+      <c r="B398">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C398">
+        <v>2E-3</v>
+      </c>
+      <c r="D398">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E398">
+        <v>41.662999999999997</v>
+      </c>
+      <c r="F398">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>0</v>
+      </c>
+      <c r="B401" t="s">
+        <v>137</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>3</v>
+      </c>
+      <c r="E401" t="s">
+        <v>4</v>
+      </c>
+      <c r="F401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>57.183</v>
+      </c>
+      <c r="F402">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>7</v>
+      </c>
+      <c r="B403">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="C403">
+        <v>1E-3</v>
+      </c>
+      <c r="D403">
+        <v>2E-3</v>
+      </c>
+      <c r="E403">
+        <v>20.812000000000001</v>
+      </c>
+      <c r="F403">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>8</v>
+      </c>
+      <c r="B404">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C404">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D404">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E404">
+        <v>24.096</v>
+      </c>
+      <c r="F404">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>9</v>
+      </c>
+      <c r="B405">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C405">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D405">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E405">
+        <v>53.435000000000002</v>
+      </c>
+      <c r="F405">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>10</v>
+      </c>
+      <c r="B406">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="C406">
+        <v>2E-3</v>
+      </c>
+      <c r="D406">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E406">
+        <v>45.944000000000003</v>
+      </c>
+      <c r="F406">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>11</v>
+      </c>
+      <c r="B407">
+        <v>0.01</v>
+      </c>
+      <c r="C407">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D407">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E407">
+        <v>50.658000000000001</v>
+      </c>
+      <c r="F407">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>13</v>
+      </c>
+      <c r="B408">
+        <v>0.188</v>
+      </c>
+      <c r="C408">
+        <v>1E-3</v>
+      </c>
+      <c r="D408">
+        <v>2E-3</v>
+      </c>
+      <c r="E408">
+        <v>9.8919999999999995</v>
+      </c>
+      <c r="F408">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>14</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+      <c r="E409">
+        <v>23.504000000000001</v>
+      </c>
+      <c r="F409">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>15</v>
+      </c>
+      <c r="B410">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C410">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D410">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E410">
+        <v>12.749000000000001</v>
+      </c>
+      <c r="F410">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>16</v>
+      </c>
+      <c r="B411">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+      <c r="E411">
+        <v>49.564999999999998</v>
+      </c>
+      <c r="F411">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>35</v>
+      </c>
+      <c r="B412">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C412">
+        <v>0.01</v>
+      </c>
+      <c r="D412">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E412">
+        <v>21.762</v>
+      </c>
+      <c r="F412">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>17</v>
+      </c>
+      <c r="B413">
+        <v>0.19</v>
+      </c>
+      <c r="C413">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D413">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E413">
+        <v>21.425000000000001</v>
+      </c>
+      <c r="F413">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="C414">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D414">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E414">
+        <v>12.244</v>
+      </c>
+      <c r="F414">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>36</v>
+      </c>
+      <c r="B415">
+        <v>0.105</v>
+      </c>
+      <c r="C415">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D415">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E415">
+        <v>51.715000000000003</v>
+      </c>
+      <c r="F415">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>20</v>
+      </c>
+      <c r="B416">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C416">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D416">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E416">
+        <v>10.33</v>
+      </c>
+      <c r="F416">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>37</v>
+      </c>
+      <c r="B417">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="E417">
+        <v>22.093</v>
+      </c>
+      <c r="F417">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>23</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D418">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E418">
+        <v>123.827</v>
+      </c>
+      <c r="F418">
+        <v>331</v>
+      </c>
+      <c r="G418" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>25</v>
+      </c>
+      <c r="B419">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C419">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D419">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E419">
+        <v>45.057000000000002</v>
+      </c>
+      <c r="F419">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>38</v>
+      </c>
+      <c r="B420">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C420">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D420">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E420">
+        <v>14.496</v>
+      </c>
+      <c r="F420">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>26</v>
+      </c>
+      <c r="B421">
+        <v>0.108</v>
+      </c>
+      <c r="C421">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D421">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E421">
+        <v>8.9550000000000001</v>
+      </c>
+      <c r="F421">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>39</v>
+      </c>
+      <c r="B422">
+        <v>0.628</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>68.72</v>
+      </c>
+      <c r="F422">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>27</v>
+      </c>
+      <c r="B423">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C423">
+        <v>0.01</v>
+      </c>
+      <c r="D423">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E423">
+        <v>31.436</v>
+      </c>
+      <c r="F423">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>28</v>
+      </c>
+      <c r="B424">
+        <v>0.442</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>39.320999999999998</v>
+      </c>
+      <c r="F424">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D116 D118:D1048576">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B116 B118:B1048576">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="I1:I115 I117:I1048576">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I116">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13583,17 +14659,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -13601,22 +14677,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -13840,8 +14916,8 @@
       <c r="K8">
         <v>864</v>
       </c>
-      <c r="L8" t="s">
-        <v>132</v>
+      <c r="L8" s="62" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -14161,7 +15237,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>5.0000000000000001E-3</v>
@@ -14194,7 +15270,7 @@
         <v>439</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -14231,8 +15307,8 @@
       <c r="K19">
         <v>977</v>
       </c>
-      <c r="L19" t="s">
-        <v>132</v>
+      <c r="L19" s="62" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -14445,18 +15521,1831 @@
         <v>340</v>
       </c>
     </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <f>SUM(I3:I25)</f>
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="C29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D29">
+        <v>0.443</v>
+      </c>
+      <c r="E29">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.31</v>
+      </c>
+      <c r="G29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H29">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I29">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J29">
+        <v>20.260999999999999</v>
+      </c>
+      <c r="K29">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D30">
+        <v>2E-3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.223</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I30">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J30">
+        <v>20.870999999999999</v>
+      </c>
+      <c r="K30">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E31">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="F31">
+        <v>0.156</v>
+      </c>
+      <c r="G31">
+        <v>0.629</v>
+      </c>
+      <c r="H31">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I31">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="J31">
+        <v>25.422999999999998</v>
+      </c>
+      <c r="K31">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D32">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.05</v>
+      </c>
+      <c r="I32">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J32">
+        <v>56.963000000000001</v>
+      </c>
+      <c r="K32">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D33">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="G33">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.114</v>
+      </c>
+      <c r="I33">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="J33">
+        <v>42.08</v>
+      </c>
+      <c r="K33">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1E-3</v>
+      </c>
+      <c r="C34">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.155</v>
+      </c>
+      <c r="I34">
+        <v>0.189</v>
+      </c>
+      <c r="J34">
+        <v>57.63</v>
+      </c>
+      <c r="K34">
+        <v>864</v>
+      </c>
+      <c r="L34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>1E-3</v>
+      </c>
+      <c r="C35">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J35">
+        <v>15.603</v>
+      </c>
+      <c r="K35">
+        <v>312</v>
+      </c>
+      <c r="L35" s="62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="C36">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D36">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E36">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F36">
+        <v>1E-3</v>
+      </c>
+      <c r="G36">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H36">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I36">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J36">
+        <v>13.18</v>
+      </c>
+      <c r="K36">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>0.629</v>
+      </c>
+      <c r="C37">
+        <v>0.32</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="G37">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H37">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I37">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J37">
+        <v>24.515999999999998</v>
+      </c>
+      <c r="K37">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E38">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G38">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="H38">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I38">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J38">
+        <v>13.68</v>
+      </c>
+      <c r="K38">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.124</v>
+      </c>
+      <c r="I39">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="J39">
+        <v>58.113999999999997</v>
+      </c>
+      <c r="K39">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>0.85</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0.159</v>
+      </c>
+      <c r="E40">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="I40">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="J40">
+        <v>20.556000000000001</v>
+      </c>
+      <c r="K40">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G41">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H41">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I41">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J41">
+        <v>12.673999999999999</v>
+      </c>
+      <c r="K41">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C42">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2E-3</v>
+      </c>
+      <c r="G42">
+        <v>1E-3</v>
+      </c>
+      <c r="H42">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I42">
+        <v>0.109</v>
+      </c>
+      <c r="J42">
+        <v>46.73</v>
+      </c>
+      <c r="K42">
+        <v>443</v>
+      </c>
+      <c r="L42" s="62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>1E-3</v>
+      </c>
+      <c r="C43">
+        <v>2E-3</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0.108</v>
+      </c>
+      <c r="I43">
+        <v>0.123</v>
+      </c>
+      <c r="J43">
+        <v>10.967000000000001</v>
+      </c>
+      <c r="K43">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.39</v>
+      </c>
+      <c r="D44">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E44">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F44">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G44">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H44">
+        <v>0.112</v>
+      </c>
+      <c r="I44" s="62">
+        <v>0.15</v>
+      </c>
+      <c r="J44">
+        <v>21.834</v>
+      </c>
+      <c r="K44">
+        <v>439</v>
+      </c>
+      <c r="L44" s="62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G45">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.186</v>
+      </c>
+      <c r="I45">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="J45">
+        <v>66.518000000000001</v>
+      </c>
+      <c r="K45">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C46">
+        <v>0.182</v>
+      </c>
+      <c r="D46">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E46">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H46">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I46">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J46">
+        <v>25.800999999999998</v>
+      </c>
+      <c r="K46">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G47">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H47">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I47">
+        <v>0.161</v>
+      </c>
+      <c r="J47">
+        <v>123.024</v>
+      </c>
+      <c r="K47">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F48">
+        <v>0.123</v>
+      </c>
+      <c r="G48">
+        <v>0.04</v>
+      </c>
+      <c r="H48">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I48">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J48">
+        <v>14.522</v>
+      </c>
+      <c r="K48">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="C49">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D49">
+        <v>0.92</v>
+      </c>
+      <c r="E49">
+        <v>0.68</v>
+      </c>
+      <c r="F49">
+        <v>0.01</v>
+      </c>
+      <c r="G49">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H49">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J49">
+        <v>41.48</v>
+      </c>
+      <c r="K49">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="D50">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E50">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F50">
+        <v>0.746</v>
+      </c>
+      <c r="G50">
+        <v>0.01</v>
+      </c>
+      <c r="H50">
+        <v>0.1</v>
+      </c>
+      <c r="I50">
+        <v>0.13</v>
+      </c>
+      <c r="J50">
+        <v>12.772</v>
+      </c>
+      <c r="K50">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C51">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="D51">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F51">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G51">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H51">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I51">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="J51">
+        <v>30.087</v>
+      </c>
+      <c r="K51">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I52">
+        <f>SUM(I29:I51)</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>0.128</v>
+      </c>
+      <c r="C55">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D55">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E55">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F55">
+        <v>0.626</v>
+      </c>
+      <c r="G55">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H55">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I55">
+        <v>20.373000000000001</v>
+      </c>
+      <c r="J55">
+        <v>523</v>
+      </c>
+      <c r="L55">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M55">
+        <f>H55-L55</f>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>0.03</v>
+      </c>
+      <c r="C56">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H56">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I56">
+        <v>20.984000000000002</v>
+      </c>
+      <c r="J56">
+        <v>1019</v>
+      </c>
+      <c r="L56">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ref="M56:M77" si="0">H56-L56</f>
+        <v>-8.9999999999999941E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D57">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E57">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F57">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G57">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H57">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I57">
+        <v>25.675000000000001</v>
+      </c>
+      <c r="J57">
+        <v>547</v>
+      </c>
+      <c r="L57">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>-1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C58">
+        <v>0.377</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.05</v>
+      </c>
+      <c r="H58">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I58">
+        <v>56.963000000000001</v>
+      </c>
+      <c r="J58">
+        <v>1225</v>
+      </c>
+      <c r="L58">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.192</v>
+      </c>
+      <c r="F59">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H59">
+        <v>0.123</v>
+      </c>
+      <c r="I59">
+        <v>42.548999999999999</v>
+      </c>
+      <c r="J59">
+        <v>423</v>
+      </c>
+      <c r="L59">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>-1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>1E-3</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0.155</v>
+      </c>
+      <c r="H60">
+        <v>0.189</v>
+      </c>
+      <c r="I60">
+        <v>57.63</v>
+      </c>
+      <c r="J60">
+        <v>864</v>
+      </c>
+      <c r="L60">
+        <v>0.189</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>1E-3</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E61">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F61">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="H61">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I61">
+        <v>15.603</v>
+      </c>
+      <c r="J61">
+        <v>312</v>
+      </c>
+      <c r="L61">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>0.52</v>
+      </c>
+      <c r="C62">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D62">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E62">
+        <v>2E-3</v>
+      </c>
+      <c r="F62">
+        <v>0.219</v>
+      </c>
+      <c r="G62">
+        <v>0.09</v>
+      </c>
+      <c r="H62">
+        <v>0.115</v>
+      </c>
+      <c r="I62">
+        <v>13.186</v>
+      </c>
+      <c r="J62">
+        <v>366</v>
+      </c>
+      <c r="L62">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="F63">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G63">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H63">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I63">
+        <v>24.516999999999999</v>
+      </c>
+      <c r="J63">
+        <v>390</v>
+      </c>
+      <c r="L63">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C64">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D64">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="F64">
+        <v>0.98</v>
+      </c>
+      <c r="G64">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H64">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I64">
+        <v>14.125</v>
+      </c>
+      <c r="J64">
+        <v>477</v>
+      </c>
+      <c r="L64">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>-2.8999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H65">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I65">
+        <v>58.231000000000002</v>
+      </c>
+      <c r="J65">
+        <v>1137</v>
+      </c>
+      <c r="L65">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>-7.9999999999999793E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D66">
+        <v>0.183</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H66">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I66">
+        <v>20.960999999999999</v>
+      </c>
+      <c r="J66">
+        <v>537</v>
+      </c>
+      <c r="L66">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F67">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="G67">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H67">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I67">
+        <v>12.664</v>
+      </c>
+      <c r="J67">
+        <v>1098</v>
+      </c>
+      <c r="L67">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C68">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H68">
+        <v>0.104</v>
+      </c>
+      <c r="I68">
+        <v>46.881999999999998</v>
+      </c>
+      <c r="J68">
+        <v>443</v>
+      </c>
+      <c r="L68">
+        <v>0.109</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69">
+        <v>1E-3</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>2E-3</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G69">
+        <v>0.112</v>
+      </c>
+      <c r="H69" s="62">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I69">
+        <v>10.973000000000001</v>
+      </c>
+      <c r="J69">
+        <v>705</v>
+      </c>
+      <c r="L69">
+        <v>0.123</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="0"/>
+        <v>9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C70">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D70">
+        <v>0.182</v>
+      </c>
+      <c r="E70">
+        <v>1E-3</v>
+      </c>
+      <c r="F70">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G70">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="H70">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I70">
+        <v>21.917999999999999</v>
+      </c>
+      <c r="J70">
+        <v>439</v>
+      </c>
+      <c r="L70" s="62">
+        <v>0.15</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="0"/>
+        <v>-3.3999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F71">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G71">
+        <v>0.186</v>
+      </c>
+      <c r="H71">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="I71">
+        <v>66.516999999999996</v>
+      </c>
+      <c r="J71">
+        <v>977</v>
+      </c>
+      <c r="L71">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C72">
+        <v>0.02</v>
+      </c>
+      <c r="D72">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F72">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G72">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H72">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I72">
+        <v>25.844999999999999</v>
+      </c>
+      <c r="J72">
+        <v>303</v>
+      </c>
+      <c r="L72">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G73">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H73">
+        <v>0.157</v>
+      </c>
+      <c r="I73">
+        <v>123.432</v>
+      </c>
+      <c r="J73">
+        <v>1459</v>
+      </c>
+      <c r="L73">
+        <v>0.161</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="E74">
+        <v>0.123</v>
+      </c>
+      <c r="F74">
+        <v>0.04</v>
+      </c>
+      <c r="G74">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H74">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I74">
+        <v>14.522</v>
+      </c>
+      <c r="J74">
+        <v>293</v>
+      </c>
+      <c r="L74">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C75">
+        <v>0.49</v>
+      </c>
+      <c r="D75">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="E75">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F75">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G75">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.09</v>
+      </c>
+      <c r="I75">
+        <v>42.002000000000002</v>
+      </c>
+      <c r="J75">
+        <v>173</v>
+      </c>
+      <c r="L75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="0"/>
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D76">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E76">
+        <v>0.746</v>
+      </c>
+      <c r="F76">
+        <v>0.01</v>
+      </c>
+      <c r="G76">
+        <v>0.1</v>
+      </c>
+      <c r="H76">
+        <v>0.13</v>
+      </c>
+      <c r="I76">
+        <v>12.772</v>
+      </c>
+      <c r="J76">
+        <v>360</v>
+      </c>
+      <c r="L76">
+        <v>0.13</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="C77">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D77">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E77">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F77">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G77">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H77">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I77">
+        <v>30.091000000000001</v>
+      </c>
+      <c r="J77">
+        <v>340</v>
+      </c>
+      <c r="L77">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="0"/>
+        <v>-1.9999999999999879E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="I1:I53 I78:I1048576">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55:L77">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55:H77">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14466,10 +17355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView topLeftCell="P19" workbookViewId="0">
-      <selection activeCell="P20" sqref="A20:XFD20"/>
+    <sheetView topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14484,128 +17373,131 @@
     <col min="23" max="23" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="Q1">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
+      <c r="B2" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="64"/>
+      <c r="R2" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="65"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="68" t="s">
+      <c r="C3" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66"/>
+      <c r="F3" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="68"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="68"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="T3" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="U3" s="66"/>
-      <c r="V3" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="66"/>
+      <c r="S3" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="67"/>
+      <c r="V3" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="W3" s="68"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="67"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6"/>
-    </row>
-    <row r="4" spans="1:37" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="AE3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="69"/>
+        <v>46</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="8" t="s">
@@ -14615,32 +17507,32 @@
         <v>0</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="69"/>
+        <v>46</v>
+      </c>
+      <c r="S4" s="70"/>
       <c r="T4" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA4" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="AB4" s="12"/>
       <c r="AC4" s="8" t="s">
@@ -14650,25 +17542,31 @@
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="AH4" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL4" t="s">
         <v>2</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -14701,7 +17599,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R5" s="14">
         <v>0.16</v>
@@ -14731,25 +17629,31 @@
         <v>6</v>
       </c>
       <c r="AF5">
-        <v>0.12</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="AG5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AH5">
+        <v>0.443</v>
+      </c>
+      <c r="AI5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="AJ5">
+        <v>0.31</v>
+      </c>
+      <c r="AK5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AH5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="AK5">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AM5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
@@ -14812,25 +17716,31 @@
         <v>7</v>
       </c>
       <c r="AF6">
-        <v>5.6000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AH6">
-        <v>0.02</v>
+        <v>2E-3</v>
       </c>
       <c r="AI6">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>2.1999999999999999E-2</v>
+        <v>0.223</v>
       </c>
       <c r="AK6">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AM6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
@@ -14896,22 +17806,28 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.41499999999999998</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AH7">
-        <v>0.154</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI7">
-        <v>0.122</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="AJ7">
-        <v>2.4E-2</v>
+        <v>0.156</v>
       </c>
       <c r="AK7">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.629</v>
+      </c>
+      <c r="AL7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AM7">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -14944,7 +17860,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="R8" s="32">
         <v>0</v>
@@ -14974,25 +17890,31 @@
         <v>9</v>
       </c>
       <c r="AF8">
-        <v>8.2000000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AG8">
-        <v>0.17100000000000001</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="AI8">
-        <v>0.191</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AL8">
+        <v>0.05</v>
+      </c>
+      <c r="AM8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
@@ -15055,27 +17977,33 @@
         <v>10</v>
       </c>
       <c r="AF9">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>8.5000000000000006E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AH9">
-        <v>0.53600000000000003</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AI9">
-        <v>0.35699999999999998</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>2.3E-2</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="AK9">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AL9">
+        <v>0.114</v>
+      </c>
+      <c r="AM9">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="56"/>
@@ -15122,25 +18050,31 @@
         <v>11</v>
       </c>
       <c r="AF10">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="AG10">
-        <v>0.3</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="AH10">
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0.155</v>
+      </c>
+      <c r="AM10">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
@@ -15189,25 +18123,31 @@
         <v>12</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AG11">
-        <v>0.28499999999999998</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="AH11">
-        <v>2.1000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>1E-3</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AJ11">
-        <v>6.2E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AK11">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AL11">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AM11">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>12</v>
       </c>
@@ -15226,7 +18166,7 @@
       <c r="N12" s="45"/>
       <c r="O12" s="46"/>
       <c r="Q12" s="22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="R12" s="29">
         <v>0.187</v>
@@ -15256,25 +18196,31 @@
         <v>13</v>
       </c>
       <c r="AF12">
-        <v>8.0000000000000002E-3</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="AG12">
-        <v>0.67700000000000005</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AI12">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AJ12">
+        <v>1E-3</v>
+      </c>
+      <c r="AK12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AL12">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="AJ12">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="AK12">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AM12">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
@@ -15337,25 +18283,31 @@
         <v>14</v>
       </c>
       <c r="AF13">
-        <v>0.50800000000000001</v>
+        <v>0.629</v>
       </c>
       <c r="AG13">
-        <v>0.42599999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="AH13">
-        <v>0.13100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0.215</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="AJ13">
-        <v>1.0999999999999999E-2</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="AK13">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AL13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AM13">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>14</v>
       </c>
@@ -15421,22 +18373,28 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0.28799999999999998</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>1.7000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AI14">
-        <v>8.9999999999999993E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AJ14">
-        <v>5.1999999999999998E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AK14">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="AL14">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AM14">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
@@ -15469,7 +18427,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="R15" s="32">
         <v>0</v>
@@ -15502,22 +18460,28 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0.66500000000000004</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="AH15">
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="AJ15">
-        <v>9.0999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0.124</v>
+      </c>
+      <c r="AM15">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -15580,27 +18544,33 @@
         <v>17</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="AG16">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.159</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="AJ16">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AM16">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="56"/>
@@ -15648,22 +18618,28 @@
         <v>0</v>
       </c>
       <c r="AG17">
-        <v>0.53</v>
+        <v>1</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="AI17">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>6.2E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="AK17">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AL17">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AM17">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
@@ -15712,25 +18688,31 @@
         <v>19</v>
       </c>
       <c r="AF18">
-        <v>1.7000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AG18">
-        <v>0.27700000000000002</v>
+        <v>7.8E-2</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="AI18">
         <v>0</v>
       </c>
       <c r="AJ18">
-        <v>8.7999999999999995E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="AK18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+        <v>1E-3</v>
+      </c>
+      <c r="AL18">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AM18">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>18</v>
       </c>
@@ -15779,27 +18761,33 @@
         <v>20</v>
       </c>
       <c r="AF19">
-        <v>0.48899999999999999</v>
+        <v>1E-3</v>
       </c>
       <c r="AG19">
-        <v>0.113</v>
+        <v>2E-3</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>7.3999999999999996E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="AJ19">
-        <v>4.2999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <v>5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AL19">
+        <v>0.108</v>
+      </c>
+      <c r="AM19">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="56"/>
@@ -15843,28 +18831,34 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="AE20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AF20">
-        <v>5.0000000000000001E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="AG20">
-        <v>0.65700000000000003</v>
+        <v>0.39</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AI20">
-        <v>0.34599999999999997</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="AJ20">
-        <v>8.4000000000000005E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AK20">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="AL20">
+        <v>0.112</v>
+      </c>
+      <c r="AM20">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
@@ -15883,7 +18877,7 @@
       <c r="N21" s="45"/>
       <c r="O21" s="46"/>
       <c r="Q21" s="22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="R21" s="32">
         <v>0</v>
@@ -15914,22 +18908,28 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0.19</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="AH21">
-        <v>0.41299999999999998</v>
+        <v>0</v>
       </c>
       <c r="AI21">
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0.189</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="AK21">
-        <v>0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+        <v>2.7E-2</v>
+      </c>
+      <c r="AL21">
+        <v>0.186</v>
+      </c>
+      <c r="AM21">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>20</v>
       </c>
@@ -15978,27 +18978,33 @@
         <v>22</v>
       </c>
       <c r="AF22">
-        <v>7.0999999999999994E-2</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="AG22">
+        <v>0.182</v>
+      </c>
+      <c r="AH22">
+        <v>1.4E-2</v>
+      </c>
+      <c r="AI22">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AJ22">
         <v>1</v>
       </c>
-      <c r="AH22">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="AI22">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="AJ22">
-        <v>0.04</v>
-      </c>
       <c r="AK22">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AL22">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="AM22">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="56"/>
@@ -16015,7 +19021,7 @@
       <c r="N23" s="45"/>
       <c r="O23" s="46"/>
       <c r="Q23" s="22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="R23" s="29">
         <v>0.13100000000000001</v>
@@ -16048,7 +19054,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>4.7E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -16057,13 +19063,19 @@
         <v>0</v>
       </c>
       <c r="AJ23">
-        <v>9.4E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AK23">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL23">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AM23">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
@@ -16112,25 +19124,31 @@
         <v>24</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="AG24">
-        <v>9.7000000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
-        <v>0.108</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="AJ24">
-        <v>9.1999999999999998E-2</v>
+        <v>0.123</v>
       </c>
       <c r="AK24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.04</v>
+      </c>
+      <c r="AL24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AM24">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>22</v>
       </c>
@@ -16179,25 +19197,31 @@
         <v>25</v>
       </c>
       <c r="AF25">
-        <v>0.27900000000000003</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="AG25">
-        <v>6.2E-2</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="AH25">
-        <v>7.2999999999999995E-2</v>
+        <v>0.92</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AJ25">
-        <v>5.6000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AK25">
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="AL25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AM25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>23</v>
       </c>
@@ -16244,25 +19268,31 @@
         <v>26</v>
       </c>
       <c r="AF26">
-        <v>3.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>7.6999999999999999E-2</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AI26">
-        <v>0.02</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AJ26">
-        <v>5.8000000000000003E-2</v>
+        <v>0.746</v>
       </c>
       <c r="AK26">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+        <v>0.01</v>
+      </c>
+      <c r="AL26">
+        <v>0.1</v>
+      </c>
+      <c r="AM26">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
         <v>24</v>
       </c>
@@ -16309,25 +19339,31 @@
         <v>27</v>
       </c>
       <c r="AF27">
-        <v>5.8999999999999997E-2</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="AG27">
-        <v>0.68100000000000005</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="AH27">
-        <v>3.4000000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AI27">
-        <v>0.42199999999999999</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="AJ27">
-        <v>0.02</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AK27">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AL27">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AM27">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
@@ -16371,9 +19407,9 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="56"/>
@@ -16417,7 +19453,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>26</v>
       </c>
@@ -16463,9 +19499,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="56"/>
@@ -16509,7 +19545,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>27</v>
       </c>
@@ -16617,21 +19653,34 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK1:AK1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="AK1:AK3 AK28:AK1048576">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM4:AM27">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF4:AK27">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -17,7 +17,6 @@
     <sheet name="MechanismSummaryTable" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1881,6 +1880,49 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304229</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>151829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="184150"/>
+          <a:ext cx="4571429" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2146,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2168,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -14839,6 +14881,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
-    <sheet name="Mechanism GAMs" sheetId="3" r:id="rId2"/>
-    <sheet name="MechanismSummaryTable" sheetId="2" r:id="rId3"/>
+    <sheet name="SingleGAM Summary" sheetId="4" r:id="rId2"/>
+    <sheet name="SingleGAM Selection" sheetId="5" r:id="rId3"/>
+    <sheet name="Mechanism GAMs" sheetId="3" r:id="rId4"/>
+    <sheet name="MechanismSummaryTable" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="147">
   <si>
     <t>Species</t>
   </si>
@@ -447,6 +449,21 @@
   </si>
   <si>
     <t>Generally lower condition with higher F</t>
+  </si>
+  <si>
+    <t>Bottom Temp and Total Copepods</t>
+  </si>
+  <si>
+    <t>Average Winter Bottom Temp</t>
+  </si>
+  <si>
+    <t>Local Biomass</t>
+  </si>
+  <si>
+    <t>Local Abundance</t>
+  </si>
+  <si>
+    <t>Same as above adding na.gam.replace</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1715,49 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="123">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1800,6 +1859,566 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1867,6 +2486,97 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1912,6 +2622,49 @@
         <a:xfrm>
           <a:off x="8191500" y="184150"/>
           <a:ext cx="4571429" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279947</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>20484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584176</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>172313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2369302" y="5919839"/>
+          <a:ext cx="4558046" cy="4576345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2188,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14838,44 +15591,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D118 D120:D1048576">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B118 B120:B1048576">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I85 I119:I1048576 I87:I117">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="5" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="3" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14887,20 +15640,4333 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+      <selection activeCell="Y5" sqref="X5:Y5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B1" s="61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.01</v>
+      </c>
+      <c r="H3">
+        <v>0.156</v>
+      </c>
+      <c r="I3">
+        <v>2E-3</v>
+      </c>
+      <c r="J3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="P3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="T3">
+        <v>0.11</v>
+      </c>
+      <c r="U3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="V3">
+        <v>1E-3</v>
+      </c>
+      <c r="W3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X3">
+        <v>1E-3</v>
+      </c>
+      <c r="Y3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Z3">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.313</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.02</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="O4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P4">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="U4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V4">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1E-3</v>
+      </c>
+      <c r="Y4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.214</v>
+      </c>
+      <c r="I5">
+        <v>2E-3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.52</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.191</v>
+      </c>
+      <c r="O5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T5">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="W5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="X5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Y5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Z5">
+        <v>1E-3</v>
+      </c>
+      <c r="AA5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AB5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AC5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="K6">
+        <v>2E-3</v>
+      </c>
+      <c r="L6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="R6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="U6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V6">
+        <v>0.08</v>
+      </c>
+      <c r="W6">
+        <v>2E-3</v>
+      </c>
+      <c r="X6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Y6">
+        <v>0.01</v>
+      </c>
+      <c r="Z6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AA6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AB6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="AC6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.157</v>
+      </c>
+      <c r="G7">
+        <v>0.01</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J7">
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="U7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="V7">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="W7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="X7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="Y7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Z7">
+        <v>0.191</v>
+      </c>
+      <c r="AA7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AB7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="G8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1E-3</v>
+      </c>
+      <c r="K8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F9">
+        <v>1E-3</v>
+      </c>
+      <c r="G9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.9E-2</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.02</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0.02</v>
+      </c>
+      <c r="Z9">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0.01</v>
+      </c>
+      <c r="AC9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.188</v>
+      </c>
+      <c r="C10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H10">
+        <v>0.161</v>
+      </c>
+      <c r="I10">
+        <v>2E-3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L10">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="P10">
+        <v>0.251</v>
+      </c>
+      <c r="Q10">
+        <v>1E-3</v>
+      </c>
+      <c r="R10">
+        <v>1E-3</v>
+      </c>
+      <c r="S10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="T10">
+        <v>0.159</v>
+      </c>
+      <c r="U10">
+        <v>2E-3</v>
+      </c>
+      <c r="V10">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Y10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>1E-3</v>
+      </c>
+      <c r="E11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.752</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1E-3</v>
+      </c>
+      <c r="M11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R11">
+        <v>0.03</v>
+      </c>
+      <c r="S11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T11">
+        <v>0.02</v>
+      </c>
+      <c r="U11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>2.4E-2</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Z11">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0.188</v>
+      </c>
+      <c r="AC11">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="M12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="S12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="T12">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.32</v>
+      </c>
+      <c r="C13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D13">
+        <v>1E-3</v>
+      </c>
+      <c r="E13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="N13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O13">
+        <v>0.01</v>
+      </c>
+      <c r="P13">
+        <v>0.05</v>
+      </c>
+      <c r="Q13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S13">
+        <v>1.9E-2</v>
+      </c>
+      <c r="T13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="V13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="X13">
+        <v>1E-3</v>
+      </c>
+      <c r="Y13">
+        <v>0.03</v>
+      </c>
+      <c r="Z13">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AC13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.05</v>
+      </c>
+      <c r="G14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>0.501</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.75</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R14">
+        <v>1E-3</v>
+      </c>
+      <c r="S14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>2.3E-2</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="Z14">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AA14">
+        <v>2E-3</v>
+      </c>
+      <c r="AB14">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="K15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.02</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="R15">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="S15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T15">
+        <v>1E-3</v>
+      </c>
+      <c r="U15">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="V15">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="W15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Y15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Z15">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AA15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AB15">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AC15">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.111</v>
+      </c>
+      <c r="P16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="V16">
+        <v>0.02</v>
+      </c>
+      <c r="W16">
+        <v>0.02</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0.03</v>
+      </c>
+      <c r="Z16">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0.19</v>
+      </c>
+      <c r="AC16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I17">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.3E-2</v>
+      </c>
+      <c r="P17">
+        <v>2E-3</v>
+      </c>
+      <c r="Q17">
+        <v>1.4E-2</v>
+      </c>
+      <c r="R17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="S17">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T17">
+        <v>0.2</v>
+      </c>
+      <c r="U17">
+        <v>2E-3</v>
+      </c>
+      <c r="V17">
+        <v>1E-3</v>
+      </c>
+      <c r="W17">
+        <v>1.9E-2</v>
+      </c>
+      <c r="X17">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="AA17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AB17">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AC17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.01</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.06</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>2.3E-2</v>
+      </c>
+      <c r="N18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="X18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Z18">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AA18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AB18">
+        <v>0.105</v>
+      </c>
+      <c r="AC18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F19">
+        <v>2E-3</v>
+      </c>
+      <c r="G19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H19">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="P19">
+        <v>1E-3</v>
+      </c>
+      <c r="Q19">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>3.9E-2</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.9E-2</v>
+      </c>
+      <c r="P20">
+        <v>0.01</v>
+      </c>
+      <c r="Q20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="R20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T20">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="U20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V20">
+        <v>2E-3</v>
+      </c>
+      <c r="W20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="X20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="Z20">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="AA20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AB20">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="AC20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.06</v>
+      </c>
+      <c r="I21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K21">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.05</v>
+      </c>
+      <c r="P21">
+        <v>1E-3</v>
+      </c>
+      <c r="Q21">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R21">
+        <v>1E-3</v>
+      </c>
+      <c r="S21">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="T21">
+        <v>6.2E-2</v>
+      </c>
+      <c r="U21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="V21">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W21">
+        <v>0.02</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0.04</v>
+      </c>
+      <c r="Z21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA21">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="AB21">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.151</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.04</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>3.9E-2</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.125</v>
+      </c>
+      <c r="C23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D23">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N23">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P23">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Q23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="T23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="U23">
+        <v>0.03</v>
+      </c>
+      <c r="V23">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W23">
+        <v>2.4E-2</v>
+      </c>
+      <c r="X23">
+        <v>0.24</v>
+      </c>
+      <c r="Y23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F24">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G24">
+        <v>2E-3</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1.6E-2</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Z24">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="AA24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.221</v>
+      </c>
+      <c r="E25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F25">
+        <v>2E-3</v>
+      </c>
+      <c r="G25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M25">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>3.9E-2</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T25">
+        <v>1E-3</v>
+      </c>
+      <c r="U25">
+        <v>3.1E-2</v>
+      </c>
+      <c r="V25">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>3.1E-2</v>
+      </c>
+      <c r="Z25">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AA25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D26">
+        <v>0.217</v>
+      </c>
+      <c r="E26">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.216</v>
+      </c>
+      <c r="G26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H26">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="K26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M26">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N26">
+        <v>2E-3</v>
+      </c>
+      <c r="O26">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="R26">
+        <v>2E-3</v>
+      </c>
+      <c r="S26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="T26">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="W26">
+        <v>0.01</v>
+      </c>
+      <c r="X26">
+        <v>1E-3</v>
+      </c>
+      <c r="Y26">
+        <v>0.02</v>
+      </c>
+      <c r="Z26">
+        <v>9.4E-2</v>
+      </c>
+      <c r="AA26">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="AB26">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="AC26">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="H27">
+        <v>2E-3</v>
+      </c>
+      <c r="I27">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.183</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>7.8E-2</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Z27">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="AA27">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AB27">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AC27">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.03</v>
+      </c>
+      <c r="I28">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J28">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K28">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M28">
+        <v>1.6E-2</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="P28">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q28">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="S28">
+        <v>1.9E-2</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>3.9E-2</v>
+      </c>
+      <c r="V28">
+        <v>1E-3</v>
+      </c>
+      <c r="W28">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="X28">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Z28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA28">
+        <v>0.05</v>
+      </c>
+      <c r="AB28">
+        <v>0.108</v>
+      </c>
+      <c r="AC28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <v>0.125</v>
+      </c>
+      <c r="G29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H29">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.01</v>
+      </c>
+      <c r="J29">
+        <v>0.38</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O29">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P29">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="S29">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="U29">
+        <v>2.4E-2</v>
+      </c>
+      <c r="V29">
+        <v>0.624</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0.248</v>
+      </c>
+      <c r="AA29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AB29">
+        <v>0.628</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.127</v>
+      </c>
+      <c r="E30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F30">
+        <v>0.373</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K30">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L30">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N30">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P30">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="S30">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T30">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="W30">
+        <v>2.3E-2</v>
+      </c>
+      <c r="X30">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Y30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Z30">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AC30">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0.01</v>
+      </c>
+      <c r="H31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J31">
+        <v>0.113</v>
+      </c>
+      <c r="K31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N31">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P31">
+        <v>0.27</v>
+      </c>
+      <c r="Q31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R31">
+        <v>2E-3</v>
+      </c>
+      <c r="S31">
+        <v>0.01</v>
+      </c>
+      <c r="T31">
+        <v>1E-3</v>
+      </c>
+      <c r="U31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="X31">
+        <v>0.128</v>
+      </c>
+      <c r="Y31">
+        <v>2E-3</v>
+      </c>
+      <c r="Z31">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AA31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AB31">
+        <v>0.442</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="61"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="61"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="61"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="61"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C121:C1048576 C1:C17 E2:E17 C19:C26 E19:E26 C28 C30:C119 E28 E30 AC26:AC31 AC2:AC7 AA2:AA7 AC9 AA9 AC11:AC18 AA11:AA18 AC20:AC21 AC24 AA20:AA21 AA24:AA31">
+    <cfRule type="cellIs" dxfId="99" priority="42" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B1048576 B2:B17 D2:D17 B19:B26 D19:D26 B28 B30:B119 D28 D30 AB26:AB31 AB2:AB7 Z2:Z7 AB9 Z9 AB11:AB18 Z11:Z18 AB20:AB21 AB24 Z20:Z21 Z24:Z31">
+    <cfRule type="cellIs" dxfId="98" priority="40" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="41" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G31">
+    <cfRule type="cellIs" dxfId="96" priority="36" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31">
+    <cfRule type="cellIs" dxfId="95" priority="34" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="35" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I31">
+    <cfRule type="cellIs" dxfId="93" priority="33" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H31">
+    <cfRule type="cellIs" dxfId="92" priority="31" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="32" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K31">
+    <cfRule type="cellIs" dxfId="90" priority="30" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J31">
+    <cfRule type="cellIs" dxfId="89" priority="28" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="29" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M31">
+    <cfRule type="cellIs" dxfId="87" priority="27" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L31">
+    <cfRule type="cellIs" dxfId="86" priority="25" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="26" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O31">
+    <cfRule type="cellIs" dxfId="84" priority="24" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N31">
+    <cfRule type="cellIs" dxfId="83" priority="22" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="23" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q31">
+    <cfRule type="cellIs" dxfId="81" priority="21" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P31">
+    <cfRule type="cellIs" dxfId="80" priority="19" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="20" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S31">
+    <cfRule type="cellIs" dxfId="78" priority="18" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R31">
+    <cfRule type="cellIs" dxfId="77" priority="16" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="17" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U31">
+    <cfRule type="cellIs" dxfId="75" priority="15" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T31">
+    <cfRule type="cellIs" dxfId="74" priority="13" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="14" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W31">
+    <cfRule type="cellIs" dxfId="72" priority="12" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V31">
+    <cfRule type="cellIs" dxfId="71" priority="10" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y31">
+    <cfRule type="cellIs" dxfId="69" priority="9" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X31">
+    <cfRule type="cellIs" dxfId="68" priority="7" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="8" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.156</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>R3-P3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.313</v>
+      </c>
+      <c r="C4">
+        <v>1E-3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I4">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M4">
+        <v>1E-3</v>
+      </c>
+      <c r="N4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="R4">
+        <v>2E-3</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T32" si="0">R4-P4</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.214</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.191</v>
+      </c>
+      <c r="J5">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O5">
+        <v>1E-3</v>
+      </c>
+      <c r="P5">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="Q5">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="R5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>-4.7E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N6">
+        <v>0.01</v>
+      </c>
+      <c r="O6">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="R6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>-6.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.157</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="N7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O7">
+        <v>0.191</v>
+      </c>
+      <c r="P7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="R7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>-3.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1E-3</v>
+      </c>
+      <c r="E9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.02</v>
+      </c>
+      <c r="O9">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.01</v>
+      </c>
+      <c r="R9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.188</v>
+      </c>
+      <c r="C10">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D10">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.161</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K10">
+        <v>1E-3</v>
+      </c>
+      <c r="L10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C11">
+        <v>1E-3</v>
+      </c>
+      <c r="D11">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="E11">
+        <v>0.752</v>
+      </c>
+      <c r="G11">
+        <v>1E-3</v>
+      </c>
+      <c r="H11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.188</v>
+      </c>
+      <c r="R11">
+        <v>2E-3</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0.32</v>
+      </c>
+      <c r="C13">
+        <v>1E-3</v>
+      </c>
+      <c r="D13">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J13">
+        <v>0.01</v>
+      </c>
+      <c r="M13">
+        <v>1E-3</v>
+      </c>
+      <c r="N13">
+        <v>0.03</v>
+      </c>
+      <c r="O13">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="R13">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.05</v>
+      </c>
+      <c r="E14">
+        <v>0.501</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O14">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="P14">
+        <v>2E-3</v>
+      </c>
+      <c r="Q14">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.02</v>
+      </c>
+      <c r="M15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N15">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O15">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q15">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="R15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.111</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="O16">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.19</v>
+      </c>
+      <c r="R16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L17">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O17">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="P17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q17">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="R17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="O18">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="P18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q18">
+        <v>0.105</v>
+      </c>
+      <c r="R18">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D19">
+        <v>2E-3</v>
+      </c>
+      <c r="E19">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3.9E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N20">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O20">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="P20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q20">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="R20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.06</v>
+      </c>
+      <c r="F21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.05</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.04</v>
+      </c>
+      <c r="O21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P21">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>-3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3.1E-2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>3.9E-2</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.125</v>
+      </c>
+      <c r="C23">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E23">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I23">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O24">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="P24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.221</v>
+      </c>
+      <c r="D25">
+        <v>2E-3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O25">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="P25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.217</v>
+      </c>
+      <c r="D26">
+        <v>0.216</v>
+      </c>
+      <c r="E26">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H26">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I26">
+        <v>2E-3</v>
+      </c>
+      <c r="J26">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K26">
+        <v>2E-3</v>
+      </c>
+      <c r="L26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O26">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P26">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Q26">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R26">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2E-3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O27">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="P27">
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q27">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="R27">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>0.45499999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.03</v>
+      </c>
+      <c r="F28">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L28">
+        <v>1.9E-2</v>
+      </c>
+      <c r="O28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.05</v>
+      </c>
+      <c r="Q28">
+        <v>0.108</v>
+      </c>
+      <c r="R28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>0.125</v>
+      </c>
+      <c r="E29">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.38</v>
+      </c>
+      <c r="I29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K29">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L29">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O29">
+        <v>0.248</v>
+      </c>
+      <c r="P29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q29">
+        <v>0.628</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.127</v>
+      </c>
+      <c r="D30">
+        <v>0.373</v>
+      </c>
+      <c r="E30">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G30">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H30">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I30">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M30">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O30">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="R30">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I31">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K31">
+        <v>2E-3</v>
+      </c>
+      <c r="L31">
+        <v>0.01</v>
+      </c>
+      <c r="O31">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="P31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q31">
+        <v>0.442</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P34">
+        <f>SUM(P3:P31)</f>
+        <v>0.30500000000000005</v>
+      </c>
+      <c r="R34">
+        <f>SUM(R3:R31)</f>
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="61"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" s="61"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45" s="61"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" s="61"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="R26:R31 R2:R7 P2:P7 R9 P9 R11:R18 P11:P18 R20:R21 R24 P20:P21 P24:P31">
+    <cfRule type="cellIs" dxfId="66" priority="45" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B121:B1048576 B2:C17 B19:C26 B30:B119 B28:C28 C30 Q26:Q31 Q2:Q7 O2:O7 Q9 O9 Q11:Q18 O11:O18 Q20:Q21 Q24 O20:O21 O24:O31">
+    <cfRule type="cellIs" dxfId="65" priority="43" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="44" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D31">
+    <cfRule type="cellIs" dxfId="62" priority="40" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="41" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E31">
+    <cfRule type="cellIs" dxfId="59" priority="37" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="38" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F31">
+    <cfRule type="cellIs" dxfId="56" priority="34" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H31">
+    <cfRule type="cellIs" dxfId="54" priority="33" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G31">
+    <cfRule type="cellIs" dxfId="53" priority="31" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="32" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J31">
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I31">
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="29" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L16 L30:L31 L18:L26">
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K16 K30:K31 K18:K26">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="23" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:N15">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M15">
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N4 N16:N31 N6:N13">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M4 M16:M31 M6:M13">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L29">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K29">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14935,7 +20001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -14970,7 +20036,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -15005,7 +20071,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -15040,7 +20106,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -15075,7 +20141,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -15110,7 +20176,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -15148,7 +20214,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -15183,7 +20249,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -15218,7 +20284,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -15252,8 +20318,12 @@
       <c r="K11">
         <v>390</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M11">
+        <f>EXP(13)</f>
+        <v>442413.39200892049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -15287,8 +20357,12 @@
       <c r="K12">
         <v>477</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M12">
+        <f>EXP(6)</f>
+        <v>403.42879349273511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -15323,7 +20397,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -15358,7 +20432,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -15393,7 +20467,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -15535,9 +20609,6 @@
       <c r="K19">
         <v>977</v>
       </c>
-      <c r="L19" s="60" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -15751,8 +20822,8 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I26">
-        <f>SUM(I3:I25)</f>
-        <v>2.6179999999999999</v>
+        <f>AVERAGE(I3:I25)</f>
+        <v>0.11382608695652173</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -16614,8 +21685,8 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I52">
-        <f>SUM(I29:I51)</f>
-        <v>2.6</v>
+        <f>AVERAGE(I29:I51)</f>
+        <v>0.11304347826086956</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
@@ -17555,27 +22626,2254 @@
         <v>-1.9999999999999879E-3</v>
       </c>
     </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>115</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>3</v>
+      </c>
+      <c r="K80" t="s">
+        <v>4</v>
+      </c>
+      <c r="L80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>0.44</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E81">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F81">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="G81">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H81">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I81">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J81">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K81">
+        <v>1530.9880000000001</v>
+      </c>
+      <c r="L81">
+        <v>523</v>
+      </c>
+      <c r="N81">
+        <f>J81-I3</f>
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C82">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0.125</v>
+      </c>
+      <c r="F82">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="G82">
+        <v>0.755</v>
+      </c>
+      <c r="H82">
+        <v>0.9</v>
+      </c>
+      <c r="I82">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J82">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K82">
+        <v>2704.998</v>
+      </c>
+      <c r="L82">
+        <v>920</v>
+      </c>
+      <c r="N82">
+        <f t="shared" ref="N82:N85" si="1">J82-I4</f>
+        <v>-2.5999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D83">
+        <v>0.373</v>
+      </c>
+      <c r="E83">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F83">
+        <v>0.01</v>
+      </c>
+      <c r="G83">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="H83">
+        <v>0.155</v>
+      </c>
+      <c r="I83">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J83">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K83">
+        <v>1551.079</v>
+      </c>
+      <c r="L83">
+        <v>509</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="1"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="C84">
+        <v>0.432</v>
+      </c>
+      <c r="D84">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E84">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J84">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K84">
+        <v>3876.442</v>
+      </c>
+      <c r="L84">
+        <v>1126</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="1"/>
+        <v>-3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C85">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="G85">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="H85">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="I85">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="J85">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K85">
+        <v>1230.3440000000001</v>
+      </c>
+      <c r="L85">
+        <v>372</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="1"/>
+        <v>-5.7999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86">
+        <v>1E-3</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E86">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0.245</v>
+      </c>
+      <c r="J86">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="K86">
+        <v>2201.944</v>
+      </c>
+      <c r="L86">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C87">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0.09</v>
+      </c>
+      <c r="J87">
+        <v>0.104</v>
+      </c>
+      <c r="K87">
+        <v>2824.8449999999998</v>
+      </c>
+      <c r="L87">
+        <v>810</v>
+      </c>
+      <c r="N87">
+        <f>J87-I8</f>
+        <v>-9.1000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C88">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D88">
+        <v>0.43</v>
+      </c>
+      <c r="E88">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F88">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="G88">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H88">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="I88">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J88">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K88">
+        <v>779.60400000000004</v>
+      </c>
+      <c r="L88">
+        <v>276</v>
+      </c>
+      <c r="N88">
+        <f t="shared" ref="N88:N104" si="2">J88-I9</f>
+        <v>-0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C89">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D89">
+        <v>0.89</v>
+      </c>
+      <c r="E89">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="F89">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G89">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H89">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I89">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J89">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K89">
+        <v>773.80399999999997</v>
+      </c>
+      <c r="L89">
+        <v>281</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="2"/>
+        <v>-7.2000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C90">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D90">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="E90">
+        <v>0.73</v>
+      </c>
+      <c r="F90">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="G90">
+        <v>0.21</v>
+      </c>
+      <c r="H90">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I90">
+        <v>2E-3</v>
+      </c>
+      <c r="J90">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K90">
+        <v>971.577</v>
+      </c>
+      <c r="L90">
+        <v>321</v>
+      </c>
+      <c r="N90">
+        <f>J90-I11</f>
+        <v>-4.1999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D91">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E91">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F91">
+        <v>0.88</v>
+      </c>
+      <c r="G91">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="H91">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I91">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="J91">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K91">
+        <v>1097.992</v>
+      </c>
+      <c r="L91">
+        <v>402</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="2"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E92">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H92">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I92">
+        <v>0.115</v>
+      </c>
+      <c r="J92">
+        <v>0.13</v>
+      </c>
+      <c r="K92">
+        <v>3550.527</v>
+      </c>
+      <c r="L92">
+        <v>1020</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="2"/>
+        <v>-2.3999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93">
+        <v>0.97</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="G93">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0.255</v>
+      </c>
+      <c r="J93">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="K93">
+        <v>1396.489</v>
+      </c>
+      <c r="L93">
+        <v>470</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="2"/>
+        <v>0.10200000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0.623</v>
+      </c>
+      <c r="D94">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E94">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="H94">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I94">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="J94">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K94">
+        <v>2850.096</v>
+      </c>
+      <c r="L94">
+        <v>1057</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="2"/>
+        <v>-1.8999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E95">
+        <v>0.05</v>
+      </c>
+      <c r="F95">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G95">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H95">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I95">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="J95">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K95">
+        <v>1290.0119999999999</v>
+      </c>
+      <c r="L95">
+        <v>387</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96">
+        <v>1E-3</v>
+      </c>
+      <c r="C96">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D96">
+        <v>1E-3</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G96">
+        <v>0.155</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0.107</v>
+      </c>
+      <c r="J96">
+        <v>0.12</v>
+      </c>
+      <c r="K96">
+        <v>1707.365</v>
+      </c>
+      <c r="L96">
+        <v>646</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999888E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C97">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="D97">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E97">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="F97">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G97">
+        <v>0.255</v>
+      </c>
+      <c r="H97">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I97">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K97">
+        <v>1115.663</v>
+      </c>
+      <c r="L97">
+        <v>370</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="2"/>
+        <v>-7.8999999999999987E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="E98">
+        <v>0.157</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I98">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J98">
+        <v>0.22</v>
+      </c>
+      <c r="K98">
+        <v>3194.0680000000002</v>
+      </c>
+      <c r="L98">
+        <v>904</v>
+      </c>
+      <c r="M98" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99">
+        <v>0.82</v>
+      </c>
+      <c r="C99">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D99">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E99">
+        <v>0.69</v>
+      </c>
+      <c r="F99">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G99">
+        <v>2E-3</v>
+      </c>
+      <c r="H99">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I99">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J99">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K99">
+        <v>803.94299999999998</v>
+      </c>
+      <c r="L99">
+        <v>264</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0.184</v>
+      </c>
+      <c r="E100">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="I100">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J100">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K100">
+        <v>5266.9470000000001</v>
+      </c>
+      <c r="L100">
+        <v>1364</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="2"/>
+        <v>-1.9000000000000017E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101">
+        <v>0.62</v>
+      </c>
+      <c r="C101">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D101">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E101">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F101">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G101">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H101">
+        <v>0.24</v>
+      </c>
+      <c r="I101">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J101">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K101">
+        <v>768.72799999999995</v>
+      </c>
+      <c r="L101">
+        <v>277</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="2"/>
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C102">
+        <v>0.111</v>
+      </c>
+      <c r="D102">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E102">
+        <v>0.501</v>
+      </c>
+      <c r="F102">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="G102">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="H102">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I102">
+        <v>0.05</v>
+      </c>
+      <c r="J102">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="K102">
+        <v>524.42600000000004</v>
+      </c>
+      <c r="L102">
+        <v>159</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="2"/>
+        <v>-1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C103">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D103">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="E103">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F103">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G103">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="H103">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I103">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J103">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K103">
+        <v>826.37300000000005</v>
+      </c>
+      <c r="L103">
+        <v>302</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="2"/>
+        <v>-2.5000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="C104">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D104">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="E104">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F104">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G104">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H104">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I104">
+        <v>1E-3</v>
+      </c>
+      <c r="J104">
+        <v>1E-3</v>
+      </c>
+      <c r="K104">
+        <v>972.47199999999998</v>
+      </c>
+      <c r="L104">
+        <v>310</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="2"/>
+        <v>-4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J106">
+        <f>AVERAGE(J81:J104)</f>
+        <v>9.1833333333333336E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" t="s">
+        <v>144</v>
+      </c>
+      <c r="E108" t="s">
+        <v>145</v>
+      </c>
+      <c r="F108" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>115</v>
+      </c>
+      <c r="I108" t="s">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>3</v>
+      </c>
+      <c r="K108" t="s">
+        <v>4</v>
+      </c>
+      <c r="L108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="C109">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D109">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="E109">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F109">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G109">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H109">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I109">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J109">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K109">
+        <v>2746.45</v>
+      </c>
+      <c r="L109">
+        <v>917</v>
+      </c>
+      <c r="N109">
+        <f>J109-J81</f>
+        <v>-3.7000000000000005E-2</v>
+      </c>
+      <c r="O109">
+        <f>L109-L81</f>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C110">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F110">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G110">
+        <v>0.996</v>
+      </c>
+      <c r="H110">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I110">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J110">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K110">
+        <v>4646.1530000000002</v>
+      </c>
+      <c r="L110">
+        <v>1591</v>
+      </c>
+      <c r="N110">
+        <f t="shared" ref="N110:N132" si="3">J110-J82</f>
+        <v>5.9999999999999984E-3</v>
+      </c>
+      <c r="O110">
+        <f t="shared" ref="O110:O132" si="4">L110-L82</f>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D111">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E111">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F111">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G111">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H111">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="I111">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J111">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K111">
+        <v>2719.2289999999998</v>
+      </c>
+      <c r="L111">
+        <v>881</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="3"/>
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="C112">
+        <v>0.433</v>
+      </c>
+      <c r="D112">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="E112">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0.02</v>
+      </c>
+      <c r="J112">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K112">
+        <v>5744.7269999999999</v>
+      </c>
+      <c r="L112">
+        <v>1652</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="3"/>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="4"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C113">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G113">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H113">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I113">
+        <v>0.128</v>
+      </c>
+      <c r="J113">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="K113">
+        <v>1827.7270000000001</v>
+      </c>
+      <c r="L113">
+        <v>548</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999793E-3</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>1E-3</v>
+      </c>
+      <c r="E114">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J114">
+        <v>0.151</v>
+      </c>
+      <c r="K114">
+        <v>4277.0619999999999</v>
+      </c>
+      <c r="L114">
+        <v>1177</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="3"/>
+        <v>-0.12500000000000003</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="4"/>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0.245</v>
+      </c>
+      <c r="D115">
+        <v>0.104</v>
+      </c>
+      <c r="E115">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J115">
+        <v>0.06</v>
+      </c>
+      <c r="K115">
+        <v>7945.09</v>
+      </c>
+      <c r="L115">
+        <v>2329</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="3"/>
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="4"/>
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="D116">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E116">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F116">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G116">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H116">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I116">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J116">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K116">
+        <v>2684.4490000000001</v>
+      </c>
+      <c r="L116">
+        <v>954</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="4"/>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C117">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D117">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E117">
+        <v>0.627</v>
+      </c>
+      <c r="F117">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G117">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J117">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K117">
+        <v>3254.9389999999999</v>
+      </c>
+      <c r="L117">
+        <v>1180</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="3"/>
+        <v>-1.3000000000000005E-2</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="4"/>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="C118">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="D118">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E118">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="F118">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G118">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H118">
+        <v>0.78</v>
+      </c>
+      <c r="I118">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J118">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K118">
+        <v>1808.4939999999999</v>
+      </c>
+      <c r="L118">
+        <v>597</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="3"/>
+        <v>5.9999999999999993E-3</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H119">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I119">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J119">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K119">
+        <v>2947.9490000000001</v>
+      </c>
+      <c r="L119">
+        <v>1041</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="3"/>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="4"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E120">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0.158</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J120">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K120">
+        <v>6175.2269999999999</v>
+      </c>
+      <c r="L120">
+        <v>1793</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="3"/>
+        <v>-2.700000000000001E-2</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="4"/>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121">
+        <v>0.878</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G121">
+        <v>0.51</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="J121">
+        <v>0.187</v>
+      </c>
+      <c r="K121">
+        <v>2820.9810000000002</v>
+      </c>
+      <c r="L121">
+        <v>958</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="3"/>
+        <v>-9.1000000000000025E-2</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="4"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D122">
+        <v>0.111</v>
+      </c>
+      <c r="E122">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="F122">
+        <v>0.33</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0.05</v>
+      </c>
+      <c r="I122">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J122">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K122">
+        <v>3989.8969999999999</v>
+      </c>
+      <c r="L122">
+        <v>1465</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="4"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E123">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F123">
+        <v>0.155</v>
+      </c>
+      <c r="G123">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0.124</v>
+      </c>
+      <c r="J123">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K123">
+        <v>3229.8009999999999</v>
+      </c>
+      <c r="L123">
+        <v>945</v>
+      </c>
+      <c r="M123" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="3"/>
+        <v>4.7000000000000014E-2</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="4"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C124">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0.224</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J124">
+        <v>0.114</v>
+      </c>
+      <c r="K124">
+        <v>3188.07</v>
+      </c>
+      <c r="L124">
+        <v>1194</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="3"/>
+        <v>-5.9999999999999915E-3</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="4"/>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>37</v>
+      </c>
+      <c r="B125">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C125">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F125">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G125">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J125">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="K125">
+        <v>2651.2269999999999</v>
+      </c>
+      <c r="L125">
+        <v>853</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999941E-3</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="4"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>2E-3</v>
+      </c>
+      <c r="D126">
+        <v>0.218</v>
+      </c>
+      <c r="E126">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>2E-3</v>
+      </c>
+      <c r="I126">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="J126">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="K126">
+        <v>5040.8019999999997</v>
+      </c>
+      <c r="L126">
+        <v>1412</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="3"/>
+        <v>-1.4000000000000012E-2</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="4"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C127">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="D127">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E127">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="F127">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G127">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="H127">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I127">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J127">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K127">
+        <v>1475.2339999999999</v>
+      </c>
+      <c r="L127">
+        <v>489</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="3"/>
+        <v>-0.05</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E128">
+        <v>0.3</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0.113</v>
+      </c>
+      <c r="J128">
+        <v>0.123</v>
+      </c>
+      <c r="K128">
+        <v>9744.0709999999999</v>
+      </c>
+      <c r="L128">
+        <v>2491</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="3"/>
+        <v>-2.3999999999999994E-2</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="4"/>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="G129">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0.106</v>
+      </c>
+      <c r="J129">
+        <v>0.115</v>
+      </c>
+      <c r="K129">
+        <v>2451.6799999999998</v>
+      </c>
+      <c r="L129">
+        <v>856</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="3"/>
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="4"/>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="C130">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D130">
+        <v>0.254</v>
+      </c>
+      <c r="E130">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="F130">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G130">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H130">
+        <v>1E-3</v>
+      </c>
+      <c r="I130">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J130">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K130">
+        <v>2410.8389999999999</v>
+      </c>
+      <c r="L130">
+        <v>704</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="3"/>
+        <v>-3.7999999999999992E-2</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="4"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="C131">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D131">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E131">
+        <v>1E-3</v>
+      </c>
+      <c r="F131">
+        <v>1E-3</v>
+      </c>
+      <c r="G131">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H131">
+        <v>1E-3</v>
+      </c>
+      <c r="I131">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J131">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K131">
+        <v>2232.0610000000001</v>
+      </c>
+      <c r="L131">
+        <v>803</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="4"/>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="C132">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D132">
+        <v>0.84</v>
+      </c>
+      <c r="E132">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H132">
+        <v>0.31</v>
+      </c>
+      <c r="I132">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J132">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K132">
+        <v>2011.519</v>
+      </c>
+      <c r="L132">
+        <v>631</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="3"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="4"/>
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I53 I78:I1048576">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="I1:I53 I78:I80 I105:I108 I133:I1048576">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:L77">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81:H104">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81:J104">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109:H132">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109:J132">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17584,12 +24882,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView topLeftCell="O18" workbookViewId="0">
+      <selection activeCell="M28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20547,41 +27845,41 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX27">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AV27">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AI27">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="156">
   <si>
     <t>Species</t>
   </si>
@@ -464,6 +464,33 @@
   </si>
   <si>
     <t>Same as above adding na.gam.replace</t>
+  </si>
+  <si>
+    <t>Using na.gam.replace generally reduced deviance explained</t>
+  </si>
+  <si>
+    <t>Increased sample size</t>
+  </si>
+  <si>
+    <t>Increased GCV</t>
+  </si>
+  <si>
+    <t>Same as without null space penalty or adding na.gam.replace</t>
+  </si>
+  <si>
+    <t>Most Dev Expl increased</t>
+  </si>
+  <si>
+    <t>GCV increased a little over less variables</t>
+  </si>
+  <si>
+    <t>With NA.replace</t>
+  </si>
+  <si>
+    <t>Without NA.replace</t>
+  </si>
+  <si>
+    <t>Before non-standard tows were excluded</t>
   </si>
 </sst>
 </file>
@@ -1715,11 +1742,94 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="110">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1775,7 +1885,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1845,41 +1969,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1888,20 +1977,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2097,7 +2172,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2112,55 +2194,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2486,97 +2519,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2637,13 +2579,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>279947</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>20484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>584176</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>172313</xdr:rowOff>
@@ -2941,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M426"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15642,8 +15584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y5" sqref="X5:Y5"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AA31" sqref="A2:AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18362,24 +18304,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="11" max="11" width="12.08984375" customWidth="1"/>
+    <col min="16" max="16" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="F1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18387,55 +18329,70 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>81</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>104</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>134</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>136</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -18443,50 +18400,62 @@
         <v>0</v>
       </c>
       <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
         <v>0.29599999999999999</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E3">
+      <c r="G3">
+        <v>0.01</v>
+      </c>
+      <c r="H3">
         <v>0.156</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="I3">
+        <v>2E-3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O3">
+      <c r="T3">
         <v>0.63900000000000001</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f>R3-P3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>W3-U3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -18494,50 +18463,62 @@
         <v>0.313</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1E-3</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0.02</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>1.4E-2</v>
       </c>
-      <c r="I4">
+      <c r="N4">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="J4">
+      <c r="O4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>1E-3</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>0.20599999999999999</v>
       </c>
-      <c r="R4">
+      <c r="W4">
         <v>2E-3</v>
       </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T32" si="0">R4-P4</f>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y31" si="0">W4-U4</f>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -18545,47 +18526,62 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F5">
         <v>0.48399999999999999</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.214</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>2E-3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N5">
         <v>0.191</v>
       </c>
-      <c r="J5">
+      <c r="O5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="M5">
+      <c r="R5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N5">
+      <c r="S5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="O5">
+      <c r="T5">
         <v>1E-3</v>
       </c>
-      <c r="P5">
+      <c r="U5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="Q5">
+      <c r="V5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="R5">
+      <c r="W5">
         <v>1.2E-2</v>
       </c>
-      <c r="T5">
+      <c r="Y5">
         <f t="shared" si="0"/>
         <v>-4.7E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -18593,50 +18589,62 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F6">
         <v>0.42699999999999999</v>
       </c>
-      <c r="E6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="N6">
+      <c r="S6">
         <v>0.01</v>
       </c>
-      <c r="O6">
+      <c r="T6">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="P6">
+      <c r="U6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Q6">
+      <c r="V6">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R6">
+      <c r="W6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="T6">
+      <c r="Y6">
         <f t="shared" si="0"/>
         <v>-6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -18644,50 +18652,62 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F7">
         <v>0.157</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I7">
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>0.14699999999999999</v>
       </c>
-      <c r="N7">
+      <c r="S7">
         <v>2.3E-2</v>
       </c>
-      <c r="O7">
+      <c r="T7">
         <v>0.191</v>
       </c>
-      <c r="P7">
+      <c r="U7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="Q7">
+      <c r="V7">
         <v>0.23799999999999999</v>
       </c>
-      <c r="R7">
+      <c r="W7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T7">
+      <c r="Y7">
         <f t="shared" si="0"/>
         <v>-3.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -18695,38 +18715,50 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F8">
         <v>0.14599999999999999</v>
       </c>
-      <c r="E8">
+      <c r="G8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H8">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="T8">
+      <c r="Y8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -18734,50 +18766,62 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F9">
         <v>1E-3</v>
       </c>
-      <c r="E9">
+      <c r="G9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="I9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>2.7E-2</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>0.02</v>
       </c>
-      <c r="O9">
+      <c r="T9">
         <v>0.50700000000000001</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>0.01</v>
       </c>
-      <c r="R9">
+      <c r="W9">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="T9">
+      <c r="Y9">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -18785,35 +18829,50 @@
         <v>0.188</v>
       </c>
       <c r="C10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D10">
         <v>0.85899999999999999</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E10">
+      <c r="G10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H10">
         <v>0.161</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="I10">
+        <v>2E-3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N10">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J10">
+      <c r="O10">
         <v>2.4E-2</v>
       </c>
-      <c r="K10">
+      <c r="P10">
         <v>1E-3</v>
       </c>
-      <c r="L10">
+      <c r="Q10">
         <v>2.7E-2</v>
       </c>
-      <c r="T10">
+      <c r="Y10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -18821,50 +18880,62 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D11">
         <v>1E-3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F11">
         <v>0.65900000000000003</v>
       </c>
-      <c r="E11">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.752</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>1E-3</v>
       </c>
-      <c r="H11">
+      <c r="M11">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O11">
+      <c r="T11">
         <v>0.35599999999999998</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>0.188</v>
       </c>
-      <c r="R11">
+      <c r="W11">
         <v>2E-3</v>
       </c>
-      <c r="T11">
+      <c r="Y11">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -18872,50 +18943,62 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="C12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D12">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F12">
         <v>0.74199999999999999</v>
       </c>
-      <c r="E12">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G12">
+      <c r="I12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L12">
         <v>0.67300000000000004</v>
       </c>
-      <c r="H12">
+      <c r="M12">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I12">
+      <c r="N12">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="J12">
+      <c r="O12">
         <v>1.4E-2</v>
       </c>
-      <c r="K12">
+      <c r="P12">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L12">
+      <c r="Q12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O12">
+      <c r="T12">
         <v>0.56100000000000005</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>1</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="T12">
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -18923,50 +19006,62 @@
         <v>0.32</v>
       </c>
       <c r="C13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D13">
         <v>1E-3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F13">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="L13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H13">
+      <c r="M13">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I13">
+      <c r="N13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J13">
+      <c r="O13">
         <v>0.01</v>
       </c>
-      <c r="M13">
+      <c r="R13">
         <v>1E-3</v>
       </c>
-      <c r="N13">
+      <c r="S13">
         <v>0.03</v>
       </c>
-      <c r="O13">
+      <c r="T13">
         <v>0.78100000000000003</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>0.29699999999999999</v>
       </c>
-      <c r="R13">
+      <c r="W13">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="T13">
+      <c r="Y13">
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -18974,92 +19069,113 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F14">
         <v>0.05</v>
       </c>
-      <c r="E14">
+      <c r="G14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
         <v>0.501</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>1.9E-2</v>
       </c>
-      <c r="O14">
+      <c r="T14">
         <v>0.13600000000000001</v>
       </c>
-      <c r="P14">
+      <c r="U14">
         <v>2E-3</v>
       </c>
-      <c r="Q14">
+      <c r="V14">
         <v>0.51600000000000001</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="0"/>
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L15">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H15">
+      <c r="M15">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>0.02</v>
       </c>
-      <c r="M15">
+      <c r="R15">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N15">
+      <c r="S15">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="O15">
+      <c r="T15">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P15">
+      <c r="U15">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q15">
+      <c r="V15">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="R15">
+      <c r="W15">
         <v>1.6E-2</v>
       </c>
-      <c r="T15">
+      <c r="Y15">
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -19067,50 +19183,62 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>0.111</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="O16">
+      <c r="T16">
         <v>0.36399999999999999</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
         <v>0.19</v>
       </c>
-      <c r="R16">
+      <c r="W16">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T16">
+      <c r="Y16">
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -19118,89 +19246,113 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F17">
         <v>0.33400000000000002</v>
       </c>
-      <c r="E17">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>2.3E-2</v>
       </c>
-      <c r="K17">
+      <c r="P17">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L17">
+      <c r="Q17">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="O17">
+      <c r="T17">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="P17">
+      <c r="U17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q17">
+      <c r="V17">
         <v>0.26500000000000001</v>
       </c>
-      <c r="R17">
+      <c r="W17">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="T17">
+      <c r="Y17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H18">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="I18">
+        <v>0.01</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.06</v>
+      </c>
+      <c r="N18">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J18">
+      <c r="O18">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>2.4E-2</v>
       </c>
-      <c r="O18">
+      <c r="T18">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="P18">
+      <c r="U18">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Q18">
+      <c r="V18">
         <v>0.105</v>
       </c>
-      <c r="R18">
+      <c r="W18">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="T18">
+      <c r="Y18">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -19208,38 +19360,50 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D19">
+      <c r="E19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F19">
         <v>2E-3</v>
       </c>
-      <c r="E19">
+      <c r="G19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H19">
         <v>0.36599999999999999</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>2.3E-2</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="T19">
+      <c r="Y19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -19247,50 +19411,62 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H20">
         <v>0.54400000000000004</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>1.9E-2</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>3.9E-2</v>
       </c>
-      <c r="M20">
+      <c r="R20">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N20">
+      <c r="S20">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O20">
+      <c r="T20">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="P20">
+      <c r="U20">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="Q20">
+      <c r="V20">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="R20">
+      <c r="W20">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="T20">
+      <c r="Y20">
         <f t="shared" si="0"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -19298,47 +19474,62 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>0.06</v>
       </c>
-      <c r="F21">
+      <c r="I21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J21">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
+      <c r="K21">
+        <v>2.3E-2</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>0.05</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>0.04</v>
       </c>
-      <c r="O21">
+      <c r="T21">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="P21">
+      <c r="U21">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="Q21">
+      <c r="V21">
         <v>0.76100000000000001</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="T21">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <f t="shared" si="0"/>
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -19346,35 +19537,50 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
+      <c r="G22">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.151</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>3.1E-2</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>3.9E-2</v>
       </c>
-      <c r="T22">
+      <c r="Y22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -19382,38 +19588,50 @@
         <v>0.125</v>
       </c>
       <c r="C23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D23">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D23">
+      <c r="E23">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F23">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E23">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>0.35199999999999998</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="I23">
+      <c r="N23">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J23">
+      <c r="O23">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="T23">
+      <c r="Y23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -19421,47 +19639,62 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F24">
         <v>2.7E-2</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
+        <v>2E-3</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O24">
+      <c r="T24">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="P24">
+      <c r="U24">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="T24">
+      <c r="Y24">
         <f t="shared" si="0"/>
         <v>5.2000000000000005E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -19469,41 +19702,56 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="C25">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D25">
         <v>0.221</v>
       </c>
-      <c r="D25">
+      <c r="E25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F25">
         <v>2E-3</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="G25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>3.9E-2</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="O25">
+      <c r="T25">
         <v>0.27800000000000002</v>
       </c>
-      <c r="P25">
+      <c r="U25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T25">
+      <c r="Y25">
         <f t="shared" si="0"/>
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -19511,92 +19759,113 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D26">
         <v>0.217</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F26">
         <v>0.216</v>
       </c>
-      <c r="E26">
+      <c r="G26">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H26">
         <v>0.51800000000000002</v>
       </c>
-      <c r="G26">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H26">
+      <c r="M26">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="I26">
+      <c r="N26">
         <v>2E-3</v>
       </c>
-      <c r="J26">
+      <c r="O26">
         <v>1.9E-2</v>
       </c>
-      <c r="K26">
+      <c r="P26">
         <v>2E-3</v>
       </c>
-      <c r="L26">
+      <c r="Q26">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="O26">
+      <c r="T26">
         <v>9.4E-2</v>
       </c>
-      <c r="P26">
+      <c r="U26">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="Q26">
+      <c r="V26">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="R26">
+      <c r="W26">
         <v>0.10100000000000001</v>
       </c>
-      <c r="T26">
+      <c r="Y26">
         <f t="shared" si="0"/>
         <v>5.2000000000000005E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="H27">
         <v>2E-3</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.183</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="O27">
+      <c r="T27">
         <v>0.27900000000000003</v>
       </c>
-      <c r="P27">
+      <c r="U27">
         <v>1.6E-2</v>
       </c>
-      <c r="Q27">
+      <c r="V27">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="R27">
+      <c r="W27">
         <v>0.47099999999999997</v>
       </c>
-      <c r="T27">
+      <c r="Y27">
         <f t="shared" si="0"/>
         <v>0.45499999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -19604,89 +19873,113 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H28">
         <v>0.03</v>
       </c>
-      <c r="F28">
+      <c r="I28">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J28">
         <v>5.5E-2</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="K28">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K28">
+      <c r="P28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L28">
+      <c r="Q28">
         <v>1.9E-2</v>
       </c>
-      <c r="O28">
+      <c r="T28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P28">
+      <c r="U28">
         <v>0.05</v>
       </c>
-      <c r="Q28">
+      <c r="V28">
         <v>0.108</v>
       </c>
-      <c r="R28">
+      <c r="W28">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T28">
+      <c r="Y28">
         <f t="shared" si="0"/>
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>0.125</v>
       </c>
-      <c r="E29">
+      <c r="G29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H29">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F29">
+      <c r="I29">
+        <v>0.01</v>
+      </c>
+      <c r="J29">
         <v>0.38</v>
       </c>
-      <c r="I29">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J29">
+      <c r="O29">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K29">
+      <c r="P29">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="L29">
+      <c r="Q29">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="O29">
+      <c r="T29">
         <v>0.248</v>
       </c>
-      <c r="P29">
+      <c r="U29">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q29">
+      <c r="V29">
         <v>0.628</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="T29">
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <f t="shared" si="0"/>
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -19694,255 +19987,298 @@
         <v>1</v>
       </c>
       <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>0.127</v>
       </c>
-      <c r="D30">
+      <c r="E30">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F30">
         <v>0.373</v>
       </c>
-      <c r="E30">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>0.67100000000000004</v>
       </c>
-      <c r="G30">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H30">
+      <c r="M30">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I30">
+      <c r="N30">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J30">
+      <c r="O30">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="M30">
+      <c r="R30">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="N30">
+      <c r="S30">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O30">
+      <c r="T30">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="R30">
+      <c r="W30">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="T30">
+      <c r="Y30">
         <f t="shared" si="0"/>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>1.2E-2</v>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H31">
         <v>1.2E-2</v>
       </c>
       <c r="I31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N31">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J31">
+      <c r="O31">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K31">
+      <c r="P31">
         <v>2E-3</v>
       </c>
-      <c r="L31">
+      <c r="Q31">
         <v>0.01</v>
       </c>
-      <c r="O31">
+      <c r="T31">
         <v>0.20399999999999999</v>
       </c>
-      <c r="P31">
+      <c r="U31">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Q31">
+      <c r="V31">
         <v>0.442</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="T31">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <f t="shared" si="0"/>
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="P34">
-        <f>SUM(P3:P31)</f>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="U34">
+        <f>SUM(U3:U31)</f>
         <v>0.30500000000000005</v>
       </c>
-      <c r="R34">
-        <f>SUM(R3:R31)</f>
+      <c r="W34">
+        <f>SUM(W3:W31)</f>
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="61"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="61"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="61"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="61"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R26:R31 R2:R7 P2:P7 R9 P9 R11:R18 P11:P18 R20:R21 R24 P20:P21 P24:P31">
-    <cfRule type="cellIs" dxfId="66" priority="45" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="W26:W31 W2:W7 U2:U7 W9 U9 W11:W18 U11:U18 W20:W21 W24 U20:U21 U24:U31">
+    <cfRule type="cellIs" dxfId="66" priority="50" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121:B1048576 B2:C17 B19:C26 B30:B119 B28:C28 C30 Q26:Q31 Q2:Q7 O2:O7 Q9 O9 Q11:Q18 O11:O18 Q20:Q21 Q24 O20:O21 O24:O31">
-    <cfRule type="cellIs" dxfId="65" priority="43" operator="lessThan">
+  <conditionalFormatting sqref="B121:B1048576 B2:B17 B19:B26 B30:B119 B28 D30 V26:V31 V2:V7 T2:T7 V9 T9 V11:V18 T11:T18 V20:V21 V24 T20:T21 T24:T31 D28 D19:D26 D2:D17">
+    <cfRule type="cellIs" dxfId="65" priority="48" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="44" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D31">
-    <cfRule type="cellIs" dxfId="62" priority="40" operator="lessThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="41" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E31">
-    <cfRule type="cellIs" dxfId="59" priority="37" operator="lessThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="49" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="56" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="45" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="46" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="54" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="42" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="43" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J31">
+    <cfRule type="cellIs" dxfId="59" priority="39" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="40" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M31">
+    <cfRule type="cellIs" dxfId="57" priority="38" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L31">
+    <cfRule type="cellIs" dxfId="56" priority="36" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="37" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O31">
+    <cfRule type="cellIs" dxfId="54" priority="35" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N31">
+    <cfRule type="cellIs" dxfId="53" priority="33" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="34" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q16 Q30:Q31 Q18:Q26">
+    <cfRule type="cellIs" dxfId="51" priority="29" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P16 P30:P31 P18:P26">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S14:S15">
+    <cfRule type="cellIs" dxfId="48" priority="17" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14:R15">
+    <cfRule type="cellIs" dxfId="47" priority="15" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="16" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S4 S16:S31 S6:S13">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R4 R16:R31 R6:R13">
+    <cfRule type="cellIs" dxfId="44" priority="18" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q29">
+    <cfRule type="cellIs" dxfId="42" priority="14" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:P29">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121:C1048576 C1:C17 C19:C26 C28 C30:C119">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E17 E19:E26 E28 E30">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="53" priority="31" operator="lessThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="32" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J31">
-    <cfRule type="cellIs" dxfId="51" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="50" priority="28" operator="lessThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L16 L30:L31 L18:L26">
-    <cfRule type="cellIs" dxfId="45" priority="24" operator="greaterThanOrEqual">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K16 K30:K31 K18:K26">
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="lessThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="23" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N15">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="greaterThanOrEqual">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
-    <cfRule type="cellIs" dxfId="41" priority="10" operator="lessThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="11" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N4 N16:N31 N6:N13">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="greaterThanOrEqual">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M4 M16:M31 M6:M13">
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="lessThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27:L29">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="greaterThanOrEqual">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K29">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="lessThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThanOrEqual">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThanOrEqual">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="lessThan">
-      <formula>0.01</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="K2:K31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19953,10 +20289,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="M125" sqref="M125"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="X163" sqref="X163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23332,7 +23668,7 @@
         <v>2.9999999999999888E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>37</v>
       </c>
@@ -23374,7 +23710,7 @@
         <v>-7.8999999999999987E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -23419,7 +23755,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -23461,7 +23797,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -23503,7 +23839,7 @@
         <v>-1.9000000000000017E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -23545,7 +23881,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>25</v>
       </c>
@@ -23587,7 +23923,7 @@
         <v>-1.100000000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -23629,7 +23965,7 @@
         <v>-2.5000000000000008E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -23671,18 +24007,18 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J106">
         <f>AVERAGE(J81:J104)</f>
         <v>9.1833333333333336E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -23719,8 +24055,17 @@
       <c r="L108" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N108" t="s">
+        <v>147</v>
+      </c>
+      <c r="O108" t="s">
+        <v>148</v>
+      </c>
+      <c r="P108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -23765,8 +24110,12 @@
         <f>L109-L81</f>
         <v>394</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P109">
+        <f>K109-K81</f>
+        <v>1215.4619999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -23811,8 +24160,12 @@
         <f t="shared" ref="O110:O132" si="4">L110-L82</f>
         <v>671</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P110">
+        <f t="shared" ref="P110:P132" si="5">K110-K82</f>
+        <v>1941.1550000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -23857,8 +24210,12 @@
         <f t="shared" si="4"/>
         <v>372</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P111">
+        <f t="shared" si="5"/>
+        <v>1168.1499999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -23903,8 +24260,12 @@
         <f t="shared" si="4"/>
         <v>526</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P112">
+        <f t="shared" si="5"/>
+        <v>1868.2849999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -23949,8 +24310,12 @@
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P113">
+        <f t="shared" si="5"/>
+        <v>597.38300000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>34</v>
       </c>
@@ -23995,8 +24360,12 @@
         <f t="shared" si="4"/>
         <v>581</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P114">
+        <f t="shared" si="5"/>
+        <v>2075.1179999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -24041,8 +24410,12 @@
         <f t="shared" si="4"/>
         <v>1519</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P115">
+        <f t="shared" si="5"/>
+        <v>5120.2450000000008</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -24087,8 +24460,12 @@
         <f t="shared" si="4"/>
         <v>678</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P116">
+        <f t="shared" si="5"/>
+        <v>1904.845</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -24133,8 +24510,12 @@
         <f t="shared" si="4"/>
         <v>899</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P117">
+        <f t="shared" si="5"/>
+        <v>2481.1349999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -24179,8 +24560,12 @@
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P118">
+        <f t="shared" si="5"/>
+        <v>836.91699999999992</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -24225,8 +24610,12 @@
         <f t="shared" si="4"/>
         <v>639</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P119">
+        <f t="shared" si="5"/>
+        <v>1849.9570000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -24271,8 +24660,12 @@
         <f t="shared" si="4"/>
         <v>773</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P120">
+        <f t="shared" si="5"/>
+        <v>2624.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -24317,8 +24710,12 @@
         <f t="shared" si="4"/>
         <v>488</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P121">
+        <f t="shared" si="5"/>
+        <v>1424.4920000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>18</v>
       </c>
@@ -24363,8 +24760,12 @@
         <f t="shared" si="4"/>
         <v>408</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P122">
+        <f t="shared" si="5"/>
+        <v>1139.8009999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -24412,8 +24813,12 @@
         <f t="shared" si="4"/>
         <v>558</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P123">
+        <f t="shared" si="5"/>
+        <v>1939.789</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -24458,8 +24863,12 @@
         <f t="shared" si="4"/>
         <v>548</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P124">
+        <f t="shared" si="5"/>
+        <v>1480.7050000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>37</v>
       </c>
@@ -24504,8 +24913,12 @@
         <f t="shared" si="4"/>
         <v>483</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P125">
+        <f t="shared" si="5"/>
+        <v>1535.5639999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -24550,8 +24963,12 @@
         <f t="shared" si="4"/>
         <v>508</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P126">
+        <f t="shared" si="5"/>
+        <v>1846.7339999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>22</v>
       </c>
@@ -24596,8 +25013,12 @@
         <f t="shared" si="4"/>
         <v>225</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P127">
+        <f t="shared" si="5"/>
+        <v>671.29099999999994</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -24642,8 +25063,12 @@
         <f t="shared" si="4"/>
         <v>1127</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P128">
+        <f t="shared" si="5"/>
+        <v>4477.1239999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -24688,8 +25113,12 @@
         <f t="shared" si="4"/>
         <v>579</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P129">
+        <f t="shared" si="5"/>
+        <v>1682.9519999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>25</v>
       </c>
@@ -24734,8 +25163,12 @@
         <f t="shared" si="4"/>
         <v>545</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P130">
+        <f t="shared" si="5"/>
+        <v>1886.413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -24780,8 +25213,12 @@
         <f t="shared" si="4"/>
         <v>501</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P131">
+        <f t="shared" si="5"/>
+        <v>1405.6880000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>27</v>
       </c>
@@ -24826,55 +25263,3317 @@
         <f t="shared" si="4"/>
         <v>321</v>
       </c>
+      <c r="P132">
+        <f t="shared" si="5"/>
+        <v>1039.047</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>46</v>
+      </c>
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" t="s">
+        <v>144</v>
+      </c>
+      <c r="E135" t="s">
+        <v>145</v>
+      </c>
+      <c r="F135" t="s">
+        <v>40</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1</v>
+      </c>
+      <c r="H135" t="s">
+        <v>115</v>
+      </c>
+      <c r="I135" t="s">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>3</v>
+      </c>
+      <c r="K135" t="s">
+        <v>4</v>
+      </c>
+      <c r="L135" t="s">
+        <v>5</v>
+      </c>
+      <c r="N135" t="s">
+        <v>151</v>
+      </c>
+      <c r="O135" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="C136">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D136">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E136">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F136">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="G136">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H136">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="I136">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J136">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="K136">
+        <v>20.437999999999999</v>
+      </c>
+      <c r="L136">
+        <v>523</v>
+      </c>
+      <c r="N136">
+        <f>J136-J109</f>
+        <v>5.3000000000000005E-2</v>
+      </c>
+      <c r="O136">
+        <f>K136-J3</f>
+        <v>0.14399999999999835</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>0.02</v>
+      </c>
+      <c r="C137">
+        <v>0.113</v>
+      </c>
+      <c r="D137">
+        <v>1E-3</v>
+      </c>
+      <c r="E137">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F137">
+        <v>0.03</v>
+      </c>
+      <c r="G137">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H137">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="I137">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J137">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K137">
+        <v>20.475999999999999</v>
+      </c>
+      <c r="L137">
+        <v>920</v>
+      </c>
+      <c r="N137">
+        <f t="shared" ref="N137:N159" si="6">J137-J110</f>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="O137">
+        <f t="shared" ref="O137:O140" si="7">K137-J4</f>
+        <v>-0.31300000000000239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0.314</v>
+      </c>
+      <c r="D138">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E138">
+        <v>0.253</v>
+      </c>
+      <c r="F138">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G138">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="H138">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="I138">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="J138">
+        <v>0.12</v>
+      </c>
+      <c r="K138">
+        <v>25.337</v>
+      </c>
+      <c r="L138">
+        <v>509</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="6"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="7"/>
+        <v>0.32600000000000051</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C139">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D139">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E139">
+        <v>0.06</v>
+      </c>
+      <c r="F139">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G139">
+        <v>1E-3</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J139">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K139">
+        <v>56.347999999999999</v>
+      </c>
+      <c r="L139">
+        <v>1126</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="6"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="7"/>
+        <v>-0.6980000000000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C140">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0.09</v>
+      </c>
+      <c r="G140">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H140">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I140">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="J140">
+        <v>0.253</v>
+      </c>
+      <c r="K140">
+        <v>39.57</v>
+      </c>
+      <c r="L140">
+        <v>372</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="6"/>
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="7"/>
+        <v>-1.0570000000000022</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>34</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E141">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J141">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="K141">
+        <v>81.346000000000004</v>
+      </c>
+      <c r="L141">
+        <v>596</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="6"/>
+        <v>0.17200000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E142">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="J142">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="K142">
+        <v>55.026000000000003</v>
+      </c>
+      <c r="L142">
+        <v>810</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="6"/>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="O142">
+        <f>K142-J8</f>
+        <v>-2.0679999999999978</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C143">
+        <v>0.106</v>
+      </c>
+      <c r="D143">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E143">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F143">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="G143">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H143">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I143">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J143">
+        <v>0.129</v>
+      </c>
+      <c r="K143">
+        <v>16.568999999999999</v>
+      </c>
+      <c r="L143">
+        <v>276</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="6"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O143">
+        <f t="shared" ref="O143:O159" si="8">K143-J9</f>
+        <v>0.78199999999999825</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C144">
+        <v>2E-3</v>
+      </c>
+      <c r="D144">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E144">
+        <v>0.4</v>
+      </c>
+      <c r="F144">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G144">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H144">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I144">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J144">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="K144">
+        <v>13.855</v>
+      </c>
+      <c r="L144">
+        <v>281</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="6"/>
+        <v>0.14800000000000002</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="8"/>
+        <v>0.7240000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145">
+        <v>0.4</v>
+      </c>
+      <c r="C145">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D145">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E145">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="F145">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G145">
+        <v>0.105</v>
+      </c>
+      <c r="H145">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="I145">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J145">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K145">
+        <v>25.088000000000001</v>
+      </c>
+      <c r="L145">
+        <v>321</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="6"/>
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="8"/>
+        <v>0.39199999999999946</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C146">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D146">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E146">
+        <v>0.02</v>
+      </c>
+      <c r="F146">
+        <v>0.753</v>
+      </c>
+      <c r="G146">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="H146">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I146">
+        <v>0.11</v>
+      </c>
+      <c r="J146">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="K146">
+        <v>13.388</v>
+      </c>
+      <c r="L146">
+        <v>402</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="6"/>
+        <v>6.4000000000000015E-2</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="8"/>
+        <v>-0.3960000000000008</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0.184</v>
+      </c>
+      <c r="E147">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0.16</v>
+      </c>
+      <c r="H147">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I147">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J147">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="K147">
+        <v>58.404000000000003</v>
+      </c>
+      <c r="L147">
+        <v>1020</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="6"/>
+        <v>5.9000000000000011E-2</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="8"/>
+        <v>1.1410000000000053</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148">
+        <v>0.38</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0.04</v>
+      </c>
+      <c r="G148">
+        <v>0.18</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J148">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="K148">
+        <v>19.645</v>
+      </c>
+      <c r="L148">
+        <v>470</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="6"/>
+        <v>0.16399999999999998</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="8"/>
+        <v>-1.9220000000000006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C149">
+        <v>0.192</v>
+      </c>
+      <c r="D149">
+        <v>0.376</v>
+      </c>
+      <c r="E149">
+        <v>0.629</v>
+      </c>
+      <c r="F149">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G149">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H149">
+        <v>0.218</v>
+      </c>
+      <c r="I149">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J149">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K149">
+        <v>12.696999999999999</v>
+      </c>
+      <c r="L149">
+        <v>1057</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="6"/>
+        <v>3.8999999999999993E-2</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="8"/>
+        <v>6.1999999999999389E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E150">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F150">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G150">
+        <v>0.185</v>
+      </c>
+      <c r="H150">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I150">
+        <v>0.127</v>
+      </c>
+      <c r="J150">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="K150">
+        <v>44.305</v>
+      </c>
+      <c r="L150">
+        <v>387</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="6"/>
+        <v>3.5999999999999976E-2</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="8"/>
+        <v>-3.2520000000000024</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151">
+        <v>1E-3</v>
+      </c>
+      <c r="C151">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D151">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E151">
+        <v>1E-3</v>
+      </c>
+      <c r="F151">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G151">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0.129</v>
+      </c>
+      <c r="J151">
+        <v>0.154</v>
+      </c>
+      <c r="K151">
+        <v>11.058</v>
+      </c>
+      <c r="L151">
+        <v>646</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="6"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="8"/>
+        <v>2.8999999999999915E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C152">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D152">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E152">
+        <v>0.26</v>
+      </c>
+      <c r="F152">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G152">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H152">
+        <v>0.02</v>
+      </c>
+      <c r="I152">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="J152">
+        <v>0.186</v>
+      </c>
+      <c r="K152">
+        <v>22.837</v>
+      </c>
+      <c r="L152">
+        <v>370</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="6"/>
+        <v>0.107</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="8"/>
+        <v>1.2959999999999994</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E153">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I153">
+        <v>0.218</v>
+      </c>
+      <c r="J153">
+        <v>0.24</v>
+      </c>
+      <c r="K153">
+        <v>64.233999999999995</v>
+      </c>
+      <c r="L153">
+        <v>904</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="6"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="8"/>
+        <v>-1.632000000000005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154">
+        <v>0.86</v>
+      </c>
+      <c r="C154">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D154">
+        <v>0.25</v>
+      </c>
+      <c r="E154">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F154">
+        <v>0.1</v>
+      </c>
+      <c r="G154">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H154">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="I154">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="J154">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K154">
+        <v>25.684999999999999</v>
+      </c>
+      <c r="L154">
+        <v>264</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="6"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="8"/>
+        <v>0.10699999999999932</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0.01</v>
+      </c>
+      <c r="D155">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E155">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="I155">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J155">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K155">
+        <v>125.142</v>
+      </c>
+      <c r="L155">
+        <v>1364</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="6"/>
+        <v>4.1000000000000009E-2</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="8"/>
+        <v>2.1949999999999932</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="C156">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D156">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E156">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F156">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G156">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="H156">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="I156">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J156">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K156">
+        <v>14.779</v>
+      </c>
+      <c r="L156">
+        <v>277</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="6"/>
+        <v>-1.2000000000000011E-2</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="8"/>
+        <v>0.4659999999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>25</v>
+      </c>
+      <c r="B157">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C157">
+        <v>0.39</v>
+      </c>
+      <c r="D157">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="E157">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="F157">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G157">
+        <v>0.437</v>
+      </c>
+      <c r="H157">
+        <v>1E-3</v>
+      </c>
+      <c r="I157">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J157">
+        <v>0.127</v>
+      </c>
+      <c r="K157">
+        <v>45.023000000000003</v>
+      </c>
+      <c r="L157">
+        <v>159</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="6"/>
+        <v>0.106</v>
+      </c>
+      <c r="O157">
+        <f t="shared" si="8"/>
+        <v>3.5370000000000061</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158">
+        <v>1E-3</v>
+      </c>
+      <c r="C158">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="D158">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E158">
+        <v>0.123</v>
+      </c>
+      <c r="F158">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G158">
+        <v>0.21</v>
+      </c>
+      <c r="H158">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="I158">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J158">
+        <v>0.115</v>
+      </c>
+      <c r="K158">
+        <v>13.878</v>
+      </c>
+      <c r="L158">
+        <v>302</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="6"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="8"/>
+        <v>1.2439999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C159">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D159">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="E159">
+        <v>0.498</v>
+      </c>
+      <c r="F159">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G159">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H159">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="I159">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J159">
+        <v>0.112</v>
+      </c>
+      <c r="K159">
+        <v>31.814</v>
+      </c>
+      <c r="L159">
+        <v>310</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="6"/>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="8"/>
+        <v>1.4750000000000014</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="O161">
+        <f>SUM(O136:O159)</f>
+        <v>2.5819999999999883</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>146</v>
+      </c>
+      <c r="R162" t="s">
+        <v>154</v>
+      </c>
+      <c r="U162" t="s">
+        <v>153</v>
+      </c>
+      <c r="X162" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>46</v>
+      </c>
+      <c r="C163" t="s">
+        <v>143</v>
+      </c>
+      <c r="D163" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" t="s">
+        <v>145</v>
+      </c>
+      <c r="F163" t="s">
+        <v>40</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1</v>
+      </c>
+      <c r="H163" t="s">
+        <v>115</v>
+      </c>
+      <c r="I163" t="s">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>3</v>
+      </c>
+      <c r="K163" t="s">
+        <v>4</v>
+      </c>
+      <c r="L163" t="s">
+        <v>5</v>
+      </c>
+      <c r="N163" t="s">
+        <v>147</v>
+      </c>
+      <c r="O163" t="s">
+        <v>148</v>
+      </c>
+      <c r="P163" t="s">
+        <v>149</v>
+      </c>
+      <c r="R163" t="s">
+        <v>0</v>
+      </c>
+      <c r="S163" t="s">
+        <v>3</v>
+      </c>
+      <c r="U163" t="s">
+        <v>0</v>
+      </c>
+      <c r="V163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C164">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D164">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E164">
+        <v>0.109</v>
+      </c>
+      <c r="F164">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G164">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H164">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I164">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J164">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="K164">
+        <v>23.024999999999999</v>
+      </c>
+      <c r="L164">
+        <v>917</v>
+      </c>
+      <c r="N164">
+        <f>J164-J136</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="O164">
+        <f>L164-L136</f>
+        <v>394</v>
+      </c>
+      <c r="P164">
+        <f>K164-K136</f>
+        <v>2.5869999999999997</v>
+      </c>
+      <c r="R164" t="s">
+        <v>26</v>
+      </c>
+      <c r="S164">
+        <v>0.115</v>
+      </c>
+      <c r="T164">
+        <f>S164-X164</f>
+        <v>-0.27</v>
+      </c>
+      <c r="U164" t="s">
+        <v>26</v>
+      </c>
+      <c r="V164">
+        <v>0.1</v>
+      </c>
+      <c r="W164" t="s">
+        <v>26</v>
+      </c>
+      <c r="X164" s="21">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="Y164">
+        <f>V164-X164</f>
+        <v>-0.28500000000000003</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C165">
+        <v>2E-3</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F165">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G165">
+        <v>0.64</v>
+      </c>
+      <c r="H165">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I165">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J165">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K165">
+        <v>19.789000000000001</v>
+      </c>
+      <c r="L165">
+        <v>1591</v>
+      </c>
+      <c r="N165">
+        <f>J165-J137</f>
+        <v>-2.0999999999999998E-2</v>
+      </c>
+      <c r="O165">
+        <f>L165-L137</f>
+        <v>671</v>
+      </c>
+      <c r="P165">
+        <f>K165-K137</f>
+        <v>-0.68699999999999761</v>
+      </c>
+      <c r="R165" t="s">
+        <v>17</v>
+      </c>
+      <c r="S165">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="T165">
+        <f t="shared" ref="T165:T192" si="9">S165-X165</f>
+        <v>2.899999999999997E-2</v>
+      </c>
+      <c r="U165" t="s">
+        <v>17</v>
+      </c>
+      <c r="V165">
+        <v>0.221</v>
+      </c>
+      <c r="W165" t="s">
+        <v>17</v>
+      </c>
+      <c r="X165" s="23">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="Y165">
+        <f t="shared" ref="Y165:Y192" si="10">V165-X165</f>
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D166">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E166">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="F166">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G166">
+        <v>0.121</v>
+      </c>
+      <c r="H166">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="I166">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J166">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K166">
+        <v>27.93</v>
+      </c>
+      <c r="L166">
+        <v>881</v>
+      </c>
+      <c r="N166">
+        <f>J166-J138</f>
+        <v>-5.099999999999999E-2</v>
+      </c>
+      <c r="O166">
+        <f>L166-L138</f>
+        <v>372</v>
+      </c>
+      <c r="P166">
+        <f>K166-K138</f>
+        <v>2.593</v>
+      </c>
+      <c r="R166" t="s">
+        <v>12</v>
+      </c>
+      <c r="S166">
+        <v>0.129</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="9"/>
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="U166" t="s">
+        <v>12</v>
+      </c>
+      <c r="V166">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W166" t="s">
+        <v>12</v>
+      </c>
+      <c r="X166" s="29">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="Y166">
+        <f t="shared" si="10"/>
+        <v>-2.0999999999999991E-2</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C167">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D167">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E167">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F167">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>2E-3</v>
+      </c>
+      <c r="I167">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J167">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K167">
+        <v>60.447000000000003</v>
+      </c>
+      <c r="L167">
+        <v>1652</v>
+      </c>
+      <c r="N167">
+        <f>J167-J139</f>
+        <v>-8.9999999999999941E-3</v>
+      </c>
+      <c r="O167">
+        <f>L167-L139</f>
+        <v>526</v>
+      </c>
+      <c r="P167">
+        <f>K167-K139</f>
+        <v>4.0990000000000038</v>
+      </c>
+      <c r="R167" t="s">
+        <v>34</v>
+      </c>
+      <c r="S167">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="9"/>
+        <v>0.23</v>
+      </c>
+      <c r="U167" t="s">
+        <v>34</v>
+      </c>
+      <c r="V167">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="W167" t="s">
+        <v>34</v>
+      </c>
+      <c r="X167" s="29">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="Y167">
+        <f t="shared" si="10"/>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C168">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0.251</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="I168">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="J168">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="K168">
+        <v>41.77</v>
+      </c>
+      <c r="L168">
+        <v>548</v>
+      </c>
+      <c r="N168">
+        <f>J168-J140</f>
+        <v>-1.4000000000000012E-2</v>
+      </c>
+      <c r="O168">
+        <f>L168-L140</f>
+        <v>176</v>
+      </c>
+      <c r="P168">
+        <f>K168-K140</f>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="R168" t="s">
+        <v>22</v>
+      </c>
+      <c r="S168">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="9"/>
+        <v>-7.9999999999999932E-3</v>
+      </c>
+      <c r="U168" t="s">
+        <v>22</v>
+      </c>
+      <c r="V168">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="W168" t="s">
+        <v>22</v>
+      </c>
+      <c r="X168" s="23">
+        <v>0.125</v>
+      </c>
+      <c r="Y168">
+        <f t="shared" si="10"/>
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0.01</v>
+      </c>
+      <c r="H169">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I169">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J169">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="K169">
+        <v>76.808000000000007</v>
+      </c>
+      <c r="L169">
+        <v>1177</v>
+      </c>
+      <c r="N169">
+        <f>J169-J141</f>
+        <v>-0.11700000000000002</v>
+      </c>
+      <c r="O169">
+        <f>L169-L141</f>
+        <v>581</v>
+      </c>
+      <c r="P169">
+        <f>K169-K141</f>
+        <v>-4.5379999999999967</v>
+      </c>
+      <c r="R169" t="s">
+        <v>25</v>
+      </c>
+      <c r="S169">
+        <v>0.127</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="9"/>
+        <v>-7.6000000000000012E-2</v>
+      </c>
+      <c r="U169" t="s">
+        <v>25</v>
+      </c>
+      <c r="V169">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="W169" t="s">
+        <v>25</v>
+      </c>
+      <c r="X169" s="23">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="Y169">
+        <f t="shared" si="10"/>
+        <v>-0.15800000000000003</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170">
+        <v>1E-3</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E170">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J170">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K170">
+        <v>51.694000000000003</v>
+      </c>
+      <c r="L170">
+        <v>2329</v>
+      </c>
+      <c r="N170">
+        <f>J170-J142</f>
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="O170">
+        <f>L170-L142</f>
+        <v>1519</v>
+      </c>
+      <c r="P170">
+        <f>K170-K142</f>
+        <v>-3.3320000000000007</v>
+      </c>
+      <c r="R170" t="s">
+        <v>24</v>
+      </c>
+      <c r="S170">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="9"/>
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="U170" t="s">
+        <v>24</v>
+      </c>
+      <c r="V170">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="W170" t="s">
+        <v>24</v>
+      </c>
+      <c r="X170" s="23">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="Y170">
+        <f t="shared" si="10"/>
+        <v>-0.10699999999999998</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="D171">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="E171">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F171">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G171">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H171">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I171">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="J171">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K171">
+        <v>15.920999999999999</v>
+      </c>
+      <c r="L171">
+        <v>954</v>
+      </c>
+      <c r="N171">
+        <f>J171-J143</f>
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="O171">
+        <f>L171-L143</f>
+        <v>678</v>
+      </c>
+      <c r="P171">
+        <f>K171-K143</f>
+        <v>-0.64799999999999969</v>
+      </c>
+      <c r="R171" t="s">
+        <v>23</v>
+      </c>
+      <c r="S171">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="9"/>
+        <v>-7.9999999999999793E-3</v>
+      </c>
+      <c r="U171" t="s">
+        <v>23</v>
+      </c>
+      <c r="V171">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="W171" t="s">
+        <v>23</v>
+      </c>
+      <c r="X171" s="23">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="Y171">
+        <f t="shared" si="10"/>
+        <v>-3.2999999999999974E-2</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C172">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D172">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="E172">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F172">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G172">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0.08</v>
+      </c>
+      <c r="J172">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K172">
+        <v>14.355</v>
+      </c>
+      <c r="L172">
+        <v>1180</v>
+      </c>
+      <c r="N172">
+        <f>J172-J144</f>
+        <v>-9.7000000000000017E-2</v>
+      </c>
+      <c r="O172">
+        <f>L172-L144</f>
+        <v>899</v>
+      </c>
+      <c r="P172">
+        <f>K172-K144</f>
+        <v>0.5</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="9"/>
+        <v>-0.17</v>
+      </c>
+      <c r="W172" t="s">
+        <v>36</v>
+      </c>
+      <c r="X172" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="Y172">
+        <f t="shared" si="10"/>
+        <v>-0.17</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C173">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="D173">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E173">
+        <v>0.5</v>
+      </c>
+      <c r="F173">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="G173">
+        <v>0.11</v>
+      </c>
+      <c r="H173">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="I173">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J173">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="K173">
+        <v>24.949000000000002</v>
+      </c>
+      <c r="L173">
+        <v>597</v>
+      </c>
+      <c r="N173">
+        <f>J173-J145</f>
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="O173">
+        <f>L173-L145</f>
+        <v>276</v>
+      </c>
+      <c r="P173">
+        <f>K173-K145</f>
+        <v>-0.13899999999999935</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="9"/>
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="W173" t="s">
+        <v>28</v>
+      </c>
+      <c r="X173" s="29">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="Y173">
+        <f t="shared" si="10"/>
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>15</v>
+      </c>
+      <c r="B174">
+        <v>1E-3</v>
+      </c>
+      <c r="C174">
+        <v>0.156</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F174">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G174">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="H174">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I174">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="J174">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K174">
+        <v>16.536999999999999</v>
+      </c>
+      <c r="L174">
+        <v>1041</v>
+      </c>
+      <c r="N174">
+        <f>J174-J146</f>
+        <v>-4.9000000000000016E-2</v>
+      </c>
+      <c r="O174">
+        <f>L174-L146</f>
+        <v>639</v>
+      </c>
+      <c r="P174">
+        <f>K174-K146</f>
+        <v>3.1489999999999991</v>
+      </c>
+      <c r="R174" t="s">
+        <v>13</v>
+      </c>
+      <c r="S174">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="9"/>
+        <v>-5.2999999999999992E-2</v>
+      </c>
+      <c r="U174" t="s">
+        <v>13</v>
+      </c>
+      <c r="V174">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="W174" t="s">
+        <v>13</v>
+      </c>
+      <c r="X174" s="23">
+        <v>0.252</v>
+      </c>
+      <c r="Y174">
+        <f t="shared" si="10"/>
+        <v>-0.15000000000000002</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E175">
+        <v>0.3</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0.193</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J175">
+        <v>0.113</v>
+      </c>
+      <c r="K175">
+        <v>55.390999999999998</v>
+      </c>
+      <c r="L175">
+        <v>1793</v>
+      </c>
+      <c r="N175">
+        <f>J175-J147</f>
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="O175">
+        <f>L175-L147</f>
+        <v>773</v>
+      </c>
+      <c r="P175">
+        <f>K175-K147</f>
+        <v>-3.0130000000000052</v>
+      </c>
+      <c r="R175" t="s">
+        <v>9</v>
+      </c>
+      <c r="S175">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="9"/>
+        <v>2.6999999999999996E-2</v>
+      </c>
+      <c r="U175" t="s">
+        <v>9</v>
+      </c>
+      <c r="V175">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W175" t="s">
+        <v>9</v>
+      </c>
+      <c r="X175" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="Y175">
+        <f t="shared" si="10"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0.19</v>
+      </c>
+      <c r="G176">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="J176">
+        <v>0.221</v>
+      </c>
+      <c r="K176">
+        <v>19.905000000000001</v>
+      </c>
+      <c r="L176">
+        <v>958</v>
+      </c>
+      <c r="N176">
+        <f>J176-J148</f>
+        <v>-0.12999999999999998</v>
+      </c>
+      <c r="O176">
+        <f>L176-L148</f>
+        <v>488</v>
+      </c>
+      <c r="P176">
+        <f>K176-K148</f>
+        <v>0.26000000000000156</v>
+      </c>
+      <c r="R176" t="s">
+        <v>27</v>
+      </c>
+      <c r="S176">
+        <v>0.112</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="9"/>
+        <v>-7.9999999999999932E-3</v>
+      </c>
+      <c r="U176" t="s">
+        <v>27</v>
+      </c>
+      <c r="V176">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="W176" t="s">
+        <v>27</v>
+      </c>
+      <c r="X176" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="Y176">
+        <f t="shared" si="10"/>
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177">
+        <v>2E-3</v>
+      </c>
+      <c r="C177">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D177">
+        <v>0.214</v>
+      </c>
+      <c r="E177">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F177">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G177">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H177">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I177">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J177">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K177">
+        <v>13.394</v>
+      </c>
+      <c r="L177">
+        <v>1465</v>
+      </c>
+      <c r="N177">
+        <f>J177-J149</f>
+        <v>-1.2999999999999998E-2</v>
+      </c>
+      <c r="O177">
+        <f>L177-L149</f>
+        <v>408</v>
+      </c>
+      <c r="P177">
+        <f>K177-K149</f>
+        <v>0.69700000000000095</v>
+      </c>
+      <c r="R177" t="s">
+        <v>14</v>
+      </c>
+      <c r="S177">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="9"/>
+        <v>-3.8999999999999993E-2</v>
+      </c>
+      <c r="U177" t="s">
+        <v>14</v>
+      </c>
+      <c r="V177">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="W177" t="s">
+        <v>14</v>
+      </c>
+      <c r="X177" s="23">
+        <v>0.107</v>
+      </c>
+      <c r="Y177">
+        <f t="shared" si="10"/>
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178">
+        <v>0.02</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E178">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F178">
+        <v>0.124</v>
+      </c>
+      <c r="G178">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0.154</v>
+      </c>
+      <c r="J178">
+        <v>0.183</v>
+      </c>
+      <c r="K178">
+        <v>51.86</v>
+      </c>
+      <c r="L178">
+        <v>945</v>
+      </c>
+      <c r="N178">
+        <f>J178-J150</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="O178">
+        <f>L178-L150</f>
+        <v>558</v>
+      </c>
+      <c r="P178">
+        <f>K178-K150</f>
+        <v>7.5549999999999997</v>
+      </c>
+      <c r="R178" t="s">
+        <v>16</v>
+      </c>
+      <c r="S178">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="9"/>
+        <v>-4.9999999999999989E-2</v>
+      </c>
+      <c r="U178" t="s">
+        <v>16</v>
+      </c>
+      <c r="V178">
+        <v>0.113</v>
+      </c>
+      <c r="W178" t="s">
+        <v>16</v>
+      </c>
+      <c r="X178" s="23">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Y178">
+        <f t="shared" si="10"/>
+        <v>-9.8999999999999991E-2</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="C179">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G179">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="J179">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="K179">
+        <v>11.635</v>
+      </c>
+      <c r="L179">
+        <v>1194</v>
+      </c>
+      <c r="N179">
+        <f>J179-J151</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="O179">
+        <f>L179-L151</f>
+        <v>548</v>
+      </c>
+      <c r="P179">
+        <f>K179-K151</f>
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="9"/>
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="W179" t="s">
+        <v>39</v>
+      </c>
+      <c r="X179" s="23">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="Y179">
+        <f t="shared" si="10"/>
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>37</v>
+      </c>
+      <c r="B180">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F180">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G180">
+        <v>1E-3</v>
+      </c>
+      <c r="H180">
+        <v>0.03</v>
+      </c>
+      <c r="I180">
+        <v>0.107</v>
+      </c>
+      <c r="J180">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K180">
+        <v>27.911999999999999</v>
+      </c>
+      <c r="L180">
+        <v>853</v>
+      </c>
+      <c r="N180">
+        <f>J180-J152</f>
+        <v>-4.8999999999999988E-2</v>
+      </c>
+      <c r="O180">
+        <f>L180-L152</f>
+        <v>483</v>
+      </c>
+      <c r="P180">
+        <f>K180-K152</f>
+        <v>5.0749999999999993</v>
+      </c>
+      <c r="R180" t="s">
+        <v>11</v>
+      </c>
+      <c r="S180">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="9"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="U180" t="s">
+        <v>11</v>
+      </c>
+      <c r="V180">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="W180" t="s">
+        <v>11</v>
+      </c>
+      <c r="X180" s="23">
+        <v>0.106</v>
+      </c>
+      <c r="Y180">
+        <f t="shared" si="10"/>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>1E-3</v>
+      </c>
+      <c r="I181">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="J181">
+        <v>0.253</v>
+      </c>
+      <c r="K181">
+        <v>69.177000000000007</v>
+      </c>
+      <c r="L181">
+        <v>1412</v>
+      </c>
+      <c r="N181">
+        <f>J181-J153</f>
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="O181">
+        <f>L181-L153</f>
+        <v>508</v>
+      </c>
+      <c r="P181">
+        <f>K181-K153</f>
+        <v>4.9430000000000121</v>
+      </c>
+      <c r="R181" t="s">
+        <v>6</v>
+      </c>
+      <c r="S181">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="9"/>
+        <v>-6.1000000000000013E-2</v>
+      </c>
+      <c r="U181" t="s">
+        <v>6</v>
+      </c>
+      <c r="V181">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="W181" t="s">
+        <v>6</v>
+      </c>
+      <c r="X181" s="23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y181">
+        <f t="shared" si="10"/>
+        <v>-5.5000000000000007E-2</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>22</v>
+      </c>
+      <c r="B182">
+        <v>0.156</v>
+      </c>
+      <c r="C182">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D182">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E182">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F182">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G182">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="H182">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I182">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J182">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K182">
+        <v>24.274000000000001</v>
+      </c>
+      <c r="L182">
+        <v>489</v>
+      </c>
+      <c r="N182">
+        <f>J182-J154</f>
+        <v>-3.6000000000000004E-2</v>
+      </c>
+      <c r="O182">
+        <f>L182-L154</f>
+        <v>225</v>
+      </c>
+      <c r="P182">
+        <f>K182-K154</f>
+        <v>-1.4109999999999978</v>
+      </c>
+      <c r="R182" t="s">
+        <v>7</v>
+      </c>
+      <c r="S182">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="9"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="U182" t="s">
+        <v>7</v>
+      </c>
+      <c r="V182">
+        <v>5.5E-2</v>
+      </c>
+      <c r="W182" t="s">
+        <v>7</v>
+      </c>
+      <c r="X182" s="29">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Y182">
+        <f t="shared" si="10"/>
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E183">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0.124</v>
+      </c>
+      <c r="J183">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="K183">
+        <v>140.06200000000001</v>
+      </c>
+      <c r="L183">
+        <v>2491</v>
+      </c>
+      <c r="N183">
+        <f>J183-J155</f>
+        <v>-2.4999999999999994E-2</v>
+      </c>
+      <c r="O183">
+        <f>L183-L155</f>
+        <v>1127</v>
+      </c>
+      <c r="P183">
+        <f>K183-K155</f>
+        <v>14.920000000000016</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="9"/>
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="W183" t="s">
+        <v>35</v>
+      </c>
+      <c r="X183" s="23">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Y183">
+        <f t="shared" si="10"/>
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
+      <c r="B184">
+        <v>2E-3</v>
+      </c>
+      <c r="C184">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G184">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H184">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I184">
+        <v>0.115</v>
+      </c>
+      <c r="J184">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K184">
+        <v>17.507000000000001</v>
+      </c>
+      <c r="L184">
+        <v>856</v>
+      </c>
+      <c r="N184">
+        <f>J184-J156</f>
+        <v>2.8000000000000011E-2</v>
+      </c>
+      <c r="O184">
+        <f>L184-L156</f>
+        <v>579</v>
+      </c>
+      <c r="P184">
+        <f>K184-K156</f>
+        <v>2.7280000000000015</v>
+      </c>
+      <c r="R184" t="s">
+        <v>18</v>
+      </c>
+      <c r="S184">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="9"/>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="U184" t="s">
+        <v>18</v>
+      </c>
+      <c r="V184">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="W184" t="s">
+        <v>18</v>
+      </c>
+      <c r="X184" s="23">
+        <v>0.122</v>
+      </c>
+      <c r="Y184">
+        <f t="shared" si="10"/>
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>25</v>
+      </c>
+      <c r="B185">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="C185">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D185">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E185">
+        <v>0.45</v>
+      </c>
+      <c r="F185">
+        <v>0.1</v>
+      </c>
+      <c r="G185">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H185">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I185">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J185">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K185">
+        <v>55.055999999999997</v>
+      </c>
+      <c r="L185">
+        <v>704</v>
+      </c>
+      <c r="N185">
+        <f>J185-J157</f>
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="O185">
+        <f>L185-L157</f>
+        <v>545</v>
+      </c>
+      <c r="P185">
+        <f>K185-K157</f>
+        <v>10.032999999999994</v>
+      </c>
+      <c r="R185" t="s">
+        <v>10</v>
+      </c>
+      <c r="S185">
+        <v>0.253</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="9"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="U185" t="s">
+        <v>10</v>
+      </c>
+      <c r="V185">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="W185" t="s">
+        <v>10</v>
+      </c>
+      <c r="X185" s="23">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Y185">
+        <f t="shared" si="10"/>
+        <v>4.2999999999999983E-2</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186">
+        <v>0.18</v>
+      </c>
+      <c r="C186">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D186">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E186">
+        <v>2E-3</v>
+      </c>
+      <c r="F186">
+        <v>1E-3</v>
+      </c>
+      <c r="G186">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H186">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I186">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J186">
+        <v>0.1</v>
+      </c>
+      <c r="K186">
+        <v>14.814</v>
+      </c>
+      <c r="L186">
+        <v>803</v>
+      </c>
+      <c r="N186">
+        <f>J186-J158</f>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="O186">
+        <f>L186-L158</f>
+        <v>501</v>
+      </c>
+      <c r="P186">
+        <f>K186-K158</f>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="9"/>
+        <v>-0.42099999999999999</v>
+      </c>
+      <c r="W186" t="s">
+        <v>38</v>
+      </c>
+      <c r="X186" s="23">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="Y186">
+        <f t="shared" si="10"/>
+        <v>-0.42099999999999999</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="C187">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D187">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="E187">
+        <v>0.622</v>
+      </c>
+      <c r="F187">
+        <v>2E-3</v>
+      </c>
+      <c r="G187">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H187">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="I187">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J187">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K187">
+        <v>34.072000000000003</v>
+      </c>
+      <c r="L187">
+        <v>631</v>
+      </c>
+      <c r="N187">
+        <f>J187-J159</f>
+        <v>-2.5000000000000008E-2</v>
+      </c>
+      <c r="O187">
+        <f>L187-L159</f>
+        <v>321</v>
+      </c>
+      <c r="P187">
+        <f>K187-K159</f>
+        <v>2.2580000000000027</v>
+      </c>
+      <c r="R187" t="s">
+        <v>15</v>
+      </c>
+      <c r="S187">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T187">
+        <f t="shared" si="9"/>
+        <v>-0.16399999999999998</v>
+      </c>
+      <c r="U187" t="s">
+        <v>15</v>
+      </c>
+      <c r="V187">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="W187" t="s">
+        <v>15</v>
+      </c>
+      <c r="X187" s="23">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="Y187">
+        <f t="shared" si="10"/>
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="R188" t="s">
+        <v>21</v>
+      </c>
+      <c r="S188">
+        <v>0.24</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="9"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="U188" t="s">
+        <v>21</v>
+      </c>
+      <c r="V188">
+        <v>0.253</v>
+      </c>
+      <c r="W188" t="s">
+        <v>21</v>
+      </c>
+      <c r="X188" s="23">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="Y188">
+        <f t="shared" si="10"/>
+        <v>4.5000000000000012E-2</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="R189" t="s">
+        <v>20</v>
+      </c>
+      <c r="S189">
+        <v>0.154</v>
+      </c>
+      <c r="T189">
+        <f t="shared" si="9"/>
+        <v>-3.7000000000000005E-2</v>
+      </c>
+      <c r="U189" t="s">
+        <v>20</v>
+      </c>
+      <c r="V189">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="W189" t="s">
+        <v>20</v>
+      </c>
+      <c r="X189" s="23">
+        <v>0.191</v>
+      </c>
+      <c r="Y189">
+        <f t="shared" si="10"/>
+        <v>-2.8999999999999998E-2</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="R190" t="s">
+        <v>8</v>
+      </c>
+      <c r="S190">
+        <v>0.12</v>
+      </c>
+      <c r="T190">
+        <f t="shared" si="9"/>
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="U190" t="s">
+        <v>8</v>
+      </c>
+      <c r="V190">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="W190" t="s">
+        <v>8</v>
+      </c>
+      <c r="X190" s="23">
+        <v>0.154</v>
+      </c>
+      <c r="Y190">
+        <f t="shared" si="10"/>
+        <v>-8.4999999999999992E-2</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="R191" t="s">
+        <v>37</v>
+      </c>
+      <c r="S191">
+        <v>0.186</v>
+      </c>
+      <c r="T191">
+        <f t="shared" si="9"/>
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="U191" t="s">
+        <v>37</v>
+      </c>
+      <c r="V191">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="W191" t="s">
+        <v>37</v>
+      </c>
+      <c r="X191" s="23">
+        <v>0.113</v>
+      </c>
+      <c r="Y191">
+        <f t="shared" si="10"/>
+        <v>2.4000000000000007E-2</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="R192" t="s">
+        <v>19</v>
+      </c>
+      <c r="S192">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="T192">
+        <f t="shared" si="9"/>
+        <v>7.2999999999999982E-2</v>
+      </c>
+      <c r="U192" t="s">
+        <v>19</v>
+      </c>
+      <c r="V192">
+        <v>0.183</v>
+      </c>
+      <c r="W192" t="s">
+        <v>19</v>
+      </c>
+      <c r="X192" s="29">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="Y192">
+        <f t="shared" si="10"/>
+        <v>8.3999999999999991E-2</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I53 I78:I80 I105:I108 I133:I1048576">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="greaterThan">
+  <sortState ref="R164:S187">
+    <sortCondition ref="R164"/>
+  </sortState>
+  <conditionalFormatting sqref="I1:I53 I78:I80 I105:I108 I133:I135 I160:I163 I188:I1048576 V164:V171 V174:V178 V180:V182 V184:V185 V187:V192 S164:S171 S174:S178 S180:S182 S184:S185 S187:S192">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:L77">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:H104">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:J104">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H132">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J132">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="greaterThan">
       <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J136:J159">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H136:H159">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="10" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J164:J187">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H164:H187">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y164:Y192">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T164:T192">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24886,8 +28585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView topLeftCell="O18" workbookViewId="0">
-      <selection activeCell="M28" sqref="A28:XFD28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27845,41 +31544,41 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX27">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AV27">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AI27">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK27">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -1742,14 +1742,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="110">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="109">
     <dxf>
       <fill>
         <patternFill>
@@ -15533,44 +15526,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D118 D120:D1048576">
-    <cfRule type="cellIs" dxfId="109" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="108" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B118 B120:B1048576">
-    <cfRule type="cellIs" dxfId="108" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="106" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I85 I119:I1048576 I87:I117">
-    <cfRule type="cellIs" dxfId="105" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="5" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="103" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="101" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18156,145 +18149,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 E2:E17 C19:C26 E19:E26 C28 C30:C119 E28 E30 AC26:AC31 AC2:AC7 AA2:AA7 AC9 AA9 AC11:AC18 AA11:AA18 AC20:AC21 AC24 AA20:AA21 AA24:AA31">
-    <cfRule type="cellIs" dxfId="99" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="98" priority="42" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 D2:D17 B19:B26 D19:D26 B28 B30:B119 D28 D30 AB26:AB31 AB2:AB7 Z2:Z7 AB9 Z9 AB11:AB18 Z11:Z18 AB20:AB21 AB24 Z20:Z21 Z24:Z31">
-    <cfRule type="cellIs" dxfId="98" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="40" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="41" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="96" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="36" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="95" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="34" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="35" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="93" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="92" priority="33" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="92" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="31" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="32" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31">
-    <cfRule type="cellIs" dxfId="90" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="30" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J31">
-    <cfRule type="cellIs" dxfId="89" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="28" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="29" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31">
-    <cfRule type="cellIs" dxfId="87" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="27" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L31">
-    <cfRule type="cellIs" dxfId="86" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="25" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="26" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="84" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="24" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="83" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="22" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="23" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q31">
-    <cfRule type="cellIs" dxfId="81" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="21" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P31">
-    <cfRule type="cellIs" dxfId="80" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S31">
-    <cfRule type="cellIs" dxfId="78" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="18" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R31">
-    <cfRule type="cellIs" dxfId="77" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="16" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="17" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U31">
-    <cfRule type="cellIs" dxfId="75" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="15" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T31">
-    <cfRule type="cellIs" dxfId="74" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="13" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="14" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W31">
-    <cfRule type="cellIs" dxfId="72" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V31">
-    <cfRule type="cellIs" dxfId="71" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y31">
-    <cfRule type="cellIs" dxfId="69" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="9" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X31">
-    <cfRule type="cellIs" dxfId="68" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="7" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18307,7 +18300,7 @@
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20117,168 +20110,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W26:W31 W2:W7 U2:U7 W9 U9 W11:W18 U11:U18 W20:W21 W24 U20:U21 U24:U31">
-    <cfRule type="cellIs" dxfId="66" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="50" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 B19:B26 B30:B119 B28 D30 V26:V31 V2:V7 T2:T7 V9 T9 V11:V18 T11:T18 V20:V21 V24 T20:T21 T24:T31 D28 D19:D26 D2:D17">
-    <cfRule type="cellIs" dxfId="65" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="49" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="63" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="45" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="46" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="61" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="42" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="43" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J31">
-    <cfRule type="cellIs" dxfId="59" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="39" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="40" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31">
-    <cfRule type="cellIs" dxfId="57" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L31">
-    <cfRule type="cellIs" dxfId="56" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="36" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="37" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="54" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="53" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q16 Q30:Q31 Q18:Q26">
-    <cfRule type="cellIs" dxfId="51" priority="29" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="29" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P16 P30:P31 P18:P26">
-    <cfRule type="cellIs" dxfId="50" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="27" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="28" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S15">
-    <cfRule type="cellIs" dxfId="48" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="47" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4 S16:S31 S6:S13">
-    <cfRule type="cellIs" dxfId="45" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="20" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R4 R16:R31 R6:R13">
-    <cfRule type="cellIs" dxfId="44" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q29">
-    <cfRule type="cellIs" dxfId="42" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P29">
-    <cfRule type="cellIs" dxfId="41" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 C19:C26 C28 C30:C119">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17 E19:E26 E28 E30">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20291,8 +20284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="X163" sqref="X163"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="T165" sqref="T165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26534,15 +26527,15 @@
         <v>917</v>
       </c>
       <c r="N164">
-        <f>J164-J136</f>
+        <f t="shared" ref="N164:N187" si="9">J164-J136</f>
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="O164">
-        <f>L164-L136</f>
+        <f t="shared" ref="O164:O187" si="10">L164-L136</f>
         <v>394</v>
       </c>
       <c r="P164">
-        <f>K164-K136</f>
+        <f t="shared" ref="P164:P187" si="11">K164-K136</f>
         <v>2.5869999999999997</v>
       </c>
       <c r="R164" t="s">
@@ -26613,15 +26606,15 @@
         <v>1591</v>
       </c>
       <c r="N165">
-        <f>J165-J137</f>
+        <f t="shared" si="9"/>
         <v>-2.0999999999999998E-2</v>
       </c>
       <c r="O165">
-        <f>L165-L137</f>
+        <f t="shared" si="10"/>
         <v>671</v>
       </c>
       <c r="P165">
-        <f>K165-K137</f>
+        <f t="shared" si="11"/>
         <v>-0.68699999999999761</v>
       </c>
       <c r="R165" t="s">
@@ -26631,7 +26624,7 @@
         <v>0.35099999999999998</v>
       </c>
       <c r="T165">
-        <f t="shared" ref="T165:T192" si="9">S165-X165</f>
+        <f t="shared" ref="T165:T192" si="12">S165-X165</f>
         <v>2.899999999999997E-2</v>
       </c>
       <c r="U165" t="s">
@@ -26647,7 +26640,7 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="Y165">
-        <f t="shared" ref="Y165:Y192" si="10">V165-X165</f>
+        <f t="shared" ref="Y165:Y192" si="13">V165-X165</f>
         <v>-0.10100000000000001</v>
       </c>
       <c r="Z165" t="s">
@@ -26692,15 +26685,15 @@
         <v>881</v>
       </c>
       <c r="N166">
-        <f>J166-J138</f>
+        <f t="shared" si="9"/>
         <v>-5.099999999999999E-2</v>
       </c>
       <c r="O166">
-        <f>L166-L138</f>
+        <f t="shared" si="10"/>
         <v>372</v>
       </c>
       <c r="P166">
-        <f>K166-K138</f>
+        <f t="shared" si="11"/>
         <v>2.593</v>
       </c>
       <c r="R166" t="s">
@@ -26710,7 +26703,7 @@
         <v>0.129</v>
       </c>
       <c r="T166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.8000000000000006E-2</v>
       </c>
       <c r="U166" t="s">
@@ -26726,7 +26719,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="Y166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-2.0999999999999991E-2</v>
       </c>
       <c r="Z166" t="s">
@@ -26771,15 +26764,15 @@
         <v>1652</v>
       </c>
       <c r="N167">
-        <f>J167-J139</f>
+        <f t="shared" si="9"/>
         <v>-8.9999999999999941E-3</v>
       </c>
       <c r="O167">
-        <f>L167-L139</f>
+        <f t="shared" si="10"/>
         <v>526</v>
       </c>
       <c r="P167">
-        <f>K167-K139</f>
+        <f t="shared" si="11"/>
         <v>4.0990000000000038</v>
       </c>
       <c r="R167" t="s">
@@ -26789,7 +26782,7 @@
         <v>0.32300000000000001</v>
       </c>
       <c r="T167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.23</v>
       </c>
       <c r="U167" t="s">
@@ -26805,7 +26798,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="Y167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.11299999999999999</v>
       </c>
       <c r="Z167" t="s">
@@ -26850,15 +26843,15 @@
         <v>548</v>
       </c>
       <c r="N168">
-        <f>J168-J140</f>
+        <f t="shared" si="9"/>
         <v>-1.4000000000000012E-2</v>
       </c>
       <c r="O168">
-        <f>L168-L140</f>
+        <f t="shared" si="10"/>
         <v>176</v>
       </c>
       <c r="P168">
-        <f>K168-K140</f>
+        <f t="shared" si="11"/>
         <v>2.2000000000000028</v>
       </c>
       <c r="R168" t="s">
@@ -26868,7 +26861,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="T168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-7.9999999999999932E-3</v>
       </c>
       <c r="U168" t="s">
@@ -26884,7 +26877,7 @@
         <v>0.125</v>
       </c>
       <c r="Y168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-4.3999999999999997E-2</v>
       </c>
       <c r="Z168" t="s">
@@ -26929,15 +26922,15 @@
         <v>1177</v>
       </c>
       <c r="N169">
-        <f>J169-J141</f>
+        <f t="shared" si="9"/>
         <v>-0.11700000000000002</v>
       </c>
       <c r="O169">
-        <f>L169-L141</f>
+        <f t="shared" si="10"/>
         <v>581</v>
       </c>
       <c r="P169">
-        <f>K169-K141</f>
+        <f t="shared" si="11"/>
         <v>-4.5379999999999967</v>
       </c>
       <c r="R169" t="s">
@@ -26947,7 +26940,7 @@
         <v>0.127</v>
       </c>
       <c r="T169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-7.6000000000000012E-2</v>
       </c>
       <c r="U169" t="s">
@@ -26963,7 +26956,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="Y169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.15800000000000003</v>
       </c>
       <c r="Z169" t="s">
@@ -27008,15 +27001,15 @@
         <v>2329</v>
       </c>
       <c r="N170">
-        <f>J170-J142</f>
+        <f t="shared" si="9"/>
         <v>-0.14199999999999999</v>
       </c>
       <c r="O170">
-        <f>L170-L142</f>
+        <f t="shared" si="10"/>
         <v>1519</v>
       </c>
       <c r="P170">
-        <f>K170-K142</f>
+        <f t="shared" si="11"/>
         <v>-3.3320000000000007</v>
       </c>
       <c r="R170" t="s">
@@ -27026,7 +27019,7 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="T170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.13500000000000001</v>
       </c>
       <c r="U170" t="s">
@@ -27042,7 +27035,7 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="Y170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.10699999999999998</v>
       </c>
       <c r="Z170" t="s">
@@ -27087,15 +27080,15 @@
         <v>954</v>
       </c>
       <c r="N171">
-        <f>J171-J143</f>
+        <f t="shared" si="9"/>
         <v>-5.8999999999999997E-2</v>
       </c>
       <c r="O171">
-        <f>L171-L143</f>
+        <f t="shared" si="10"/>
         <v>678</v>
       </c>
       <c r="P171">
-        <f>K171-K143</f>
+        <f t="shared" si="11"/>
         <v>-0.64799999999999969</v>
       </c>
       <c r="R171" t="s">
@@ -27105,7 +27098,7 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="T171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-7.9999999999999793E-3</v>
       </c>
       <c r="U171" t="s">
@@ -27121,7 +27114,7 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="Y171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-3.2999999999999974E-2</v>
       </c>
       <c r="Z171" t="s">
@@ -27166,19 +27159,19 @@
         <v>1180</v>
       </c>
       <c r="N172">
-        <f>J172-J144</f>
+        <f t="shared" si="9"/>
         <v>-9.7000000000000017E-2</v>
       </c>
       <c r="O172">
-        <f>L172-L144</f>
+        <f t="shared" si="10"/>
         <v>899</v>
       </c>
       <c r="P172">
-        <f>K172-K144</f>
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
       <c r="T172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.17</v>
       </c>
       <c r="W172" t="s">
@@ -27188,7 +27181,7 @@
         <v>0.17</v>
       </c>
       <c r="Y172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.17</v>
       </c>
       <c r="Z172" t="s">
@@ -27233,19 +27226,19 @@
         <v>597</v>
       </c>
       <c r="N173">
-        <f>J173-J145</f>
+        <f t="shared" si="9"/>
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="O173">
-        <f>L173-L145</f>
+        <f t="shared" si="10"/>
         <v>276</v>
       </c>
       <c r="P173">
-        <f>K173-K145</f>
+        <f t="shared" si="11"/>
         <v>-0.13899999999999935</v>
       </c>
       <c r="T173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-7.1999999999999995E-2</v>
       </c>
       <c r="W173" t="s">
@@ -27255,7 +27248,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="Y173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-7.1999999999999995E-2</v>
       </c>
       <c r="Z173" t="s">
@@ -27300,15 +27293,15 @@
         <v>1041</v>
       </c>
       <c r="N174">
-        <f>J174-J146</f>
+        <f t="shared" si="9"/>
         <v>-4.9000000000000016E-2</v>
       </c>
       <c r="O174">
-        <f>L174-L146</f>
+        <f t="shared" si="10"/>
         <v>639</v>
       </c>
       <c r="P174">
-        <f>K174-K146</f>
+        <f t="shared" si="11"/>
         <v>3.1489999999999991</v>
       </c>
       <c r="R174" t="s">
@@ -27318,7 +27311,7 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="T174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-5.2999999999999992E-2</v>
       </c>
       <c r="U174" t="s">
@@ -27334,7 +27327,7 @@
         <v>0.252</v>
       </c>
       <c r="Y174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.15000000000000002</v>
       </c>
       <c r="Z174" t="s">
@@ -27379,15 +27372,15 @@
         <v>1793</v>
       </c>
       <c r="N175">
-        <f>J175-J147</f>
+        <f t="shared" si="9"/>
         <v>-4.9000000000000002E-2</v>
       </c>
       <c r="O175">
-        <f>L175-L147</f>
+        <f t="shared" si="10"/>
         <v>773</v>
       </c>
       <c r="P175">
-        <f>K175-K147</f>
+        <f t="shared" si="11"/>
         <v>-3.0130000000000052</v>
       </c>
       <c r="R175" t="s">
@@ -27397,7 +27390,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="T175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2.6999999999999996E-2</v>
       </c>
       <c r="U175" t="s">
@@ -27413,7 +27406,7 @@
         <v>0.05</v>
       </c>
       <c r="Y175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="Z175" t="s">
@@ -27458,15 +27451,15 @@
         <v>958</v>
       </c>
       <c r="N176">
-        <f>J176-J148</f>
+        <f t="shared" si="9"/>
         <v>-0.12999999999999998</v>
       </c>
       <c r="O176">
-        <f>L176-L148</f>
+        <f t="shared" si="10"/>
         <v>488</v>
       </c>
       <c r="P176">
-        <f>K176-K148</f>
+        <f t="shared" si="11"/>
         <v>0.26000000000000156</v>
       </c>
       <c r="R176" t="s">
@@ -27476,7 +27469,7 @@
         <v>0.112</v>
       </c>
       <c r="T176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-7.9999999999999932E-3</v>
       </c>
       <c r="U176" t="s">
@@ -27492,7 +27485,7 @@
         <v>0.12</v>
       </c>
       <c r="Y176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="Z176" t="s">
@@ -27537,15 +27530,15 @@
         <v>1465</v>
       </c>
       <c r="N177">
-        <f>J177-J149</f>
+        <f t="shared" si="9"/>
         <v>-1.2999999999999998E-2</v>
       </c>
       <c r="O177">
-        <f>L177-L149</f>
+        <f t="shared" si="10"/>
         <v>408</v>
       </c>
       <c r="P177">
-        <f>K177-K149</f>
+        <f t="shared" si="11"/>
         <v>0.69700000000000095</v>
       </c>
       <c r="R177" t="s">
@@ -27555,7 +27548,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="T177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.8999999999999993E-2</v>
       </c>
       <c r="U177" t="s">
@@ -27571,7 +27564,7 @@
         <v>0.107</v>
       </c>
       <c r="Y177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-4.2999999999999997E-2</v>
       </c>
       <c r="Z177" t="s">
@@ -27616,15 +27609,15 @@
         <v>945</v>
       </c>
       <c r="N178">
-        <f>J178-J150</f>
+        <f t="shared" si="9"/>
         <v>1.100000000000001E-2</v>
       </c>
       <c r="O178">
-        <f>L178-L150</f>
+        <f t="shared" si="10"/>
         <v>558</v>
       </c>
       <c r="P178">
-        <f>K178-K150</f>
+        <f t="shared" si="11"/>
         <v>7.5549999999999997</v>
       </c>
       <c r="R178" t="s">
@@ -27634,7 +27627,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="T178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-4.9999999999999989E-2</v>
       </c>
       <c r="U178" t="s">
@@ -27650,7 +27643,7 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="Y178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-9.8999999999999991E-2</v>
       </c>
       <c r="Z178" t="s">
@@ -27695,19 +27688,19 @@
         <v>1194</v>
       </c>
       <c r="N179">
-        <f>J179-J151</f>
+        <f t="shared" si="9"/>
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="O179">
-        <f>L179-L151</f>
+        <f t="shared" si="10"/>
         <v>548</v>
       </c>
       <c r="P179">
-        <f>K179-K151</f>
+        <f t="shared" si="11"/>
         <v>0.57699999999999996</v>
       </c>
       <c r="T179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.22600000000000001</v>
       </c>
       <c r="W179" t="s">
@@ -27717,7 +27710,7 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="Y179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.22600000000000001</v>
       </c>
       <c r="Z179" t="s">
@@ -27762,15 +27755,15 @@
         <v>853</v>
       </c>
       <c r="N180">
-        <f>J180-J152</f>
+        <f t="shared" si="9"/>
         <v>-4.8999999999999988E-2</v>
       </c>
       <c r="O180">
-        <f>L180-L152</f>
+        <f t="shared" si="10"/>
         <v>483</v>
       </c>
       <c r="P180">
-        <f>K180-K152</f>
+        <f t="shared" si="11"/>
         <v>5.0749999999999993</v>
       </c>
       <c r="R180" t="s">
@@ -27780,7 +27773,7 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="T180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.13200000000000001</v>
       </c>
       <c r="U180" t="s">
@@ -27796,7 +27789,7 @@
         <v>0.106</v>
       </c>
       <c r="Y180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-9.999999999999995E-3</v>
       </c>
       <c r="Z180" t="s">
@@ -27841,15 +27834,15 @@
         <v>1412</v>
       </c>
       <c r="N181">
-        <f>J181-J153</f>
+        <f t="shared" si="9"/>
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="O181">
-        <f>L181-L153</f>
+        <f t="shared" si="10"/>
         <v>508</v>
       </c>
       <c r="P181">
-        <f>K181-K153</f>
+        <f t="shared" si="11"/>
         <v>4.9430000000000121</v>
       </c>
       <c r="R181" t="s">
@@ -27859,7 +27852,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="T181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-6.1000000000000013E-2</v>
       </c>
       <c r="U181" t="s">
@@ -27875,7 +27868,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="Y181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-5.5000000000000007E-2</v>
       </c>
       <c r="Z181" t="s">
@@ -27920,15 +27913,15 @@
         <v>489</v>
       </c>
       <c r="N182">
-        <f>J182-J154</f>
+        <f t="shared" si="9"/>
         <v>-3.6000000000000004E-2</v>
       </c>
       <c r="O182">
-        <f>L182-L154</f>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="P182">
-        <f>K182-K154</f>
+        <f t="shared" si="11"/>
         <v>-1.4109999999999978</v>
       </c>
       <c r="R182" t="s">
@@ -27938,7 +27931,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="T182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="U182" t="s">
@@ -27954,7 +27947,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="Y182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-4.1000000000000002E-2</v>
       </c>
       <c r="Z182" t="s">
@@ -27999,19 +27992,19 @@
         <v>2491</v>
       </c>
       <c r="N183">
-        <f>J183-J155</f>
+        <f t="shared" si="9"/>
         <v>-2.4999999999999994E-2</v>
       </c>
       <c r="O183">
-        <f>L183-L155</f>
+        <f t="shared" si="10"/>
         <v>1127</v>
       </c>
       <c r="P183">
-        <f>K183-K155</f>
+        <f t="shared" si="11"/>
         <v>14.920000000000016</v>
       </c>
       <c r="T183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.10100000000000001</v>
       </c>
       <c r="W183" t="s">
@@ -28021,7 +28014,7 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="Y183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.10100000000000001</v>
       </c>
       <c r="Z183" t="s">
@@ -28066,15 +28059,15 @@
         <v>856</v>
       </c>
       <c r="N184">
-        <f>J184-J156</f>
+        <f t="shared" si="9"/>
         <v>2.8000000000000011E-2</v>
       </c>
       <c r="O184">
-        <f>L184-L156</f>
+        <f t="shared" si="10"/>
         <v>579</v>
       </c>
       <c r="P184">
-        <f>K184-K156</f>
+        <f t="shared" si="11"/>
         <v>2.7280000000000015</v>
       </c>
       <c r="R184" t="s">
@@ -28084,7 +28077,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="T184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="U184" t="s">
@@ -28100,7 +28093,7 @@
         <v>0.122</v>
       </c>
       <c r="Y184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-4.8000000000000001E-2</v>
       </c>
       <c r="Z184" t="s">
@@ -28145,15 +28138,15 @@
         <v>704</v>
       </c>
       <c r="N185">
-        <f>J185-J157</f>
+        <f t="shared" si="9"/>
         <v>-8.2000000000000003E-2</v>
       </c>
       <c r="O185">
-        <f>L185-L157</f>
+        <f t="shared" si="10"/>
         <v>545</v>
       </c>
       <c r="P185">
-        <f>K185-K157</f>
+        <f t="shared" si="11"/>
         <v>10.032999999999994</v>
       </c>
       <c r="R185" t="s">
@@ -28163,7 +28156,7 @@
         <v>0.253</v>
       </c>
       <c r="T185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.6999999999999995E-2</v>
       </c>
       <c r="U185" t="s">
@@ -28179,7 +28172,7 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="Y185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.2999999999999983E-2</v>
       </c>
       <c r="Z185" t="s">
@@ -28224,19 +28217,19 @@
         <v>803</v>
       </c>
       <c r="N186">
-        <f>J186-J158</f>
+        <f t="shared" si="9"/>
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="O186">
-        <f>L186-L158</f>
+        <f t="shared" si="10"/>
         <v>501</v>
       </c>
       <c r="P186">
-        <f>K186-K158</f>
+        <f t="shared" si="11"/>
         <v>0.93599999999999994</v>
       </c>
       <c r="T186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.42099999999999999</v>
       </c>
       <c r="W186" t="s">
@@ -28246,7 +28239,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="Y186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.42099999999999999</v>
       </c>
       <c r="Z186" t="s">
@@ -28291,15 +28284,15 @@
         <v>631</v>
       </c>
       <c r="N187">
-        <f>J187-J159</f>
+        <f t="shared" si="9"/>
         <v>-2.5000000000000008E-2</v>
       </c>
       <c r="O187">
-        <f>L187-L159</f>
+        <f t="shared" si="10"/>
         <v>321</v>
       </c>
       <c r="P187">
-        <f>K187-K159</f>
+        <f t="shared" si="11"/>
         <v>2.2580000000000027</v>
       </c>
       <c r="R187" t="s">
@@ -28309,7 +28302,7 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="T187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-0.16399999999999998</v>
       </c>
       <c r="U187" t="s">
@@ -28325,7 +28318,7 @@
         <v>0.30199999999999999</v>
       </c>
       <c r="Y187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-0.21299999999999999</v>
       </c>
       <c r="Z187" t="s">
@@ -28340,7 +28333,7 @@
         <v>0.24</v>
       </c>
       <c r="T188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="U188" t="s">
@@ -28356,7 +28349,7 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="Y188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.5000000000000012E-2</v>
       </c>
       <c r="Z188" t="s">
@@ -28371,7 +28364,7 @@
         <v>0.154</v>
       </c>
       <c r="T189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.7000000000000005E-2</v>
       </c>
       <c r="U189" t="s">
@@ -28387,7 +28380,7 @@
         <v>0.191</v>
       </c>
       <c r="Y189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-2.8999999999999998E-2</v>
       </c>
       <c r="Z189" t="s">
@@ -28402,7 +28395,7 @@
         <v>0.12</v>
       </c>
       <c r="T190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>-3.4000000000000002E-2</v>
       </c>
       <c r="U190" t="s">
@@ -28418,7 +28411,7 @@
         <v>0.154</v>
       </c>
       <c r="Y190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-8.4999999999999992E-2</v>
       </c>
       <c r="Z190" t="s">
@@ -28433,7 +28426,7 @@
         <v>0.186</v>
       </c>
       <c r="T191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="U191" t="s">
@@ -28449,7 +28442,7 @@
         <v>0.113</v>
       </c>
       <c r="Y191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.4000000000000007E-2</v>
       </c>
       <c r="Z191" t="s">
@@ -28464,7 +28457,7 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="T192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.2999999999999982E-2</v>
       </c>
       <c r="U192" t="s">
@@ -28480,7 +28473,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="Y192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.3999999999999991E-2</v>
       </c>
       <c r="Z192" t="s">
@@ -28492,87 +28485,87 @@
     <sortCondition ref="R164"/>
   </sortState>
   <conditionalFormatting sqref="I1:I53 I78:I80 I105:I108 I133:I135 I160:I163 I188:I1048576 V164:V171 V174:V178 V180:V182 V184:V185 V187:V192 S164:S171 S174:S178 S180:S182 S184:S185 S187:S192">
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:L77">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:H104">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:J104">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H132">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J132">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136:J159">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H159">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164:J187">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H187">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y164:Y192">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T164:T192">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31544,41 +31537,41 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX27">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AV27">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AI27">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK27">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="156">
   <si>
     <t>Species</t>
   </si>
@@ -475,9 +475,6 @@
     <t>Increased GCV</t>
   </si>
   <si>
-    <t>Same as without null space penalty or adding na.gam.replace</t>
-  </si>
-  <si>
     <t>Most Dev Expl increased</t>
   </si>
   <si>
@@ -491,6 +488,9 @@
   </si>
   <si>
     <t>Before non-standard tows were excluded</t>
+  </si>
+  <si>
+    <t>Same as above without null space penalty or adding na.gam.replace</t>
   </si>
 </sst>
 </file>
@@ -15577,8 +15577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AA31" sqref="A2:AA31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18299,8 +18299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="F1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20114,7 +20114,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B121:B1048576 B2:B17 B19:B26 B30:B119 B28 D30 V26:V31 V2:V7 T2:T7 V9 T9 V11:V18 T11:T18 V20:V21 V24 T20:T21 T24:T31 D28 D19:D26 D2:D17">
+  <conditionalFormatting sqref="B121:B1048576 B2:B17 B19:B26 B30 B28 D30 V26:V31 V2:V7 T2:T7 V9 T9 V11:V18 T11:T18 V20:V21 V24 T20:T21 T24:T31 D28 D19:D26 D2:D17 B38:B119">
     <cfRule type="cellIs" dxfId="64" priority="48" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
@@ -20138,7 +20138,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J31">
+  <conditionalFormatting sqref="J2 J5 J10 J14 J17:J18 J21:J22 J24:J25 J27:J29">
     <cfRule type="cellIs" dxfId="58" priority="39" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
@@ -20146,12 +20146,12 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M31">
+  <conditionalFormatting sqref="M2:M31 L5 L10 L14 L17:L18 L21:L22 L27:L29 L24:L25">
     <cfRule type="cellIs" dxfId="56" priority="38" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L31">
+  <conditionalFormatting sqref="L2:L4 L6:L9 L11:L13 L15:L16 L19:L20 L23 L30:L31 L26">
     <cfRule type="cellIs" dxfId="55" priority="36" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
@@ -20172,12 +20172,12 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q16 Q30:Q31 Q18:Q26">
+  <conditionalFormatting sqref="Q2:Q16 Q30:Q31 Q18:Q26 P4:P9 P11 P13:P15 P19:P21 P24 P30">
     <cfRule type="cellIs" dxfId="50" priority="29" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P16 P30:P31 P18:P26">
+  <conditionalFormatting sqref="P2:P3 P31 P18 P10 P12 P16 P22:P23 P25:P26">
     <cfRule type="cellIs" dxfId="49" priority="27" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
@@ -20198,12 +20198,12 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S4 S16:S31 S6:S13">
+  <conditionalFormatting sqref="S2:S4 S16:S31 S6:S13 R10 R12 R16:R18 R22:R23 R25:R29 R31 R3">
     <cfRule type="cellIs" dxfId="44" priority="20" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R4 R16:R31 R6:R13">
+  <conditionalFormatting sqref="R2 R19:R21 R6:R9 R11 R13 R24 R30 R4">
     <cfRule type="cellIs" dxfId="43" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
@@ -20250,7 +20250,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121:C1048576 C1:C17 C19:C26 C28 C30:C119">
+  <conditionalFormatting sqref="C121:C1048576 C1:C17 C19:C26 C28 C30:C119 B31:B37">
     <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -20270,7 +20270,7 @@
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K31">
+  <conditionalFormatting sqref="K2:K31 J3:J4 J6:J9 J11:J13 J15:J16 J19:J20 J23 J26 J30:J31">
     <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -20284,8 +20284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="T165" sqref="T165"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="P153" sqref="P153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24795,9 +24795,6 @@
       <c r="L123">
         <v>945</v>
       </c>
-      <c r="M123" s="60" t="s">
-        <v>124</v>
-      </c>
       <c r="N123">
         <f t="shared" si="3"/>
         <v>4.7000000000000014E-2</v>
@@ -25263,7 +25260,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.35">
@@ -25304,10 +25301,10 @@
         <v>5</v>
       </c>
       <c r="N135" t="s">
+        <v>150</v>
+      </c>
+      <c r="O135" t="s">
         <v>151</v>
-      </c>
-      <c r="O135" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.35">
@@ -25577,6 +25574,9 @@
       <c r="L141">
         <v>596</v>
       </c>
+      <c r="M141" s="60" t="s">
+        <v>124</v>
+      </c>
       <c r="N141">
         <f t="shared" si="6"/>
         <v>0.17200000000000001</v>
@@ -25987,6 +25987,9 @@
       <c r="L150">
         <v>387</v>
       </c>
+      <c r="M150" s="60" t="s">
+        <v>124</v>
+      </c>
       <c r="N150">
         <f t="shared" si="6"/>
         <v>3.5999999999999976E-2</v>
@@ -26171,6 +26174,7 @@
       <c r="L154">
         <v>264</v>
       </c>
+      <c r="M154" s="60"/>
       <c r="N154">
         <f t="shared" si="6"/>
         <v>9.9000000000000005E-2</v>
@@ -26314,7 +26318,7 @@
         <v>0.106</v>
       </c>
       <c r="O157">
-        <f t="shared" si="8"/>
+        <f>K157-J23</f>
         <v>3.5370000000000061</v>
       </c>
     </row>
@@ -26401,6 +26405,7 @@
       <c r="L159">
         <v>310</v>
       </c>
+      <c r="M159" s="60"/>
       <c r="N159">
         <f t="shared" si="6"/>
         <v>6.8000000000000005E-2</v>
@@ -26421,13 +26426,13 @@
         <v>146</v>
       </c>
       <c r="R162" t="s">
+        <v>153</v>
+      </c>
+      <c r="U162" t="s">
+        <v>152</v>
+      </c>
+      <c r="X162" t="s">
         <v>154</v>
-      </c>
-      <c r="U162" t="s">
-        <v>153</v>
-      </c>
-      <c r="X162" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.35">
@@ -28578,8 +28583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q33"/>
+    <sheetView tabSelected="1" topLeftCell="M22" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="162">
   <si>
     <t>Species</t>
   </si>
@@ -491,6 +491,24 @@
   </si>
   <si>
     <t>Same as above without null space penalty or adding na.gam.replace</t>
+  </si>
+  <si>
+    <t>Scup</t>
+  </si>
+  <si>
+    <t>Clearnose skate</t>
+  </si>
+  <si>
+    <t>Smooth skate</t>
+  </si>
+  <si>
+    <t>Barndoor skate</t>
+  </si>
+  <si>
+    <t>Rosette skate</t>
+  </si>
+  <si>
+    <t>With revised calibrations in survdat</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1760,161 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="131">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -15526,44 +15698,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D118 D120:D1048576">
-    <cfRule type="cellIs" dxfId="108" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="130" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B118 B120:B1048576">
-    <cfRule type="cellIs" dxfId="107" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="105" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I85 I119:I1048576 I87:I117">
-    <cfRule type="cellIs" dxfId="104" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="5" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="102" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="3" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="100" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15577,7 +15749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -18149,145 +18321,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 E2:E17 C19:C26 E19:E26 C28 C30:C119 E28 E30 AC26:AC31 AC2:AC7 AA2:AA7 AC9 AA9 AC11:AC18 AA11:AA18 AC20:AC21 AC24 AA20:AA21 AA24:AA31">
-    <cfRule type="cellIs" dxfId="98" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="120" priority="42" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 D2:D17 B19:B26 D19:D26 B28 B30:B119 D28 D30 AB26:AB31 AB2:AB7 Z2:Z7 AB9 Z9 AB11:AB18 Z11:Z18 AB20:AB21 AB24 Z20:Z21 Z24:Z31">
-    <cfRule type="cellIs" dxfId="97" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="40" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="41" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="95" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="117" priority="36" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="94" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="34" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="35" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="92" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="114" priority="33" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="91" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="31" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="32" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31">
-    <cfRule type="cellIs" dxfId="89" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="30" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J31">
-    <cfRule type="cellIs" dxfId="88" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="28" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="29" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31">
-    <cfRule type="cellIs" dxfId="86" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="108" priority="27" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L31">
-    <cfRule type="cellIs" dxfId="85" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="25" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="26" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="83" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="105" priority="24" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="82" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="22" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="23" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q31">
-    <cfRule type="cellIs" dxfId="80" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="102" priority="21" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P31">
-    <cfRule type="cellIs" dxfId="79" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S31">
-    <cfRule type="cellIs" dxfId="77" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="99" priority="18" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R31">
-    <cfRule type="cellIs" dxfId="76" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="16" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="17" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U31">
-    <cfRule type="cellIs" dxfId="74" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="96" priority="15" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T31">
-    <cfRule type="cellIs" dxfId="73" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="13" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="14" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W31">
-    <cfRule type="cellIs" dxfId="71" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="93" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V31">
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y31">
-    <cfRule type="cellIs" dxfId="68" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="90" priority="9" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X31">
-    <cfRule type="cellIs" dxfId="67" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="7" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20110,168 +20282,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W26:W31 W2:W7 U2:U7 W9 U9 W11:W18 U11:U18 W20:W21 W24 U20:U21 U24:U31">
-    <cfRule type="cellIs" dxfId="65" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="50" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 B19:B26 B30 B28 D30 V26:V31 V2:V7 T2:T7 V9 T9 V11:V18 T11:T18 V20:V21 V24 T20:T21 T24:T31 D28 D19:D26 D2:D17 B38:B119">
-    <cfRule type="cellIs" dxfId="64" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="48" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="49" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="62" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="45" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="46" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="60" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="42" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="43" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J5 J10 J14 J17:J18 J21:J22 J24:J25 J27:J29">
-    <cfRule type="cellIs" dxfId="58" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="39" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="40" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31 L5 L10 L14 L17:L18 L21:L22 L27:L29 L24:L25">
-    <cfRule type="cellIs" dxfId="56" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="38" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L4 L6:L9 L11:L13 L15:L16 L19:L20 L23 L30:L31 L26">
-    <cfRule type="cellIs" dxfId="55" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="36" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="37" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="53" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="35" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="52" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="33" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="34" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q16 Q30:Q31 Q18:Q26 P4:P9 P11 P13:P15 P19:P21 P24 P30">
-    <cfRule type="cellIs" dxfId="50" priority="29" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="29" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P3 P31 P18 P10 P12 P16 P22:P23 P25:P26">
-    <cfRule type="cellIs" dxfId="49" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="27" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="28" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S15">
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="46" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4 S16:S31 S6:S13 R10 R12 R16:R18 R22:R23 R25:R29 R31 R3">
-    <cfRule type="cellIs" dxfId="44" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 R19:R21 R6:R9 R11 R13 R24 R30 R4">
-    <cfRule type="cellIs" dxfId="43" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q29">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="14" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P29">
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="11" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 C19:C26 C28 C30:C119 B31:B37">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17 E19:E26 E28 E30">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 J3:J4 J6:J9 J11:J13 J15:J16 J19:J20 J23 J26 J30:J31">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20284,7 +20456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="P153" sqref="P153"/>
     </sheetView>
   </sheetViews>
@@ -28490,87 +28662,87 @@
     <sortCondition ref="R164"/>
   </sortState>
   <conditionalFormatting sqref="I1:I53 I78:I80 I105:I108 I133:I135 I160:I163 I188:I1048576 V164:V171 V174:V178 V180:V182 V184:V185 V187:V192 S164:S171 S174:S178 S180:S182 S184:S185 S187:S192">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="21" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:L77">
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="17" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:H104">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:J104">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H132">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J132">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136:J159">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H159">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164:J187">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H187">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y164:Y192">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T164:T192">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28581,10 +28753,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX33"/>
+  <dimension ref="A1:BL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M22" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="AX4" workbookViewId="0">
+      <selection activeCell="BJ8" sqref="BJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28597,14 +28769,15 @@
     <col min="21" max="21" width="9.90625" customWidth="1"/>
     <col min="22" max="22" width="11.08984375" customWidth="1"/>
     <col min="23" max="23" width="9.6328125" customWidth="1"/>
+    <col min="53" max="53" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
       <c r="Q1">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="62" t="s">
         <v>107</v>
@@ -28637,8 +28810,14 @@
       <c r="AA2" s="64"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA2">
+        <v>2021</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
       <c r="C3" s="68" t="s">
@@ -28691,7 +28870,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -28821,8 +29000,44 @@
       <c r="AX4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
@@ -28935,8 +29150,44 @@
       <c r="AX5">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="BC5">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="BD5">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="BE5">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="BF5">
+        <v>2E-3</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0.161</v>
+      </c>
+      <c r="BI5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="BJ5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="BK5">
+        <v>128.63</v>
+      </c>
+      <c r="BL5">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
@@ -29049,8 +29300,44 @@
       <c r="AX6">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA6" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB6">
+        <v>0.222</v>
+      </c>
+      <c r="BC6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="BI6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="BJ6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="BK6">
+        <v>585.56899999999996</v>
+      </c>
+      <c r="BL6">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
@@ -29163,8 +29450,44 @@
       <c r="AX7">
         <v>7.2999999999999995E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB7">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="BC7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BD7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="BE7">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="BF7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="BG7">
+        <v>6.3E-2</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="BJ7">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="BK7">
+        <v>55.920999999999999</v>
+      </c>
+      <c r="BL7">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -29277,8 +29600,44 @@
       <c r="AX8">
         <v>6.5000000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA8" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="BC8">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="BD8">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="BE8">
+        <v>0.248</v>
+      </c>
+      <c r="BF8">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="BG8">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="BJ8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="BK8">
+        <v>8812.6020000000008</v>
+      </c>
+      <c r="BL8">
+        <v>4636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
@@ -29391,8 +29750,44 @@
       <c r="AX9">
         <v>0.13900000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA9" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="BD9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="BE9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="BI9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="BJ9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BK9">
+        <v>71.051000000000002</v>
+      </c>
+      <c r="BL9">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>34</v>
       </c>
@@ -29491,8 +29886,44 @@
       <c r="AX10">
         <v>0.189</v>
       </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA10" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="BD10">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="BE10">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="BF10">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="BG10">
+        <v>0.12</v>
+      </c>
+      <c r="BH10">
+        <v>1E-3</v>
+      </c>
+      <c r="BI10">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="BJ10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="BK10">
+        <v>137.50200000000001</v>
+      </c>
+      <c r="BL10">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
@@ -29595,8 +30026,44 @@
       <c r="AX11">
         <v>0.14699999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="BI11">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="BJ11">
+        <v>0.156</v>
+      </c>
+      <c r="BK11">
+        <v>155.541</v>
+      </c>
+      <c r="BL11">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>12</v>
       </c>
@@ -29695,8 +30162,44 @@
       <c r="AX12">
         <v>0.11700000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0.26</v>
+      </c>
+      <c r="BD12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="BE12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="BI12">
+        <v>0.159</v>
+      </c>
+      <c r="BJ12">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="BK12">
+        <v>126.777</v>
+      </c>
+      <c r="BL12">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
@@ -29809,8 +30312,44 @@
       <c r="AX13">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB13">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="BC13">
+        <v>0.01</v>
+      </c>
+      <c r="BD13">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="BE13">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="BF13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BG13">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>6.2E-2</v>
+      </c>
+      <c r="BJ13">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="BK13">
+        <v>71.972999999999999</v>
+      </c>
+      <c r="BL13">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>14</v>
       </c>
@@ -29923,8 +30462,44 @@
       <c r="AX14">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA14" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="BD14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="BE14">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="BF14">
+        <v>5.5E-2</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="BJ14">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="BK14">
+        <v>935.92200000000003</v>
+      </c>
+      <c r="BL14">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
@@ -30037,8 +30612,44 @@
       <c r="AX15">
         <v>0.14299999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA15" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BC15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0.109</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0.622</v>
+      </c>
+      <c r="BH15">
+        <v>0.109</v>
+      </c>
+      <c r="BI15">
+        <v>0.155</v>
+      </c>
+      <c r="BJ15">
+        <v>0.18</v>
+      </c>
+      <c r="BK15">
+        <v>179.779</v>
+      </c>
+      <c r="BL15">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -30151,8 +30762,44 @@
       <c r="AX16">
         <v>0.22900000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA16" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="BD16">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="BE16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="BF16">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BG16">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0.109</v>
+      </c>
+      <c r="BJ16">
+        <v>0.126</v>
+      </c>
+      <c r="BK16">
+        <v>123.896</v>
+      </c>
+      <c r="BL16">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
         <v>35</v>
       </c>
@@ -30249,8 +30896,44 @@
       <c r="AX17">
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA17" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB17">
+        <v>1E-3</v>
+      </c>
+      <c r="BC17">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="BD17">
+        <v>0.161</v>
+      </c>
+      <c r="BE17">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="BH17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="BI17">
+        <v>6.3E-2</v>
+      </c>
+      <c r="BJ17">
+        <v>7.8E-2</v>
+      </c>
+      <c r="BK17">
+        <v>136.00299999999999</v>
+      </c>
+      <c r="BL17">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>17</v>
       </c>
@@ -30353,8 +31036,44 @@
       <c r="AX18">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA18" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="BD18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="BE18">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="BH18">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="BI18">
+        <v>0.12</v>
+      </c>
+      <c r="BJ18">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="BK18">
+        <v>56.012999999999998</v>
+      </c>
+      <c r="BL18">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>18</v>
       </c>
@@ -30453,8 +31172,44 @@
       <c r="AX19">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA19" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB19">
+        <v>1E-3</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0.432</v>
+      </c>
+      <c r="BE19">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="BF19">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="BG19">
+        <v>0.109</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0.1</v>
+      </c>
+      <c r="BJ19">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="BK19">
+        <v>499.33</v>
+      </c>
+      <c r="BL19">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>36</v>
       </c>
@@ -30553,8 +31308,44 @@
       <c r="AX20">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA20" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="BD20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="BE20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="BF20">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="BG20">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="BJ20">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="BK20">
+        <v>105.014</v>
+      </c>
+      <c r="BL20">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
@@ -30655,8 +31446,44 @@
       <c r="AX21">
         <v>0.20399999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA21" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="BD21">
+        <v>3.9E-2</v>
+      </c>
+      <c r="BE21">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="BF21">
+        <v>0.05</v>
+      </c>
+      <c r="BG21">
+        <v>0.24</v>
+      </c>
+      <c r="BH21">
+        <v>2E-3</v>
+      </c>
+      <c r="BI21">
+        <v>0.106</v>
+      </c>
+      <c r="BJ21">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="BK21">
+        <v>96.477000000000004</v>
+      </c>
+      <c r="BL21">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
         <v>20</v>
       </c>
@@ -30755,8 +31582,44 @@
       <c r="AX22">
         <v>6.9000000000000006E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA22" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB22">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="BC22">
+        <v>0.01</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="BG22">
+        <v>0.111</v>
+      </c>
+      <c r="BH22">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="BI22">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="BJ22">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="BK22">
+        <v>282.221</v>
+      </c>
+      <c r="BL22">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>37</v>
       </c>
@@ -30855,8 +31718,44 @@
       <c r="AX23">
         <v>0.161</v>
       </c>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA23" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB23">
+        <v>1E-3</v>
+      </c>
+      <c r="BC23">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="BD23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="BE23">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="BF23">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="BI23">
+        <v>0.107</v>
+      </c>
+      <c r="BJ23">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="BK23">
+        <v>143.803</v>
+      </c>
+      <c r="BL23">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
@@ -30955,8 +31854,44 @@
       <c r="AX24">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA24" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BC24">
+        <v>0.7</v>
+      </c>
+      <c r="BD24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BE24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="BF24">
+        <v>0.52</v>
+      </c>
+      <c r="BG24">
+        <v>0.192</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="BJ24">
+        <v>0.115</v>
+      </c>
+      <c r="BK24">
+        <v>187.71899999999999</v>
+      </c>
+      <c r="BL24">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
         <v>22</v>
       </c>
@@ -31055,8 +31990,44 @@
       <c r="AX25">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA25" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB25">
+        <v>0</v>
+      </c>
+      <c r="BC25">
+        <v>0.02</v>
+      </c>
+      <c r="BD25">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="BE25">
+        <v>0.6</v>
+      </c>
+      <c r="BF25">
+        <v>2E-3</v>
+      </c>
+      <c r="BG25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BH25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BI25">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="BJ25">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="BK25">
+        <v>149.749</v>
+      </c>
+      <c r="BL25">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>23</v>
       </c>
@@ -31153,8 +32124,44 @@
       <c r="AX26">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA26" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BC26">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="BD26">
+        <v>0.433</v>
+      </c>
+      <c r="BE26">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="BF26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>1.6E-2</v>
+      </c>
+      <c r="BI26">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="BJ26">
+        <v>0.153</v>
+      </c>
+      <c r="BK26">
+        <v>63.503</v>
+      </c>
+      <c r="BL26">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
         <v>24</v>
       </c>
@@ -31251,8 +32258,44 @@
       <c r="AX27">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA27" t="s">
+        <v>34</v>
+      </c>
+      <c r="BB27">
+        <v>0.877</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="BE27">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="BF27">
+        <v>1E-3</v>
+      </c>
+      <c r="BG27">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="BH27">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="BI27">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="BJ27">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="BK27">
+        <v>213891.552</v>
+      </c>
+      <c r="BL27">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
         <v>25</v>
       </c>
@@ -31295,8 +32338,44 @@
       <c r="AC28" s="29">
         <v>9.9000000000000005E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA28" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="BC28">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="BD28">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="BE28">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="BH28">
+        <v>0.25</v>
+      </c>
+      <c r="BI28">
+        <v>7.8E-2</v>
+      </c>
+      <c r="BJ28">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="BK28">
+        <v>636.47299999999996</v>
+      </c>
+      <c r="BL28">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
         <v>38</v>
       </c>
@@ -31341,8 +32420,44 @@
       <c r="AC29" s="23">
         <v>0.32200000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA29" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB29">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="BC29">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="BD29">
+        <v>2E-3</v>
+      </c>
+      <c r="BE29">
+        <v>1E-3</v>
+      </c>
+      <c r="BF29">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="BG29">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="BH29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="BI29">
+        <v>3.1E-2</v>
+      </c>
+      <c r="BJ29">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="BK29">
+        <v>312.63099999999997</v>
+      </c>
+      <c r="BL29">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>26</v>
       </c>
@@ -31387,8 +32502,44 @@
       <c r="AC30" s="23">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA30" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB30">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="BC30">
+        <v>0.432</v>
+      </c>
+      <c r="BD30">
+        <v>1.4E-2</v>
+      </c>
+      <c r="BE30">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>1E-3</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="BJ30">
+        <v>0.25</v>
+      </c>
+      <c r="BK30">
+        <v>104.312</v>
+      </c>
+      <c r="BL30">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
         <v>39</v>
       </c>
@@ -31433,8 +32584,44 @@
       <c r="AC31" s="23">
         <v>0.106</v>
       </c>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="BA31" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB31">
+        <v>1E-3</v>
+      </c>
+      <c r="BC31">
+        <v>1.9E-2</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="BF31">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="BG31">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="BH31">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="BI31">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="BJ31">
+        <v>0.151</v>
+      </c>
+      <c r="BK31">
+        <v>94.238</v>
+      </c>
+      <c r="BL31">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
         <v>27</v>
       </c>
@@ -31479,6 +32666,42 @@
       <c r="AC32" s="23">
         <v>0.30199999999999999</v>
       </c>
+      <c r="BA32" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB32">
+        <v>0.376</v>
+      </c>
+      <c r="BC32">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="BD32">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="BE32">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="BF32">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="BG32">
+        <v>1E-3</v>
+      </c>
+      <c r="BH32">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="BI32">
+        <v>4.7E-2</v>
+      </c>
+      <c r="BJ32">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="BK32">
+        <v>29106.073</v>
+      </c>
+      <c r="BL32">
+        <v>467</v>
+      </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
@@ -31542,42 +32765,68 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX27">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AV27">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AI27">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
       <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ4:BJ27">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB4:BH27">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ28:BJ32">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB28:BH32">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="SingleGAM Selection" sheetId="5" r:id="rId3"/>
     <sheet name="Mechanism GAMs" sheetId="3" r:id="rId4"/>
     <sheet name="MechanismSummaryTable" sheetId="2" r:id="rId5"/>
+    <sheet name="2021 SingleGAMs" sheetId="7" r:id="rId6"/>
+    <sheet name="Correlations 2021GAM selection" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="198">
   <si>
     <t>Species</t>
   </si>
@@ -510,12 +512,120 @@
   <si>
     <t>With revised calibrations in survdat</t>
   </si>
+  <si>
+    <t>Local Bottom Temp</t>
+  </si>
+  <si>
+    <t>Winter Temp</t>
+  </si>
+  <si>
+    <t>Spring Temp</t>
+  </si>
+  <si>
+    <t>Summer Temp</t>
+  </si>
+  <si>
+    <t>Fall Temp</t>
+  </si>
+  <si>
+    <t>Copepod Small/Large</t>
+  </si>
+  <si>
+    <t>Zooplankton Biomass</t>
+  </si>
+  <si>
+    <t>Total Copepods</t>
+  </si>
+  <si>
+    <t>Stomach Fullness</t>
+  </si>
+  <si>
+    <t>Stock Biomass</t>
+  </si>
+  <si>
+    <t>Fall Bloom Magnitude</t>
+  </si>
+  <si>
+    <t>Fall Bloom Duration</t>
+  </si>
+  <si>
+    <t>Prop Column Cold Pool</t>
+  </si>
+  <si>
+    <t>Average Lat by Strata</t>
+  </si>
+  <si>
+    <t>Average Lon by Strata</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Kn ~ local environment + broad env + resource quality + resource availability + fish pressure + local density + population density</t>
+  </si>
+  <si>
+    <t>Local Environment</t>
+  </si>
+  <si>
+    <t>Broad Environment</t>
+  </si>
+  <si>
+    <t>Resource Quality</t>
+  </si>
+  <si>
+    <t>Resource Availibility</t>
+  </si>
+  <si>
+    <t>Fishing Pressure</t>
+  </si>
+  <si>
+    <t>Population Density</t>
+  </si>
+  <si>
+    <t>Temporal</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Roughtail stingray</t>
+  </si>
+  <si>
+    <t>Bluntnose stingray</t>
+  </si>
+  <si>
+    <t>Bullnose ray</t>
+  </si>
+  <si>
+    <t>Offshore hake</t>
+  </si>
+  <si>
+    <t>Atlantic croaker</t>
+  </si>
+  <si>
+    <t>Longhorn sculpin</t>
+  </si>
+  <si>
+    <t>Spiny butterfly ray</t>
+  </si>
+  <si>
+    <t>**Should species that don't show significant change in condition over time not be included in condition analysis?</t>
+  </si>
+  <si>
+    <t>Spatial Dependence</t>
+  </si>
+  <si>
+    <t>Lat Lon</t>
+  </si>
+  <si>
+    <t>AvgLonStrata AvgLatStrata</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +771,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -881,7 +997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1459,6 +1575,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1504,7 +1644,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1685,6 +1825,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1714,6 +1862,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1760,39 +1911,54 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="131">
+  <dxfs count="123">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1841,13 +2007,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1855,56 +2014,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2783,6 +2893,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1130300" y="4051300"/>
+          <a:ext cx="4000500" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3049,7 +3208,7 @@
   <dimension ref="A1:M426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15698,44 +15857,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D118 D120:D1048576">
-    <cfRule type="cellIs" dxfId="130" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="122" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B118 B120:B1048576">
-    <cfRule type="cellIs" dxfId="129" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="127" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I85 I119:I1048576 I87:I117">
-    <cfRule type="cellIs" dxfId="126" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="5" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="124" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="3" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="122" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15749,8 +15908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18321,145 +18480,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 E2:E17 C19:C26 E19:E26 C28 C30:C119 E28 E30 AC26:AC31 AC2:AC7 AA2:AA7 AC9 AA9 AC11:AC18 AA11:AA18 AC20:AC21 AC24 AA20:AA21 AA24:AA31">
-    <cfRule type="cellIs" dxfId="120" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="112" priority="42" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 D2:D17 B19:B26 D19:D26 B28 B30:B119 D28 D30 AB26:AB31 AB2:AB7 Z2:Z7 AB9 Z9 AB11:AB18 Z11:Z18 AB20:AB21 AB24 Z20:Z21 Z24:Z31">
-    <cfRule type="cellIs" dxfId="119" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="40" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="41" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="117" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="36" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="116" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="34" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="35" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="114" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="33" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="113" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="31" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="32" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31">
-    <cfRule type="cellIs" dxfId="111" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="30" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J31">
-    <cfRule type="cellIs" dxfId="110" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="28" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="29" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31">
-    <cfRule type="cellIs" dxfId="108" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="27" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L31">
-    <cfRule type="cellIs" dxfId="107" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="25" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="26" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="105" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="24" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="104" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="22" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="23" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q31">
-    <cfRule type="cellIs" dxfId="102" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="94" priority="21" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P31">
-    <cfRule type="cellIs" dxfId="101" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S31">
-    <cfRule type="cellIs" dxfId="99" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="18" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R31">
-    <cfRule type="cellIs" dxfId="98" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="16" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="17" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U31">
-    <cfRule type="cellIs" dxfId="96" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="15" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T31">
-    <cfRule type="cellIs" dxfId="95" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="13" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="14" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W31">
-    <cfRule type="cellIs" dxfId="93" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="85" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V31">
-    <cfRule type="cellIs" dxfId="92" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y31">
-    <cfRule type="cellIs" dxfId="90" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="9" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X31">
-    <cfRule type="cellIs" dxfId="89" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="7" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18471,8 +18630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="P1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20282,168 +20441,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W26:W31 W2:W7 U2:U7 W9 U9 W11:W18 U11:U18 W20:W21 W24 U20:U21 U24:U31">
-    <cfRule type="cellIs" dxfId="87" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="79" priority="50" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 B19:B26 B30 B28 D30 V26:V31 V2:V7 T2:T7 V9 T9 V11:V18 T11:T18 V20:V21 V24 T20:T21 T24:T31 D28 D19:D26 D2:D17 B38:B119">
-    <cfRule type="cellIs" dxfId="86" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="48" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="49" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="84" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="45" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="46" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="82" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="42" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="43" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J5 J10 J14 J17:J18 J21:J22 J24:J25 J27:J29">
-    <cfRule type="cellIs" dxfId="80" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="39" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="40" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31 L5 L10 L14 L17:L18 L21:L22 L27:L29 L24:L25">
-    <cfRule type="cellIs" dxfId="78" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="38" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L4 L6:L9 L11:L13 L15:L16 L19:L20 L23 L30:L31 L26">
-    <cfRule type="cellIs" dxfId="77" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="36" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="37" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="75" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="35" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="74" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="33" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="34" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q16 Q30:Q31 Q18:Q26 P4:P9 P11 P13:P15 P19:P21 P24 P30">
-    <cfRule type="cellIs" dxfId="72" priority="29" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="29" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P3 P31 P18 P10 P12 P16 P22:P23 P25:P26">
-    <cfRule type="cellIs" dxfId="71" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="27" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S15">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="17" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="68" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4 S16:S31 S6:S13 R10 R12 R16:R18 R22:R23 R25:R29 R31 R3">
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 R19:R21 R6:R9 R11 R13 R24 R30 R4">
-    <cfRule type="cellIs" dxfId="65" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q29">
-    <cfRule type="cellIs" dxfId="63" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P29">
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="60" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 C19:C26 C28 C30:C119 B31:B37">
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17 E19:E26 E28 E30">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 J3:J4 J6:J9 J11:J13 J15:J16 J19:J20 J23 J26 J30:J31">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20456,7 +20615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="P153" sqref="P153"/>
     </sheetView>
   </sheetViews>
@@ -28662,87 +28821,87 @@
     <sortCondition ref="R164"/>
   </sortState>
   <conditionalFormatting sqref="I1:I53 I78:I80 I105:I108 I133:I135 I160:I163 I188:I1048576 V164:V171 V174:V178 V180:V182 V184:V185 V187:V192 S164:S171 S174:S178 S180:S182 S184:S185 S187:S192">
-    <cfRule type="cellIs" dxfId="49" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="21" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="48" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:L77">
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="cellIs" dxfId="45" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:H104">
-    <cfRule type="cellIs" dxfId="44" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:J104">
-    <cfRule type="cellIs" dxfId="42" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H132">
-    <cfRule type="cellIs" dxfId="41" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J132">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136:J159">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H159">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164:J187">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H187">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y164:Y192">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T164:T192">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28755,8 +28914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL33"/>
   <sheetViews>
-    <sheetView topLeftCell="AX4" workbookViewId="0">
-      <selection activeCell="BJ8" sqref="BJ8"/>
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BJ4" sqref="BJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28779,35 +28938,35 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="64"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="68"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
       <c r="BA2">
@@ -28820,50 +28979,50 @@
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="65" t="s">
+      <c r="I3" s="71"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="66"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="65" t="s">
+      <c r="T3" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="66"/>
-      <c r="V3" s="65" t="s">
+      <c r="U3" s="70"/>
+      <c r="V3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="65" t="s">
+      <c r="W3" s="71"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="66"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="70"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6"/>
       <c r="AE3">
@@ -28877,9 +29036,9 @@
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="69"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="10" t="s">
         <v>112</v>
       </c>
@@ -28914,7 +29073,7 @@
       <c r="R4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="69"/>
+      <c r="S4" s="73"/>
       <c r="T4" s="10" t="s">
         <v>112</v>
       </c>
@@ -32765,71 +32924,4017 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX27">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AV27">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AI27">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK27">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ4:BJ27">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BH27">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ28:BJ32">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB28:BH32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G117" sqref="G116:G117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E3">
+        <v>49.707000000000001</v>
+      </c>
+      <c r="F3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>20.856999999999999</v>
+      </c>
+      <c r="F4">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E5">
+        <v>17.638000000000002</v>
+      </c>
+      <c r="F5">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E6">
+        <v>119.63800000000001</v>
+      </c>
+      <c r="F6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>13.912000000000001</v>
+      </c>
+      <c r="F7">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8">
+        <v>1E-3</v>
+      </c>
+      <c r="C8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8">
+        <v>25.681999999999999</v>
+      </c>
+      <c r="F8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1E-3</v>
+      </c>
+      <c r="C9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>34.43</v>
+      </c>
+      <c r="F9">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.05</v>
+      </c>
+      <c r="E10">
+        <v>94.92</v>
+      </c>
+      <c r="F10">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.02</v>
+      </c>
+      <c r="D11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>103.964</v>
+      </c>
+      <c r="F11">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>62.652000000000001</v>
+      </c>
+      <c r="F12">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>33.256999999999998</v>
+      </c>
+      <c r="F13">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E14">
+        <v>45.295999999999999</v>
+      </c>
+      <c r="F14">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E15">
+        <v>96.522999999999996</v>
+      </c>
+      <c r="F15">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16">
+        <v>2E-3</v>
+      </c>
+      <c r="C16">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D16">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E16">
+        <v>26.35</v>
+      </c>
+      <c r="F16">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.02</v>
+      </c>
+      <c r="E17">
+        <v>60.689</v>
+      </c>
+      <c r="F17">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1E-3</v>
+      </c>
+      <c r="D18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>17.292000000000002</v>
+      </c>
+      <c r="F18">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D19">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E19">
+        <v>14.404</v>
+      </c>
+      <c r="F19">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.05</v>
+      </c>
+      <c r="D20">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E20">
+        <v>23.831</v>
+      </c>
+      <c r="F20">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>21.885999999999999</v>
+      </c>
+      <c r="F21">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.04</v>
+      </c>
+      <c r="D22">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E22">
+        <v>56.128999999999998</v>
+      </c>
+      <c r="F22">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E23">
+        <v>20.135999999999999</v>
+      </c>
+      <c r="F23">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D24">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E24">
+        <v>24.600999999999999</v>
+      </c>
+      <c r="F24">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D25">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E25">
+        <v>13.988</v>
+      </c>
+      <c r="F25">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D26">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E26">
+        <v>75.262</v>
+      </c>
+      <c r="F26">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D27">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E27">
+        <v>39.829000000000001</v>
+      </c>
+      <c r="F27">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0.04</v>
+      </c>
+      <c r="D28">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E28">
+        <v>11.471</v>
+      </c>
+      <c r="F28">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.01</v>
+      </c>
+      <c r="D29">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>31.771999999999998</v>
+      </c>
+      <c r="F29">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D30">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E30">
+        <v>77.950999999999993</v>
+      </c>
+      <c r="F30">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.02</v>
+      </c>
+      <c r="E31">
+        <v>25.029</v>
+      </c>
+      <c r="F31">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D32">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E32">
+        <v>265.08</v>
+      </c>
+      <c r="F32">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D33">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E33">
+        <v>28.221</v>
+      </c>
+      <c r="F33">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34">
+        <v>1E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E34">
+        <v>10.877000000000001</v>
+      </c>
+      <c r="F34">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0.04</v>
+      </c>
+      <c r="D35">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E35">
+        <v>62.375</v>
+      </c>
+      <c r="F35">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D36">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E36">
+        <v>46.487000000000002</v>
+      </c>
+      <c r="F36">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.09</v>
+      </c>
+      <c r="E37">
+        <v>53.866999999999997</v>
+      </c>
+      <c r="F37">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D38">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E38">
+        <v>17.077000000000002</v>
+      </c>
+      <c r="F38">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0.03</v>
+      </c>
+      <c r="D39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E39">
+        <v>29.039000000000001</v>
+      </c>
+      <c r="F39">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.3</v>
+      </c>
+      <c r="C40">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D40">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E40">
+        <v>65.573999999999998</v>
+      </c>
+      <c r="F40">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D41">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E41">
+        <v>42.502000000000002</v>
+      </c>
+      <c r="F41">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>1E-3</v>
+      </c>
+      <c r="C42">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E42">
+        <v>56.247999999999998</v>
+      </c>
+      <c r="F42">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0.09</v>
+      </c>
+      <c r="D43">
+        <v>0.11</v>
+      </c>
+      <c r="E43">
+        <v>19.895</v>
+      </c>
+      <c r="F43">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C47">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D47">
+        <v>0.105</v>
+      </c>
+      <c r="E47">
+        <v>47.231000000000002</v>
+      </c>
+      <c r="F47">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0.04</v>
+      </c>
+      <c r="D48">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E48">
+        <v>20.280999999999999</v>
+      </c>
+      <c r="F48">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.04</v>
+      </c>
+      <c r="E49">
+        <v>17.381</v>
+      </c>
+      <c r="F49">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.159</v>
+      </c>
+      <c r="D50">
+        <v>0.189</v>
+      </c>
+      <c r="E50">
+        <v>107.86499999999999</v>
+      </c>
+      <c r="F50">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C51">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D51">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E51">
+        <v>13.606</v>
+      </c>
+      <c r="F51">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D52">
+        <v>0.115</v>
+      </c>
+      <c r="E52">
+        <v>24.294</v>
+      </c>
+      <c r="F52">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D53">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E53">
+        <v>32.744999999999997</v>
+      </c>
+      <c r="F53">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D54">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E54">
+        <v>91.406999999999996</v>
+      </c>
+      <c r="F54">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55">
+        <v>0.01</v>
+      </c>
+      <c r="C55">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D55">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E55">
+        <v>103.146</v>
+      </c>
+      <c r="F55">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D56">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E56">
+        <v>62.024000000000001</v>
+      </c>
+      <c r="F56">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="C57">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D57">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E57">
+        <v>34.569000000000003</v>
+      </c>
+      <c r="F57">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0.1</v>
+      </c>
+      <c r="D58">
+        <v>0.114</v>
+      </c>
+      <c r="E58">
+        <v>41.718000000000004</v>
+      </c>
+      <c r="F58">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D59">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E59">
+        <v>94.513999999999996</v>
+      </c>
+      <c r="F59">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B60">
+        <v>0.04</v>
+      </c>
+      <c r="C60">
+        <v>0.02</v>
+      </c>
+      <c r="D60">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E60">
+        <v>27.146000000000001</v>
+      </c>
+      <c r="F60">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0.08</v>
+      </c>
+      <c r="D61">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E61">
+        <v>57.081000000000003</v>
+      </c>
+      <c r="F61">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D62">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E62">
+        <v>16.321000000000002</v>
+      </c>
+      <c r="F62">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D63">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E63">
+        <v>14.301</v>
+      </c>
+      <c r="F63">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0.111</v>
+      </c>
+      <c r="D64">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E64">
+        <v>22.721</v>
+      </c>
+      <c r="F64">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D65">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E65">
+        <v>19.228000000000002</v>
+      </c>
+      <c r="F65">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D66">
+        <v>0.125</v>
+      </c>
+      <c r="E66">
+        <v>51.856999999999999</v>
+      </c>
+      <c r="F66">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D67">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E67">
+        <v>20.222999999999999</v>
+      </c>
+      <c r="F67">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.09</v>
+      </c>
+      <c r="E68">
+        <v>24.925999999999998</v>
+      </c>
+      <c r="F68">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0.06</v>
+      </c>
+      <c r="D69">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E69">
+        <v>13.542999999999999</v>
+      </c>
+      <c r="F69">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D70">
+        <v>0.21</v>
+      </c>
+      <c r="E70">
+        <v>62.267000000000003</v>
+      </c>
+      <c r="F70">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0.17</v>
+      </c>
+      <c r="D71">
+        <v>0.186</v>
+      </c>
+      <c r="E71">
+        <v>36.456000000000003</v>
+      </c>
+      <c r="F71">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D72">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E72">
+        <v>11.202999999999999</v>
+      </c>
+      <c r="F72">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="D73">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E73">
+        <v>27.81</v>
+      </c>
+      <c r="F73">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0.215</v>
+      </c>
+      <c r="D74">
+        <v>0.223</v>
+      </c>
+      <c r="E74">
+        <v>62.49</v>
+      </c>
+      <c r="F74">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D75">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E75">
+        <v>23.725000000000001</v>
+      </c>
+      <c r="F75">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D76">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E76">
+        <v>264.84800000000001</v>
+      </c>
+      <c r="F76">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D77">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E77">
+        <v>28.783999999999999</v>
+      </c>
+      <c r="F77">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D78">
+        <v>0.107</v>
+      </c>
+      <c r="E78">
+        <v>10.23</v>
+      </c>
+      <c r="F78">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0.04</v>
+      </c>
+      <c r="D79">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E79">
+        <v>62.942</v>
+      </c>
+      <c r="F79">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D80">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E80">
+        <v>49.067</v>
+      </c>
+      <c r="F80">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.125</v>
+      </c>
+      <c r="D81">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E81">
+        <v>51.917000000000002</v>
+      </c>
+      <c r="F81">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D82">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E82">
+        <v>16.640999999999998</v>
+      </c>
+      <c r="F82">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D83">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E83">
+        <v>27.914999999999999</v>
+      </c>
+      <c r="F83">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C84">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D84">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E84">
+        <v>64.492000000000004</v>
+      </c>
+      <c r="F84">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0.121</v>
+      </c>
+      <c r="D85">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E85">
+        <v>39.439</v>
+      </c>
+      <c r="F85">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D86">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E86">
+        <v>55.484000000000002</v>
+      </c>
+      <c r="F86">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="C87">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D87">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E87">
+        <v>21.463000000000001</v>
+      </c>
+      <c r="F87">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C91">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D91">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E91">
+        <v>49.273000000000003</v>
+      </c>
+      <c r="F91">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C92">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D92">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E92">
+        <v>20.832999999999998</v>
+      </c>
+      <c r="F92">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="C93">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D93">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E93">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="F93">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0.1</v>
+      </c>
+      <c r="D94">
+        <v>0.114</v>
+      </c>
+      <c r="E94">
+        <v>113.062</v>
+      </c>
+      <c r="F94">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95">
+        <v>0.115</v>
+      </c>
+      <c r="C95">
+        <v>0.02</v>
+      </c>
+      <c r="D95">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E95">
+        <v>13.954000000000001</v>
+      </c>
+      <c r="F95">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96">
+        <v>2E-3</v>
+      </c>
+      <c r="C96">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D96">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E96">
+        <v>25.736000000000001</v>
+      </c>
+      <c r="F96">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D97">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E97">
+        <v>34.390999999999998</v>
+      </c>
+      <c r="F97">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="C98">
+        <v>-1E-3</v>
+      </c>
+      <c r="D98">
+        <v>1E-3</v>
+      </c>
+      <c r="E98">
+        <v>98.203999999999994</v>
+      </c>
+      <c r="F98">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>160</v>
+      </c>
+      <c r="B99">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C99">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D99">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E99">
+        <v>105.48</v>
+      </c>
+      <c r="F99">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>0.3</v>
+      </c>
+      <c r="C100">
+        <v>2E-3</v>
+      </c>
+      <c r="D100">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E100">
+        <v>63.911999999999999</v>
+      </c>
+      <c r="F100">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>2E-3</v>
+      </c>
+      <c r="E101">
+        <v>35.097000000000001</v>
+      </c>
+      <c r="F101">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102">
+        <v>0.112</v>
+      </c>
+      <c r="C102">
+        <v>2E-3</v>
+      </c>
+      <c r="D102">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E102">
+        <v>45.567999999999998</v>
+      </c>
+      <c r="F102">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D103">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E103">
+        <v>99.938000000000002</v>
+      </c>
+      <c r="F103">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104">
+        <v>2E-3</v>
+      </c>
+      <c r="C104">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D104">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E104">
+        <v>26.792000000000002</v>
+      </c>
+      <c r="F104">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C105">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D105">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E105">
+        <v>61.57</v>
+      </c>
+      <c r="F105">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D106">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E106">
+        <v>16.826000000000001</v>
+      </c>
+      <c r="F106">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C107">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D107">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E107">
+        <v>14.842000000000001</v>
+      </c>
+      <c r="F107">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108">
+        <v>1E-3</v>
+      </c>
+      <c r="C108">
+        <v>0.03</v>
+      </c>
+      <c r="D108">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E108">
+        <v>24.285</v>
+      </c>
+      <c r="F108">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D109">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E109">
+        <v>21.071999999999999</v>
+      </c>
+      <c r="F109">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0.02</v>
+      </c>
+      <c r="D110">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E110">
+        <v>57.26</v>
+      </c>
+      <c r="F110">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>35</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D111">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E111">
+        <v>20.489000000000001</v>
+      </c>
+      <c r="F111">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112">
+        <v>0.113</v>
+      </c>
+      <c r="C112">
+        <v>1E-3</v>
+      </c>
+      <c r="D112">
+        <v>2E-3</v>
+      </c>
+      <c r="E112">
+        <v>26.718</v>
+      </c>
+      <c r="F112">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D113">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E113">
+        <v>13.766</v>
+      </c>
+      <c r="F113">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>36</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D114">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E114">
+        <v>74.384</v>
+      </c>
+      <c r="F114">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C115">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D115">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E115">
+        <v>42.707999999999998</v>
+      </c>
+      <c r="F115">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116">
+        <v>0.1</v>
+      </c>
+      <c r="C116">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D116">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E116">
+        <v>11.86</v>
+      </c>
+      <c r="F116">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="C117">
+        <v>1E-3</v>
+      </c>
+      <c r="D117">
+        <v>2E-3</v>
+      </c>
+      <c r="E117">
+        <v>31.922000000000001</v>
+      </c>
+      <c r="F117">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D118">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E118">
+        <v>72.472999999999999</v>
+      </c>
+      <c r="F118">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D119">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E119">
+        <v>24.582000000000001</v>
+      </c>
+      <c r="F119">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D120">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E120">
+        <v>269.161</v>
+      </c>
+      <c r="F120">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D121">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E121">
+        <v>28.898</v>
+      </c>
+      <c r="F121">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>191</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D122">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E122">
+        <v>10.659000000000001</v>
+      </c>
+      <c r="F122">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C123">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D123">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E123">
+        <v>64.498999999999995</v>
+      </c>
+      <c r="F123">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D124">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E124">
+        <v>50.045000000000002</v>
+      </c>
+      <c r="F124">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>38</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D125">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E125">
+        <v>53.177999999999997</v>
+      </c>
+      <c r="F125">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>26</v>
+      </c>
+      <c r="B126">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C126">
+        <v>1E-3</v>
+      </c>
+      <c r="D126">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E126">
+        <v>17.774999999999999</v>
+      </c>
+      <c r="F126">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>192</v>
+      </c>
+      <c r="B127">
+        <v>0.36</v>
+      </c>
+      <c r="C127">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D127">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E127">
+        <v>29.702000000000002</v>
+      </c>
+      <c r="F127">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128">
+        <v>0.216</v>
+      </c>
+      <c r="C128">
+        <v>1E-3</v>
+      </c>
+      <c r="D128">
+        <v>2E-3</v>
+      </c>
+      <c r="E128">
+        <v>65.638000000000005</v>
+      </c>
+      <c r="F128">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="C129">
+        <v>-1E-3</v>
+      </c>
+      <c r="D129">
+        <v>1E-3</v>
+      </c>
+      <c r="E129">
+        <v>44.03</v>
+      </c>
+      <c r="F129">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130">
+        <v>0.436</v>
+      </c>
+      <c r="C130">
+        <v>1E-3</v>
+      </c>
+      <c r="D130">
+        <v>2E-3</v>
+      </c>
+      <c r="E130">
+        <v>56.677</v>
+      </c>
+      <c r="F130">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>193</v>
+      </c>
+      <c r="B131">
+        <v>0.184</v>
+      </c>
+      <c r="C131">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D131">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E131">
+        <v>21.427</v>
+      </c>
+      <c r="F131">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO20"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="25" max="25" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" t="s">
+        <v>176</v>
+      </c>
+      <c r="T1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W1" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.34221865629882398</v>
+      </c>
+      <c r="D2">
+        <v>7.6658287392354404E-2</v>
+      </c>
+      <c r="E2">
+        <v>8.8507372711157401E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.25808854555002E-3</v>
+      </c>
+      <c r="G2">
+        <v>-3.5490217717491702E-2</v>
+      </c>
+      <c r="H2">
+        <v>-4.8877879356373097E-2</v>
+      </c>
+      <c r="I2">
+        <v>-3.8360374168495297E-2</v>
+      </c>
+      <c r="J2">
+        <v>5.6108317847125298E-2</v>
+      </c>
+      <c r="K2">
+        <v>-1.11711399324407E-3</v>
+      </c>
+      <c r="L2">
+        <v>-2.5913083386416701E-2</v>
+      </c>
+      <c r="M2">
+        <v>-3.8565949740913499E-2</v>
+      </c>
+      <c r="N2">
+        <v>0.16434507754799299</v>
+      </c>
+      <c r="O2">
+        <v>-3.9711837860370802E-2</v>
+      </c>
+      <c r="P2">
+        <v>-1.8406273550758499E-2</v>
+      </c>
+      <c r="Q2">
+        <v>3.8373427558564599E-2</v>
+      </c>
+      <c r="R2">
+        <v>6.7951685745241006E-2</v>
+      </c>
+      <c r="S2">
+        <v>7.5423088492410306E-2</v>
+      </c>
+      <c r="T2">
+        <v>-8.5642271706535794E-2</v>
+      </c>
+      <c r="W2" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z2" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG2" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM2" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>0.34221865629882398</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.16582952421286001</v>
+      </c>
+      <c r="E3">
+        <v>-4.4515286513988298E-2</v>
+      </c>
+      <c r="F3">
+        <v>-3.1772829917739998E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.2268481790225399E-2</v>
+      </c>
+      <c r="H3">
+        <v>-1.01229727615109E-2</v>
+      </c>
+      <c r="I3">
+        <v>5.7684987654975498E-2</v>
+      </c>
+      <c r="J3">
+        <v>-6.1580867625301398E-3</v>
+      </c>
+      <c r="K3">
+        <v>-7.1677111211325903E-2</v>
+      </c>
+      <c r="L3">
+        <v>-3.7621424298898698E-2</v>
+      </c>
+      <c r="M3">
+        <v>-1.4427623205176E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.25556948703250099</v>
+      </c>
+      <c r="O3">
+        <v>-1.05619972107391E-2</v>
+      </c>
+      <c r="P3">
+        <v>-3.6227282440213201E-3</v>
+      </c>
+      <c r="Q3">
+        <v>-7.3987251260539705E-2</v>
+      </c>
+      <c r="R3">
+        <v>-8.6400119635168804E-2</v>
+      </c>
+      <c r="S3">
+        <v>-3.0074149716434798E-2</v>
+      </c>
+      <c r="T3">
+        <v>6.04172529893826E-3</v>
+      </c>
+      <c r="W3" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="X3" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y3" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z3" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA3" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB3" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC3" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD3" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE3" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF3" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG3" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH3" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI3" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ3" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK3" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL3" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN3" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO3" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4">
+        <v>7.6658287392354404E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.16582952421286001</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-3.0371341631036601E-2</v>
+      </c>
+      <c r="F4">
+        <v>-3.6516757645820103E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.104148800359012</v>
+      </c>
+      <c r="H4">
+        <v>6.07118085489858E-2</v>
+      </c>
+      <c r="I4">
+        <v>9.4875172862444498E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.4507363756103499E-3</v>
+      </c>
+      <c r="K4">
+        <v>-9.9920984178179198E-2</v>
+      </c>
+      <c r="L4">
+        <v>-0.101590870985382</v>
+      </c>
+      <c r="M4">
+        <v>-1.68439330354875E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.17415790046181201</v>
+      </c>
+      <c r="O4">
+        <v>-0.14155881054658301</v>
+      </c>
+      <c r="P4">
+        <v>-0.118406522527935</v>
+      </c>
+      <c r="Q4">
+        <v>-1.11185045772075E-2</v>
+      </c>
+      <c r="R4">
+        <v>-4.7451660894482099E-2</v>
+      </c>
+      <c r="S4">
+        <v>-0.111132685592747</v>
+      </c>
+      <c r="T4" s="65">
+        <v>5.5942452752326297E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>8.8507372711157401E-3</v>
+      </c>
+      <c r="C5">
+        <v>-4.4515286513988298E-2</v>
+      </c>
+      <c r="D5">
+        <v>-3.0371341631036601E-2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.90051969247831498</v>
+      </c>
+      <c r="G5">
+        <v>0.51631526115224702</v>
+      </c>
+      <c r="H5">
+        <v>-0.11061645342687999</v>
+      </c>
+      <c r="I5">
+        <v>-0.181282514652021</v>
+      </c>
+      <c r="J5">
+        <v>-0.35009217206599502</v>
+      </c>
+      <c r="K5">
+        <v>2.6771756035486899E-2</v>
+      </c>
+      <c r="L5">
+        <v>-3.7489885067820597E-2</v>
+      </c>
+      <c r="M5">
+        <v>-3.0071691525655801E-2</v>
+      </c>
+      <c r="N5">
+        <v>3.6311086265172397E-2</v>
+      </c>
+      <c r="O5">
+        <v>-9.4633281652297799E-2</v>
+      </c>
+      <c r="P5">
+        <v>-0.27761084891886001</v>
+      </c>
+      <c r="Q5">
+        <v>-0.13021934978060901</v>
+      </c>
+      <c r="R5">
+        <v>5.6840286900055603E-2</v>
+      </c>
+      <c r="S5">
+        <v>4.8375162842201502E-2</v>
+      </c>
+      <c r="T5">
+        <v>-7.3686962765428604E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6">
+        <v>1.25808854555002E-3</v>
+      </c>
+      <c r="C6">
+        <v>-3.1772829917739998E-2</v>
+      </c>
+      <c r="D6">
+        <v>-3.6516757645820103E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.90051969247831498</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.65571421554873099</v>
+      </c>
+      <c r="H6">
+        <v>6.6322542455754696E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.03711165015713E-2</v>
+      </c>
+      <c r="J6">
+        <v>-0.53604044806515505</v>
+      </c>
+      <c r="K6">
+        <v>-0.107142316970193</v>
+      </c>
+      <c r="L6">
+        <v>-3.6654183757649297E-2</v>
+      </c>
+      <c r="M6">
+        <v>-3.1617310890264698E-2</v>
+      </c>
+      <c r="N6">
+        <v>4.62337918612074E-2</v>
+      </c>
+      <c r="O6">
+        <v>3.4369940647518998E-2</v>
+      </c>
+      <c r="P6">
+        <v>-0.16920216852690501</v>
+      </c>
+      <c r="Q6">
+        <v>-0.22600730626974</v>
+      </c>
+      <c r="R6">
+        <v>4.3254141711833699E-2</v>
+      </c>
+      <c r="S6">
+        <v>3.1553394881586698E-2</v>
+      </c>
+      <c r="T6">
+        <v>2.9393003925370101E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7">
+        <v>-3.5490217717491702E-2</v>
+      </c>
+      <c r="C7">
+        <v>2.2268481790225399E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.104148800359012</v>
+      </c>
+      <c r="E7">
+        <v>0.51631526115224702</v>
+      </c>
+      <c r="F7">
+        <v>0.65571421554873099</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.48193230961467098</v>
+      </c>
+      <c r="I7">
+        <v>0.44348650163858</v>
+      </c>
+      <c r="J7">
+        <v>-0.55546266532654798</v>
+      </c>
+      <c r="K7">
+        <v>-0.360975665947256</v>
+      </c>
+      <c r="L7">
+        <v>-3.6376361356972801E-2</v>
+      </c>
+      <c r="M7">
+        <v>8.5649932015946506E-2</v>
+      </c>
+      <c r="N7">
+        <v>-2.4887764547389898E-3</v>
+      </c>
+      <c r="O7">
+        <v>-3.5699890901432697E-2</v>
+      </c>
+      <c r="P7">
+        <v>-8.4360233006893007E-2</v>
+      </c>
+      <c r="Q7">
+        <v>-0.283453344215923</v>
+      </c>
+      <c r="R7">
+        <v>-5.4058174790603004E-3</v>
+      </c>
+      <c r="S7">
+        <v>-1.6456149448681099E-2</v>
+      </c>
+      <c r="T7">
+        <v>0.13362405085409901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8">
+        <v>-4.8877879356373097E-2</v>
+      </c>
+      <c r="C8">
+        <v>-1.01229727615109E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.07118085489858E-2</v>
+      </c>
+      <c r="E8">
+        <v>-0.11061645342687999</v>
+      </c>
+      <c r="F8">
+        <v>6.6322542455754696E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.48193230961467098</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.52245221429632704</v>
+      </c>
+      <c r="J8">
+        <v>-0.334862268894562</v>
+      </c>
+      <c r="K8">
+        <v>-0.28223921607614799</v>
+      </c>
+      <c r="L8">
+        <v>-1.5415393613292701E-3</v>
+      </c>
+      <c r="M8">
+        <v>3.8452620153833598E-2</v>
+      </c>
+      <c r="N8">
+        <v>-4.1822580265893299E-2</v>
+      </c>
+      <c r="O8">
+        <v>-2.15586952876771E-2</v>
+      </c>
+      <c r="P8">
+        <v>-1.92924925482009E-3</v>
+      </c>
+      <c r="Q8">
+        <v>-0.31062766393548602</v>
+      </c>
+      <c r="R8">
+        <v>-4.2571424054712703E-2</v>
+      </c>
+      <c r="S8">
+        <v>-7.1449259175932103E-2</v>
+      </c>
+      <c r="T8">
+        <v>0.473067198112951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9">
+        <v>-3.8360374168495297E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.7684987654975498E-2</v>
+      </c>
+      <c r="D9">
+        <v>9.4875172862444498E-2</v>
+      </c>
+      <c r="E9">
+        <v>-0.181282514652021</v>
+      </c>
+      <c r="F9">
+        <v>2.03711165015713E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.44348650163858</v>
+      </c>
+      <c r="H9">
+        <v>0.52245221429632704</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>-0.35531954884825701</v>
+      </c>
+      <c r="K9">
+        <v>-0.19608095940981901</v>
+      </c>
+      <c r="L9">
+        <v>-1.34055253978552E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.22578589861546999</v>
+      </c>
+      <c r="N9">
+        <v>1.94261910421928E-2</v>
+      </c>
+      <c r="O9">
+        <v>0.204615567001045</v>
+      </c>
+      <c r="P9">
+        <v>0.14636917461740401</v>
+      </c>
+      <c r="Q9">
+        <v>-0.188992381579354</v>
+      </c>
+      <c r="R9">
+        <v>-1.39762770925309E-2</v>
+      </c>
+      <c r="S9">
+        <v>-2.94879725480615E-2</v>
+      </c>
+      <c r="T9">
+        <v>0.107278697146521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10">
+        <v>5.6108317847125298E-2</v>
+      </c>
+      <c r="C10">
+        <v>-6.1580867625301398E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.4507363756103499E-3</v>
+      </c>
+      <c r="E10">
+        <v>-0.35009217206599502</v>
+      </c>
+      <c r="F10">
+        <v>-0.53604044806515505</v>
+      </c>
+      <c r="G10">
+        <v>-0.55546266532654798</v>
+      </c>
+      <c r="H10">
+        <v>-0.334862268894562</v>
+      </c>
+      <c r="I10">
+        <v>-0.35531954884825701</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.438537589714455</v>
+      </c>
+      <c r="L10">
+        <v>4.5333268106885698E-2</v>
+      </c>
+      <c r="M10">
+        <v>-0.129947370894997</v>
+      </c>
+      <c r="N10">
+        <v>-3.2492429998744202E-2</v>
+      </c>
+      <c r="O10">
+        <v>-0.31760619402338702</v>
+      </c>
+      <c r="P10">
+        <v>-0.119353334631791</v>
+      </c>
+      <c r="Q10">
+        <v>0.26340749901147198</v>
+      </c>
+      <c r="R10">
+        <v>3.2909305223834499E-2</v>
+      </c>
+      <c r="S10">
+        <v>2.2598030891584499E-2</v>
+      </c>
+      <c r="T10">
+        <v>-0.23302181614993001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11">
+        <v>-1.11711399324407E-3</v>
+      </c>
+      <c r="C11">
+        <v>-7.1677111211325903E-2</v>
+      </c>
+      <c r="D11">
+        <v>-9.9920984178179198E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.6771756035486899E-2</v>
+      </c>
+      <c r="F11">
+        <v>-0.107142316970193</v>
+      </c>
+      <c r="G11">
+        <v>-0.360975665947256</v>
+      </c>
+      <c r="H11">
+        <v>-0.28223921607614799</v>
+      </c>
+      <c r="I11">
+        <v>-0.19608095940981901</v>
+      </c>
+      <c r="J11">
+        <v>0.438537589714455</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1.9415875526022201E-3</v>
+      </c>
+      <c r="M11">
+        <v>-9.6717152318083505E-2</v>
+      </c>
+      <c r="N11">
+        <v>-4.8002579787218801E-2</v>
+      </c>
+      <c r="O11">
+        <v>0.221021404919689</v>
+      </c>
+      <c r="P11">
+        <v>0.15618736756745799</v>
+      </c>
+      <c r="Q11">
+        <v>9.9463027886888697E-2</v>
+      </c>
+      <c r="R11">
+        <v>1.41400800247316E-2</v>
+      </c>
+      <c r="S11">
+        <v>3.5307157687739399E-2</v>
+      </c>
+      <c r="T11">
+        <v>-0.111524530431619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12">
+        <v>-2.5913083386416701E-2</v>
+      </c>
+      <c r="C12">
+        <v>-3.7621424298898698E-2</v>
+      </c>
+      <c r="D12">
+        <v>-0.101590870985382</v>
+      </c>
+      <c r="E12">
+        <v>-3.7489885067820597E-2</v>
+      </c>
+      <c r="F12">
+        <v>-3.6654183757649297E-2</v>
+      </c>
+      <c r="G12">
+        <v>-3.6376361356972801E-2</v>
+      </c>
+      <c r="H12">
+        <v>-1.5415393613292701E-3</v>
+      </c>
+      <c r="I12">
+        <v>-1.34055253978552E-2</v>
+      </c>
+      <c r="J12">
+        <v>4.5333268106885698E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.9415875526022201E-3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.6117197597749301E-2</v>
+      </c>
+      <c r="N12">
+        <v>3.5922074902020901E-2</v>
+      </c>
+      <c r="O12">
+        <v>6.36795390993422E-3</v>
+      </c>
+      <c r="P12">
+        <v>-1.5655722145960199E-2</v>
+      </c>
+      <c r="Q12">
+        <v>-5.4515409664095099E-2</v>
+      </c>
+      <c r="R12">
+        <v>-1.9855740567741299E-2</v>
+      </c>
+      <c r="S12">
+        <v>7.1394346524292296E-3</v>
+      </c>
+      <c r="T12">
+        <v>7.5981980401873303E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>-3.8565949740913499E-2</v>
+      </c>
+      <c r="C13">
+        <v>-1.4427623205176E-2</v>
+      </c>
+      <c r="D13">
+        <v>-1.68439330354875E-2</v>
+      </c>
+      <c r="E13">
+        <v>-3.0071691525655801E-2</v>
+      </c>
+      <c r="F13">
+        <v>-3.1617310890264698E-2</v>
+      </c>
+      <c r="G13">
+        <v>8.5649932015946506E-2</v>
+      </c>
+      <c r="H13">
+        <v>3.8452620153833598E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.22578589861546999</v>
+      </c>
+      <c r="J13">
+        <v>-0.129947370894997</v>
+      </c>
+      <c r="K13">
+        <v>-9.6717152318083505E-2</v>
+      </c>
+      <c r="L13">
+        <v>1.6117197597749301E-2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>-0.10504346995609599</v>
+      </c>
+      <c r="O13">
+        <v>-8.4151483632062499E-2</v>
+      </c>
+      <c r="P13">
+        <v>-5.16377666008399E-2</v>
+      </c>
+      <c r="Q13">
+        <v>2.0022403726921802E-2</v>
+      </c>
+      <c r="R13">
+        <v>3.3969339068681798E-2</v>
+      </c>
+      <c r="S13">
+        <v>4.3522596764071497E-2</v>
+      </c>
+      <c r="T13">
+        <v>-0.233223687346237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14">
+        <v>0.16434507754799299</v>
+      </c>
+      <c r="C14">
+        <v>0.25556948703250099</v>
+      </c>
+      <c r="D14">
+        <v>0.17415790046181201</v>
+      </c>
+      <c r="E14">
+        <v>3.6311086265172397E-2</v>
+      </c>
+      <c r="F14">
+        <v>4.62337918612074E-2</v>
+      </c>
+      <c r="G14">
+        <v>-2.4887764547389898E-3</v>
+      </c>
+      <c r="H14">
+        <v>-4.1822580265893299E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.94261910421928E-2</v>
+      </c>
+      <c r="J14">
+        <v>-3.2492429998744202E-2</v>
+      </c>
+      <c r="K14">
+        <v>-4.8002579787218801E-2</v>
+      </c>
+      <c r="L14">
+        <v>3.5922074902020901E-2</v>
+      </c>
+      <c r="M14">
+        <v>-0.10504346995609599</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2.2063821990650798E-2</v>
+      </c>
+      <c r="P14">
+        <v>-1.7166297574408899E-2</v>
+      </c>
+      <c r="Q14">
+        <v>-0.11293792168245501</v>
+      </c>
+      <c r="R14">
+        <v>-3.7683910017557901E-2</v>
+      </c>
+      <c r="S14">
+        <v>-1.4415955529411601E-2</v>
+      </c>
+      <c r="T14">
+        <v>5.1378752191800402E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15">
+        <v>-3.9711837860370802E-2</v>
+      </c>
+      <c r="C15">
+        <v>-1.05619972107391E-2</v>
+      </c>
+      <c r="D15">
+        <v>-0.14155881054658301</v>
+      </c>
+      <c r="E15">
+        <v>-9.4633281652297799E-2</v>
+      </c>
+      <c r="F15">
+        <v>3.4369940647518998E-2</v>
+      </c>
+      <c r="G15">
+        <v>-3.5699890901432697E-2</v>
+      </c>
+      <c r="H15">
+        <v>-2.15586952876771E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.204615567001045</v>
+      </c>
+      <c r="J15">
+        <v>-0.31760619402338702</v>
+      </c>
+      <c r="K15">
+        <v>0.221021404919689</v>
+      </c>
+      <c r="L15">
+        <v>6.36795390993422E-3</v>
+      </c>
+      <c r="M15">
+        <v>-8.4151483632062499E-2</v>
+      </c>
+      <c r="N15">
+        <v>2.2063821990650798E-2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0.88530563853467903</v>
+      </c>
+      <c r="Q15">
+        <v>-0.20486416037826899</v>
+      </c>
+      <c r="R15">
+        <v>-5.7861860966922397E-2</v>
+      </c>
+      <c r="S15">
+        <v>-5.7508965048415399E-2</v>
+      </c>
+      <c r="T15">
+        <v>0.207532880594967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16">
+        <v>-1.8406273550758499E-2</v>
+      </c>
+      <c r="C16">
+        <v>-3.6227282440213201E-3</v>
+      </c>
+      <c r="D16">
+        <v>-0.118406522527935</v>
+      </c>
+      <c r="E16">
+        <v>-0.27761084891886001</v>
+      </c>
+      <c r="F16">
+        <v>-0.16920216852690501</v>
+      </c>
+      <c r="G16">
+        <v>-8.4360233006893007E-2</v>
+      </c>
+      <c r="H16">
+        <v>-1.92924925482009E-3</v>
+      </c>
+      <c r="I16">
+        <v>0.14636917461740401</v>
+      </c>
+      <c r="J16">
+        <v>-0.119353334631791</v>
+      </c>
+      <c r="K16">
+        <v>0.15618736756745799</v>
+      </c>
+      <c r="L16">
+        <v>-1.5655722145960199E-2</v>
+      </c>
+      <c r="M16">
+        <v>-5.16377666008399E-2</v>
+      </c>
+      <c r="N16">
+        <v>-1.7166297574408899E-2</v>
+      </c>
+      <c r="O16">
+        <v>0.88530563853467903</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>-0.190338137175875</v>
+      </c>
+      <c r="R16">
+        <v>-4.8142561243610299E-2</v>
+      </c>
+      <c r="S16">
+        <v>-5.13663665531469E-2</v>
+      </c>
+      <c r="T16">
+        <v>8.3261251572847195E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17">
+        <v>3.8373427558564599E-2</v>
+      </c>
+      <c r="C17">
+        <v>-7.3987251260539705E-2</v>
+      </c>
+      <c r="D17">
+        <v>-1.11185045772075E-2</v>
+      </c>
+      <c r="E17">
+        <v>-0.13021934978060901</v>
+      </c>
+      <c r="F17">
+        <v>-0.22600730626974</v>
+      </c>
+      <c r="G17">
+        <v>-0.283453344215923</v>
+      </c>
+      <c r="H17">
+        <v>-0.31062766393548602</v>
+      </c>
+      <c r="I17">
+        <v>-0.188992381579354</v>
+      </c>
+      <c r="J17">
+        <v>0.26340749901147198</v>
+      </c>
+      <c r="K17">
+        <v>9.9463027886888697E-2</v>
+      </c>
+      <c r="L17">
+        <v>-5.4515409664095099E-2</v>
+      </c>
+      <c r="M17">
+        <v>2.0022403726921802E-2</v>
+      </c>
+      <c r="N17">
+        <v>-0.11293792168245501</v>
+      </c>
+      <c r="O17">
+        <v>-0.20486416037826899</v>
+      </c>
+      <c r="P17">
+        <v>-0.190338137175875</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0.30118489054004399</v>
+      </c>
+      <c r="S17">
+        <v>0.118881417645362</v>
+      </c>
+      <c r="T17">
+        <v>-0.22838419426244899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18">
+        <v>6.7951685745241006E-2</v>
+      </c>
+      <c r="C18">
+        <v>-8.6400119635168804E-2</v>
+      </c>
+      <c r="D18">
+        <v>-4.7451660894482099E-2</v>
+      </c>
+      <c r="E18">
+        <v>5.6840286900055603E-2</v>
+      </c>
+      <c r="F18">
+        <v>4.3254141711833699E-2</v>
+      </c>
+      <c r="G18">
+        <v>-5.4058174790603004E-3</v>
+      </c>
+      <c r="H18">
+        <v>-4.2571424054712703E-2</v>
+      </c>
+      <c r="I18">
+        <v>-1.39762770925309E-2</v>
+      </c>
+      <c r="J18">
+        <v>3.2909305223834499E-2</v>
+      </c>
+      <c r="K18">
+        <v>1.41400800247316E-2</v>
+      </c>
+      <c r="L18">
+        <v>-1.9855740567741299E-2</v>
+      </c>
+      <c r="M18">
+        <v>3.3969339068681798E-2</v>
+      </c>
+      <c r="N18">
+        <v>-3.7683910017557901E-2</v>
+      </c>
+      <c r="O18">
+        <v>-5.7861860966922397E-2</v>
+      </c>
+      <c r="P18">
+        <v>-4.8142561243610299E-2</v>
+      </c>
+      <c r="Q18">
+        <v>0.30118489054004399</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0.82433268015089201</v>
+      </c>
+      <c r="T18">
+        <v>-1.9107754737002599E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19">
+        <v>7.5423088492410306E-2</v>
+      </c>
+      <c r="C19">
+        <v>-3.0074149716434798E-2</v>
+      </c>
+      <c r="D19">
+        <v>-0.111132685592747</v>
+      </c>
+      <c r="E19">
+        <v>4.8375162842201502E-2</v>
+      </c>
+      <c r="F19">
+        <v>3.1553394881586698E-2</v>
+      </c>
+      <c r="G19">
+        <v>-1.6456149448681099E-2</v>
+      </c>
+      <c r="H19">
+        <v>-7.1449259175932103E-2</v>
+      </c>
+      <c r="I19">
+        <v>-2.94879725480615E-2</v>
+      </c>
+      <c r="J19">
+        <v>2.2598030891584499E-2</v>
+      </c>
+      <c r="K19">
+        <v>3.5307157687739399E-2</v>
+      </c>
+      <c r="L19">
+        <v>7.1394346524292296E-3</v>
+      </c>
+      <c r="M19">
+        <v>4.3522596764071497E-2</v>
+      </c>
+      <c r="N19">
+        <v>-1.4415955529411601E-2</v>
+      </c>
+      <c r="O19">
+        <v>-5.7508965048415399E-2</v>
+      </c>
+      <c r="P19">
+        <v>-5.13663665531469E-2</v>
+      </c>
+      <c r="Q19">
+        <v>0.118881417645362</v>
+      </c>
+      <c r="R19">
+        <v>0.82433268015089201</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>-5.2842386689793103E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20">
+        <v>-8.5642271706535794E-2</v>
+      </c>
+      <c r="C20">
+        <v>6.04172529893826E-3</v>
+      </c>
+      <c r="D20" s="65">
+        <v>5.5942452752326297E-6</v>
+      </c>
+      <c r="E20">
+        <v>-7.3686962765428604E-2</v>
+      </c>
+      <c r="F20">
+        <v>2.9393003925370101E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.13362405085409901</v>
+      </c>
+      <c r="H20">
+        <v>0.473067198112951</v>
+      </c>
+      <c r="I20">
+        <v>0.107278697146521</v>
+      </c>
+      <c r="J20">
+        <v>-0.23302181614993001</v>
+      </c>
+      <c r="K20">
+        <v>-0.111524530431619</v>
+      </c>
+      <c r="L20">
+        <v>7.5981980401873303E-2</v>
+      </c>
+      <c r="M20">
+        <v>-0.233223687346237</v>
+      </c>
+      <c r="N20">
+        <v>5.1378752191800402E-2</v>
+      </c>
+      <c r="O20">
+        <v>0.207532880594967</v>
+      </c>
+      <c r="P20">
+        <v>8.3261251572847195E-2</v>
+      </c>
+      <c r="Q20">
+        <v>-0.22838419426244899</v>
+      </c>
+      <c r="R20">
+        <v>-1.9107754737002599E-2</v>
+      </c>
+      <c r="S20">
+        <v>-5.2842386689793103E-2</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AM2:AN2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:T20">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>-0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>-0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+      <formula>0.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="208">
   <si>
     <t>Species</t>
   </si>
@@ -609,9 +609,6 @@
     <t>Spiny butterfly ray</t>
   </si>
   <si>
-    <t>**Should species that don't show significant change in condition over time not be included in condition analysis?</t>
-  </si>
-  <si>
     <t>Spatial Dependence</t>
   </si>
   <si>
@@ -619,6 +616,39 @@
   </si>
   <si>
     <t>AvgLonStrata AvgLatStrata</t>
+  </si>
+  <si>
+    <t>Lat/Lon should be included in final GAM models to account for spatial autocorrelation</t>
+  </si>
+  <si>
+    <t>PropColumnColdPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion Column Cold Pool </t>
+  </si>
+  <si>
+    <t>Exclude species from condition analyses that don't show significant change in condition over time</t>
+  </si>
+  <si>
+    <t>Re-run excluding outliers (outside 1 std. dev from mean condition)</t>
+  </si>
+  <si>
+    <t>Outliers removed</t>
+  </si>
+  <si>
+    <t>Outliers as percent</t>
+  </si>
+  <si>
+    <t>Change in deviance explained</t>
+  </si>
+  <si>
+    <t>Change in GCV</t>
+  </si>
+  <si>
+    <t>GCV better</t>
+  </si>
+  <si>
+    <t>Deviance Explained worse</t>
   </si>
 </sst>
 </file>
@@ -780,7 +810,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -993,6 +1023,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,7 +1680,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1833,6 +1869,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1911,7 +1949,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="126">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1959,6 +1997,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2897,16 +2956,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223456</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>566357</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>86009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2929,8 +2988,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1130300" y="4051300"/>
-          <a:ext cx="4000500" cy="4000500"/>
+          <a:off x="2655371" y="3460922"/>
+          <a:ext cx="3990773" cy="4010903"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3207,8 +3266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M426"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="B344" sqref="B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15857,44 +15916,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D118 D120:D1048576">
-    <cfRule type="cellIs" dxfId="122" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="125" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B118 B120:B1048576">
-    <cfRule type="cellIs" dxfId="121" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="119" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I85 I119:I1048576 I87:I117">
-    <cfRule type="cellIs" dxfId="118" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="5" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="116" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="3" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="114" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15908,7 +15967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -18480,145 +18539,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 E2:E17 C19:C26 E19:E26 C28 C30:C119 E28 E30 AC26:AC31 AC2:AC7 AA2:AA7 AC9 AA9 AC11:AC18 AA11:AA18 AC20:AC21 AC24 AA20:AA21 AA24:AA31">
-    <cfRule type="cellIs" dxfId="112" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="115" priority="42" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 D2:D17 B19:B26 D19:D26 B28 B30:B119 D28 D30 AB26:AB31 AB2:AB7 Z2:Z7 AB9 Z9 AB11:AB18 Z11:Z18 AB20:AB21 AB24 Z20:Z21 Z24:Z31">
-    <cfRule type="cellIs" dxfId="111" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="40" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="41" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="109" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="112" priority="36" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="108" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="34" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="35" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="106" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="33" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="105" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="31" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="32" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31">
-    <cfRule type="cellIs" dxfId="103" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="30" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J31">
-    <cfRule type="cellIs" dxfId="102" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="28" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="29" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31">
-    <cfRule type="cellIs" dxfId="100" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="27" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L31">
-    <cfRule type="cellIs" dxfId="99" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="25" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="26" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="97" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="24" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="96" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="22" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="23" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q31">
-    <cfRule type="cellIs" dxfId="94" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="21" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P31">
-    <cfRule type="cellIs" dxfId="93" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S31">
-    <cfRule type="cellIs" dxfId="91" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="94" priority="18" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R31">
-    <cfRule type="cellIs" dxfId="90" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="16" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="17" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U31">
-    <cfRule type="cellIs" dxfId="88" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="15" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T31">
-    <cfRule type="cellIs" dxfId="87" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="13" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="14" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W31">
-    <cfRule type="cellIs" dxfId="85" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V31">
-    <cfRule type="cellIs" dxfId="84" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y31">
-    <cfRule type="cellIs" dxfId="82" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="85" priority="9" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X31">
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18630,8 +18689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="L1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20441,168 +20500,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W26:W31 W2:W7 U2:U7 W9 U9 W11:W18 U11:U18 W20:W21 W24 U20:U21 U24:U31">
-    <cfRule type="cellIs" dxfId="79" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="50" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 B19:B26 B30 B28 D30 V26:V31 V2:V7 T2:T7 V9 T9 V11:V18 T11:T18 V20:V21 V24 T20:T21 T24:T31 D28 D19:D26 D2:D17 B38:B119">
-    <cfRule type="cellIs" dxfId="78" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="48" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="49" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="76" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="45" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="46" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="74" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="42" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="43" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J5 J10 J14 J17:J18 J21:J22 J24:J25 J27:J29">
-    <cfRule type="cellIs" dxfId="72" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="39" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="40" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31 L5 L10 L14 L17:L18 L21:L22 L27:L29 L24:L25">
-    <cfRule type="cellIs" dxfId="70" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="38" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L4 L6:L9 L11:L13 L15:L16 L19:L20 L23 L30:L31 L26">
-    <cfRule type="cellIs" dxfId="69" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="36" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="37" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="67" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="35" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="66" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="33" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="34" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q16 Q30:Q31 Q18:Q26 P4:P9 P11 P13:P15 P19:P21 P24 P30">
-    <cfRule type="cellIs" dxfId="64" priority="29" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="29" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P3 P31 P18 P10 P12 P16 P22:P23 P25:P26">
-    <cfRule type="cellIs" dxfId="63" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="27" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="28" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S15">
-    <cfRule type="cellIs" dxfId="61" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="17" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="60" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4 S16:S31 S6:S13 R10 R12 R16:R18 R22:R23 R25:R29 R31 R3">
-    <cfRule type="cellIs" dxfId="58" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="20" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 R19:R21 R6:R9 R11 R13 R24 R30 R4">
-    <cfRule type="cellIs" dxfId="57" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q29">
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="14" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P29">
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="11" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="8" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="48" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 C19:C26 C28 C30:C119 B31:B37">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17 E19:E26 E28 E30">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 J3:J4 J6:J9 J11:J13 J15:J16 J19:J20 J23 J26 J30:J31">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20615,7 +20674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="O161" workbookViewId="0">
       <selection activeCell="P153" sqref="P153"/>
     </sheetView>
   </sheetViews>
@@ -28821,87 +28880,87 @@
     <sortCondition ref="R164"/>
   </sortState>
   <conditionalFormatting sqref="I1:I53 I78:I80 I105:I108 I133:I135 I160:I163 I188:I1048576 V164:V171 V174:V178 V180:V182 V184:V185 V187:V192 S164:S171 S174:S178 S180:S182 S184:S185 S187:S192">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="40" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:L77">
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="18" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:H104">
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:J104">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H132">
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J132">
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136:J159">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H159">
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164:J187">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H187">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y164:Y192">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T164:T192">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28914,8 +28973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL33"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BJ4" sqref="BJ4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28938,35 +28997,35 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="66" t="s">
+      <c r="R2" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="68"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="70"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
       <c r="BA2">
@@ -28979,50 +29038,50 @@
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="69" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="69" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="70"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="72" t="s">
+      <c r="S3" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="69" t="s">
+      <c r="T3" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="70"/>
-      <c r="V3" s="69" t="s">
+      <c r="U3" s="72"/>
+      <c r="V3" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="71"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="69" t="s">
+      <c r="W3" s="73"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="70"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="72"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6"/>
       <c r="AE3">
@@ -29036,9 +29095,9 @@
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="73"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="10" t="s">
         <v>112</v>
       </c>
@@ -29073,7 +29132,7 @@
       <c r="R4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="73"/>
+      <c r="S4" s="75"/>
       <c r="T4" s="10" t="s">
         <v>112</v>
       </c>
@@ -32924,67 +32983,67 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX27">
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AV27">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AI27">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK27">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ4:BJ27">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BH27">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ28:BJ32">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB28:BH32">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32995,26 +33054,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:R232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G117" sqref="G116:G117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -33033,688 +33104,1874 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>204</v>
+      </c>
+      <c r="R2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>8.3000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.2000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>4.4999999999999998E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E3">
-        <v>49.707000000000001</v>
+        <v>17.077000000000002</v>
       </c>
       <c r="F3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1074</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M3">
+        <v>14.795999999999999</v>
+      </c>
+      <c r="N3">
+        <v>1056</v>
+      </c>
+      <c r="O3">
+        <f>F3-N3</f>
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <f>O3/N3</f>
+        <v>1.7045454545454544E-2</v>
+      </c>
+      <c r="Q3">
+        <f>D3-L3</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="R3">
+        <f>E3-M3</f>
+        <v>2.2810000000000024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>7.2999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.0000000000000002E-3</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D4">
-        <v>1.0999999999999999E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E4">
-        <v>20.856999999999999</v>
+        <v>24.600999999999999</v>
       </c>
       <c r="F4">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
+        <v>1268</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L4">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="M4">
+        <v>22.016999999999999</v>
+      </c>
+      <c r="N4">
+        <v>1253</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O43" si="0">F4-N4</f>
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P42" si="1">O4/N4</f>
+        <v>1.1971268954509178E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q42" si="2">D4-L4</f>
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R42" si="3">E4-M4</f>
+        <v>2.5839999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="66" t="s">
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>3.4000000000000002E-2</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="C5">
-        <v>7.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>1.2E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E5">
-        <v>17.638000000000002</v>
+        <v>17.292000000000002</v>
       </c>
       <c r="F5">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="K5">
+        <v>1E-3</v>
+      </c>
+      <c r="L5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M5">
+        <v>15.816000000000001</v>
+      </c>
+      <c r="N5">
+        <v>1112</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>1.618705035971223E-2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>1.4760000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B6">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="C6">
-        <v>5.0999999999999997E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6">
-        <v>6.9000000000000006E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E6">
-        <v>119.63800000000001</v>
+        <v>10.877000000000001</v>
       </c>
       <c r="F6">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>902</v>
+      </c>
+      <c r="I6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6">
+        <v>1E-3</v>
+      </c>
+      <c r="K6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M6">
+        <v>10.877000000000001</v>
+      </c>
+      <c r="N6">
+        <v>902</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>0.17699999999999999</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>8.0000000000000002E-3</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E7">
+        <v>96.522999999999996</v>
+      </c>
+      <c r="F7">
+        <v>1497</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M7">
+        <v>96.352000000000004</v>
+      </c>
+      <c r="N7">
+        <v>1496</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>6.6844919786096253E-4</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0.17099999999999227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C8">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E7">
-        <v>13.912000000000001</v>
-      </c>
-      <c r="F7">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="D8">
+        <v>0.02</v>
+      </c>
+      <c r="E8">
+        <v>25.029</v>
+      </c>
+      <c r="F8">
+        <v>826</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.02</v>
+      </c>
+      <c r="M8">
+        <v>25.029</v>
+      </c>
+      <c r="N8">
+        <v>826</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>159</v>
-      </c>
-      <c r="B8">
-        <v>1E-3</v>
-      </c>
-      <c r="C8">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D8">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E8">
-        <v>25.681999999999999</v>
-      </c>
-      <c r="F8">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>8</v>
       </c>
       <c r="B9">
         <v>1E-3</v>
       </c>
       <c r="C9">
-        <v>2.1000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D9">
-        <v>2.8000000000000001E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E9">
-        <v>34.43</v>
+        <v>25.681999999999999</v>
       </c>
       <c r="F9">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>630</v>
+      </c>
+      <c r="I9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9">
+        <v>1E-3</v>
+      </c>
+      <c r="K9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M9">
+        <v>25.681999999999999</v>
+      </c>
+      <c r="N9">
+        <v>630</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.04</v>
+      </c>
+      <c r="D10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>62.375</v>
+      </c>
+      <c r="F10">
+        <v>1280</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.04</v>
+      </c>
+      <c r="M10">
+        <v>46.838000000000001</v>
+      </c>
+      <c r="N10">
+        <v>1185</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>8.0168776371308023E-2</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999966E-3</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>15.536999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>28.221</v>
+      </c>
+      <c r="F11">
+        <v>1658</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M11">
+        <v>25.256</v>
+      </c>
+      <c r="N11">
+        <v>1622</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>2.2194821208384709E-2</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>2.9649999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E12">
+        <v>119.63800000000001</v>
+      </c>
+      <c r="F12">
+        <v>380</v>
+      </c>
+      <c r="I12" t="s">
+        <v>188</v>
+      </c>
+      <c r="J12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M12">
+        <v>119.63800000000001</v>
+      </c>
+      <c r="N12">
+        <v>380</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="C13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>13.912000000000001</v>
+      </c>
+      <c r="F13">
+        <v>426</v>
+      </c>
+      <c r="I13" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="K13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L13">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M13">
+        <v>13.912000000000001</v>
+      </c>
+      <c r="N13">
+        <v>426</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>265.08</v>
+      </c>
+      <c r="F14">
+        <v>4588</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M14">
+        <v>221.203</v>
+      </c>
+      <c r="N14">
+        <v>4458</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>2.9161058770749215E-2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>-6.9999999999999993E-3</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>43.876999999999981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>157</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D10">
+      <c r="D15">
         <v>0.05</v>
       </c>
-      <c r="E10">
+      <c r="E15">
         <v>94.92</v>
       </c>
-      <c r="F10">
+      <c r="F15">
         <v>674</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.05</v>
+      </c>
+      <c r="M15">
+        <v>94.92</v>
+      </c>
+      <c r="N15">
+        <v>674</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E16">
+        <v>75.262</v>
+      </c>
+      <c r="F16">
+        <v>2154</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L16">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M16">
+        <v>30.527999999999999</v>
+      </c>
+      <c r="N16">
+        <v>1879</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0.14635444385311336</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>44.734000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>1E-3</v>
+      </c>
+      <c r="C17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D17">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E17">
+        <v>56.247999999999998</v>
+      </c>
+      <c r="F17">
+        <v>1876</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>1E-3</v>
+      </c>
+      <c r="K17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M17">
+        <v>56.027000000000001</v>
+      </c>
+      <c r="N17">
+        <v>1871</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>2.6723677177979692E-3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999915E-4</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0.22099999999999653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E18">
+        <v>14.404</v>
+      </c>
+      <c r="F18">
+        <v>1584</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L18">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M18">
+        <v>14.353</v>
+      </c>
+      <c r="N18">
+        <v>1581</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>1.8975332068311196E-3</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>5.1000000000000156E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D19">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>62.652000000000001</v>
+      </c>
+      <c r="F19">
+        <v>2216</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L19">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M19">
+        <v>62.2</v>
+      </c>
+      <c r="N19">
+        <v>2213</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1.3556258472661546E-3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0.45199999999999818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.03</v>
+      </c>
+      <c r="D20">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>29.039000000000001</v>
+      </c>
+      <c r="F20">
+        <v>866</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.04</v>
+      </c>
+      <c r="M20">
+        <v>24.454999999999998</v>
+      </c>
+      <c r="N20">
+        <v>842</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>2.8503562945368172E-2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>4.5840000000000032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D21">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E21">
+        <v>42.502000000000002</v>
+      </c>
+      <c r="F21">
+        <v>764</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.04</v>
+      </c>
+      <c r="L21">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M21">
+        <v>42.34</v>
+      </c>
+      <c r="N21">
+        <v>762</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>2.6246719160104987E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0.16199999999999903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22">
+        <v>2E-3</v>
+      </c>
+      <c r="C22">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D22">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E22">
+        <v>26.35</v>
+      </c>
+      <c r="F22">
+        <v>299</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K22">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L22">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M22">
+        <v>25.129000000000001</v>
+      </c>
+      <c r="N22">
+        <v>295</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>1.3559322033898305E-2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>1.2210000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.05</v>
+      </c>
+      <c r="D23">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E23">
+        <v>23.831</v>
+      </c>
+      <c r="F23">
+        <v>674</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L23">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M23">
+        <v>23.785</v>
+      </c>
+      <c r="N23">
+        <v>673</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>1.4858841010401188E-3</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>-1.9999999999999948E-3</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999375E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.04</v>
+      </c>
+      <c r="D24">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E24">
+        <v>56.128999999999998</v>
+      </c>
+      <c r="F24">
+        <v>2486</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L24">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M24">
+        <v>24.63</v>
+      </c>
+      <c r="N24">
+        <v>2168</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>0.14667896678966791</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>1.8999999999999996E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>31.498999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>160</v>
       </c>
-      <c r="B11">
+      <c r="B25">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="C11">
+      <c r="C25">
         <v>0.02</v>
       </c>
-      <c r="D11">
+      <c r="D25">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="E11">
+      <c r="E25">
         <v>103.964</v>
       </c>
-      <c r="F11">
+      <c r="F25">
         <v>466</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D12">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="E12">
-        <v>62.652000000000001</v>
-      </c>
-      <c r="F12">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D13">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="E13">
-        <v>33.256999999999998</v>
-      </c>
-      <c r="F13">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E14">
-        <v>45.295999999999999</v>
-      </c>
-      <c r="F14">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D15">
-        <v>6.2E-2</v>
-      </c>
-      <c r="E15">
-        <v>96.522999999999996</v>
-      </c>
-      <c r="F15">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16">
-        <v>2E-3</v>
-      </c>
-      <c r="C16">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="D16">
-        <v>6.2E-2</v>
-      </c>
-      <c r="E16">
-        <v>26.35</v>
-      </c>
-      <c r="F16">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>1.9E-2</v>
-      </c>
-      <c r="D17">
-        <v>0.02</v>
-      </c>
-      <c r="E17">
-        <v>60.689</v>
-      </c>
-      <c r="F17">
-        <v>3562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="C18">
-        <v>1E-3</v>
-      </c>
-      <c r="D18">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E18">
-        <v>17.292000000000002</v>
-      </c>
-      <c r="F18">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D19">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E19">
-        <v>14.404</v>
-      </c>
-      <c r="F19">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0.05</v>
-      </c>
-      <c r="D20">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="E20">
-        <v>23.831</v>
-      </c>
-      <c r="F20">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D21">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E21">
-        <v>21.885999999999999</v>
-      </c>
-      <c r="F21">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0.04</v>
-      </c>
-      <c r="D22">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E22">
-        <v>56.128999999999998</v>
-      </c>
-      <c r="F22">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D23">
+      <c r="I25" t="s">
+        <v>160</v>
+      </c>
+      <c r="J25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K25">
         <v>3.1E-2</v>
       </c>
-      <c r="E23">
-        <v>20.135999999999999</v>
-      </c>
-      <c r="F23">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="D24">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="E24">
-        <v>24.600999999999999</v>
-      </c>
-      <c r="F24">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="D25">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E25">
-        <v>13.988</v>
-      </c>
-      <c r="F25">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>36</v>
+      <c r="L25">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M25">
+        <v>97.986000000000004</v>
+      </c>
+      <c r="N25">
+        <v>462</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>8.658008658008658E-3</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>5.9779999999999944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="67" t="s">
+        <v>187</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C26">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="D26">
-        <v>3.5000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E26">
-        <v>75.262</v>
+        <v>49.707000000000001</v>
       </c>
       <c r="F26">
+        <v>201</v>
+      </c>
+      <c r="I26" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K26">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L26">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M26">
+        <v>49.707000000000001</v>
+      </c>
+      <c r="N26">
+        <v>201</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D27">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E27">
+        <v>46.487000000000002</v>
+      </c>
+      <c r="F27">
+        <v>2268</v>
+      </c>
+      <c r="I27" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L27">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M27">
+        <v>35.896000000000001</v>
+      </c>
+      <c r="N27">
         <v>2154</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="D27">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E27">
-        <v>39.829000000000001</v>
-      </c>
-      <c r="F27">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>20</v>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>5.2924791086350974E-2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999996E-2</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>10.591000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="66" t="s">
+        <v>39</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C28">
-        <v>0.04</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D28">
-        <v>4.4999999999999998E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E28">
-        <v>11.471</v>
+        <v>65.573999999999998</v>
       </c>
       <c r="F28">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+      <c r="I28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28">
+        <v>0.314</v>
+      </c>
+      <c r="K28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M28">
+        <v>65.564999999999998</v>
+      </c>
+      <c r="N28">
+        <v>693</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>4.329004329004329E-3</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999915E-4</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>9.0000000000003411E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>7.3999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="C29">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.02</v>
+      </c>
+      <c r="E29">
+        <v>60.689</v>
+      </c>
+      <c r="F29">
+        <v>3562</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M29">
+        <v>27.884</v>
+      </c>
+      <c r="N29">
+        <v>3115</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>447</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0.14349919743178169</v>
+      </c>
+      <c r="Q29">
+        <f>D29-L29</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>32.805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="C30">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D30">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E30">
+        <v>20.856999999999999</v>
+      </c>
+      <c r="F30">
+        <v>732</v>
+      </c>
+      <c r="I30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0.06</v>
+      </c>
+      <c r="L30">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M30">
+        <v>32.497999999999998</v>
+      </c>
+      <c r="N30">
+        <v>521</v>
+      </c>
+      <c r="O30">
+        <f>F31-N30</f>
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>3.838771593090211E-3</v>
+      </c>
+      <c r="Q30">
+        <f>D31-L30</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="R30">
+        <f>E31-M30</f>
+        <v>0.75900000000000034</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D31">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E31">
+        <v>33.256999999999998</v>
+      </c>
+      <c r="F31">
+        <v>523</v>
+      </c>
+      <c r="I31" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.09</v>
+      </c>
+      <c r="L31">
+        <v>0.11</v>
+      </c>
+      <c r="M31">
+        <v>19.895</v>
+      </c>
+      <c r="N31">
+        <v>246</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:O42" si="4">F32-N31</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q44" si="5">D32-L31</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" ref="R31:R42" si="6">E32-M31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0.09</v>
+      </c>
+      <c r="D32">
+        <v>0.11</v>
+      </c>
+      <c r="E32">
+        <v>19.895</v>
+      </c>
+      <c r="F32">
+        <v>246</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K32">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L32">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M32">
+        <v>17.638000000000002</v>
+      </c>
+      <c r="N32">
+        <v>1811</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D33">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E33">
+        <v>17.638000000000002</v>
+      </c>
+      <c r="F33">
+        <v>1811</v>
+      </c>
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L33">
+        <v>0.03</v>
+      </c>
+      <c r="M33">
+        <v>19.815999999999999</v>
+      </c>
+      <c r="N33">
+        <v>1954</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>4.0941658137154556E-3</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>0.32000000000000028</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D34">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E34">
+        <v>20.135999999999999</v>
+      </c>
+      <c r="F34">
+        <v>1962</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L34">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M34">
+        <v>13.988</v>
+      </c>
+      <c r="N34">
+        <v>1927</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D35">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E35">
+        <v>13.988</v>
+      </c>
+      <c r="F35">
+        <v>1927</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K35">
         <v>0.01</v>
       </c>
-      <c r="D29">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E29">
-        <v>31.771999999999998</v>
-      </c>
-      <c r="F29">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D30">
+      <c r="L35">
         <v>1.4E-2</v>
       </c>
-      <c r="E30">
-        <v>77.950999999999993</v>
-      </c>
-      <c r="F30">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="D31">
-        <v>0.02</v>
-      </c>
-      <c r="E31">
-        <v>25.029</v>
-      </c>
-      <c r="F31">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D32">
+      <c r="M35">
+        <v>45.295999999999999</v>
+      </c>
+      <c r="N35">
+        <v>664</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C36">
+        <v>0.01</v>
+      </c>
+      <c r="D36">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E36">
+        <v>45.295999999999999</v>
+      </c>
+      <c r="F36">
+        <v>664</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E32">
-        <v>265.08</v>
-      </c>
-      <c r="F32">
-        <v>4588</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D33">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E33">
-        <v>28.221</v>
-      </c>
-      <c r="F33">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B34">
-        <v>1E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D34">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E34">
-        <v>10.877000000000001</v>
-      </c>
-      <c r="F34">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0.04</v>
-      </c>
-      <c r="D35">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E35">
-        <v>62.375</v>
-      </c>
-      <c r="F35">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>156</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D36">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E36">
-        <v>46.487000000000002</v>
-      </c>
-      <c r="F36">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M36">
+        <v>17.315000000000001</v>
+      </c>
+      <c r="N36">
+        <v>1409</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>7.1682044002838896E-2</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>4.7999999999999994E-2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>36.551999999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -33733,138 +34990,373 @@
       <c r="F37">
         <v>1510</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M37">
+        <v>20.257000000000001</v>
+      </c>
+      <c r="N37">
+        <v>1348</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>1.483679525222552E-2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>1.6289999999999978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D38">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E38">
+        <v>21.885999999999999</v>
+      </c>
+      <c r="F38">
+        <v>1368</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M38">
+        <v>29.312999999999999</v>
+      </c>
+      <c r="N38">
+        <v>1814</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>221</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>0.12183020948180816</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>0.01</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>48.637999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D39">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E39">
+        <v>77.950999999999993</v>
+      </c>
+      <c r="F39">
+        <v>2035</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0.04</v>
+      </c>
+      <c r="L39">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M39">
+        <v>11.335000000000001</v>
+      </c>
+      <c r="N39">
+        <v>1572</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="1"/>
+        <v>1.9083969465648854E-3</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>0.13599999999999923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0.04</v>
+      </c>
+      <c r="D40">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D38">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E38">
-        <v>17.077000000000002</v>
-      </c>
-      <c r="F38">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0.03</v>
-      </c>
-      <c r="D39">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E39">
-        <v>29.039000000000001</v>
-      </c>
-      <c r="F39">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>0.3</v>
-      </c>
-      <c r="C40">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D40">
-        <v>8.9999999999999993E-3</v>
-      </c>
       <c r="E40">
-        <v>65.573999999999998</v>
+        <v>11.471</v>
       </c>
       <c r="F40">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1575</v>
+      </c>
+      <c r="I40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>1E-3</v>
+      </c>
+      <c r="K40">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L40">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M40">
+        <v>34.43</v>
+      </c>
+      <c r="N40">
+        <v>1170</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C41">
-        <v>3.9E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D41">
-        <v>4.4999999999999998E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E41">
-        <v>42.502000000000002</v>
+        <v>34.43</v>
       </c>
       <c r="F41">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1170</v>
+      </c>
+      <c r="I41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K41">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L41">
+        <v>0.02</v>
+      </c>
+      <c r="M41">
+        <v>19.802</v>
+      </c>
+      <c r="N41">
+        <v>927</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="1"/>
+        <v>6.6882416396979505E-2</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>-5.000000000000001E-3</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>11.969999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B42">
-        <v>1E-3</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="C42">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D42">
-        <v>8.9999999999999993E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E42">
-        <v>56.247999999999998</v>
+        <v>31.771999999999998</v>
       </c>
       <c r="F42">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>989</v>
+      </c>
+      <c r="I42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L42">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M42">
+        <v>15.227</v>
+      </c>
+      <c r="N42">
+        <v>1080</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>9.0740740740740747E-2</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>24.602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0.09</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D43">
-        <v>0.11</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E43">
-        <v>19.895</v>
+        <v>39.829000000000001</v>
       </c>
       <c r="F43">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1178</v>
+      </c>
+      <c r="L43">
+        <f>SUM(L3:L42)+D30</f>
+        <v>1.5250000000000004</v>
+      </c>
+      <c r="O43">
+        <f>SUM(O3:O42)</f>
+        <v>2031</v>
+      </c>
+      <c r="Q43">
+        <f>SUM(Q3:Q42)</f>
+        <v>0.159</v>
+      </c>
+      <c r="R43">
+        <f>SUM(R3:R42)</f>
+        <v>325.84999999999991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <f>SUM(D3:D43)</f>
+        <v>1.6840000000000002</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>207</v>
+      </c>
+      <c r="R44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>197</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -33879,7 +35371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -33899,7 +35391,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -34080,7 +35572,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="A57" s="66" t="s">
         <v>158</v>
       </c>
       <c r="B57">
@@ -34680,7 +36172,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="A87" s="66" t="s">
         <v>193</v>
       </c>
       <c r="B87">
@@ -35544,17 +37036,1948 @@
         <v>246</v>
       </c>
     </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0.127</v>
+      </c>
+      <c r="D135">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E135">
+        <v>45.012</v>
+      </c>
+      <c r="F135">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="C136">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D136">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E136">
+        <v>20.952000000000002</v>
+      </c>
+      <c r="F136">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C137">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D137">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E137">
+        <v>17.632000000000001</v>
+      </c>
+      <c r="F137">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C138">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D138">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E138">
+        <v>120.396</v>
+      </c>
+      <c r="F138">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="C139">
+        <v>-1E-3</v>
+      </c>
+      <c r="D139">
+        <v>2E-3</v>
+      </c>
+      <c r="E139">
+        <v>14.005000000000001</v>
+      </c>
+      <c r="F139">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="C140">
+        <v>-1E-3</v>
+      </c>
+      <c r="D140">
+        <v>1E-3</v>
+      </c>
+      <c r="E140">
+        <v>26.34</v>
+      </c>
+      <c r="F140">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C141">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D141">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E141">
+        <v>34.793999999999997</v>
+      </c>
+      <c r="F141">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142">
+        <v>0.62</v>
+      </c>
+      <c r="C142">
+        <v>1E-3</v>
+      </c>
+      <c r="D142">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E142">
+        <v>98.22</v>
+      </c>
+      <c r="F142">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C143">
+        <v>0.03</v>
+      </c>
+      <c r="D143">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E143">
+        <v>103.923</v>
+      </c>
+      <c r="F143">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>63.963999999999999</v>
+      </c>
+      <c r="F144">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>158</v>
+      </c>
+      <c r="B145">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C145">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D145">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E145">
+        <v>34.939</v>
+      </c>
+      <c r="F145">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="C146">
+        <v>-1E-3</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>45.732999999999997</v>
+      </c>
+      <c r="F146">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>34</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D147">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E147">
+        <v>100.342</v>
+      </c>
+      <c r="F147">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>190</v>
+      </c>
+      <c r="B148">
+        <v>1E-3</v>
+      </c>
+      <c r="C148">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D148">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E148">
+        <v>26.687999999999999</v>
+      </c>
+      <c r="F148">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C149">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D149">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E149">
+        <v>61.505000000000003</v>
+      </c>
+      <c r="F149">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>1E-3</v>
+      </c>
+      <c r="E150">
+        <v>17.292000000000002</v>
+      </c>
+      <c r="F150">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="C151">
+        <v>1E-3</v>
+      </c>
+      <c r="D151">
+        <v>2E-3</v>
+      </c>
+      <c r="E151">
+        <v>14.884</v>
+      </c>
+      <c r="F151">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>2E-3</v>
+      </c>
+      <c r="E152">
+        <v>24.914000000000001</v>
+      </c>
+      <c r="F152">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153">
+        <v>1E-3</v>
+      </c>
+      <c r="C153">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D153">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E153">
+        <v>22.018000000000001</v>
+      </c>
+      <c r="F153">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C154">
+        <v>1E-3</v>
+      </c>
+      <c r="D154">
+        <v>1E-3</v>
+      </c>
+      <c r="E154">
+        <v>58.271000000000001</v>
+      </c>
+      <c r="F154">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>35</v>
+      </c>
+      <c r="B155">
+        <v>1E-3</v>
+      </c>
+      <c r="C155">
+        <v>0.01</v>
+      </c>
+      <c r="D155">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E155">
+        <v>20.497</v>
+      </c>
+      <c r="F155">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>17</v>
+      </c>
+      <c r="B156">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>1E-3</v>
+      </c>
+      <c r="E156">
+        <v>26.754000000000001</v>
+      </c>
+      <c r="F156">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C157">
+        <v>2E-3</v>
+      </c>
+      <c r="D157">
+        <v>2E-3</v>
+      </c>
+      <c r="E157">
+        <v>14.242000000000001</v>
+      </c>
+      <c r="F157">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>36</v>
+      </c>
+      <c r="B158">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C158">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D158">
+        <v>0.01</v>
+      </c>
+      <c r="E158">
+        <v>77.126000000000005</v>
+      </c>
+      <c r="F158">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C159">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D159">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E159">
+        <v>43.031999999999996</v>
+      </c>
+      <c r="F159">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C160">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D160">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E160">
+        <v>11.86</v>
+      </c>
+      <c r="F160">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D161">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E161">
+        <v>30.774999999999999</v>
+      </c>
+      <c r="F161">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>21</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D162">
+        <v>0.03</v>
+      </c>
+      <c r="E162">
+        <v>77.018000000000001</v>
+      </c>
+      <c r="F162">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C163">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D163">
+        <v>0.01</v>
+      </c>
+      <c r="E163">
+        <v>25.120999999999999</v>
+      </c>
+      <c r="F163">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0.01</v>
+      </c>
+      <c r="D164">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E164">
+        <v>272.43099999999998</v>
+      </c>
+      <c r="F164">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="C165">
+        <v>1E-3</v>
+      </c>
+      <c r="D165">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E165">
+        <v>29.276</v>
+      </c>
+      <c r="F165">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>191</v>
+      </c>
+      <c r="B166">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="C166">
+        <v>2E-3</v>
+      </c>
+      <c r="D166">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E166">
+        <v>11.089</v>
+      </c>
+      <c r="F166">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>25</v>
+      </c>
+      <c r="B167">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C167">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D167">
+        <v>0.01</v>
+      </c>
+      <c r="E167">
+        <v>64.421000000000006</v>
+      </c>
+      <c r="F167">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>156</v>
+      </c>
+      <c r="B168">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C168">
+        <v>2E-3</v>
+      </c>
+      <c r="D168">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E168">
+        <v>51.02</v>
+      </c>
+      <c r="F168">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>38</v>
+      </c>
+      <c r="B169">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="C169">
+        <v>1E-3</v>
+      </c>
+      <c r="D169">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E169">
+        <v>58.744</v>
+      </c>
+      <c r="F169">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>26</v>
+      </c>
+      <c r="B170">
+        <v>2E-3</v>
+      </c>
+      <c r="C170">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D170">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E170">
+        <v>17.55</v>
+      </c>
+      <c r="F170">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>192</v>
+      </c>
+      <c r="B171">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C171">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D171">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E171">
+        <v>29.344000000000001</v>
+      </c>
+      <c r="F171">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C172">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D172">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E172">
+        <v>65.266999999999996</v>
+      </c>
+      <c r="F172">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173">
+        <v>1E-3</v>
+      </c>
+      <c r="C173">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D173">
+        <v>0.04</v>
+      </c>
+      <c r="E173">
+        <v>42.972999999999999</v>
+      </c>
+      <c r="F173">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>28</v>
+      </c>
+      <c r="B174">
+        <v>0.182</v>
+      </c>
+      <c r="C174">
+        <v>1E-3</v>
+      </c>
+      <c r="D174">
+        <v>1E-3</v>
+      </c>
+      <c r="E174">
+        <v>56.665999999999997</v>
+      </c>
+      <c r="F174">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C175">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D175">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E175">
+        <v>21.338999999999999</v>
+      </c>
+      <c r="F175">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>33</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C179">
+        <v>0.02</v>
+      </c>
+      <c r="D179">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E179">
+        <v>49.856000000000002</v>
+      </c>
+      <c r="F179">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="C180">
+        <v>-1E-3</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>21.01</v>
+      </c>
+      <c r="F180">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C181">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D181">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E181">
+        <v>17.606000000000002</v>
+      </c>
+      <c r="F181">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182">
+        <v>0.104</v>
+      </c>
+      <c r="C182">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D182">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E182">
+        <v>122.65</v>
+      </c>
+      <c r="F182">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="C183">
+        <v>-2E-3</v>
+      </c>
+      <c r="D183">
+        <v>1E-3</v>
+      </c>
+      <c r="E183">
+        <v>14.018000000000001</v>
+      </c>
+      <c r="F183">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>159</v>
+      </c>
+      <c r="B184">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C184">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D184">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E184">
+        <v>25.850999999999999</v>
+      </c>
+      <c r="F184">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185">
+        <v>0.123</v>
+      </c>
+      <c r="C185">
+        <v>2E-3</v>
+      </c>
+      <c r="D185">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E185">
+        <v>34.86</v>
+      </c>
+      <c r="F185">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>157</v>
+      </c>
+      <c r="B186">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>1E-3</v>
+      </c>
+      <c r="E186">
+        <v>98.123000000000005</v>
+      </c>
+      <c r="F186">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>160</v>
+      </c>
+      <c r="B187">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="C187">
+        <v>-1E-3</v>
+      </c>
+      <c r="D187">
+        <v>1E-3</v>
+      </c>
+      <c r="E187">
+        <v>105.511</v>
+      </c>
+      <c r="F187">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>63.963999999999999</v>
+      </c>
+      <c r="F188">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>158</v>
+      </c>
+      <c r="B189">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="C189">
+        <v>-1E-3</v>
+      </c>
+      <c r="D189">
+        <v>1E-3</v>
+      </c>
+      <c r="E189">
+        <v>35.142000000000003</v>
+      </c>
+      <c r="F189">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>0.313</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>2E-3</v>
+      </c>
+      <c r="E190">
+        <v>45.673000000000002</v>
+      </c>
+      <c r="F190">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>34</v>
+      </c>
+      <c r="B191">
+        <v>1E-3</v>
+      </c>
+      <c r="C191">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D191">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E191">
+        <v>100.47799999999999</v>
+      </c>
+      <c r="F191">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C192">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D192">
+        <v>0.02</v>
+      </c>
+      <c r="E192">
+        <v>27.19</v>
+      </c>
+      <c r="F192">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C193">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D193">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E193">
+        <v>61.573</v>
+      </c>
+      <c r="F193">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="C194">
+        <v>-1E-3</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>17.297000000000001</v>
+      </c>
+      <c r="F194">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E195">
+        <v>14.916</v>
+      </c>
+      <c r="F195">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C196">
+        <v>-1E-3</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>24.957000000000001</v>
+      </c>
+      <c r="F196">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>15</v>
+      </c>
+      <c r="B197">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C197">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D197">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E197">
+        <v>22.13</v>
+      </c>
+      <c r="F197">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>16</v>
+      </c>
+      <c r="B198">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>1E-3</v>
+      </c>
+      <c r="E198">
+        <v>58.308</v>
+      </c>
+      <c r="F198">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>35</v>
+      </c>
+      <c r="B199">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C199">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D199">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E199">
+        <v>20.588999999999999</v>
+      </c>
+      <c r="F199">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>17</v>
+      </c>
+      <c r="B200">
+        <v>2E-3</v>
+      </c>
+      <c r="C200">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D200">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E200">
+        <v>26.567</v>
+      </c>
+      <c r="F200">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201">
+        <v>0.251</v>
+      </c>
+      <c r="C201">
+        <v>2E-3</v>
+      </c>
+      <c r="D201">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E201">
+        <v>14.257</v>
+      </c>
+      <c r="F201">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>36</v>
+      </c>
+      <c r="B202">
+        <v>1E-3</v>
+      </c>
+      <c r="C202">
+        <v>0.01</v>
+      </c>
+      <c r="D202">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E202">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F202">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C203">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D203">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E203">
+        <v>42.911999999999999</v>
+      </c>
+      <c r="F203">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>20</v>
+      </c>
+      <c r="B204">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="C204">
+        <v>2E-3</v>
+      </c>
+      <c r="D204">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E204">
+        <v>11.88</v>
+      </c>
+      <c r="F204">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>37</v>
+      </c>
+      <c r="B205">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C205">
+        <v>1E-3</v>
+      </c>
+      <c r="D205">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E205">
+        <v>31.925000000000001</v>
+      </c>
+      <c r="F205">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D206">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E206">
+        <v>76.718000000000004</v>
+      </c>
+      <c r="F206">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>22</v>
+      </c>
+      <c r="B207">
+        <v>0.19</v>
+      </c>
+      <c r="C207">
+        <v>2E-3</v>
+      </c>
+      <c r="D207">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E207">
+        <v>25.158000000000001</v>
+      </c>
+      <c r="F207">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D208">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E208">
+        <v>272.73399999999998</v>
+      </c>
+      <c r="F208">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C209">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D209">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E209">
+        <v>29.166</v>
+      </c>
+      <c r="F209">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>191</v>
+      </c>
+      <c r="B210">
+        <v>2E-3</v>
+      </c>
+      <c r="C210">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D210">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E210">
+        <v>10.895</v>
+      </c>
+      <c r="F210">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>25</v>
+      </c>
+      <c r="B211">
+        <v>1E-3</v>
+      </c>
+      <c r="C211">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D211">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E211">
+        <v>63.954000000000001</v>
+      </c>
+      <c r="F211">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>156</v>
+      </c>
+      <c r="B212">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C212">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D212">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E212">
+        <v>50.86</v>
+      </c>
+      <c r="F212">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>38</v>
+      </c>
+      <c r="B213">
+        <v>1E-3</v>
+      </c>
+      <c r="C213">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D213">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E213">
+        <v>58.006999999999998</v>
+      </c>
+      <c r="F213">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D214">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E214">
+        <v>17.413</v>
+      </c>
+      <c r="F214">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>192</v>
+      </c>
+      <c r="B215">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C215">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D215">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E215">
+        <v>29.611999999999998</v>
+      </c>
+      <c r="F215">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>39</v>
+      </c>
+      <c r="B216">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="C216">
+        <v>1E-3</v>
+      </c>
+      <c r="D216">
+        <v>2E-3</v>
+      </c>
+      <c r="E216">
+        <v>65.682000000000002</v>
+      </c>
+      <c r="F216">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>27</v>
+      </c>
+      <c r="B217">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C217">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D217">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E217">
+        <v>43.814</v>
+      </c>
+      <c r="F217">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C218">
+        <v>2E-3</v>
+      </c>
+      <c r="D218">
+        <v>2E-3</v>
+      </c>
+      <c r="E218">
+        <v>56.593000000000004</v>
+      </c>
+      <c r="F218">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>193</v>
+      </c>
+      <c r="B219">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="C219">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D219">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E219">
+        <v>21.425000000000001</v>
+      </c>
+      <c r="F219">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>198</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" t="s">
+        <v>4</v>
+      </c>
+      <c r="F222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>187</v>
+      </c>
+      <c r="B223">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C223">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D223">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E223">
+        <v>50.042000000000002</v>
+      </c>
+      <c r="F223">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C224">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D224">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E224">
+        <v>20.914000000000001</v>
+      </c>
+      <c r="F224">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>17.707999999999998</v>
+      </c>
+      <c r="F225">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>188</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D226">
+        <v>0.16</v>
+      </c>
+      <c r="E226">
+        <v>106.967</v>
+      </c>
+      <c r="F226">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>189</v>
+      </c>
+      <c r="B227">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="C227">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D227">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E227">
+        <v>13.98</v>
+      </c>
+      <c r="F227">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>159</v>
+      </c>
+      <c r="B228">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C228">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D228">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E228">
+        <v>25.942</v>
+      </c>
+      <c r="F228">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229">
+        <v>1E-3</v>
+      </c>
+      <c r="C229">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D229">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E229">
+        <v>34.463999999999999</v>
+      </c>
+      <c r="F229">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>157</v>
+      </c>
+      <c r="B230">
+        <v>1E-3</v>
+      </c>
+      <c r="C230">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D230">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E230">
+        <v>96.57</v>
+      </c>
+      <c r="F230">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>160</v>
+      </c>
+      <c r="B231">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C231">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D231">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E231">
+        <v>104.88200000000001</v>
+      </c>
+      <c r="F231">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C232">
+        <v>2E-3</v>
+      </c>
+      <c r="D232">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E232">
+        <v>63.863999999999997</v>
+      </c>
+      <c r="F232">
+        <v>2216</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A3:F43">
+    <sortCondition ref="A2"/>
+  </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>0.01</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35566,8 +38989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35698,40 +39121,40 @@
       <c r="T2">
         <v>-8.5642271706535794E-2</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="W2" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="X2" s="76"/>
+      <c r="X2" s="78"/>
       <c r="Y2" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" s="76" t="s">
+      <c r="Z2" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76" t="s">
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
       <c r="AF2" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="AG2" s="76" t="s">
+      <c r="AG2" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
       <c r="AL2" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="AM2" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN2" s="76"/>
+      <c r="AM2" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN2" s="78"/>
       <c r="AO2" s="63" t="s">
         <v>185</v>
       </c>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="211">
   <si>
     <t>Species</t>
   </si>
@@ -650,6 +650,15 @@
   <si>
     <t>Deviance Explained worse</t>
   </si>
+  <si>
+    <t>GAM check</t>
+  </si>
+  <si>
+    <t>Might need more K (degrees freedom)</t>
+  </si>
+  <si>
+    <t>Average Lat/Lon by Strata</t>
+  </si>
 </sst>
 </file>
 
@@ -1033,7 +1042,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1635,6 +1644,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1680,7 +1707,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1871,6 +1898,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1902,6 +1932,12 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -28973,7 +29009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
@@ -28997,35 +29033,35 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="71"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
       <c r="BA2">
@@ -29038,50 +29074,50 @@
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="71" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="71" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="72"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="73"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="74" t="s">
+      <c r="S3" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="71" t="s">
+      <c r="T3" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="72"/>
-      <c r="V3" s="71" t="s">
+      <c r="U3" s="73"/>
+      <c r="V3" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="73"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="71" t="s">
+      <c r="W3" s="74"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="72"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="73"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6"/>
       <c r="AE3">
@@ -29095,9 +29131,9 @@
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="10" t="s">
         <v>112</v>
       </c>
@@ -29132,7 +29168,7 @@
       <c r="R4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="75"/>
+      <c r="S4" s="76"/>
       <c r="T4" s="10" t="s">
         <v>112</v>
       </c>
@@ -33054,10 +33090,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R232"/>
+  <dimension ref="A1:T232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33066,7 +33102,7 @@
     <col min="9" max="9" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>186</v>
       </c>
@@ -33085,7 +33121,7 @@
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -33134,8 +33170,11 @@
       <c r="R2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -33161,35 +33200,35 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.8000000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="L3">
-        <v>5.5E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="M3">
-        <v>14.795999999999999</v>
+        <v>14.656000000000001</v>
       </c>
       <c r="N3">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="O3">
         <f>F3-N3</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P3">
         <f>O3/N3</f>
-        <v>1.7045454545454544E-2</v>
+        <v>1.8009478672985781E-2</v>
       </c>
       <c r="Q3">
         <f>D3-L3</f>
-        <v>-3.0000000000000027E-3</v>
+        <v>1.0000000000000009E-3</v>
       </c>
       <c r="R3">
         <f>E3-M3</f>
-        <v>2.2810000000000024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>2.4210000000000012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -33227,7 +33266,7 @@
         <v>1253</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O43" si="0">F4-N4</f>
+        <f t="shared" ref="O4:O29" si="0">F4-N4</f>
         <v>15</v>
       </c>
       <c r="P4">
@@ -33235,15 +33274,15 @@
         <v>1.1971268954509178E-2</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q42" si="2">D4-L4</f>
+        <f t="shared" ref="Q4:Q28" si="2">D4-L4</f>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R42" si="3">E4-M4</f>
+        <f t="shared" ref="R4:R29" si="3">E4-M4</f>
         <v>2.5839999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
@@ -33297,7 +33336,7 @@
         <v>1.4760000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -33351,7 +33390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -33377,35 +33416,38 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>5.6000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L7">
-        <v>6.2E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="M7">
-        <v>96.352000000000004</v>
+        <v>18.178999999999998</v>
       </c>
       <c r="N7">
-        <v>1496</v>
+        <v>1378</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="P7">
         <f t="shared" si="1"/>
-        <v>6.6844919786096253E-4</v>
+        <v>8.6357039187227869E-2</v>
       </c>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
-        <v>0.17099999999999227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>78.343999999999994</v>
+      </c>
+      <c r="T7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -33459,7 +33501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>159</v>
       </c>
@@ -33513,7 +33555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -33539,35 +33581,35 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.5000000000000003E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="L10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M10">
-        <v>46.838000000000001</v>
+        <v>29.227</v>
       </c>
       <c r="N10">
-        <v>1185</v>
+        <v>1091</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>8.0168776371308023E-2</v>
+        <v>0.17323556370302476</v>
       </c>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>3.9999999999999966E-3</v>
+        <v>1.3999999999999999E-2</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
-        <v>15.536999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>33.147999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -33593,35 +33635,35 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.7E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="L11">
-        <v>2.9000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M11">
-        <v>25.256</v>
+        <v>23.626999999999999</v>
       </c>
       <c r="N11">
-        <v>1622</v>
+        <v>1599</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>2.2194821208384709E-2</v>
+        <v>3.6898061288305188E-2</v>
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>1.2E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
-        <v>2.9649999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>4.5940000000000012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>188</v>
       </c>
@@ -33644,38 +33686,38 @@
         <v>188</v>
       </c>
       <c r="J12">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>5.0999999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="L12">
-        <v>6.9000000000000006E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="M12">
-        <v>119.63800000000001</v>
+        <v>20.562999999999999</v>
       </c>
       <c r="N12">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="P12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.18380062305295949</v>
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+        <v>99.075000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="66" t="s">
         <v>189</v>
       </c>
@@ -33698,38 +33740,38 @@
         <v>189</v>
       </c>
       <c r="J13">
-        <v>0.17699999999999999</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="K13">
-        <v>8.0000000000000002E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L13">
-        <v>1.2999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="M13">
-        <v>13.912000000000001</v>
+        <v>11.901999999999999</v>
       </c>
       <c r="N13">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1582733812949641E-2</v>
       </c>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.9999999999999993E-3</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+        <v>2.0100000000000016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -33755,35 +33797,35 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.2999999999999997E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="L14">
-        <v>4.4999999999999998E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="M14">
-        <v>221.203</v>
+        <v>56.021000000000001</v>
       </c>
       <c r="N14">
-        <v>4458</v>
+        <v>3973</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>615</v>
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>2.9161058770749215E-2</v>
+        <v>0.15479486534105211</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>-6.9999999999999993E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="R14">
         <f t="shared" si="3"/>
-        <v>43.876999999999981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <v>209.05899999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -33806,38 +33848,38 @@
         <v>157</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="K15">
-        <v>4.1000000000000002E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="L15">
-        <v>0.05</v>
+        <v>3.1E-2</v>
       </c>
       <c r="M15">
-        <v>94.92</v>
+        <v>43.811999999999998</v>
       </c>
       <c r="N15">
-        <v>674</v>
+        <v>618</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.0614886731391592E-2</v>
       </c>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.9000000000000003E-2</v>
       </c>
       <c r="R15">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+        <v>51.108000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -33914,35 +33956,35 @@
         <v>28</v>
       </c>
       <c r="J17">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="L17">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="M17">
-        <v>56.027000000000001</v>
+        <v>52.084000000000003</v>
       </c>
       <c r="N17">
-        <v>1871</v>
+        <v>1847</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
-        <v>2.6723677177979692E-3</v>
+        <v>1.5701136978884679E-2</v>
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
-        <v>9.9999999999999915E-4</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <f t="shared" si="3"/>
-        <v>0.22099999999999653</v>
+        <v>4.1639999999999944</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -33971,32 +34013,32 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="L18">
-        <v>4.2000000000000003E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="M18">
-        <v>14.353</v>
+        <v>14.28</v>
       </c>
       <c r="N18">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
-        <v>1.8975332068311196E-3</v>
+        <v>2.5316455696202532E-3</v>
       </c>
       <c r="Q18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0000000000000009E-3</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>5.1000000000000156E-2</v>
+        <v>0.12400000000000055</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -34022,35 +34064,35 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K19">
-        <v>2.3E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L19">
-        <v>2.5999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="M19">
-        <v>62.2</v>
+        <v>26.684999999999999</v>
       </c>
       <c r="N19">
-        <v>2213</v>
+        <v>2040</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>1.3556258472661546E-3</v>
+        <v>8.6274509803921567E-2</v>
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R19">
         <f t="shared" si="3"/>
-        <v>0.45199999999999818</v>
+        <v>35.966999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -34076,35 +34118,35 @@
         <v>192</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K20">
-        <v>3.2000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="L20">
-        <v>0.04</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M20">
-        <v>24.454999999999998</v>
+        <v>21.431000000000001</v>
       </c>
       <c r="N20">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>2.8503562945368172E-2</v>
+        <v>4.7158403869407499E-2</v>
       </c>
       <c r="Q20">
         <f t="shared" si="2"/>
-        <v>-2.0000000000000018E-3</v>
+        <v>3.9999999999999966E-3</v>
       </c>
       <c r="R20">
         <f t="shared" si="3"/>
-        <v>4.5840000000000032</v>
+        <v>7.6080000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -34238,35 +34280,35 @@
         <v>14</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K23">
-        <v>5.0999999999999997E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="L23">
-        <v>5.8999999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="M23">
-        <v>23.785</v>
+        <v>17.109000000000002</v>
       </c>
       <c r="N23">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>1.4858841010401188E-3</v>
+        <v>5.8084772370486655E-2</v>
       </c>
       <c r="Q23">
         <f t="shared" si="2"/>
-        <v>-1.9999999999999948E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="R23">
         <f t="shared" si="3"/>
-        <v>4.5999999999999375E-2</v>
+        <v>6.7219999999999978</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -34295,32 +34337,32 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="L24">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="M24">
-        <v>24.63</v>
+        <v>21.477</v>
       </c>
       <c r="N24">
-        <v>2168</v>
+        <v>2133</v>
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="P24">
         <f t="shared" si="1"/>
-        <v>0.14667896678966791</v>
+        <v>0.16549460853258322</v>
       </c>
       <c r="Q24">
         <f t="shared" si="2"/>
-        <v>1.8999999999999996E-2</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="R24">
         <f t="shared" si="3"/>
-        <v>31.498999999999999</v>
+        <v>34.652000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -34346,35 +34388,35 @@
         <v>160</v>
       </c>
       <c r="J25">
-        <v>8.9999999999999993E-3</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K25">
-        <v>3.1E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="L25">
-        <v>4.1000000000000002E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="M25">
-        <v>97.986000000000004</v>
+        <v>29.831</v>
       </c>
       <c r="N25">
-        <v>462</v>
+        <v>410</v>
       </c>
       <c r="O25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
-        <v>8.658008658008658E-3</v>
+        <v>0.13658536585365855</v>
       </c>
       <c r="Q25">
         <f t="shared" si="2"/>
-        <v>-1.2E-2</v>
+        <v>1.0000000000000009E-3</v>
       </c>
       <c r="R25">
         <f t="shared" si="3"/>
-        <v>5.9779999999999944</v>
+        <v>74.132999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
@@ -34457,32 +34499,32 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>6.6000000000000003E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="L27">
-        <v>6.9000000000000006E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="M27">
-        <v>35.896000000000001</v>
+        <v>35.003999999999998</v>
       </c>
       <c r="N27">
-        <v>2154</v>
+        <v>2144</v>
       </c>
       <c r="O27">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>5.2924791086350974E-2</v>
+        <v>5.7835820895522388E-2</v>
       </c>
       <c r="Q27">
         <f t="shared" si="2"/>
-        <v>2.6999999999999996E-2</v>
+        <v>2.5000000000000008E-2</v>
       </c>
       <c r="R27">
         <f t="shared" si="3"/>
-        <v>10.591000000000001</v>
+        <v>11.483000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
@@ -34562,27 +34604,27 @@
         <v>11</v>
       </c>
       <c r="J29">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K29">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L29">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M29">
-        <v>27.884</v>
+        <v>22.841000000000001</v>
       </c>
       <c r="N29">
-        <v>3115</v>
+        <v>3060</v>
       </c>
       <c r="O29">
         <f t="shared" si="0"/>
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>0.14349919743178169</v>
+        <v>0.16405228758169935</v>
       </c>
       <c r="Q29">
         <f>D29-L29</f>
@@ -34590,7 +34632,7 @@
       </c>
       <c r="R29">
         <f t="shared" si="3"/>
-        <v>32.805</v>
+        <v>37.847999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
@@ -34670,35 +34712,35 @@
         <v>193</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K31">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="L31">
-        <v>0.11</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="M31">
-        <v>19.895</v>
+        <v>13.486000000000001</v>
       </c>
       <c r="N31">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="O31">
         <f t="shared" ref="O31:O42" si="4">F32-N31</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1941747572815534</v>
       </c>
       <c r="Q31">
-        <f t="shared" ref="Q31:Q44" si="5">D32-L31</f>
-        <v>0</v>
+        <f t="shared" ref="Q31:Q42" si="5">D32-L31</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="R31">
         <f t="shared" ref="R31:R42" si="6">E32-M31</f>
-        <v>0</v>
+        <v>6.4089999999999989</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
@@ -34838,29 +34880,29 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="L34">
-        <v>2.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="M34">
-        <v>13.988</v>
+        <v>13.37</v>
       </c>
       <c r="N34">
-        <v>1927</v>
+        <v>1914</v>
       </c>
       <c r="O34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.7920585161964468E-3</v>
       </c>
       <c r="Q34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.0000000000000009E-3</v>
       </c>
       <c r="R34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.61800000000000033</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -34886,35 +34928,35 @@
         <v>10</v>
       </c>
       <c r="J35">
-        <v>6.0999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K35">
-        <v>0.01</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="L35">
-        <v>1.4E-2</v>
+        <v>0.04</v>
       </c>
       <c r="M35">
-        <v>45.295999999999999</v>
+        <v>36.688000000000002</v>
       </c>
       <c r="N35">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="O35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5881435257410298E-2</v>
       </c>
       <c r="Q35">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2.6000000000000002E-2</v>
       </c>
       <c r="R35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.607999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
@@ -34943,32 +34985,32 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>3.7999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L36">
-        <v>4.2000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M36">
-        <v>17.315000000000001</v>
+        <v>16.640999999999998</v>
       </c>
       <c r="N36">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="O36">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P36">
         <f t="shared" si="1"/>
-        <v>7.1682044002838896E-2</v>
+        <v>7.3968705547652919E-2</v>
       </c>
       <c r="Q36">
         <f t="shared" si="5"/>
-        <v>4.7999999999999994E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="R36">
         <f t="shared" si="6"/>
-        <v>36.551999999999992</v>
+        <v>37.225999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
@@ -34994,35 +35036,35 @@
         <v>15</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K37">
-        <v>1.9E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="L37">
-        <v>2.5000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="M37">
-        <v>20.257000000000001</v>
+        <v>17.803000000000001</v>
       </c>
       <c r="N37">
-        <v>1348</v>
+        <v>1331</v>
       </c>
       <c r="O37">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P37">
         <f t="shared" si="1"/>
-        <v>1.483679525222552E-2</v>
+        <v>2.7798647633358379E-2</v>
       </c>
       <c r="Q37">
         <f t="shared" si="5"/>
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000027E-3</v>
       </c>
       <c r="R37">
         <f t="shared" si="6"/>
-        <v>1.6289999999999978</v>
+        <v>4.0829999999999984</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
@@ -35105,32 +35147,32 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0.04</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="L39">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="M39">
-        <v>11.335000000000001</v>
+        <v>11.081</v>
       </c>
       <c r="N39">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="O39">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P39">
         <f t="shared" si="1"/>
-        <v>1.9083969465648854E-3</v>
+        <v>3.8240917782026767E-3</v>
       </c>
       <c r="Q39">
         <f t="shared" si="5"/>
-        <v>1.0000000000000009E-3</v>
+        <v>2.0000000000000018E-3</v>
       </c>
       <c r="R39">
         <f t="shared" si="6"/>
-        <v>0.13599999999999923</v>
+        <v>0.39000000000000057</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
@@ -35156,35 +35198,35 @@
         <v>8</v>
       </c>
       <c r="J40">
-        <v>1E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="K40">
-        <v>2.1000000000000001E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L40">
-        <v>2.8000000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M40">
-        <v>34.43</v>
+        <v>26.292999999999999</v>
       </c>
       <c r="N40">
-        <v>1170</v>
+        <v>1117</v>
       </c>
       <c r="O40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="P40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.7448522829006266E-2</v>
       </c>
       <c r="Q40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="R40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.1370000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
@@ -35267,32 +35309,32 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>5.3999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="L42">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="M42">
-        <v>15.227</v>
+        <v>13.622</v>
       </c>
       <c r="N42">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="O42">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P42">
         <f t="shared" si="1"/>
-        <v>9.0740740740740747E-2</v>
+        <v>0.10299625468164794</v>
       </c>
       <c r="Q42">
         <f t="shared" si="5"/>
-        <v>2.4E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R42">
         <f t="shared" si="6"/>
-        <v>24.602</v>
+        <v>26.207000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
@@ -35316,19 +35358,19 @@
       </c>
       <c r="L43">
         <f>SUM(L3:L42)+D30</f>
-        <v>1.5250000000000004</v>
+        <v>1.3749999999999998</v>
       </c>
       <c r="O43">
         <f>SUM(O3:O42)</f>
-        <v>2031</v>
+        <v>3441</v>
       </c>
       <c r="Q43">
         <f>SUM(Q3:Q42)</f>
-        <v>0.159</v>
+        <v>0.30900000000000005</v>
       </c>
       <c r="R43">
         <f>SUM(R3:R42)</f>
-        <v>325.84999999999991</v>
+        <v>896.01100000000008</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
@@ -38952,8 +38994,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F43">
-    <sortCondition ref="A2"/>
+  <sortState ref="I3:N42">
+    <sortCondition ref="I2"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
@@ -38987,18 +39029,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="25" max="25" width="12.54296875" customWidth="1"/>
+    <col min="26" max="26" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>144</v>
       </c>
@@ -39060,7 +39103,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -39121,45 +39164,44 @@
       <c r="T2">
         <v>-8.5642271706535794E-2</v>
       </c>
-      <c r="W2" s="78" t="s">
+      <c r="W2" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="X2" s="78"/>
+      <c r="X2" s="79"/>
       <c r="Y2" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" s="78" t="s">
+      <c r="Z2" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA2" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78" t="s">
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="63" t="s">
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="AG2" s="78" t="s">
+      <c r="AH2" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM2" s="78" t="s">
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79"/>
+      <c r="AL2" s="79"/>
+      <c r="AM2" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="63" t="s">
+      <c r="AN2" s="63" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -39230,55 +39272,52 @@
         <v>171</v>
       </c>
       <c r="Z3" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" s="64" t="s">
+      <c r="AB3" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="AB3" s="64" t="s">
+      <c r="AC3" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="AC3" s="64" t="s">
+      <c r="AD3" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="AD3" s="64" t="s">
+      <c r="AE3" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="AE3" s="64" t="s">
+      <c r="AF3" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="AF3" s="64" t="s">
+      <c r="AG3" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="AG3" s="64" t="s">
+      <c r="AH3" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="AH3" s="64" t="s">
+      <c r="AI3" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="AI3" s="64" t="s">
+      <c r="AJ3" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="AJ3" s="64" t="s">
+      <c r="AK3" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="AK3" s="64" t="s">
+      <c r="AL3" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="AL3" s="64" t="s">
-        <v>1</v>
-      </c>
       <c r="AM3" s="64" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AN3" s="64" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO3" s="64" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -39340,7 +39379,7 @@
         <v>5.5942452752326297E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -39402,7 +39441,7 @@
         <v>-7.3686962765428604E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -39464,7 +39503,7 @@
         <v>2.9393003925370101E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -39526,7 +39565,7 @@
         <v>0.13362405085409901</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -39588,7 +39627,7 @@
         <v>0.473067198112951</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -39650,7 +39689,7 @@
         <v>0.107278697146521</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -39712,7 +39751,7 @@
         <v>-0.23302181614993001</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -39774,7 +39813,7 @@
         <v>-0.111524530431619</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -39836,7 +39875,7 @@
         <v>7.5981980401873303E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -39898,7 +39937,7 @@
         <v>-0.233223687346237</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>171</v>
       </c>
@@ -39960,7 +39999,7 @@
         <v>5.1378752191800402E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -40022,7 +40061,7 @@
         <v>0.207532880594967</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -40333,12 +40372,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AH2:AL2"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:T20">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -561,9 +561,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Kn ~ local environment + broad env + resource quality + resource availability + fish pressure + local density + population density</t>
-  </si>
-  <si>
     <t>Local Environment</t>
   </si>
   <si>
@@ -658,6 +655,9 @@
   </si>
   <si>
     <t>Average Lat/Lon by Strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kn ~ local environment + broad env + resource quality + resource availability + local density + population density + fish pressure </t>
   </si>
 </sst>
 </file>
@@ -20710,7 +20710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView topLeftCell="O161" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I161" workbookViewId="0">
       <selection activeCell="P153" sqref="P153"/>
     </sheetView>
   </sheetViews>
@@ -29009,8 +29009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL33"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BH4" sqref="BH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33104,10 +33104,10 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="66"/>
       <c r="D1" s="66"/>
@@ -33116,7 +33116,7 @@
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
       <c r="I1" s="67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J1" s="67"/>
       <c r="K1" s="67"/>
@@ -33126,7 +33126,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -33144,7 +33144,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
@@ -33159,19 +33159,19 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P2" t="s">
         <v>202</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>203</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>204</v>
       </c>
-      <c r="R2" t="s">
-        <v>205</v>
-      </c>
       <c r="T2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -33338,7 +33338,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6">
         <v>1E-3</v>
@@ -33356,7 +33356,7 @@
         <v>902</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J6">
         <v>1E-3</v>
@@ -33444,7 +33444,7 @@
         <v>78.343999999999994</v>
       </c>
       <c r="T7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
@@ -33665,7 +33665,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B12">
         <v>3.0000000000000001E-3</v>
@@ -33683,7 +33683,7 @@
         <v>380</v>
       </c>
       <c r="I12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -33719,7 +33719,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13">
         <v>0.17699999999999999</v>
@@ -33737,7 +33737,7 @@
         <v>426</v>
       </c>
       <c r="I13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J13">
         <v>0.36299999999999999</v>
@@ -34097,7 +34097,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -34115,7 +34115,7 @@
         <v>866</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J20">
         <v>1E-3</v>
@@ -34205,7 +34205,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22">
         <v>2E-3</v>
@@ -34223,7 +34223,7 @@
         <v>299</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J22">
         <v>4.0000000000000001E-3</v>
@@ -34421,7 +34421,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26">
         <v>8.3000000000000004E-2</v>
@@ -34439,7 +34439,7 @@
         <v>201</v>
       </c>
       <c r="I26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J26">
         <v>8.3000000000000004E-2</v>
@@ -34709,7 +34709,7 @@
         <v>523</v>
       </c>
       <c r="I31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J31">
         <v>1.9E-2</v>
@@ -34745,7 +34745,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -35379,18 +35379,18 @@
         <v>1.6840000000000002</v>
       </c>
       <c r="Q44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
@@ -35398,7 +35398,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -35415,7 +35415,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B47">
         <v>3.0000000000000001E-3</v>
@@ -35475,7 +35475,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -35495,7 +35495,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B51">
         <v>7.0000000000000001E-3</v>
@@ -35675,7 +35675,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B60">
         <v>0.04</v>
@@ -36035,7 +36035,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -36135,7 +36135,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -36215,7 +36215,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B87">
         <v>0.46600000000000003</v>
@@ -36260,7 +36260,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91">
         <v>4.1000000000000002E-2</v>
@@ -36320,7 +36320,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -36340,7 +36340,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B95">
         <v>0.115</v>
@@ -36520,7 +36520,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B104">
         <v>2E-3</v>
@@ -36880,7 +36880,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -36980,7 +36980,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B127">
         <v>0.36</v>
@@ -37060,7 +37060,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B131">
         <v>0.184</v>
@@ -37105,7 +37105,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -37165,7 +37165,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B138">
         <v>8.9999999999999993E-3</v>
@@ -37185,7 +37185,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B139">
         <v>0.41399999999999998</v>
@@ -37365,7 +37365,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B148">
         <v>1E-3</v>
@@ -37725,7 +37725,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B166">
         <v>0.61299999999999999</v>
@@ -37825,7 +37825,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B171">
         <v>3.0000000000000001E-3</v>
@@ -37905,7 +37905,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B175">
         <v>0.19800000000000001</v>
@@ -37950,7 +37950,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B179">
         <v>2.4E-2</v>
@@ -38010,7 +38010,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B182">
         <v>0.104</v>
@@ -38030,7 +38030,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B183">
         <v>0.59099999999999997</v>
@@ -38210,7 +38210,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192">
         <v>5.8999999999999997E-2</v>
@@ -38570,7 +38570,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B210">
         <v>2E-3</v>
@@ -38670,7 +38670,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B215">
         <v>4.2000000000000003E-2</v>
@@ -38750,7 +38750,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B219">
         <v>0.33800000000000002</v>
@@ -38770,7 +38770,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -38778,7 +38778,7 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C222" t="s">
         <v>2</v>
@@ -38795,7 +38795,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B223">
         <v>0.13400000000000001</v>
@@ -38855,7 +38855,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -38875,7 +38875,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B227">
         <v>0.42199999999999999</v>
@@ -39031,14 +39031,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView topLeftCell="V1" zoomScale="146" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="25" max="25" width="12.54296875" customWidth="1"/>
-    <col min="26" max="26" width="12.81640625" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
@@ -39100,7 +39116,7 @@
         <v>177</v>
       </c>
       <c r="W1" s="62" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.35">
@@ -39164,41 +39180,41 @@
       <c r="T2">
         <v>-8.5642271706535794E-2</v>
       </c>
-      <c r="W2" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z2" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA2" s="80" t="s">
+      <c r="W2" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="79" t="s">
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" s="79"/>
+      <c r="AD2" s="79" t="s">
+        <v>181</v>
+      </c>
       <c r="AE2" s="79"/>
       <c r="AF2" s="79"/>
-      <c r="AG2" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH2" s="79" t="s">
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL2" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
       <c r="AM2" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN2" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
@@ -39263,55 +39279,55 @@
         <v>6.04172529893826E-3</v>
       </c>
       <c r="W3" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="X3" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y3" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z3" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA3" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB3" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC3" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD3" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE3" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF3" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG3" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH3" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI3" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="X3" s="64" t="s">
+      <c r="AJ3" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="Y3" s="64" t="s">
+      <c r="AK3" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" s="64" t="s">
+      <c r="AL3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB3" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC3" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD3" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE3" s="64" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF3" s="64" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG3" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH3" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI3" s="64" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ3" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK3" s="64" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL3" s="64" t="s">
-        <v>173</v>
-      </c>
       <c r="AM3" s="64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AN3" s="64" t="s">
         <v>177</v>
@@ -40373,10 +40389,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AD2:AH2"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:T20">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="MechanismSummaryTable" sheetId="2" r:id="rId5"/>
     <sheet name="2021 SingleGAMs" sheetId="7" r:id="rId6"/>
     <sheet name="Correlations 2021GAM selection" sheetId="6" r:id="rId7"/>
+    <sheet name="AutoGAMsEPUfullmissingdata" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="212">
   <si>
     <t>Species</t>
   </si>
@@ -658,6 +659,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kn ~ local environment + broad env + resource quality + resource availability + local density + population density + fish pressure </t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1711,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1939,6 +1943,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -20710,7 +20732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I161" workbookViewId="0">
+    <sheetView topLeftCell="I161" workbookViewId="0">
       <selection activeCell="P153" sqref="P153"/>
     </sheetView>
   </sheetViews>
@@ -39031,8 +39053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="146" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView topLeftCell="U1" zoomScale="146" workbookViewId="0">
+      <selection activeCell="AM3" sqref="W1:AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40414,4 +40436,757 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B1" s="62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="82" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="85"/>
+      <c r="P2" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="86" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="82" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="P3" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q3" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="S3" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>211</v>
+      </c>
+      <c r="R4" t="s">
+        <v>211</v>
+      </c>
+      <c r="S4">
+        <v>23.66</v>
+      </c>
+      <c r="T4">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="U4">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" t="s">
+        <v>211</v>
+      </c>
+      <c r="N5" t="s">
+        <v>211</v>
+      </c>
+      <c r="R5" t="s">
+        <v>211</v>
+      </c>
+      <c r="S5">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="T5">
+        <v>0.1578</v>
+      </c>
+      <c r="U5">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" t="s">
+        <v>211</v>
+      </c>
+      <c r="M6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" t="s">
+        <v>211</v>
+      </c>
+      <c r="R6" t="s">
+        <v>211</v>
+      </c>
+      <c r="S6">
+        <v>24.05</v>
+      </c>
+      <c r="T6">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="U6">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" t="s">
+        <v>211</v>
+      </c>
+      <c r="O7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>211</v>
+      </c>
+      <c r="R7" t="s">
+        <v>211</v>
+      </c>
+      <c r="S7">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="T7">
+        <v>0.2122</v>
+      </c>
+      <c r="U7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" t="s">
+        <v>211</v>
+      </c>
+      <c r="O8" t="s">
+        <v>211</v>
+      </c>
+      <c r="R8" t="s">
+        <v>211</v>
+      </c>
+      <c r="S8">
+        <v>46.67</v>
+      </c>
+      <c r="T8">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="U8">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" t="s">
+        <v>211</v>
+      </c>
+      <c r="R9" t="s">
+        <v>211</v>
+      </c>
+      <c r="S9">
+        <v>18.89</v>
+      </c>
+      <c r="T9">
+        <v>0.1711</v>
+      </c>
+      <c r="U9">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" t="s">
+        <v>211</v>
+      </c>
+      <c r="N10" t="s">
+        <v>211</v>
+      </c>
+      <c r="R10" t="s">
+        <v>211</v>
+      </c>
+      <c r="S10">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.1303</v>
+      </c>
+      <c r="U10">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" t="s">
+        <v>211</v>
+      </c>
+      <c r="O11" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>211</v>
+      </c>
+      <c r="R11" t="s">
+        <v>211</v>
+      </c>
+      <c r="S11">
+        <v>20.85</v>
+      </c>
+      <c r="T11">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="U11">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" t="s">
+        <v>211</v>
+      </c>
+      <c r="N12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P12" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>211</v>
+      </c>
+      <c r="R12" t="s">
+        <v>211</v>
+      </c>
+      <c r="S12">
+        <v>33.68</v>
+      </c>
+      <c r="T12">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="U12">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" t="s">
+        <v>211</v>
+      </c>
+      <c r="O13" t="s">
+        <v>211</v>
+      </c>
+      <c r="R13" t="s">
+        <v>211</v>
+      </c>
+      <c r="S13">
+        <v>13.17</v>
+      </c>
+      <c r="T13">
+        <v>0.2238</v>
+      </c>
+      <c r="U13">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" t="s">
+        <v>211</v>
+      </c>
+      <c r="N14" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>211</v>
+      </c>
+      <c r="R14" t="s">
+        <v>211</v>
+      </c>
+      <c r="S14">
+        <v>19.57</v>
+      </c>
+      <c r="T14">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="U14">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" t="s">
+        <v>211</v>
+      </c>
+      <c r="M15" t="s">
+        <v>211</v>
+      </c>
+      <c r="O15" t="s">
+        <v>211</v>
+      </c>
+      <c r="R15" t="s">
+        <v>211</v>
+      </c>
+      <c r="S15">
+        <v>52.53</v>
+      </c>
+      <c r="T15">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="U15">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" t="s">
+        <v>211</v>
+      </c>
+      <c r="M16" t="s">
+        <v>211</v>
+      </c>
+      <c r="O16" t="s">
+        <v>211</v>
+      </c>
+      <c r="P16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S16">
+        <v>31.77</v>
+      </c>
+      <c r="T16">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="U16">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" t="s">
+        <v>211</v>
+      </c>
+      <c r="O17" t="s">
+        <v>211</v>
+      </c>
+      <c r="P17" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>211</v>
+      </c>
+      <c r="R17" t="s">
+        <v>211</v>
+      </c>
+      <c r="S17">
+        <v>13.96</v>
+      </c>
+      <c r="T17">
+        <v>0.1061</v>
+      </c>
+      <c r="U17">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" t="s">
+        <v>211</v>
+      </c>
+      <c r="O18" t="s">
+        <v>211</v>
+      </c>
+      <c r="P18" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>211</v>
+      </c>
+      <c r="R18" t="s">
+        <v>211</v>
+      </c>
+      <c r="S18">
+        <v>22.79</v>
+      </c>
+      <c r="T18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U18">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" t="s">
+        <v>211</v>
+      </c>
+      <c r="N19" t="s">
+        <v>211</v>
+      </c>
+      <c r="R19" t="s">
+        <v>211</v>
+      </c>
+      <c r="S19">
+        <v>63.69</v>
+      </c>
+      <c r="T19">
+        <v>0.1002</v>
+      </c>
+      <c r="U19">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" t="s">
+        <v>211</v>
+      </c>
+      <c r="M20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>211</v>
+      </c>
+      <c r="R20" t="s">
+        <v>211</v>
+      </c>
+      <c r="S20">
+        <v>11.31</v>
+      </c>
+      <c r="T20">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="U20">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s">
+        <v>211</v>
+      </c>
+      <c r="P21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>211</v>
+      </c>
+      <c r="R21" t="s">
+        <v>211</v>
+      </c>
+      <c r="S21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="T21">
+        <v>0.37130000000000002</v>
+      </c>
+      <c r="U21">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="217">
   <si>
     <t>Species</t>
   </si>
@@ -663,6 +663,21 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>Excludes assessment data for unit stocks when strata not assigned to that stock</t>
+  </si>
+  <si>
+    <t>All strata for unit stocks</t>
+  </si>
+  <si>
+    <t>Removed after increased unit stock strata</t>
+  </si>
+  <si>
+    <t>Assessment data has few NAs but not included</t>
+  </si>
+  <si>
+    <t>Added after increased unit stock strata</t>
+  </si>
 </sst>
 </file>
 
@@ -823,7 +838,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,6 +1057,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,7 +1732,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1905,6 +1926,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1944,9 +1980,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1956,11 +1989,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -29055,35 +29096,35 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="71"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="76"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
       <c r="BA2">
@@ -29096,50 +29137,50 @@
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="72" t="s">
+      <c r="G3" s="78"/>
+      <c r="H3" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="72" t="s">
+      <c r="I3" s="79"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="73"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="72" t="s">
+      <c r="T3" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="73"/>
-      <c r="V3" s="72" t="s">
+      <c r="U3" s="78"/>
+      <c r="V3" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="74"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="72" t="s">
+      <c r="W3" s="79"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="73"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="78"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6"/>
       <c r="AE3">
@@ -29153,9 +29194,9 @@
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="76"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="10" t="s">
         <v>112</v>
       </c>
@@ -29190,7 +29231,7 @@
       <c r="R4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="76"/>
+      <c r="S4" s="81"/>
       <c r="T4" s="10" t="s">
         <v>112</v>
       </c>
@@ -39202,30 +39243,30 @@
       <c r="T2">
         <v>-8.5642271706535794E-2</v>
       </c>
-      <c r="W2" s="80" t="s">
+      <c r="W2" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="79" t="s">
+      <c r="X2" s="86"/>
+      <c r="Y2" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
       <c r="AC2" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" s="79" t="s">
+      <c r="AD2" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79" t="s">
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="79"/>
+      <c r="AJ2" s="84"/>
       <c r="AK2" s="63" t="s">
         <v>183</v>
       </c>
@@ -40440,14 +40481,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40463,151 +40500,153 @@
     <col min="15" max="15" width="10.26953125" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="18" max="18" width="11.26953125" customWidth="1"/>
+    <col min="23" max="25" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="92" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="73"/>
+      <c r="S1" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="W1" s="91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B2" s="62" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="82" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B2" s="83" t="s">
+    <row r="3" spans="1:25" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86" t="s">
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I3" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85" t="s">
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="86" t="s">
+      <c r="O3" s="89"/>
+      <c r="P3" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q3" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="R3" s="70" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="82" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="87" t="s">
+    <row r="4" spans="1:25" s="69" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C4" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D4" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E4" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F4" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G4" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="87" t="s">
+      <c r="H4" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I4" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J4" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K4" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L4" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="87" t="s">
+      <c r="M4" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N4" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="87" t="s">
+      <c r="O4" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="87" t="s">
+      <c r="P4" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="Q3" s="87" t="s">
+      <c r="Q4" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="87" t="s">
+      <c r="R4" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="S3" s="82" t="s">
+      <c r="S4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="82" t="s">
+      <c r="T4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="82" t="s">
+      <c r="U4" s="69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="W4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="X4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H4" t="s">
-        <v>211</v>
-      </c>
-      <c r="L4" t="s">
-        <v>211</v>
-      </c>
-      <c r="N4" t="s">
-        <v>211</v>
-      </c>
-      <c r="P4" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>211</v>
-      </c>
-      <c r="R4" t="s">
-        <v>211</v>
-      </c>
-      <c r="S4">
-        <v>23.66</v>
-      </c>
-      <c r="T4">
-        <v>6.7900000000000002E-2</v>
-      </c>
-      <c r="U4">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>211</v>
@@ -40615,28 +40654,37 @@
       <c r="G5" t="s">
         <v>211</v>
       </c>
+      <c r="H5" t="s">
+        <v>211</v>
+      </c>
       <c r="L5" t="s">
         <v>211</v>
       </c>
       <c r="N5" t="s">
         <v>211</v>
       </c>
+      <c r="P5" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>211</v>
+      </c>
       <c r="R5" t="s">
         <v>211</v>
       </c>
       <c r="S5">
-        <v>19.489999999999998</v>
+        <v>23.66</v>
       </c>
       <c r="T5">
-        <v>0.1578</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="U5">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>211</v>
@@ -40644,95 +40692,96 @@
       <c r="G6" t="s">
         <v>211</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>211</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>211</v>
       </c>
+      <c r="Q6" s="66"/>
       <c r="R6" t="s">
         <v>211</v>
       </c>
       <c r="S6">
-        <v>24.05</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="T6">
-        <v>0.17219999999999999</v>
+        <v>0.1578</v>
       </c>
       <c r="U6">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>211</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>211</v>
       </c>
-      <c r="H7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>211</v>
       </c>
       <c r="O7" t="s">
         <v>211</v>
       </c>
-      <c r="P7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>211</v>
-      </c>
       <c r="R7" t="s">
         <v>211</v>
       </c>
       <c r="S7">
-        <v>8.4600000000000009</v>
+        <v>24.05</v>
       </c>
       <c r="T7">
-        <v>0.2122</v>
+        <v>0.17219999999999999</v>
       </c>
       <c r="U7">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>211</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>211</v>
       </c>
-      <c r="L8" t="s">
+      <c r="H8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" t="s">
         <v>211</v>
       </c>
       <c r="O8" t="s">
         <v>211</v>
       </c>
+      <c r="P8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>211</v>
+      </c>
       <c r="R8" t="s">
         <v>211</v>
       </c>
       <c r="S8">
-        <v>46.67</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="T8">
-        <v>0.14990000000000001</v>
+        <v>0.2122</v>
       </c>
       <c r="U8">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>211</v>
@@ -40740,95 +40789,118 @@
       <c r="D9" t="s">
         <v>211</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
         <v>211</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="93" t="s">
         <v>211</v>
       </c>
+      <c r="O9" s="61"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
       <c r="R9" t="s">
         <v>211</v>
       </c>
       <c r="S9">
-        <v>18.89</v>
+        <v>46.67</v>
       </c>
       <c r="T9">
-        <v>0.1711</v>
+        <v>0.14990000000000001</v>
       </c>
       <c r="U9">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1082</v>
+      </c>
+      <c r="W9">
+        <v>48.83</v>
+      </c>
+      <c r="X9">
+        <v>0.12720000000000001</v>
+      </c>
+      <c r="Y9">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>211</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D10" s="61"/>
+      <c r="E10" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="M10" t="s">
+      <c r="H10" s="93" t="s">
         <v>211</v>
       </c>
+      <c r="I10" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="61"/>
       <c r="N10" t="s">
         <v>211</v>
       </c>
+      <c r="P10" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q10" s="93" t="s">
+        <v>211</v>
+      </c>
       <c r="R10" t="s">
         <v>211</v>
       </c>
       <c r="S10">
-        <v>16.059999999999999</v>
+        <v>18.89</v>
       </c>
       <c r="T10">
-        <v>0.1303</v>
+        <v>0.1711</v>
       </c>
       <c r="U10">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+        <v>628</v>
+      </c>
+      <c r="W10">
+        <v>18.77</v>
+      </c>
+      <c r="X10">
+        <v>0.1855</v>
+      </c>
+      <c r="Y10">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>211</v>
       </c>
-      <c r="D11" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>211</v>
       </c>
       <c r="M11" t="s">
         <v>211</v>
       </c>
-      <c r="O11" t="s">
-        <v>211</v>
-      </c>
-      <c r="P11" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="N11" t="s">
         <v>211</v>
       </c>
       <c r="R11" t="s">
         <v>211</v>
       </c>
       <c r="S11">
-        <v>20.85</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="T11">
-        <v>0.32519999999999999</v>
+        <v>0.1303</v>
       </c>
       <c r="U11">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>211</v>
@@ -40839,10 +40911,10 @@
       <c r="H12" t="s">
         <v>211</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>211</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>211</v>
       </c>
       <c r="P12" t="s">
@@ -40855,18 +40927,18 @@
         <v>211</v>
       </c>
       <c r="S12">
-        <v>33.68</v>
+        <v>20.85</v>
       </c>
       <c r="T12">
-        <v>0.11020000000000001</v>
+        <v>0.32519999999999999</v>
       </c>
       <c r="U12">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>211</v>
@@ -40874,103 +40946,109 @@
       <c r="D13" t="s">
         <v>211</v>
       </c>
+      <c r="H13" t="s">
+        <v>211</v>
+      </c>
       <c r="I13" t="s">
         <v>211</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
+        <v>211</v>
+      </c>
+      <c r="P13" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q13" t="s">
         <v>211</v>
       </c>
       <c r="R13" t="s">
         <v>211</v>
       </c>
       <c r="S13">
-        <v>13.17</v>
+        <v>33.68</v>
       </c>
       <c r="T13">
-        <v>0.2238</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="U13">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>211</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14" t="s">
         <v>211</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>211</v>
       </c>
-      <c r="J14" t="s">
-        <v>211</v>
-      </c>
-      <c r="N14" t="s">
-        <v>211</v>
-      </c>
-      <c r="P14" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="O14" t="s">
         <v>211</v>
       </c>
       <c r="R14" t="s">
         <v>211</v>
       </c>
       <c r="S14">
-        <v>19.57</v>
+        <v>13.17</v>
       </c>
       <c r="T14">
-        <v>0.23630000000000001</v>
+        <v>0.2238</v>
       </c>
       <c r="U14">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>211</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>211</v>
       </c>
-      <c r="M15" t="s">
+      <c r="H15" t="s">
         <v>211</v>
       </c>
-      <c r="O15" t="s">
+      <c r="J15" t="s">
+        <v>211</v>
+      </c>
+      <c r="N15" t="s">
+        <v>211</v>
+      </c>
+      <c r="P15" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q15" t="s">
         <v>211</v>
       </c>
       <c r="R15" t="s">
         <v>211</v>
       </c>
       <c r="S15">
-        <v>52.53</v>
+        <v>19.57</v>
       </c>
       <c r="T15">
-        <v>4.9299999999999997E-2</v>
+        <v>0.23630000000000001</v>
       </c>
       <c r="U15">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>211</v>
       </c>
-      <c r="D16" t="s">
-        <v>211</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="E16" t="s">
         <v>211</v>
       </c>
       <c r="M16" t="s">
@@ -40979,33 +41057,27 @@
       <c r="O16" t="s">
         <v>211</v>
       </c>
-      <c r="P16" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>211</v>
-      </c>
       <c r="R16" t="s">
         <v>211</v>
       </c>
       <c r="S16">
-        <v>31.77</v>
+        <v>52.53</v>
       </c>
       <c r="T16">
-        <v>0.18279999999999999</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="U16">
-        <v>231</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>211</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17" t="s">
         <v>211</v>
       </c>
       <c r="H17" t="s">
@@ -41027,29 +41099,29 @@
         <v>211</v>
       </c>
       <c r="S17">
-        <v>13.96</v>
+        <v>31.77</v>
       </c>
       <c r="T17">
-        <v>0.1061</v>
+        <v>0.2361</v>
       </c>
       <c r="U17">
-        <v>343</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>211</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" t="s">
         <v>211</v>
       </c>
       <c r="H18" t="s">
         <v>211</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>211</v>
       </c>
       <c r="O18" t="s">
@@ -41065,47 +41137,56 @@
         <v>211</v>
       </c>
       <c r="S18">
-        <v>22.79</v>
+        <v>13.96</v>
       </c>
       <c r="T18">
-        <v>0.28999999999999998</v>
+        <v>0.1061</v>
       </c>
       <c r="U18">
-        <v>320</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>211</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>211</v>
       </c>
-      <c r="J19" t="s">
+      <c r="H19" t="s">
         <v>211</v>
       </c>
-      <c r="N19" t="s">
+      <c r="L19" t="s">
+        <v>211</v>
+      </c>
+      <c r="O19" t="s">
+        <v>211</v>
+      </c>
+      <c r="P19" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q19" t="s">
         <v>211</v>
       </c>
       <c r="R19" t="s">
         <v>211</v>
       </c>
       <c r="S19">
-        <v>63.69</v>
+        <v>22.79</v>
       </c>
       <c r="T19">
-        <v>0.1002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U19">
-        <v>283</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>211</v>
@@ -41113,48 +41194,39 @@
       <c r="E20" t="s">
         <v>211</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>211</v>
       </c>
-      <c r="M20" t="s">
-        <v>211</v>
-      </c>
-      <c r="O20" t="s">
-        <v>211</v>
-      </c>
-      <c r="P20" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="N20" t="s">
         <v>211</v>
       </c>
       <c r="R20" t="s">
         <v>211</v>
       </c>
       <c r="S20">
-        <v>11.31</v>
+        <v>63.69</v>
       </c>
       <c r="T20">
-        <v>0.11219999999999999</v>
+        <v>0.1002</v>
       </c>
       <c r="U20">
-        <v>646</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>211</v>
       </c>
-      <c r="G21" t="s">
+      <c r="E21" t="s">
         <v>211</v>
       </c>
       <c r="H21" t="s">
         <v>211</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
         <v>211</v>
       </c>
       <c r="O21" t="s">
@@ -41170,21 +41242,795 @@
         <v>211</v>
       </c>
       <c r="S21">
+        <v>11.31</v>
+      </c>
+      <c r="T21">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="U21">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" t="s">
+        <v>211</v>
+      </c>
+      <c r="P22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>211</v>
+      </c>
+      <c r="R22" t="s">
+        <v>211</v>
+      </c>
+      <c r="S22">
         <v>10.199999999999999</v>
       </c>
-      <c r="T21">
+      <c r="T22">
         <v>0.37130000000000002</v>
       </c>
-      <c r="U21">
+      <c r="U22">
         <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" t="s">
+        <v>211</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>211</v>
+      </c>
+      <c r="R23" t="s">
+        <v>211</v>
+      </c>
+      <c r="S23">
+        <v>14.93</v>
+      </c>
+      <c r="T23">
+        <v>0.1002</v>
+      </c>
+      <c r="U23">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="R24" t="s">
+        <v>211</v>
+      </c>
+      <c r="S24">
+        <v>23.49</v>
+      </c>
+      <c r="T24">
+        <v>0.1487</v>
+      </c>
+      <c r="U24">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25" t="s">
+        <v>211</v>
+      </c>
+      <c r="P25" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>211</v>
+      </c>
+      <c r="R25" t="s">
+        <v>211</v>
+      </c>
+      <c r="S25">
+        <v>17.02</v>
+      </c>
+      <c r="T25">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="U25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" t="s">
+        <v>211</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>211</v>
+      </c>
+      <c r="P26" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>211</v>
+      </c>
+      <c r="R26" t="s">
+        <v>211</v>
+      </c>
+      <c r="S26">
+        <v>10.1</v>
+      </c>
+      <c r="T26">
+        <v>0.3599</v>
+      </c>
+      <c r="U26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="s">
+        <v>211</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="P27" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>211</v>
+      </c>
+      <c r="R27" t="s">
+        <v>211</v>
+      </c>
+      <c r="S27">
+        <v>22.76</v>
+      </c>
+      <c r="T27">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="U27">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" t="s">
+        <v>211</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
+      <c r="P28" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>211</v>
+      </c>
+      <c r="R28" t="s">
+        <v>211</v>
+      </c>
+      <c r="S28">
+        <v>30.57</v>
+      </c>
+      <c r="T28">
+        <v>0.26269999999999999</v>
+      </c>
+      <c r="U28">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" t="s">
+        <v>211</v>
+      </c>
+      <c r="I29" t="s">
+        <v>211</v>
+      </c>
+      <c r="N29" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>211</v>
+      </c>
+      <c r="R29" t="s">
+        <v>211</v>
+      </c>
+      <c r="S29">
+        <v>19.22</v>
+      </c>
+      <c r="T29">
+        <v>0.3029</v>
+      </c>
+      <c r="U29">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H30" t="s">
+        <v>211</v>
+      </c>
+      <c r="M30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O30" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>211</v>
+      </c>
+      <c r="R30" t="s">
+        <v>211</v>
+      </c>
+      <c r="S30">
+        <v>11.61</v>
+      </c>
+      <c r="T30">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="U30">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31" t="s">
+        <v>211</v>
+      </c>
+      <c r="N31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P31" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>211</v>
+      </c>
+      <c r="R31" t="s">
+        <v>211</v>
+      </c>
+      <c r="S31">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="T31">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="U31">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" t="s">
+        <v>211</v>
+      </c>
+      <c r="M32" t="s">
+        <v>211</v>
+      </c>
+      <c r="O32" t="s">
+        <v>211</v>
+      </c>
+      <c r="P32" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>211</v>
+      </c>
+      <c r="R32" t="s">
+        <v>211</v>
+      </c>
+      <c r="S32">
+        <v>14.08</v>
+      </c>
+      <c r="T32">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="U32">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="F33" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" t="s">
+        <v>211</v>
+      </c>
+      <c r="O33" t="s">
+        <v>211</v>
+      </c>
+      <c r="P33" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q33" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="R33" t="s">
+        <v>211</v>
+      </c>
+      <c r="S33">
+        <v>27.43</v>
+      </c>
+      <c r="T33">
+        <v>0.1033</v>
+      </c>
+      <c r="U33">
+        <v>477</v>
+      </c>
+      <c r="W33">
+        <v>27.26</v>
+      </c>
+      <c r="X33">
+        <v>10.7</v>
+      </c>
+      <c r="Y33">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E34" t="s">
+        <v>211</v>
+      </c>
+      <c r="I34" t="s">
+        <v>211</v>
+      </c>
+      <c r="N34" t="s">
+        <v>211</v>
+      </c>
+      <c r="R34" t="s">
+        <v>211</v>
+      </c>
+      <c r="S34">
+        <v>11.52</v>
+      </c>
+      <c r="T34">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="U34">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" t="s">
+        <v>211</v>
+      </c>
+      <c r="N35" t="s">
+        <v>211</v>
+      </c>
+      <c r="R35" t="s">
+        <v>211</v>
+      </c>
+      <c r="S35">
+        <v>8.57</v>
+      </c>
+      <c r="T35">
+        <v>0.2122</v>
+      </c>
+      <c r="U35">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" t="s">
+        <v>211</v>
+      </c>
+      <c r="M36" t="s">
+        <v>211</v>
+      </c>
+      <c r="O36" t="s">
+        <v>211</v>
+      </c>
+      <c r="P36" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>211</v>
+      </c>
+      <c r="R36" t="s">
+        <v>211</v>
+      </c>
+      <c r="S36">
+        <v>26.52</v>
+      </c>
+      <c r="T36">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="U36">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" t="s">
+        <v>211</v>
+      </c>
+      <c r="I37" t="s">
+        <v>211</v>
+      </c>
+      <c r="O37" t="s">
+        <v>211</v>
+      </c>
+      <c r="P37" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>211</v>
+      </c>
+      <c r="R37" t="s">
+        <v>211</v>
+      </c>
+      <c r="S37">
+        <v>39.68</v>
+      </c>
+      <c r="T37">
+        <v>0.1246</v>
+      </c>
+      <c r="U37">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" t="s">
+        <v>211</v>
+      </c>
+      <c r="I38" t="s">
+        <v>211</v>
+      </c>
+      <c r="O38" t="s">
+        <v>211</v>
+      </c>
+      <c r="P38" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>211</v>
+      </c>
+      <c r="R38" t="s">
+        <v>211</v>
+      </c>
+      <c r="S38">
+        <v>22.22</v>
+      </c>
+      <c r="T38">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="U38">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" t="s">
+        <v>211</v>
+      </c>
+      <c r="I39" t="s">
+        <v>211</v>
+      </c>
+      <c r="O39" t="s">
+        <v>211</v>
+      </c>
+      <c r="P39" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>211</v>
+      </c>
+      <c r="R39" t="s">
+        <v>211</v>
+      </c>
+      <c r="S39">
+        <v>26.34</v>
+      </c>
+      <c r="T39">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="U39">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" t="s">
+        <v>211</v>
+      </c>
+      <c r="M40" t="s">
+        <v>211</v>
+      </c>
+      <c r="O40" t="s">
+        <v>211</v>
+      </c>
+      <c r="R40" t="s">
+        <v>211</v>
+      </c>
+      <c r="S40">
+        <v>20.14</v>
+      </c>
+      <c r="T40">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="U40">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>211</v>
+      </c>
+      <c r="M41" t="s">
+        <v>211</v>
+      </c>
+      <c r="O41" t="s">
+        <v>211</v>
+      </c>
+      <c r="R41" t="s">
+        <v>211</v>
+      </c>
+      <c r="S41">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="T41">
+        <v>0.187</v>
+      </c>
+      <c r="U41">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" t="s">
+        <v>211</v>
+      </c>
+      <c r="L42" t="s">
+        <v>211</v>
+      </c>
+      <c r="O42" t="s">
+        <v>211</v>
+      </c>
+      <c r="R42" t="s">
+        <v>211</v>
+      </c>
+      <c r="S42">
+        <v>12.46</v>
+      </c>
+      <c r="T42">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="U42">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
+        <v>211</v>
+      </c>
+      <c r="J43" t="s">
+        <v>211</v>
+      </c>
+      <c r="N43" t="s">
+        <v>211</v>
+      </c>
+      <c r="R43" t="s">
+        <v>211</v>
+      </c>
+      <c r="S43">
+        <v>33.28</v>
+      </c>
+      <c r="T43">
+        <v>0.2903</v>
+      </c>
+      <c r="U43">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="217">
   <si>
     <t>Species</t>
   </si>
@@ -1732,7 +1732,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1941,6 +1941,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1989,20 +2003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -29096,35 +29097,35 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="76"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="82"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
       <c r="BA2">
@@ -29137,50 +29138,50 @@
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="77" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="77" t="s">
+      <c r="I3" s="85"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="78"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="84"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="80" t="s">
+      <c r="S3" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="77" t="s">
+      <c r="T3" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="78"/>
-      <c r="V3" s="77" t="s">
+      <c r="U3" s="84"/>
+      <c r="V3" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="79"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="77" t="s">
+      <c r="W3" s="85"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="78"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="84"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6"/>
       <c r="AE3">
@@ -29194,9 +29195,9 @@
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="81"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="10" t="s">
         <v>112</v>
       </c>
@@ -29231,7 +29232,7 @@
       <c r="R4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="81"/>
+      <c r="S4" s="87"/>
       <c r="T4" s="10" t="s">
         <v>112</v>
       </c>
@@ -39243,30 +39244,30 @@
       <c r="T2">
         <v>-8.5642271706535794E-2</v>
       </c>
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="84" t="s">
+      <c r="X2" s="92"/>
+      <c r="Y2" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
       <c r="AC2" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" s="84" t="s">
+      <c r="AD2" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84" t="s">
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="84"/>
+      <c r="AJ2" s="90"/>
       <c r="AK2" s="63" t="s">
         <v>183</v>
       </c>
@@ -40483,8 +40484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O3" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40504,13 +40505,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="78" t="s">
         <v>216</v>
       </c>
       <c r="C1" s="72"/>
       <c r="D1" s="73"/>
       <c r="E1" s="73"/>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="79" t="s">
         <v>214</v>
       </c>
       <c r="G1" s="73"/>
@@ -40522,14 +40523,14 @@
       <c r="M1" s="73"/>
       <c r="N1" s="73"/>
       <c r="O1" s="73"/>
-      <c r="P1" s="92" t="s">
+      <c r="P1" s="76" t="s">
         <v>215</v>
       </c>
       <c r="R1" s="73"/>
-      <c r="S1" s="90" t="s">
+      <c r="S1" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="W1" s="91" t="s">
+      <c r="W1" s="75" t="s">
         <v>213</v>
       </c>
     </row>
@@ -40539,30 +40540,30 @@
       </c>
     </row>
     <row r="3" spans="1:25" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="89" t="s">
+      <c r="I3" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89" t="s">
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="89"/>
+      <c r="O3" s="95"/>
       <c r="P3" s="70" t="s">
         <v>183</v>
       </c>
@@ -40651,16 +40652,19 @@
       <c r="B5" t="s">
         <v>211</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="G5" s="61"/>
       <c r="H5" t="s">
         <v>211</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="61"/>
+      <c r="M5" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="61"/>
+      <c r="O5" s="77" t="s">
         <v>211</v>
       </c>
       <c r="P5" t="s">
@@ -40680,6 +40684,15 @@
       </c>
       <c r="U5">
         <v>722</v>
+      </c>
+      <c r="W5">
+        <v>24.324999999999999</v>
+      </c>
+      <c r="X5">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="Y5">
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
@@ -40792,7 +40805,7 @@
       <c r="L9" t="s">
         <v>211</v>
       </c>
-      <c r="N9" s="93" t="s">
+      <c r="N9" s="77" t="s">
         <v>211</v>
       </c>
       <c r="O9" s="61"/>
@@ -40828,23 +40841,23 @@
         <v>211</v>
       </c>
       <c r="D10" s="61"/>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="93" t="s">
+      <c r="H10" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="I10" s="93" t="s">
+      <c r="I10" s="77" t="s">
         <v>211</v>
       </c>
       <c r="M10" s="61"/>
       <c r="N10" t="s">
         <v>211</v>
       </c>
-      <c r="P10" s="93" t="s">
+      <c r="P10" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="Q10" s="93" t="s">
+      <c r="Q10" s="77" t="s">
         <v>211</v>
       </c>
       <c r="R10" t="s">
@@ -40952,7 +40965,8 @@
       <c r="I13" t="s">
         <v>211</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="61"/>
+      <c r="O13" s="77" t="s">
         <v>211</v>
       </c>
       <c r="P13" t="s">
@@ -40972,6 +40986,15 @@
       </c>
       <c r="U13">
         <v>778</v>
+      </c>
+      <c r="W13">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="X13">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>799</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
@@ -41070,7 +41093,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -41107,8 +41130,17 @@
       <c r="U17">
         <v>231</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W17">
+        <v>33.69</v>
+      </c>
+      <c r="X17">
+        <v>0.2351</v>
+      </c>
+      <c r="Y17">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -41145,8 +41177,17 @@
       <c r="U18">
         <v>343</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W18">
+        <v>14.15</v>
+      </c>
+      <c r="X18">
+        <v>0.13669999999999999</v>
+      </c>
+      <c r="Y18">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -41159,7 +41200,8 @@
       <c r="H19" t="s">
         <v>211</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="61"/>
+      <c r="M19" s="77" t="s">
         <v>211</v>
       </c>
       <c r="O19" t="s">
@@ -41184,7 +41226,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -41213,25 +41255,28 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>211</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="61"/>
+      <c r="F21" s="77" t="s">
         <v>211</v>
       </c>
       <c r="H21" t="s">
         <v>211</v>
       </c>
-      <c r="M21" t="s">
+      <c r="I21" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="O21" t="s">
+      <c r="M21" s="61"/>
+      <c r="N21" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="O21" s="61"/>
       <c r="P21" t="s">
         <v>211</v>
       </c>
@@ -41250,8 +41295,17 @@
       <c r="U21">
         <v>646</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W21">
+        <v>12.422000000000001</v>
+      </c>
+      <c r="X21">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="Y21">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -41289,7 +41343,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -41318,7 +41372,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -41347,16 +41401,17 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>211</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E25" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="G25" s="61"/>
       <c r="H25" t="s">
         <v>211</v>
       </c>
@@ -41384,21 +41439,32 @@
       <c r="U25">
         <v>204</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W25">
+        <v>20.657</v>
+      </c>
+      <c r="X25">
+        <v>0.27250000000000002</v>
+      </c>
+      <c r="Y25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>211</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="F26" s="61"/>
       <c r="H26" t="s">
         <v>211</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="61"/>
+      <c r="J26" s="77" t="s">
         <v>211</v>
       </c>
       <c r="O26" t="s">
@@ -41422,8 +41488,17 @@
       <c r="U26">
         <v>220</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W26">
+        <v>14.15</v>
+      </c>
+      <c r="X26">
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="Y26">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -41436,9 +41511,10 @@
       <c r="H27" t="s">
         <v>211</v>
       </c>
-      <c r="M27" t="s">
+      <c r="J27" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="M27" s="61"/>
       <c r="N27" t="s">
         <v>211</v>
       </c>
@@ -41460,21 +41536,32 @@
       <c r="U27">
         <v>174</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W27">
+        <v>20.295200000000001</v>
+      </c>
+      <c r="X27">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="Y27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>211</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="G28" s="61"/>
       <c r="H28" t="s">
         <v>211</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="96"/>
+      <c r="M28" s="77" t="s">
         <v>211</v>
       </c>
       <c r="N28" t="s">
@@ -41498,21 +41585,32 @@
       <c r="U28">
         <v>165</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W28">
+        <v>30.59</v>
+      </c>
+      <c r="X28">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="Y28">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>211</v>
       </c>
-      <c r="F29" t="s">
+      <c r="D29" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="F29" s="61"/>
       <c r="H29" t="s">
         <v>211</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="61"/>
+      <c r="M29" s="77" t="s">
         <v>211</v>
       </c>
       <c r="N29" t="s">
@@ -41536,23 +41634,34 @@
       <c r="U29">
         <v>324</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W29">
+        <v>20.582799999999999</v>
+      </c>
+      <c r="X29">
+        <v>0.26569999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>211</v>
       </c>
-      <c r="F30" t="s">
+      <c r="D30" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="F30" s="61"/>
       <c r="H30" t="s">
         <v>211</v>
       </c>
-      <c r="M30" t="s">
+      <c r="J30" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="M30" s="96"/>
       <c r="O30" t="s">
         <v>211</v>
       </c>
@@ -41574,8 +41683,17 @@
       <c r="U30">
         <v>233</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W30">
+        <v>12.86</v>
+      </c>
+      <c r="X30">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="Y30">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -41612,8 +41730,17 @@
       <c r="U31">
         <v>140</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="W31">
+        <v>19.125900000000001</v>
+      </c>
+      <c r="X31">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="Y31">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -41626,9 +41753,10 @@
       <c r="H32" t="s">
         <v>211</v>
       </c>
-      <c r="M32" t="s">
+      <c r="L32" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="M32" s="61"/>
       <c r="O32" t="s">
         <v>211</v>
       </c>
@@ -41649,6 +41777,15 @@
       </c>
       <c r="U32">
         <v>318</v>
+      </c>
+      <c r="W32">
+        <v>14.58</v>
+      </c>
+      <c r="X32">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="Y32">
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
@@ -41659,7 +41796,7 @@
         <v>211</v>
       </c>
       <c r="D33" s="61"/>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="77" t="s">
         <v>211</v>
       </c>
       <c r="H33" t="s">
@@ -41671,10 +41808,10 @@
       <c r="O33" t="s">
         <v>211</v>
       </c>
-      <c r="P33" s="93" t="s">
+      <c r="P33" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="Q33" s="93" t="s">
+      <c r="Q33" s="77" t="s">
         <v>211</v>
       </c>
       <c r="R33" t="s">
@@ -41693,7 +41830,7 @@
         <v>27.26</v>
       </c>
       <c r="X33">
-        <v>10.7</v>
+        <v>0.107</v>
       </c>
       <c r="Y33">
         <v>477</v>
@@ -41794,6 +41931,15 @@
       <c r="U36">
         <v>159</v>
       </c>
+      <c r="W36">
+        <v>28.13</v>
+      </c>
+      <c r="X36">
+        <v>0.36980000000000002</v>
+      </c>
+      <c r="Y36">
+        <v>162</v>
+      </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
@@ -41802,15 +41948,15 @@
       <c r="B37" t="s">
         <v>211</v>
       </c>
-      <c r="G37" t="s">
+      <c r="D37" s="77" t="s">
         <v>211</v>
       </c>
+      <c r="G37" s="61"/>
       <c r="H37" t="s">
         <v>211</v>
       </c>
-      <c r="I37" t="s">
-        <v>211</v>
-      </c>
+      <c r="I37" s="61"/>
+      <c r="J37" s="77"/>
       <c r="O37" t="s">
         <v>211</v>
       </c>
@@ -41831,6 +41977,15 @@
       </c>
       <c r="U37">
         <v>250</v>
+      </c>
+      <c r="W37">
+        <v>41.597000000000001</v>
+      </c>
+      <c r="X37">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="Y37">
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
@@ -41840,13 +41995,15 @@
       <c r="B38" t="s">
         <v>211</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="61"/>
+      <c r="G38" s="77" t="s">
         <v>211</v>
       </c>
       <c r="H38" t="s">
         <v>211</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="61"/>
+      <c r="L38" s="77" t="s">
         <v>211</v>
       </c>
       <c r="O38" t="s">
@@ -41869,6 +42026,15 @@
       </c>
       <c r="U38">
         <v>263</v>
+      </c>
+      <c r="W38">
+        <v>22.66</v>
+      </c>
+      <c r="X38">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="Y38">
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
@@ -41907,6 +42073,15 @@
       </c>
       <c r="U39">
         <v>137</v>
+      </c>
+      <c r="W39">
+        <v>26.353999999999999</v>
+      </c>
+      <c r="X39">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="Y39">
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="224">
   <si>
     <t>Species</t>
   </si>
@@ -677,6 +677,27 @@
   </si>
   <si>
     <t>Added after increased unit stock strata</t>
+  </si>
+  <si>
+    <t>Full strata for single stock species</t>
+  </si>
+  <si>
+    <t>GCV increased</t>
+  </si>
+  <si>
+    <t>Deviance Explained Increased</t>
+  </si>
+  <si>
+    <t>Updated StockSMART data</t>
+  </si>
+  <si>
+    <t>Stock areas expanded beyond EPUs</t>
+  </si>
+  <si>
+    <t>All data used from selected indices for GAMs</t>
+  </si>
+  <si>
+    <t>Updated plankton indices</t>
   </si>
 </sst>
 </file>
@@ -1955,6 +1976,7 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2003,7 +2025,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2049,7 +2070,51 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="131">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -16016,44 +16081,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D118 D120:D1048576">
-    <cfRule type="cellIs" dxfId="125" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="130" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B118 B120:B1048576">
-    <cfRule type="cellIs" dxfId="124" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="122" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I85 I119:I1048576 I87:I117">
-    <cfRule type="cellIs" dxfId="121" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="5" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="119" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="3" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="117" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18639,145 +18704,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 E2:E17 C19:C26 E19:E26 C28 C30:C119 E28 E30 AC26:AC31 AC2:AC7 AA2:AA7 AC9 AA9 AC11:AC18 AA11:AA18 AC20:AC21 AC24 AA20:AA21 AA24:AA31">
-    <cfRule type="cellIs" dxfId="115" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="120" priority="42" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 D2:D17 B19:B26 D19:D26 B28 B30:B119 D28 D30 AB26:AB31 AB2:AB7 Z2:Z7 AB9 Z9 AB11:AB18 Z11:Z18 AB20:AB21 AB24 Z20:Z21 Z24:Z31">
-    <cfRule type="cellIs" dxfId="114" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="40" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="41" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="112" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="117" priority="36" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="111" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="34" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="35" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="109" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="114" priority="33" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="108" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="31" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="32" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31">
-    <cfRule type="cellIs" dxfId="106" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="30" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J31">
-    <cfRule type="cellIs" dxfId="105" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="28" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="29" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31">
-    <cfRule type="cellIs" dxfId="103" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="108" priority="27" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L31">
-    <cfRule type="cellIs" dxfId="102" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="25" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="26" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="100" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="105" priority="24" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="99" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="22" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="23" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q31">
-    <cfRule type="cellIs" dxfId="97" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="102" priority="21" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P31">
-    <cfRule type="cellIs" dxfId="96" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S31">
-    <cfRule type="cellIs" dxfId="94" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="99" priority="18" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R31">
-    <cfRule type="cellIs" dxfId="93" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="16" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="17" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U31">
-    <cfRule type="cellIs" dxfId="91" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="96" priority="15" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T31">
-    <cfRule type="cellIs" dxfId="90" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="13" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="14" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W31">
-    <cfRule type="cellIs" dxfId="88" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="93" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V31">
-    <cfRule type="cellIs" dxfId="87" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y31">
-    <cfRule type="cellIs" dxfId="85" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="90" priority="9" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X31">
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="7" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20600,168 +20665,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W26:W31 W2:W7 U2:U7 W9 U9 W11:W18 U11:U18 W20:W21 W24 U20:U21 U24:U31">
-    <cfRule type="cellIs" dxfId="82" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="50" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 B19:B26 B30 B28 D30 V26:V31 V2:V7 T2:T7 V9 T9 V11:V18 T11:T18 V20:V21 V24 T20:T21 T24:T31 D28 D19:D26 D2:D17 B38:B119">
-    <cfRule type="cellIs" dxfId="81" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="48" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="49" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="79" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="45" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="46" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="77" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="42" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="43" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J5 J10 J14 J17:J18 J21:J22 J24:J25 J27:J29">
-    <cfRule type="cellIs" dxfId="75" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="39" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="40" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31 L5 L10 L14 L17:L18 L21:L22 L27:L29 L24:L25">
-    <cfRule type="cellIs" dxfId="73" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="78" priority="38" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L4 L6:L9 L11:L13 L15:L16 L19:L20 L23 L30:L31 L26">
-    <cfRule type="cellIs" dxfId="72" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="36" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="37" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="70" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="75" priority="35" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="69" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="33" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="34" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q16 Q30:Q31 Q18:Q26 P4:P9 P11 P13:P15 P19:P21 P24 P30">
-    <cfRule type="cellIs" dxfId="67" priority="29" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="72" priority="29" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P3 P31 P18 P10 P12 P16 P22:P23 P25:P26">
-    <cfRule type="cellIs" dxfId="66" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="27" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="28" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S15">
-    <cfRule type="cellIs" dxfId="64" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="17" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="63" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4 S16:S31 S6:S13 R10 R12 R16:R18 R22:R23 R25:R29 R31 R3">
-    <cfRule type="cellIs" dxfId="61" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 R19:R21 R6:R9 R11 R13 R24 R30 R4">
-    <cfRule type="cellIs" dxfId="60" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q29">
-    <cfRule type="cellIs" dxfId="58" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="14" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P29">
-    <cfRule type="cellIs" dxfId="57" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="11" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="52" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 C19:C26 C28 C30:C119 B31:B37">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17 E19:E26 E28 E30">
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 J3:J4 J6:J9 J11:J13 J15:J16 J19:J20 J23 J26 J30:J31">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28980,87 +29045,87 @@
     <sortCondition ref="R164"/>
   </sortState>
   <conditionalFormatting sqref="I1:I53 I78:I80 I105:I108 I133:I135 I160:I163 I188:I1048576 V164:V171 V174:V178 V180:V182 V184:V185 V187:V192 S164:S171 S174:S178 S180:S182 S184:S185 S187:S192">
-    <cfRule type="cellIs" dxfId="44" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="21" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="43" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:L77">
-    <cfRule type="cellIs" dxfId="41" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="cellIs" dxfId="40" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="17" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:H104">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:J104">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H132">
-    <cfRule type="cellIs" dxfId="36" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J132">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136:J159">
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H159">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164:J187">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H187">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y164:Y192">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T164:T192">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29097,35 +29162,35 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="83"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
       <c r="BA2">
@@ -29138,50 +29203,50 @@
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="83" t="s">
+      <c r="G3" s="85"/>
+      <c r="H3" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="83" t="s">
+      <c r="I3" s="86"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="84"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="85"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="86" t="s">
+      <c r="S3" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="83" t="s">
+      <c r="T3" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="84"/>
-      <c r="V3" s="83" t="s">
+      <c r="U3" s="85"/>
+      <c r="V3" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="85"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="83" t="s">
+      <c r="W3" s="86"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="84"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="85"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6"/>
       <c r="AE3">
@@ -29195,9 +29260,9 @@
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="10" t="s">
         <v>112</v>
       </c>
@@ -29232,7 +29297,7 @@
       <c r="R4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="87"/>
+      <c r="S4" s="88"/>
       <c r="T4" s="10" t="s">
         <v>112</v>
       </c>
@@ -33083,67 +33148,67 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX27">
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AV27">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AI27">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK27">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ4:BJ27">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BH27">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ28:BJ32">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB28:BH32">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39062,28 +39127,28 @@
     <sortCondition ref="I2"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39244,30 +39309,30 @@
       <c r="T2">
         <v>-8.5642271706535794E-2</v>
       </c>
-      <c r="W2" s="91" t="s">
+      <c r="W2" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="90" t="s">
+      <c r="X2" s="93"/>
+      <c r="Y2" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
       <c r="AC2" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" s="90" t="s">
+      <c r="AD2" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="90" t="s">
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="90"/>
+      <c r="AJ2" s="91"/>
       <c r="AK2" s="63" t="s">
         <v>183</v>
       </c>
@@ -40459,19 +40524,19 @@
     <mergeCell ref="AD2:AH2"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:T20">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>-0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40482,10 +40547,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:AU45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O3" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40504,7 +40569,7 @@
     <col min="23" max="25" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="78" t="s">
         <v>216</v>
       </c>
@@ -40534,36 +40599,36 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="93" t="s">
+    <row r="3" spans="1:47" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
       <c r="H3" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95" t="s">
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="95"/>
+      <c r="O3" s="96"/>
       <c r="P3" s="70" t="s">
         <v>183</v>
       </c>
@@ -40573,8 +40638,23 @@
       <c r="R3" s="70" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" s="69" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="W3" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC3" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI3" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO3" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU3" s="75" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="71" t="s">
         <v>162</v>
       </c>
@@ -40644,8 +40724,14 @@
       <c r="Y4" s="69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z4" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA4" s="69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -40694,8 +40780,16 @@
       <c r="Y5">
         <v>777</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z5">
+        <f>W5-S5</f>
+        <v>0.66499999999999915</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA43" si="0">X5-T5</f>
+        <v>2.8700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -40724,8 +40818,16 @@
       <c r="U6">
         <v>918</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z43" si="1">W6-S6</f>
+        <v>-19.489999999999998</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>-0.1578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -40753,8 +40855,16 @@
       <c r="U7">
         <v>514</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>-24.05</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>-0.17219999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -40791,8 +40901,16 @@
       <c r="U8">
         <v>434</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>-8.4600000000000009</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>-0.2122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -40832,8 +40950,16 @@
       <c r="Y9">
         <v>1386</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z9">
+        <f t="shared" si="1"/>
+        <v>2.1599999999999966</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>-2.2699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -40881,8 +41007,16 @@
       <c r="Y10">
         <v>628</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>-0.12000000000000099</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>1.4399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -40910,8 +41044,16 @@
       <c r="U11">
         <v>525</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>-16.059999999999999</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>-0.1303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -40948,8 +41090,16 @@
       <c r="U12">
         <v>588</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z12">
+        <f t="shared" si="1"/>
+        <v>-20.85</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>-0.32519999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -40996,8 +41146,16 @@
       <c r="Y13">
         <v>799</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z13">
+        <f t="shared" si="1"/>
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>1.5899999999999984E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -41025,8 +41183,16 @@
       <c r="U14">
         <v>514</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z14">
+        <f t="shared" si="1"/>
+        <v>-13.17</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>-0.2238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -41063,8 +41229,16 @@
       <c r="U15">
         <v>663</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>-19.57</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>-0.23630000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -41092,8 +41266,16 @@
       <c r="U16">
         <v>716</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z16">
+        <f t="shared" si="1"/>
+        <v>-52.53</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>-4.9299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -41139,8 +41321,16 @@
       <c r="Y17">
         <v>288</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z17">
+        <f t="shared" si="1"/>
+        <v>1.9199999999999982</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -41186,8 +41376,16 @@
       <c r="Y18">
         <v>383</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z18">
+        <f t="shared" si="1"/>
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>3.0599999999999988E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -41225,8 +41423,16 @@
       <c r="U19">
         <v>320</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>-22.79</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="0"/>
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -41254,8 +41460,16 @@
       <c r="U20">
         <v>283</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z20">
+        <f t="shared" si="1"/>
+        <v>-63.69</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>-0.1002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -41304,8 +41518,16 @@
       <c r="Y21">
         <v>752</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z21">
+        <f t="shared" si="1"/>
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -41342,8 +41564,16 @@
       <c r="U22">
         <v>236</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z22">
+        <f t="shared" si="1"/>
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>-0.37130000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -41371,8 +41601,16 @@
       <c r="U23">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z23">
+        <f t="shared" si="1"/>
+        <v>-14.93</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>-0.1002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -41400,8 +41638,16 @@
       <c r="U24">
         <v>283</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z24">
+        <f t="shared" si="1"/>
+        <v>-23.49</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>-0.1487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -41448,8 +41694,16 @@
       <c r="Y25">
         <v>286</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z25">
+        <f t="shared" si="1"/>
+        <v>3.6370000000000005</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>6.0100000000000015E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -41497,8 +41751,16 @@
       <c r="Y26">
         <v>341</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z26">
+        <f t="shared" si="1"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>-9.4700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -41545,8 +41807,16 @@
       <c r="Y27">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z27">
+        <f t="shared" si="1"/>
+        <v>-2.4648000000000003</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>8.2099999999999951E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -41560,7 +41830,7 @@
       <c r="H28" t="s">
         <v>211</v>
       </c>
-      <c r="I28" s="96"/>
+      <c r="I28" s="80"/>
       <c r="M28" s="77" t="s">
         <v>211</v>
       </c>
@@ -41594,8 +41864,16 @@
       <c r="Y28">
         <v>179</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z28">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>-2.0199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -41643,8 +41921,16 @@
       <c r="Y29">
         <v>384</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z29">
+        <f t="shared" si="1"/>
+        <v>1.3628</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>-3.7200000000000011E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -41661,7 +41947,7 @@
       <c r="J30" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="M30" s="96"/>
+      <c r="M30" s="80"/>
       <c r="O30" t="s">
         <v>211</v>
       </c>
@@ -41692,8 +41978,16 @@
       <c r="Y30">
         <v>284</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z30">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>-1.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -41739,8 +42033,16 @@
       <c r="Y31">
         <v>164</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z31">
+        <f t="shared" si="1"/>
+        <v>2.135900000000003</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>2.0100000000000007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -41787,8 +42089,16 @@
       <c r="Y32">
         <v>397</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z32">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>-1.6900000000000026E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -41835,8 +42145,16 @@
       <c r="Y33">
         <v>477</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z33">
+        <f t="shared" si="1"/>
+        <v>-0.16999999999999815</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>3.699999999999995E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -41864,8 +42182,16 @@
       <c r="U34">
         <v>530</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z34">
+        <f t="shared" si="1"/>
+        <v>-11.52</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>-0.24110000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -41893,8 +42219,16 @@
       <c r="U35">
         <v>454</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z35">
+        <f t="shared" si="1"/>
+        <v>-8.57</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="0"/>
+        <v>-0.2122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -41940,8 +42274,16 @@
       <c r="Y36">
         <v>162</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z36">
+        <f t="shared" si="1"/>
+        <v>1.6099999999999994</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000274E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -41987,8 +42329,16 @@
       <c r="Y37">
         <v>388</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z37">
+        <f t="shared" si="1"/>
+        <v>1.9170000000000016</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="0"/>
+        <v>-2.4500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -42036,8 +42386,16 @@
       <c r="Y38">
         <v>273</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z38">
+        <f t="shared" si="1"/>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="0"/>
+        <v>-1.0900000000000021E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -42083,8 +42441,16 @@
       <c r="Y39">
         <v>159</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z39">
+        <f t="shared" si="1"/>
+        <v>1.3999999999999346E-2</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="0"/>
+        <v>5.8400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -42112,8 +42478,16 @@
       <c r="U40">
         <v>173</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z40">
+        <f t="shared" si="1"/>
+        <v>-20.14</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="0"/>
+        <v>-0.17030000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -42141,8 +42515,16 @@
       <c r="U41">
         <v>248</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z41">
+        <f t="shared" si="1"/>
+        <v>-9.7100000000000009</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="0"/>
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -42170,8 +42552,16 @@
       <c r="U42">
         <v>108</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z42">
+        <f t="shared" si="1"/>
+        <v>-12.46</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="0"/>
+        <v>-0.19750000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>186</v>
       </c>
@@ -42198,6 +42588,24 @@
       </c>
       <c r="U43">
         <v>117</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="1"/>
+        <v>-33.28</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="0"/>
+        <v>-0.2903</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z45">
+        <f>SUM(Z5,Z9:Z10,Z13,Z17:Z18,Z21,Z25:Z33,Z36:Z39)</f>
+        <v>20.418899999999997</v>
+      </c>
+      <c r="AA45">
+        <f>SUM(AA5,AA9:AA10,AA13,AA17:AA18,AA21,AA25:AA33,AA36:AA39)</f>
+        <v>0.1336999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -42207,6 +42615,31 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:O3"/>
   </mergeCells>
+  <conditionalFormatting sqref="Z5:Z43">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA5:AA43 AA45">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z45">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA46">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z46">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="225">
   <si>
     <t>Species</t>
   </si>
@@ -698,6 +698,9 @@
   </si>
   <si>
     <t>Updated plankton indices</t>
+  </si>
+  <si>
+    <t>32,125 NEFSC survey records not assigned EPU out of 273,626</t>
   </si>
 </sst>
 </file>
@@ -33221,7 +33224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T232"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
@@ -39160,8 +39163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="146" workbookViewId="0">
-      <selection activeCell="AM3" sqref="W1:AM3"/>
+    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40549,8 +40552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40602,6 +40605,9 @@
     <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
         <v>210</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:47" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="232">
   <si>
     <t>Species</t>
   </si>
@@ -702,11 +702,35 @@
   <si>
     <t>32,125 NEFSC survey records not assigned EPU out of 273,626</t>
   </si>
+  <si>
+    <t>Completed 7/23/2021</t>
+  </si>
+  <si>
+    <t>n diff</t>
+  </si>
+  <si>
+    <t>need to change to ITIScodes?</t>
+  </si>
+  <si>
+    <t>Rexamine removing outliers: mean instead of 100 before removing 1std dev</t>
+  </si>
+  <si>
+    <t>Rexamine removing outliers: only remove extreme outliers</t>
+  </si>
+  <si>
+    <t>Outliers</t>
+  </si>
+  <si>
+    <t>Use EPU_expanded in survdat file (now 11,500 rows are missing EPU or 6,485/273,626 of final data without outliers):</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1756,7 +1780,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1980,6 +2004,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2073,7 +2098,41 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="131">
+  <dxfs count="135">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -16084,44 +16143,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D118 D120:D1048576">
-    <cfRule type="cellIs" dxfId="130" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="134" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B118 B120:B1048576">
-    <cfRule type="cellIs" dxfId="129" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="127" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I85 I119:I1048576 I87:I117">
-    <cfRule type="cellIs" dxfId="126" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="5" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="124" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="3" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="122" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18707,145 +18766,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 E2:E17 C19:C26 E19:E26 C28 C30:C119 E28 E30 AC26:AC31 AC2:AC7 AA2:AA7 AC9 AA9 AC11:AC18 AA11:AA18 AC20:AC21 AC24 AA20:AA21 AA24:AA31">
-    <cfRule type="cellIs" dxfId="120" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="124" priority="42" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 D2:D17 B19:B26 D19:D26 B28 B30:B119 D28 D30 AB26:AB31 AB2:AB7 Z2:Z7 AB9 Z9 AB11:AB18 Z11:Z18 AB20:AB21 AB24 Z20:Z21 Z24:Z31">
-    <cfRule type="cellIs" dxfId="119" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="40" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="41" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="117" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="121" priority="36" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="116" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="34" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="35" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="114" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="118" priority="33" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="113" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="31" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="32" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31">
-    <cfRule type="cellIs" dxfId="111" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="115" priority="30" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J31">
-    <cfRule type="cellIs" dxfId="110" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="28" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="29" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31">
-    <cfRule type="cellIs" dxfId="108" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="112" priority="27" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L31">
-    <cfRule type="cellIs" dxfId="107" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="25" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="26" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="105" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="24" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="104" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="22" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="23" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q31">
-    <cfRule type="cellIs" dxfId="102" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="21" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P31">
-    <cfRule type="cellIs" dxfId="101" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="104" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S31">
-    <cfRule type="cellIs" dxfId="99" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="18" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R31">
-    <cfRule type="cellIs" dxfId="98" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="16" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="17" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U31">
-    <cfRule type="cellIs" dxfId="96" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="15" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T31">
-    <cfRule type="cellIs" dxfId="95" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="13" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="14" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W31">
-    <cfRule type="cellIs" dxfId="93" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V31">
-    <cfRule type="cellIs" dxfId="92" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y31">
-    <cfRule type="cellIs" dxfId="90" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="94" priority="9" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X31">
-    <cfRule type="cellIs" dxfId="89" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="7" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20668,168 +20727,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W26:W31 W2:W7 U2:U7 W9 U9 W11:W18 U11:U18 W20:W21 W24 U20:U21 U24:U31">
-    <cfRule type="cellIs" dxfId="87" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="50" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 B19:B26 B30 B28 D30 V26:V31 V2:V7 T2:T7 V9 T9 V11:V18 T11:T18 V20:V21 V24 T20:T21 T24:T31 D28 D19:D26 D2:D17 B38:B119">
-    <cfRule type="cellIs" dxfId="86" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="48" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="49" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="84" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="45" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="46" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="82" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="42" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="43" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J5 J10 J14 J17:J18 J21:J22 J24:J25 J27:J29">
-    <cfRule type="cellIs" dxfId="80" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="39" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="40" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31 L5 L10 L14 L17:L18 L21:L22 L27:L29 L24:L25">
-    <cfRule type="cellIs" dxfId="78" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="38" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L4 L6:L9 L11:L13 L15:L16 L19:L20 L23 L30:L31 L26">
-    <cfRule type="cellIs" dxfId="77" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="36" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="37" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="75" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="79" priority="35" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="74" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="33" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="34" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q16 Q30:Q31 Q18:Q26 P4:P9 P11 P13:P15 P19:P21 P24 P30">
-    <cfRule type="cellIs" dxfId="72" priority="29" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="76" priority="29" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P3 P31 P18 P10 P12 P16 P22:P23 P25:P26">
-    <cfRule type="cellIs" dxfId="71" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="27" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="28" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S15">
-    <cfRule type="cellIs" dxfId="69" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="73" priority="17" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="68" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4 S16:S31 S6:S13 R10 R12 R16:R18 R22:R23 R25:R29 R31 R3">
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="70" priority="20" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 R19:R21 R6:R9 R11 R13 R24 R30 R4">
-    <cfRule type="cellIs" dxfId="65" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q29">
-    <cfRule type="cellIs" dxfId="63" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="14" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P29">
-    <cfRule type="cellIs" dxfId="62" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="60" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="57" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 C19:C26 C28 C30:C119 B31:B37">
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17 E19:E26 E28 E30">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 J3:J4 J6:J9 J11:J13 J15:J16 J19:J20 J23 J26 J30:J31">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29048,87 +29107,87 @@
     <sortCondition ref="R164"/>
   </sortState>
   <conditionalFormatting sqref="I1:I53 I78:I80 I105:I108 I133:I135 I160:I163 I188:I1048576 V164:V171 V174:V178 V180:V182 V184:V185 V187:V192 S164:S171 S174:S178 S180:S182 S184:S185 S187:S192">
-    <cfRule type="cellIs" dxfId="49" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="48" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:L77">
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="cellIs" dxfId="45" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:H104">
-    <cfRule type="cellIs" dxfId="44" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:J104">
-    <cfRule type="cellIs" dxfId="42" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H132">
-    <cfRule type="cellIs" dxfId="41" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J132">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136:J159">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H159">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164:J187">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H187">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y164:Y192">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T164:T192">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29165,35 +29224,35 @@
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="84"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="3"/>
       <c r="BA2">
@@ -29206,50 +29265,50 @@
     <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="84" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="84" t="s">
+      <c r="I3" s="87"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="85"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="87" t="s">
+      <c r="S3" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="T3" s="84" t="s">
+      <c r="T3" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="U3" s="85"/>
-      <c r="V3" s="84" t="s">
+      <c r="U3" s="86"/>
+      <c r="V3" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="W3" s="86"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="84" t="s">
+      <c r="W3" s="87"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="85"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="86"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="6"/>
       <c r="AE3">
@@ -29263,9 +29322,9 @@
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="10" t="s">
         <v>112</v>
       </c>
@@ -29300,7 +29359,7 @@
       <c r="R4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="88"/>
+      <c r="S4" s="89"/>
       <c r="T4" s="10" t="s">
         <v>112</v>
       </c>
@@ -33151,67 +33210,67 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX27">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AV27">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AI27">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK27">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ4:BJ27">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BH27">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ28:BJ32">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB28:BH32">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39130,28 +39189,28 @@
     <sortCondition ref="I2"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39312,30 +39371,30 @@
       <c r="T2">
         <v>-8.5642271706535794E-2</v>
       </c>
-      <c r="W2" s="92" t="s">
+      <c r="W2" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="91" t="s">
+      <c r="X2" s="94"/>
+      <c r="Y2" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
       <c r="AC2" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" s="91" t="s">
+      <c r="AD2" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91" t="s">
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="91"/>
+      <c r="AJ2" s="92"/>
       <c r="AK2" s="63" t="s">
         <v>183</v>
       </c>
@@ -40527,19 +40586,19 @@
     <mergeCell ref="AD2:AH2"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:T20">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>-0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40550,10 +40609,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU45"/>
+  <dimension ref="A1:BN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+    <sheetView tabSelected="1" topLeftCell="Y4" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40572,7 +40631,7 @@
     <col min="23" max="25" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="78" t="s">
         <v>216</v>
       </c>
@@ -40601,40 +40660,56 @@
       <c r="W1" s="75" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AV1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BH1"/>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="AI2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="94" t="s">
+      <c r="AD2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96" t="s">
+      <c r="C3" s="96"/>
+      <c r="D3" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="I3" s="96" t="s">
+      <c r="I3" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96" t="s">
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="96"/>
+      <c r="O3" s="97"/>
       <c r="P3" s="70" t="s">
         <v>183</v>
       </c>
@@ -40647,20 +40722,27 @@
       <c r="W3" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AD3" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ3" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP3" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="AI3" s="75" t="s">
+      <c r="AV3" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="AO3" s="75" t="s">
+      <c r="BC3" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="AU3" s="75" t="s">
+      <c r="BH3"/>
+      <c r="BJ3" s="75" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:66" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="71" t="s">
         <v>162</v>
       </c>
@@ -40736,8 +40818,107 @@
       <c r="AA4" s="69" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB4" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH4" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM4" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN4" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS4" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT4" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ4" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="BA4" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF4" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG4" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH4" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="BM4" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="BN4" s="69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -40794,8 +40975,45 @@
         <f t="shared" ref="AA5:AA43" si="0">X5-T5</f>
         <v>2.8700000000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB5">
+        <f>Y5-U5</f>
+        <v>55</v>
+      </c>
+      <c r="AV5">
+        <v>21.826599999999999</v>
+      </c>
+      <c r="AW5">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="AX5">
+        <v>564</v>
+      </c>
+      <c r="AY5">
+        <f>AV5-S5</f>
+        <v>-1.833400000000001</v>
+      </c>
+      <c r="AZ5">
+        <f>AW5-T5</f>
+        <v>9.0699999999999989E-2</v>
+      </c>
+      <c r="BA5">
+        <f>AX5-U5</f>
+        <v>-158</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" ref="BF5:BF43" si="1">BC5-S5</f>
+        <v>-23.66</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" ref="BG5:BG43" si="2">BD5-T5</f>
+        <v>-6.7900000000000002E-2</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" ref="BH5:BH43" si="3">BE5-U5</f>
+        <v>-722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -40825,15 +41043,61 @@
         <v>918</v>
       </c>
       <c r="Z6">
-        <f t="shared" ref="Z6:Z43" si="1">W6-S6</f>
+        <f t="shared" ref="Z6:Z43" si="4">W6-S6</f>
         <v>-19.489999999999998</v>
       </c>
       <c r="AA6">
         <f t="shared" si="0"/>
         <v>-0.1578</v>
       </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB43" si="5">Y6-U6</f>
+        <v>-918</v>
+      </c>
+      <c r="AV6">
+        <v>21.686299999999999</v>
+      </c>
+      <c r="AW6">
+        <v>0.12389799999999999</v>
+      </c>
+      <c r="AX6">
+        <v>1184</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ref="AY6:AY17" si="6">AV6-S6</f>
+        <v>2.1963000000000008</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" ref="AZ6:AZ17" si="7">AW6-T6</f>
+        <v>-3.3902000000000002E-2</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" ref="BA6:BA17" si="8">AX6-U6</f>
+        <v>266</v>
+      </c>
+      <c r="BC6">
+        <v>21.29806</v>
+      </c>
+      <c r="BD6">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="BE6">
+        <v>2039</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" si="1"/>
+        <v>1.8080600000000011</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" si="2"/>
+        <v>-3.1200000000000006E-2</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" si="3"/>
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -40862,15 +41126,61 @@
         <v>514</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-24.05</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
         <v>-0.17219999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB7">
+        <f t="shared" si="5"/>
+        <v>-514</v>
+      </c>
+      <c r="AV7">
+        <v>24.4513</v>
+      </c>
+      <c r="AW7">
+        <v>0.17283699999999999</v>
+      </c>
+      <c r="AX7">
+        <v>529</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="6"/>
+        <v>0.4012999999999991</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="7"/>
+        <v>6.3699999999999868E-4</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="BC7" s="81">
+        <v>27.037700000000001</v>
+      </c>
+      <c r="BD7">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="BE7">
+        <v>913</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="1"/>
+        <v>2.9877000000000002</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="2"/>
+        <v>-3.7000000000000005E-2</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" si="3"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -40908,15 +41218,52 @@
         <v>434</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8.4600000000000009</v>
       </c>
       <c r="AA8">
         <f t="shared" si="0"/>
         <v>-0.2122</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB8">
+        <f t="shared" si="5"/>
+        <v>-434</v>
+      </c>
+      <c r="AV8">
+        <v>9.6183999999999994</v>
+      </c>
+      <c r="AW8">
+        <v>0.20796999999999999</v>
+      </c>
+      <c r="AX8">
+        <v>677</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="6"/>
+        <v>1.1583999999999985</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="7"/>
+        <v>-4.2300000000000115E-3</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="8"/>
+        <v>243</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="1"/>
+        <v>-8.4600000000000009</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="2"/>
+        <v>-0.2122</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" si="3"/>
+        <v>-434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -40957,15 +41304,61 @@
         <v>1386</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.1599999999999966</v>
       </c>
       <c r="AA9">
         <f t="shared" si="0"/>
         <v>-2.2699999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB9">
+        <f t="shared" si="5"/>
+        <v>304</v>
+      </c>
+      <c r="AV9">
+        <v>49.6509</v>
+      </c>
+      <c r="AW9">
+        <v>0.14335000000000001</v>
+      </c>
+      <c r="AX9">
+        <v>1756</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="6"/>
+        <v>2.9808999999999983</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="7"/>
+        <v>-6.5500000000000003E-3</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="8"/>
+        <v>674</v>
+      </c>
+      <c r="BC9">
+        <v>52.134480000000003</v>
+      </c>
+      <c r="BD9">
+        <v>7.7249999999999999E-2</v>
+      </c>
+      <c r="BE9">
+        <v>2549</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="1"/>
+        <v>5.4644800000000018</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" si="2"/>
+        <v>-7.2650000000000006E-2</v>
+      </c>
+      <c r="BH9">
+        <f t="shared" si="3"/>
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -41014,15 +41407,52 @@
         <v>628</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.12000000000000099</v>
       </c>
       <c r="AA10">
         <f t="shared" si="0"/>
         <v>1.4399999999999996E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>20.887740000000001</v>
+      </c>
+      <c r="AW10">
+        <v>0.10326</v>
+      </c>
+      <c r="AX10">
+        <v>857</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="6"/>
+        <v>1.9977400000000003</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="7"/>
+        <v>-6.7839999999999998E-2</v>
+      </c>
+      <c r="BA10">
+        <f t="shared" si="8"/>
+        <v>229</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" si="1"/>
+        <v>-18.89</v>
+      </c>
+      <c r="BG10">
+        <f t="shared" si="2"/>
+        <v>-0.1711</v>
+      </c>
+      <c r="BH10">
+        <f t="shared" si="3"/>
+        <v>-628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -41051,15 +41481,61 @@
         <v>525</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-16.059999999999999</v>
       </c>
       <c r="AA11">
         <f t="shared" si="0"/>
         <v>-0.1303</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB11">
+        <f t="shared" si="5"/>
+        <v>-525</v>
+      </c>
+      <c r="AV11">
+        <v>16.619240000000001</v>
+      </c>
+      <c r="AW11">
+        <v>0.1237</v>
+      </c>
+      <c r="AX11">
+        <v>542</v>
+      </c>
+      <c r="AY11">
+        <f t="shared" si="6"/>
+        <v>0.55924000000000262</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="7"/>
+        <v>-6.5999999999999948E-3</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="BC11">
+        <v>19.383800000000001</v>
+      </c>
+      <c r="BD11">
+        <v>8.1460000000000005E-2</v>
+      </c>
+      <c r="BE11">
+        <v>862</v>
+      </c>
+      <c r="BF11">
+        <f t="shared" si="1"/>
+        <v>3.3238000000000021</v>
+      </c>
+      <c r="BG11">
+        <f t="shared" si="2"/>
+        <v>-4.8839999999999995E-2</v>
+      </c>
+      <c r="BH11">
+        <f t="shared" si="3"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -41097,15 +41573,43 @@
         <v>588</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-20.85</v>
       </c>
       <c r="AA12">
         <f t="shared" si="0"/>
         <v>-0.32519999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB12">
+        <f t="shared" si="5"/>
+        <v>-588</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="6"/>
+        <v>-20.85</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="7"/>
+        <v>-0.32519999999999999</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="8"/>
+        <v>-588</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="1"/>
+        <v>-20.85</v>
+      </c>
+      <c r="BG12">
+        <f t="shared" si="2"/>
+        <v>-0.32519999999999999</v>
+      </c>
+      <c r="BH12">
+        <f t="shared" si="3"/>
+        <v>-588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -41153,15 +41657,43 @@
         <v>799</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.18999999999999773</v>
       </c>
       <c r="AA13">
         <f t="shared" si="0"/>
         <v>1.5899999999999984E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB13">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="6"/>
+        <v>-33.68</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="7"/>
+        <v>-0.11020000000000001</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="8"/>
+        <v>-778</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="1"/>
+        <v>-33.68</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="2"/>
+        <v>-0.11020000000000001</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="3"/>
+        <v>-778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -41190,15 +41722,61 @@
         <v>514</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-13.17</v>
       </c>
       <c r="AA14">
         <f t="shared" si="0"/>
         <v>-0.2238</v>
       </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB14">
+        <f t="shared" si="5"/>
+        <v>-514</v>
+      </c>
+      <c r="AV14">
+        <v>13.399900000000001</v>
+      </c>
+      <c r="AW14">
+        <v>0.215</v>
+      </c>
+      <c r="AX14">
+        <v>527</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="6"/>
+        <v>0.22990000000000066</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="7"/>
+        <v>-8.8000000000000023E-3</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="BC14">
+        <v>13.7043</v>
+      </c>
+      <c r="BD14">
+        <v>0.17480000000000001</v>
+      </c>
+      <c r="BE14">
+        <v>1022</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="1"/>
+        <v>0.5343</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="2"/>
+        <v>-4.8999999999999988E-2</v>
+      </c>
+      <c r="BH14">
+        <f t="shared" si="3"/>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -41236,15 +41814,43 @@
         <v>663</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-19.57</v>
       </c>
       <c r="AA15">
         <f t="shared" si="0"/>
         <v>-0.23630000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AB15">
+        <f t="shared" si="5"/>
+        <v>-663</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="6"/>
+        <v>-19.57</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="7"/>
+        <v>-0.23630000000000001</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="8"/>
+        <v>-663</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="1"/>
+        <v>-19.57</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="2"/>
+        <v>-0.23630000000000001</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="3"/>
+        <v>-663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -41273,15 +41879,52 @@
         <v>716</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-52.53</v>
       </c>
       <c r="AA16">
         <f t="shared" si="0"/>
         <v>-4.9299999999999997E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB16">
+        <f t="shared" si="5"/>
+        <v>-716</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="6"/>
+        <v>-52.53</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="7"/>
+        <v>-4.9299999999999997E-2</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="8"/>
+        <v>-716</v>
+      </c>
+      <c r="BC16">
+        <v>53.034950000000002</v>
+      </c>
+      <c r="BD16">
+        <v>5.9695999999999999E-2</v>
+      </c>
+      <c r="BE16">
+        <v>1133</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" si="1"/>
+        <v>0.5049500000000009</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" si="2"/>
+        <v>1.0396000000000002E-2</v>
+      </c>
+      <c r="BH16">
+        <f t="shared" si="3"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -41328,15 +41971,43 @@
         <v>288</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.9199999999999982</v>
       </c>
       <c r="AA17">
         <f t="shared" si="0"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB17">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="6"/>
+        <v>-31.77</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="7"/>
+        <v>-0.2361</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="8"/>
+        <v>-231</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="1"/>
+        <v>-31.77</v>
+      </c>
+      <c r="BG17">
+        <f t="shared" si="2"/>
+        <v>-0.2361</v>
+      </c>
+      <c r="BH17">
+        <f t="shared" si="3"/>
+        <v>-231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -41383,15 +42054,31 @@
         <v>383</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1899999999999995</v>
       </c>
       <c r="AA18">
         <f t="shared" si="0"/>
         <v>3.0599999999999988E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB18">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="BF18">
+        <f t="shared" si="1"/>
+        <v>-13.96</v>
+      </c>
+      <c r="BG18">
+        <f t="shared" si="2"/>
+        <v>-0.1061</v>
+      </c>
+      <c r="BH18">
+        <f t="shared" si="3"/>
+        <v>-343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -41430,15 +42117,31 @@
         <v>320</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-22.79</v>
       </c>
       <c r="AA19">
         <f t="shared" si="0"/>
         <v>-0.28999999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB19">
+        <f t="shared" si="5"/>
+        <v>-320</v>
+      </c>
+      <c r="BF19">
+        <f t="shared" si="1"/>
+        <v>-22.79</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" si="2"/>
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="BH19">
+        <f t="shared" si="3"/>
+        <v>-320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -41467,15 +42170,40 @@
         <v>283</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-63.69</v>
       </c>
       <c r="AA20">
         <f t="shared" si="0"/>
         <v>-0.1002</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB20">
+        <f t="shared" si="5"/>
+        <v>-283</v>
+      </c>
+      <c r="BC20">
+        <v>68.383750000000006</v>
+      </c>
+      <c r="BD20">
+        <v>0.11585139999999999</v>
+      </c>
+      <c r="BE20">
+        <v>454</v>
+      </c>
+      <c r="BF20">
+        <f t="shared" si="1"/>
+        <v>4.6937500000000085</v>
+      </c>
+      <c r="BG20">
+        <f t="shared" si="2"/>
+        <v>1.5651399999999996E-2</v>
+      </c>
+      <c r="BH20">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -41525,15 +42253,31 @@
         <v>752</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1120000000000001</v>
       </c>
       <c r="AA21">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB21">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="BF21">
+        <f t="shared" si="1"/>
+        <v>-11.31</v>
+      </c>
+      <c r="BG21">
+        <f t="shared" si="2"/>
+        <v>-0.11219999999999999</v>
+      </c>
+      <c r="BH21">
+        <f t="shared" si="3"/>
+        <v>-646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -41571,15 +42315,31 @@
         <v>236</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-10.199999999999999</v>
       </c>
       <c r="AA22">
         <f t="shared" si="0"/>
         <v>-0.37130000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB22">
+        <f t="shared" si="5"/>
+        <v>-236</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="1"/>
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="BG22">
+        <f t="shared" si="2"/>
+        <v>-0.37130000000000002</v>
+      </c>
+      <c r="BH22">
+        <f t="shared" si="3"/>
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -41608,15 +42368,40 @@
         <v>323</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-14.93</v>
       </c>
       <c r="AA23">
         <f t="shared" si="0"/>
         <v>-0.1002</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB23">
+        <f t="shared" si="5"/>
+        <v>-323</v>
+      </c>
+      <c r="BC23">
+        <v>15.04355</v>
+      </c>
+      <c r="BD23">
+        <v>9.3257999999999994E-2</v>
+      </c>
+      <c r="BE23">
+        <v>829</v>
+      </c>
+      <c r="BF23">
+        <f t="shared" si="1"/>
+        <v>0.11355000000000004</v>
+      </c>
+      <c r="BG23">
+        <f t="shared" si="2"/>
+        <v>-6.9420000000000037E-3</v>
+      </c>
+      <c r="BH23">
+        <f t="shared" si="3"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -41645,15 +42430,40 @@
         <v>283</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-23.49</v>
       </c>
       <c r="AA24">
         <f t="shared" si="0"/>
         <v>-0.1487</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB24">
+        <f t="shared" si="5"/>
+        <v>-283</v>
+      </c>
+      <c r="BC24">
+        <v>21.397960000000001</v>
+      </c>
+      <c r="BD24">
+        <v>0.14054</v>
+      </c>
+      <c r="BE24">
+        <v>602</v>
+      </c>
+      <c r="BF24">
+        <f t="shared" si="1"/>
+        <v>-2.0920399999999972</v>
+      </c>
+      <c r="BG24">
+        <f t="shared" si="2"/>
+        <v>-8.1600000000000006E-3</v>
+      </c>
+      <c r="BH24">
+        <f t="shared" si="3"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -41701,15 +42511,31 @@
         <v>286</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.6370000000000005</v>
       </c>
       <c r="AA25">
         <f t="shared" si="0"/>
         <v>6.0100000000000015E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB25">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="BF25">
+        <f t="shared" si="1"/>
+        <v>-17.02</v>
+      </c>
+      <c r="BG25">
+        <f t="shared" si="2"/>
+        <v>-0.21240000000000001</v>
+      </c>
+      <c r="BH25">
+        <f t="shared" si="3"/>
+        <v>-204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -41758,15 +42584,31 @@
         <v>341</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.0500000000000007</v>
       </c>
       <c r="AA26">
         <f t="shared" si="0"/>
         <v>-9.4700000000000006E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB26">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="BF26">
+        <f t="shared" si="1"/>
+        <v>-10.1</v>
+      </c>
+      <c r="BG26">
+        <f t="shared" si="2"/>
+        <v>-0.3599</v>
+      </c>
+      <c r="BH26">
+        <f t="shared" si="3"/>
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -41814,15 +42656,31 @@
         <v>250</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.4648000000000003</v>
       </c>
       <c r="AA27">
         <f t="shared" si="0"/>
         <v>8.2099999999999951E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB27">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="BF27">
+        <f t="shared" si="1"/>
+        <v>-22.76</v>
+      </c>
+      <c r="BG27">
+        <f t="shared" si="2"/>
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="BH27">
+        <f t="shared" si="3"/>
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -41871,15 +42729,31 @@
         <v>179</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="AA28">
         <f t="shared" si="0"/>
         <v>-2.0199999999999996E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB28">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="BF28">
+        <f t="shared" si="1"/>
+        <v>-30.57</v>
+      </c>
+      <c r="BG28">
+        <f t="shared" si="2"/>
+        <v>-0.26269999999999999</v>
+      </c>
+      <c r="BH28">
+        <f t="shared" si="3"/>
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -41928,15 +42802,31 @@
         <v>384</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3628</v>
       </c>
       <c r="AA29">
         <f t="shared" si="0"/>
         <v>-3.7200000000000011E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB29">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="BF29">
+        <f t="shared" si="1"/>
+        <v>-19.22</v>
+      </c>
+      <c r="BG29">
+        <f t="shared" si="2"/>
+        <v>-0.3029</v>
+      </c>
+      <c r="BH29">
+        <f t="shared" si="3"/>
+        <v>-324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -41985,15 +42875,31 @@
         <v>284</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="AA30">
         <f t="shared" si="0"/>
         <v>-1.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB30">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="BF30">
+        <f t="shared" si="1"/>
+        <v>-11.61</v>
+      </c>
+      <c r="BG30">
+        <f t="shared" si="2"/>
+        <v>-6.8199999999999997E-2</v>
+      </c>
+      <c r="BH30">
+        <f t="shared" si="3"/>
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -42040,15 +42946,31 @@
         <v>164</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.135900000000003</v>
       </c>
       <c r="AA31">
         <f t="shared" si="0"/>
         <v>2.0100000000000007E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB31">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="BF31">
+        <f t="shared" si="1"/>
+        <v>-16.989999999999998</v>
+      </c>
+      <c r="BG31">
+        <f t="shared" si="2"/>
+        <v>-0.20349999999999999</v>
+      </c>
+      <c r="BH31">
+        <f t="shared" si="3"/>
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -42096,15 +43018,31 @@
         <v>397</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="AA32">
         <f t="shared" si="0"/>
         <v>-1.6900000000000026E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB32">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="BF32">
+        <f t="shared" si="1"/>
+        <v>-14.08</v>
+      </c>
+      <c r="BG32">
+        <f t="shared" si="2"/>
+        <v>-0.26400000000000001</v>
+      </c>
+      <c r="BH32">
+        <f t="shared" si="3"/>
+        <v>-318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -42152,15 +43090,31 @@
         <v>477</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.16999999999999815</v>
       </c>
       <c r="AA33">
         <f t="shared" si="0"/>
         <v>3.699999999999995E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <f t="shared" si="1"/>
+        <v>-27.43</v>
+      </c>
+      <c r="BG33">
+        <f t="shared" si="2"/>
+        <v>-0.1033</v>
+      </c>
+      <c r="BH33">
+        <f t="shared" si="3"/>
+        <v>-477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -42189,15 +43143,40 @@
         <v>530</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-11.52</v>
       </c>
       <c r="AA34">
         <f t="shared" si="0"/>
         <v>-0.24110000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB34">
+        <f t="shared" si="5"/>
+        <v>-530</v>
+      </c>
+      <c r="BC34">
+        <v>14.0328</v>
+      </c>
+      <c r="BD34">
+        <v>0.1895</v>
+      </c>
+      <c r="BE34">
+        <v>764</v>
+      </c>
+      <c r="BF34">
+        <f t="shared" si="1"/>
+        <v>2.5128000000000004</v>
+      </c>
+      <c r="BG34">
+        <f t="shared" si="2"/>
+        <v>-5.1600000000000007E-2</v>
+      </c>
+      <c r="BH34">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -42226,15 +43205,40 @@
         <v>454</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8.57</v>
       </c>
       <c r="AA35">
         <f t="shared" si="0"/>
         <v>-0.2122</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB35">
+        <f t="shared" si="5"/>
+        <v>-454</v>
+      </c>
+      <c r="BC35">
+        <v>8.6080649999999999</v>
+      </c>
+      <c r="BD35">
+        <v>0.2099</v>
+      </c>
+      <c r="BE35">
+        <v>477</v>
+      </c>
+      <c r="BF35">
+        <f t="shared" si="1"/>
+        <v>3.8064999999999571E-2</v>
+      </c>
+      <c r="BG35">
+        <f t="shared" si="2"/>
+        <v>-2.2999999999999965E-3</v>
+      </c>
+      <c r="BH35">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -42281,15 +43285,31 @@
         <v>162</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.6099999999999994</v>
       </c>
       <c r="AA36">
         <f t="shared" si="0"/>
         <v>5.8000000000000274E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB36">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BF36">
+        <f t="shared" si="1"/>
+        <v>-26.52</v>
+      </c>
+      <c r="BG36">
+        <f t="shared" si="2"/>
+        <v>-0.36399999999999999</v>
+      </c>
+      <c r="BH36">
+        <f t="shared" si="3"/>
+        <v>-159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -42336,15 +43356,31 @@
         <v>388</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.9170000000000016</v>
       </c>
       <c r="AA37">
         <f t="shared" si="0"/>
         <v>-2.4500000000000008E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB37">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="BF37">
+        <f t="shared" si="1"/>
+        <v>-39.68</v>
+      </c>
+      <c r="BG37">
+        <f t="shared" si="2"/>
+        <v>-0.1246</v>
+      </c>
+      <c r="BH37">
+        <f t="shared" si="3"/>
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -42393,15 +43429,31 @@
         <v>273</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.44000000000000128</v>
       </c>
       <c r="AA38">
         <f t="shared" si="0"/>
         <v>-1.0900000000000021E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB38">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="BF38">
+        <f t="shared" si="1"/>
+        <v>-22.22</v>
+      </c>
+      <c r="BG38">
+        <f t="shared" si="2"/>
+        <v>-0.30280000000000001</v>
+      </c>
+      <c r="BH38">
+        <f t="shared" si="3"/>
+        <v>-263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -42448,15 +43500,31 @@
         <v>159</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.3999999999999346E-2</v>
       </c>
       <c r="AA39">
         <f t="shared" si="0"/>
         <v>5.8400000000000007E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB39">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="BF39">
+        <f t="shared" si="1"/>
+        <v>-26.34</v>
+      </c>
+      <c r="BG39">
+        <f t="shared" si="2"/>
+        <v>-0.22470000000000001</v>
+      </c>
+      <c r="BH39">
+        <f t="shared" si="3"/>
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -42485,15 +43553,40 @@
         <v>173</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-20.14</v>
       </c>
       <c r="AA40">
         <f t="shared" si="0"/>
         <v>-0.17030000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB40">
+        <f t="shared" si="5"/>
+        <v>-173</v>
+      </c>
+      <c r="BC40">
+        <v>19.668900000000001</v>
+      </c>
+      <c r="BD40" s="81">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="BE40">
+        <v>211</v>
+      </c>
+      <c r="BF40">
+        <f t="shared" si="1"/>
+        <v>-0.47109999999999985</v>
+      </c>
+      <c r="BG40">
+        <f t="shared" si="2"/>
+        <v>0.16209999999999997</v>
+      </c>
+      <c r="BH40">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -42522,15 +43615,40 @@
         <v>248</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-9.7100000000000009</v>
       </c>
       <c r="AA41">
         <f t="shared" si="0"/>
         <v>-0.187</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB41">
+        <f t="shared" si="5"/>
+        <v>-248</v>
+      </c>
+      <c r="BC41">
+        <v>9.7552000000000003</v>
+      </c>
+      <c r="BD41">
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="BE41">
+        <v>260</v>
+      </c>
+      <c r="BF41">
+        <f t="shared" si="1"/>
+        <v>4.5199999999999463E-2</v>
+      </c>
+      <c r="BG41">
+        <f t="shared" si="2"/>
+        <v>-1.9600000000000006E-2</v>
+      </c>
+      <c r="BH41">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -42559,15 +43677,40 @@
         <v>108</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-12.46</v>
       </c>
       <c r="AA42">
         <f t="shared" si="0"/>
         <v>-0.19750000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB42">
+        <f t="shared" si="5"/>
+        <v>-108</v>
+      </c>
+      <c r="BC42">
+        <v>12.31058</v>
+      </c>
+      <c r="BD42">
+        <v>0.19095999999999999</v>
+      </c>
+      <c r="BE42">
+        <v>115</v>
+      </c>
+      <c r="BF42">
+        <f t="shared" si="1"/>
+        <v>-0.149420000000001</v>
+      </c>
+      <c r="BG42">
+        <f t="shared" si="2"/>
+        <v>-6.540000000000018E-3</v>
+      </c>
+      <c r="BH42">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>186</v>
       </c>
@@ -42596,15 +43739,40 @@
         <v>117</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-33.28</v>
       </c>
       <c r="AA43">
         <f t="shared" si="0"/>
         <v>-0.2903</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AB43">
+        <f t="shared" si="5"/>
+        <v>-117</v>
+      </c>
+      <c r="BC43">
+        <v>41.243749999999999</v>
+      </c>
+      <c r="BD43">
+        <v>0.32723000000000002</v>
+      </c>
+      <c r="BE43">
+        <v>145</v>
+      </c>
+      <c r="BF43">
+        <f t="shared" si="1"/>
+        <v>7.9637499999999974</v>
+      </c>
+      <c r="BG43">
+        <f t="shared" si="2"/>
+        <v>3.6930000000000018E-2</v>
+      </c>
+      <c r="BH43">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" x14ac:dyDescent="0.35">
       <c r="Z45">
         <f>SUM(Z5,Z9:Z10,Z13,Z17:Z18,Z21,Z25:Z33,Z36:Z39)</f>
         <v>20.418899999999997</v>
@@ -42612,6 +43780,14 @@
       <c r="AA45">
         <f>SUM(AA5,AA9:AA10,AA13,AA17:AA18,AA21,AA25:AA33,AA36:AA39)</f>
         <v>0.1336999999999999</v>
+      </c>
+      <c r="BF45">
+        <f>SUM(BF6:BF7,BF9,BF11,BF14,BF16,BF20,BF23:BF24,BF34:BF35,BF40:BF43)</f>
+        <v>27.277845000000013</v>
+      </c>
+      <c r="BG45">
+        <f>SUM(BG6:BG7,BG9,BG11,BG14,BG16,BG20,BG23:BG24,BG34:BG35,BG40:BG43)</f>
+        <v>-0.10875460000000006</v>
       </c>
     </row>
   </sheetData>
@@ -42622,26 +43798,46 @@
     <mergeCell ref="N3:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="Z5:Z43">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA5:AA43 AA45">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="AA45:AB45 AA5:AB43">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z45">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA46">
+  <conditionalFormatting sqref="AA46:AB46">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z46">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF5:BF43">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG5:BG43">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF45:BG45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z46">
+  <conditionalFormatting sqref="BH1:BH3 BH5:BH43">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="232">
   <si>
     <t>Species</t>
   </si>
@@ -40609,10 +40609,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN45"/>
+  <dimension ref="A1:BO45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y4" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40631,7 +40631,7 @@
     <col min="23" max="25" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:67" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="78" t="s">
         <v>216</v>
       </c>
@@ -40660,32 +40660,32 @@
       <c r="W1" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>224</v>
       </c>
-      <c r="BH1"/>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="BI1"/>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
         <v>210</v>
       </c>
       <c r="AD2" t="s">
         <v>228</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>229</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>227</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>231</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="95" t="s">
         <v>178</v>
       </c>
@@ -40725,24 +40725,24 @@
       <c r="AD3" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="AJ3" s="75" t="s">
+      <c r="AK3" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AQ3" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AW3" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="BC3" s="75" t="s">
+      <c r="BD3" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="BH3"/>
-      <c r="BJ3" s="75" t="s">
+      <c r="BI3"/>
+      <c r="BK3" s="75" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:67" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="71" t="s">
         <v>162</v>
       </c>
@@ -40836,89 +40836,92 @@
       <c r="AH4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="AJ4" s="69" t="s">
+      <c r="AI4" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="69" t="s">
+      <c r="AL4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AL4" s="69" t="s">
+      <c r="AM4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AM4" s="69" t="s">
+      <c r="AN4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AN4" s="69" t="s">
+      <c r="AO4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="AP4" s="69" t="s">
+      <c r="AQ4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AQ4" s="69" t="s">
+      <c r="AR4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AR4" s="69" t="s">
+      <c r="AS4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="69" t="s">
+      <c r="AT4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AT4" s="69" t="s">
+      <c r="AU4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="AV4" s="69" t="s">
+      <c r="AW4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AW4" s="69" t="s">
+      <c r="AX4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AX4" s="69" t="s">
+      <c r="AY4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AY4" s="69" t="s">
+      <c r="AZ4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AZ4" s="69" t="s">
+      <c r="BA4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="BA4" s="69" t="s">
+      <c r="BB4" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="BC4" s="69" t="s">
+      <c r="BD4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="BD4" s="69" t="s">
+      <c r="BE4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BE4" s="69" t="s">
+      <c r="BF4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BF4" s="69" t="s">
+      <c r="BG4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="BG4" s="69" t="s">
+      <c r="BH4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="BH4" s="69" t="s">
+      <c r="BI4" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="BJ4" s="69" t="s">
+      <c r="BK4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="BK4" s="69" t="s">
+      <c r="BL4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BL4" s="69" t="s">
+      <c r="BM4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BM4" s="69" t="s">
+      <c r="BN4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="BN4" s="69" t="s">
+      <c r="BO4" s="69" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -40972,48 +40975,69 @@
         <v>0.66499999999999915</v>
       </c>
       <c r="AA5">
-        <f t="shared" ref="AA5:AA43" si="0">X5-T5</f>
+        <f>X5-T5</f>
         <v>2.8700000000000003E-2</v>
       </c>
       <c r="AB5">
         <f>Y5-U5</f>
         <v>55</v>
       </c>
-      <c r="AV5">
+      <c r="AD5">
+        <v>28.1629</v>
+      </c>
+      <c r="AE5">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="AF5">
+        <v>1149</v>
+      </c>
+      <c r="AG5">
+        <f>AD5-AW5</f>
+        <v>6.3363000000000014</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ref="AH5:AI5" si="0">AE5-AX5</f>
+        <v>-6.7799999999999985E-2</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="AW5">
         <v>21.826599999999999</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>0.15859999999999999</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>564</v>
       </c>
-      <c r="AY5">
-        <f>AV5-S5</f>
-        <v>-1.833400000000001</v>
-      </c>
       <c r="AZ5">
-        <f>AW5-T5</f>
-        <v>9.0699999999999989E-2</v>
+        <f>AW5-BD5</f>
+        <v>21.826599999999999</v>
       </c>
       <c r="BA5">
-        <f>AX5-U5</f>
-        <v>-158</v>
-      </c>
-      <c r="BF5">
-        <f t="shared" ref="BF5:BF43" si="1">BC5-S5</f>
+        <f>AX5-BE5</f>
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="BB5">
+        <f>AY5-BF5</f>
+        <v>564</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" ref="BG5:BG43" si="1">BD5-S5</f>
         <v>-23.66</v>
       </c>
-      <c r="BG5">
-        <f t="shared" ref="BG5:BG43" si="2">BD5-T5</f>
+      <c r="BH5">
+        <f t="shared" ref="BH5:BH43" si="2">BE5-T5</f>
         <v>-6.7900000000000002E-2</v>
       </c>
-      <c r="BH5">
-        <f t="shared" ref="BH5:BH43" si="3">BE5-U5</f>
+      <c r="BI5">
+        <f t="shared" ref="BI5:BI43" si="3">BF5-U5</f>
         <v>-722</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -41047,57 +41071,78 @@
         <v>-19.489999999999998</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AA6:AA43" si="5">X6-T6</f>
         <v>-0.1578</v>
       </c>
       <c r="AB6">
-        <f t="shared" ref="AB6:AB43" si="5">Y6-U6</f>
+        <f t="shared" ref="AB6:AB43" si="6">Y6-U6</f>
         <v>-918</v>
       </c>
-      <c r="AV6">
+      <c r="AD6">
+        <v>24.764700000000001</v>
+      </c>
+      <c r="AE6">
+        <v>9.1875999999999999E-2</v>
+      </c>
+      <c r="AF6">
+        <v>2298</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ref="AG6:AG22" si="7">AD6-AW6</f>
+        <v>3.078400000000002</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AH22" si="8">AE6-AX6</f>
+        <v>-3.2021999999999995E-2</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ref="AI6:AI22" si="9">AF6-AY6</f>
+        <v>1114</v>
+      </c>
+      <c r="AW6">
         <v>21.686299999999999</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>0.12389799999999999</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>1184</v>
       </c>
-      <c r="AY6">
-        <f t="shared" ref="AY6:AY17" si="6">AV6-S6</f>
-        <v>2.1963000000000008</v>
-      </c>
       <c r="AZ6">
-        <f t="shared" ref="AZ6:AZ17" si="7">AW6-T6</f>
-        <v>-3.3902000000000002E-2</v>
+        <f t="shared" ref="AZ6:AZ17" si="10">AW6-BD6</f>
+        <v>0.3882399999999997</v>
       </c>
       <c r="BA6">
-        <f t="shared" ref="BA6:BA17" si="8">AX6-U6</f>
-        <v>266</v>
-      </c>
-      <c r="BC6">
+        <f t="shared" ref="BA6:BA17" si="11">AX6-BE6</f>
+        <v>-2.7019999999999961E-3</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" ref="BB6:BB17" si="12">AY6-BF6</f>
+        <v>-855</v>
+      </c>
+      <c r="BD6">
         <v>21.29806</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <v>0.12659999999999999</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>2039</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <f t="shared" si="1"/>
         <v>1.8080600000000011</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <f t="shared" si="2"/>
         <v>-3.1200000000000006E-2</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <f t="shared" si="3"/>
         <v>1121</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -41130,57 +41175,78 @@
         <v>-24.05</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.17219999999999999</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-514</v>
       </c>
-      <c r="AV7">
+      <c r="AD7">
+        <v>25.19595</v>
+      </c>
+      <c r="AE7">
+        <v>0.16868</v>
+      </c>
+      <c r="AF7">
+        <v>630</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="7"/>
+        <v>0.74465000000000003</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="8"/>
+        <v>-4.156999999999994E-3</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="9"/>
+        <v>101</v>
+      </c>
+      <c r="AW7">
         <v>24.4513</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>0.17283699999999999</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>529</v>
       </c>
-      <c r="AY7">
-        <f t="shared" si="6"/>
-        <v>0.4012999999999991</v>
-      </c>
       <c r="AZ7">
-        <f t="shared" si="7"/>
-        <v>6.3699999999999868E-4</v>
+        <f t="shared" si="10"/>
+        <v>-2.5864000000000011</v>
       </c>
       <c r="BA7">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="BC7" s="81">
+        <f t="shared" si="11"/>
+        <v>3.7637000000000004E-2</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="12"/>
+        <v>-384</v>
+      </c>
+      <c r="BD7" s="81">
         <v>27.037700000000001</v>
       </c>
-      <c r="BD7">
+      <c r="BE7">
         <v>0.13519999999999999</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>913</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <f t="shared" si="1"/>
         <v>2.9877000000000002</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <f t="shared" si="2"/>
         <v>-3.7000000000000005E-2</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <f t="shared" si="3"/>
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -41222,48 +41288,69 @@
         <v>-8.4600000000000009</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.2122</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-434</v>
       </c>
-      <c r="AV8">
+      <c r="AD8">
+        <v>12.230399999999999</v>
+      </c>
+      <c r="AE8">
+        <v>0.16598199999999999</v>
+      </c>
+      <c r="AF8">
+        <v>868</v>
+      </c>
+      <c r="AG8">
+        <f>AD8-AW8</f>
+        <v>2.6120000000000001</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="8"/>
+        <v>-4.1987999999999998E-2</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="9"/>
+        <v>191</v>
+      </c>
+      <c r="AW8">
         <v>9.6183999999999994</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>0.20796999999999999</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>677</v>
       </c>
-      <c r="AY8">
-        <f t="shared" si="6"/>
-        <v>1.1583999999999985</v>
-      </c>
       <c r="AZ8">
-        <f t="shared" si="7"/>
-        <v>-4.2300000000000115E-3</v>
+        <f t="shared" si="10"/>
+        <v>9.6183999999999994</v>
       </c>
       <c r="BA8">
-        <f t="shared" si="8"/>
-        <v>243</v>
-      </c>
-      <c r="BF8">
+        <f t="shared" si="11"/>
+        <v>0.20796999999999999</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="12"/>
+        <v>677</v>
+      </c>
+      <c r="BG8">
         <f t="shared" si="1"/>
         <v>-8.4600000000000009</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <f t="shared" si="2"/>
         <v>-0.2122</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <f t="shared" si="3"/>
         <v>-434</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -41308,57 +41395,78 @@
         <v>2.1599999999999966</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-2.2699999999999998E-2</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>304</v>
       </c>
-      <c r="AV9">
+      <c r="AD9">
+        <v>74.304000000000002</v>
+      </c>
+      <c r="AE9">
+        <v>0.12945000000000001</v>
+      </c>
+      <c r="AF9">
+        <v>2004</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="7"/>
+        <v>24.653100000000002</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="8"/>
+        <v>-1.3899999999999996E-2</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="9"/>
+        <v>248</v>
+      </c>
+      <c r="AW9">
         <v>49.6509</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <v>0.14335000000000001</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>1756</v>
       </c>
-      <c r="AY9">
-        <f t="shared" si="6"/>
-        <v>2.9808999999999983</v>
-      </c>
       <c r="AZ9">
-        <f t="shared" si="7"/>
-        <v>-6.5500000000000003E-3</v>
+        <f t="shared" si="10"/>
+        <v>-2.4835800000000035</v>
       </c>
       <c r="BA9">
-        <f t="shared" si="8"/>
-        <v>674</v>
-      </c>
-      <c r="BC9">
+        <f t="shared" si="11"/>
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="12"/>
+        <v>-793</v>
+      </c>
+      <c r="BD9">
         <v>52.134480000000003</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <v>7.7249999999999999E-2</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>2549</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <f t="shared" si="1"/>
         <v>5.4644800000000018</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <f t="shared" si="2"/>
         <v>-7.2650000000000006E-2</v>
       </c>
-      <c r="BH9">
+      <c r="BI9">
         <f t="shared" si="3"/>
         <v>1467</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -41411,48 +41519,69 @@
         <v>-0.12000000000000099</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.4399999999999996E-2</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AV10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>29.107600000000001</v>
+      </c>
+      <c r="AE10">
+        <v>9.0768000000000001E-2</v>
+      </c>
+      <c r="AF10">
+        <v>883</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="7"/>
+        <v>8.2198600000000006</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="8"/>
+        <v>-1.2492000000000003E-2</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="AW10">
         <v>20.887740000000001</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>0.10326</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>857</v>
       </c>
-      <c r="AY10">
-        <f t="shared" si="6"/>
-        <v>1.9977400000000003</v>
-      </c>
       <c r="AZ10">
-        <f t="shared" si="7"/>
-        <v>-6.7839999999999998E-2</v>
+        <f t="shared" si="10"/>
+        <v>20.887740000000001</v>
       </c>
       <c r="BA10">
-        <f t="shared" si="8"/>
-        <v>229</v>
-      </c>
-      <c r="BF10">
+        <f t="shared" si="11"/>
+        <v>0.10326</v>
+      </c>
+      <c r="BB10">
+        <f t="shared" si="12"/>
+        <v>857</v>
+      </c>
+      <c r="BG10">
         <f t="shared" si="1"/>
         <v>-18.89</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <f t="shared" si="2"/>
         <v>-0.1711</v>
       </c>
-      <c r="BH10">
+      <c r="BI10">
         <f t="shared" si="3"/>
         <v>-628</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -41485,57 +41614,78 @@
         <v>-16.059999999999999</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.1303</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-525</v>
       </c>
-      <c r="AV11">
+      <c r="AD11">
+        <v>20.465959999999999</v>
+      </c>
+      <c r="AE11">
+        <v>9.3369999999999995E-2</v>
+      </c>
+      <c r="AF11">
+        <v>988</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="7"/>
+        <v>3.8467199999999977</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="8"/>
+        <v>-3.033000000000001E-2</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="9"/>
+        <v>446</v>
+      </c>
+      <c r="AW11">
         <v>16.619240000000001</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>0.1237</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>542</v>
       </c>
-      <c r="AY11">
-        <f t="shared" si="6"/>
-        <v>0.55924000000000262</v>
-      </c>
       <c r="AZ11">
-        <f t="shared" si="7"/>
-        <v>-6.5999999999999948E-3</v>
+        <f t="shared" si="10"/>
+        <v>-2.7645599999999995</v>
       </c>
       <c r="BA11">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="BC11">
+        <f t="shared" si="11"/>
+        <v>4.224E-2</v>
+      </c>
+      <c r="BB11">
+        <f t="shared" si="12"/>
+        <v>-320</v>
+      </c>
+      <c r="BD11">
         <v>19.383800000000001</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>8.1460000000000005E-2</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>862</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <f t="shared" si="1"/>
         <v>3.3238000000000021</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <f t="shared" si="2"/>
         <v>-4.8839999999999995E-2</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -41577,39 +41727,51 @@
         <v>-20.85</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.32519999999999999</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-588</v>
       </c>
-      <c r="AY12">
-        <f t="shared" si="6"/>
-        <v>-20.85</v>
+      <c r="AG12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AZ12">
-        <f t="shared" si="7"/>
-        <v>-0.32519999999999999</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="BA12">
-        <f t="shared" si="8"/>
-        <v>-588</v>
-      </c>
-      <c r="BF12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG12">
         <f t="shared" si="1"/>
         <v>-20.85</v>
       </c>
-      <c r="BG12">
+      <c r="BH12">
         <f t="shared" si="2"/>
         <v>-0.32519999999999999</v>
       </c>
-      <c r="BH12">
+      <c r="BI12">
         <f t="shared" si="3"/>
         <v>-588</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -41661,39 +41823,51 @@
         <v>0.18999999999999773</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.5899999999999984E-2</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="AY13">
-        <f t="shared" si="6"/>
-        <v>-33.68</v>
+      <c r="AG13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AZ13">
-        <f t="shared" si="7"/>
-        <v>-0.11020000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="BA13">
-        <f t="shared" si="8"/>
-        <v>-778</v>
-      </c>
-      <c r="BF13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG13">
         <f t="shared" si="1"/>
         <v>-33.68</v>
       </c>
-      <c r="BG13">
+      <c r="BH13">
         <f t="shared" si="2"/>
         <v>-0.11020000000000001</v>
       </c>
-      <c r="BH13">
+      <c r="BI13">
         <f t="shared" si="3"/>
         <v>-778</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -41726,57 +41900,78 @@
         <v>-13.17</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.2238</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-514</v>
       </c>
-      <c r="AV14">
+      <c r="AD14">
+        <v>18.104900000000001</v>
+      </c>
+      <c r="AE14">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="AF14">
+        <v>1064</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="7"/>
+        <v>4.7050000000000001</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="8"/>
+        <v>-8.7299999999999989E-2</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="9"/>
+        <v>537</v>
+      </c>
+      <c r="AW14">
         <v>13.399900000000001</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>0.215</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>527</v>
       </c>
-      <c r="AY14">
-        <f t="shared" si="6"/>
-        <v>0.22990000000000066</v>
-      </c>
       <c r="AZ14">
-        <f t="shared" si="7"/>
-        <v>-8.8000000000000023E-3</v>
+        <f t="shared" si="10"/>
+        <v>-0.30439999999999934</v>
       </c>
       <c r="BA14">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="BC14">
+        <f t="shared" si="11"/>
+        <v>4.0199999999999986E-2</v>
+      </c>
+      <c r="BB14">
+        <f t="shared" si="12"/>
+        <v>-495</v>
+      </c>
+      <c r="BD14">
         <v>13.7043</v>
       </c>
-      <c r="BD14">
+      <c r="BE14">
         <v>0.17480000000000001</v>
       </c>
-      <c r="BE14">
+      <c r="BF14">
         <v>1022</v>
       </c>
-      <c r="BF14">
+      <c r="BG14">
         <f t="shared" si="1"/>
         <v>0.5343</v>
       </c>
-      <c r="BG14">
+      <c r="BH14">
         <f t="shared" si="2"/>
         <v>-4.8999999999999988E-2</v>
       </c>
-      <c r="BH14">
+      <c r="BI14">
         <f t="shared" si="3"/>
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -41818,39 +42013,51 @@
         <v>-19.57</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.23630000000000001</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-663</v>
       </c>
-      <c r="AY15">
-        <f t="shared" si="6"/>
-        <v>-19.57</v>
+      <c r="AG15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AZ15">
-        <f t="shared" si="7"/>
-        <v>-0.23630000000000001</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="BA15">
-        <f t="shared" si="8"/>
-        <v>-663</v>
-      </c>
-      <c r="BF15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG15">
         <f t="shared" si="1"/>
         <v>-19.57</v>
       </c>
-      <c r="BG15">
+      <c r="BH15">
         <f t="shared" si="2"/>
         <v>-0.23630000000000001</v>
       </c>
-      <c r="BH15">
+      <c r="BI15">
         <f t="shared" si="3"/>
         <v>-663</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -41883,48 +42090,60 @@
         <v>-52.53</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-4.9299999999999997E-2</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-716</v>
       </c>
-      <c r="AY16">
-        <f t="shared" si="6"/>
-        <v>-52.53</v>
+      <c r="AG16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AZ16">
-        <f t="shared" si="7"/>
-        <v>-4.9299999999999997E-2</v>
+        <f t="shared" si="10"/>
+        <v>-53.034950000000002</v>
       </c>
       <c r="BA16">
-        <f t="shared" si="8"/>
-        <v>-716</v>
-      </c>
-      <c r="BC16">
+        <f t="shared" si="11"/>
+        <v>-5.9695999999999999E-2</v>
+      </c>
+      <c r="BB16">
+        <f t="shared" si="12"/>
+        <v>-1133</v>
+      </c>
+      <c r="BD16">
         <v>53.034950000000002</v>
       </c>
-      <c r="BD16">
+      <c r="BE16">
         <v>5.9695999999999999E-2</v>
       </c>
-      <c r="BE16">
+      <c r="BF16">
         <v>1133</v>
       </c>
-      <c r="BF16">
+      <c r="BG16">
         <f t="shared" si="1"/>
         <v>0.5049500000000009</v>
       </c>
-      <c r="BG16">
+      <c r="BH16">
         <f t="shared" si="2"/>
         <v>1.0396000000000002E-2</v>
       </c>
-      <c r="BH16">
+      <c r="BI16">
         <f t="shared" si="3"/>
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -41975,39 +42194,51 @@
         <v>1.9199999999999982</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="AY17">
-        <f t="shared" si="6"/>
-        <v>-31.77</v>
+      <c r="AG17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AZ17">
-        <f t="shared" si="7"/>
-        <v>-0.2361</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="BA17">
-        <f t="shared" si="8"/>
-        <v>-231</v>
-      </c>
-      <c r="BF17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG17">
         <f t="shared" si="1"/>
         <v>-31.77</v>
       </c>
-      <c r="BG17">
+      <c r="BH17">
         <f t="shared" si="2"/>
         <v>-0.2361</v>
       </c>
-      <c r="BH17">
+      <c r="BI17">
         <f t="shared" si="3"/>
         <v>-231</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -42058,27 +42289,39 @@
         <v>0.1899999999999995</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.0599999999999988E-2</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="BF18">
+      <c r="AG18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BG18">
         <f t="shared" si="1"/>
         <v>-13.96</v>
       </c>
-      <c r="BG18">
+      <c r="BH18">
         <f t="shared" si="2"/>
         <v>-0.1061</v>
       </c>
-      <c r="BH18">
+      <c r="BI18">
         <f t="shared" si="3"/>
         <v>-343</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -42121,27 +42364,39 @@
         <v>-22.79</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.28999999999999998</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-320</v>
       </c>
-      <c r="BF19">
+      <c r="AG19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BG19">
         <f t="shared" si="1"/>
         <v>-22.79</v>
       </c>
-      <c r="BG19">
+      <c r="BH19">
         <f t="shared" si="2"/>
         <v>-0.28999999999999998</v>
       </c>
-      <c r="BH19">
+      <c r="BI19">
         <f t="shared" si="3"/>
         <v>-320</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -42174,36 +42429,48 @@
         <v>-63.69</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.1002</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-283</v>
       </c>
-      <c r="BC20">
+      <c r="AG20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BD20">
         <v>68.383750000000006</v>
       </c>
-      <c r="BD20">
+      <c r="BE20">
         <v>0.11585139999999999</v>
       </c>
-      <c r="BE20">
+      <c r="BF20">
         <v>454</v>
       </c>
-      <c r="BF20">
+      <c r="BG20">
         <f t="shared" si="1"/>
         <v>4.6937500000000085</v>
       </c>
-      <c r="BG20">
+      <c r="BH20">
         <f t="shared" si="2"/>
         <v>1.5651399999999996E-2</v>
       </c>
-      <c r="BH20">
+      <c r="BI20">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -42257,27 +42524,39 @@
         <v>1.1120000000000001</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
-      <c r="BF21">
+      <c r="AG21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BG21">
         <f t="shared" si="1"/>
         <v>-11.31</v>
       </c>
-      <c r="BG21">
+      <c r="BH21">
         <f t="shared" si="2"/>
         <v>-0.11219999999999999</v>
       </c>
-      <c r="BH21">
+      <c r="BI21">
         <f t="shared" si="3"/>
         <v>-646</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -42319,27 +42598,39 @@
         <v>-10.199999999999999</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.37130000000000002</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-236</v>
       </c>
-      <c r="BF22">
+      <c r="AG22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BG22">
         <f t="shared" si="1"/>
         <v>-10.199999999999999</v>
       </c>
-      <c r="BG22">
+      <c r="BH22">
         <f t="shared" si="2"/>
         <v>-0.37130000000000002</v>
       </c>
-      <c r="BH22">
+      <c r="BI22">
         <f t="shared" si="3"/>
         <v>-236</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -42372,36 +42663,36 @@
         <v>-14.93</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.1002</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-323</v>
       </c>
-      <c r="BC23">
+      <c r="BD23">
         <v>15.04355</v>
       </c>
-      <c r="BD23">
+      <c r="BE23">
         <v>9.3257999999999994E-2</v>
       </c>
-      <c r="BE23">
+      <c r="BF23">
         <v>829</v>
       </c>
-      <c r="BF23">
+      <c r="BG23">
         <f t="shared" si="1"/>
         <v>0.11355000000000004</v>
       </c>
-      <c r="BG23">
+      <c r="BH23">
         <f t="shared" si="2"/>
         <v>-6.9420000000000037E-3</v>
       </c>
-      <c r="BH23">
+      <c r="BI23">
         <f t="shared" si="3"/>
         <v>506</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -42434,36 +42725,36 @@
         <v>-23.49</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.1487</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-283</v>
       </c>
-      <c r="BC24">
+      <c r="BD24">
         <v>21.397960000000001</v>
       </c>
-      <c r="BD24">
+      <c r="BE24">
         <v>0.14054</v>
       </c>
-      <c r="BE24">
+      <c r="BF24">
         <v>602</v>
       </c>
-      <c r="BF24">
+      <c r="BG24">
         <f t="shared" si="1"/>
         <v>-2.0920399999999972</v>
       </c>
-      <c r="BG24">
+      <c r="BH24">
         <f t="shared" si="2"/>
         <v>-8.1600000000000006E-3</v>
       </c>
-      <c r="BH24">
+      <c r="BI24">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -42515,27 +42806,27 @@
         <v>3.6370000000000005</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.0100000000000015E-2</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="BF25">
+      <c r="BG25">
         <f t="shared" si="1"/>
         <v>-17.02</v>
       </c>
-      <c r="BG25">
+      <c r="BH25">
         <f t="shared" si="2"/>
         <v>-0.21240000000000001</v>
       </c>
-      <c r="BH25">
+      <c r="BI25">
         <f t="shared" si="3"/>
         <v>-204</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -42588,27 +42879,27 @@
         <v>4.0500000000000007</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-9.4700000000000006E-2</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
-      <c r="BF26">
+      <c r="BG26">
         <f t="shared" si="1"/>
         <v>-10.1</v>
       </c>
-      <c r="BG26">
+      <c r="BH26">
         <f t="shared" si="2"/>
         <v>-0.3599</v>
       </c>
-      <c r="BH26">
+      <c r="BI26">
         <f t="shared" si="3"/>
         <v>-220</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -42660,27 +42951,27 @@
         <v>-2.4648000000000003</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.2099999999999951E-2</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="BF27">
+      <c r="BG27">
         <f t="shared" si="1"/>
         <v>-22.76</v>
       </c>
-      <c r="BG27">
+      <c r="BH27">
         <f t="shared" si="2"/>
         <v>-0.27900000000000003</v>
       </c>
-      <c r="BH27">
+      <c r="BI27">
         <f t="shared" si="3"/>
         <v>-174</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -42733,27 +43024,27 @@
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-2.0199999999999996E-2</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="BF28">
+      <c r="BG28">
         <f t="shared" si="1"/>
         <v>-30.57</v>
       </c>
-      <c r="BG28">
+      <c r="BH28">
         <f t="shared" si="2"/>
         <v>-0.26269999999999999</v>
       </c>
-      <c r="BH28">
+      <c r="BI28">
         <f t="shared" si="3"/>
         <v>-165</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -42806,27 +43097,27 @@
         <v>1.3628</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-3.7200000000000011E-2</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="BF29">
+      <c r="BG29">
         <f t="shared" si="1"/>
         <v>-19.22</v>
       </c>
-      <c r="BG29">
+      <c r="BH29">
         <f t="shared" si="2"/>
         <v>-0.3029</v>
       </c>
-      <c r="BH29">
+      <c r="BI29">
         <f t="shared" si="3"/>
         <v>-324</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -42879,27 +43170,27 @@
         <v>1.25</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-1.7999999999999995E-2</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="BF30">
+      <c r="BG30">
         <f t="shared" si="1"/>
         <v>-11.61</v>
       </c>
-      <c r="BG30">
+      <c r="BH30">
         <f t="shared" si="2"/>
         <v>-6.8199999999999997E-2</v>
       </c>
-      <c r="BH30">
+      <c r="BI30">
         <f t="shared" si="3"/>
         <v>-233</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -42950,27 +43241,27 @@
         <v>2.135900000000003</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.0100000000000007E-2</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="BF31">
+      <c r="BG31">
         <f t="shared" si="1"/>
         <v>-16.989999999999998</v>
       </c>
-      <c r="BG31">
+      <c r="BH31">
         <f t="shared" si="2"/>
         <v>-0.20349999999999999</v>
       </c>
-      <c r="BH31">
+      <c r="BI31">
         <f t="shared" si="3"/>
         <v>-140</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -43022,27 +43313,27 @@
         <v>0.5</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-1.6900000000000026E-2</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="BF32">
+      <c r="BG32">
         <f t="shared" si="1"/>
         <v>-14.08</v>
       </c>
-      <c r="BG32">
+      <c r="BH32">
         <f t="shared" si="2"/>
         <v>-0.26400000000000001</v>
       </c>
-      <c r="BH32">
+      <c r="BI32">
         <f t="shared" si="3"/>
         <v>-318</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -43094,27 +43385,27 @@
         <v>-0.16999999999999815</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.699999999999995E-3</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BF33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BG33">
         <f t="shared" si="1"/>
         <v>-27.43</v>
       </c>
-      <c r="BG33">
+      <c r="BH33">
         <f t="shared" si="2"/>
         <v>-0.1033</v>
       </c>
-      <c r="BH33">
+      <c r="BI33">
         <f t="shared" si="3"/>
         <v>-477</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -43147,36 +43438,36 @@
         <v>-11.52</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.24110000000000001</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-530</v>
       </c>
-      <c r="BC34">
+      <c r="BD34">
         <v>14.0328</v>
       </c>
-      <c r="BD34">
+      <c r="BE34">
         <v>0.1895</v>
       </c>
-      <c r="BE34">
+      <c r="BF34">
         <v>764</v>
       </c>
-      <c r="BF34">
+      <c r="BG34">
         <f t="shared" si="1"/>
         <v>2.5128000000000004</v>
       </c>
-      <c r="BG34">
+      <c r="BH34">
         <f t="shared" si="2"/>
         <v>-5.1600000000000007E-2</v>
       </c>
-      <c r="BH34">
+      <c r="BI34">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -43209,36 +43500,36 @@
         <v>-8.57</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.2122</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-454</v>
       </c>
-      <c r="BC35">
+      <c r="BD35">
         <v>8.6080649999999999</v>
       </c>
-      <c r="BD35">
+      <c r="BE35">
         <v>0.2099</v>
       </c>
-      <c r="BE35">
+      <c r="BF35">
         <v>477</v>
       </c>
-      <c r="BF35">
+      <c r="BG35">
         <f t="shared" si="1"/>
         <v>3.8064999999999571E-2</v>
       </c>
-      <c r="BG35">
+      <c r="BH35">
         <f t="shared" si="2"/>
         <v>-2.2999999999999965E-3</v>
       </c>
-      <c r="BH35">
+      <c r="BI35">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -43289,27 +43580,27 @@
         <v>1.6099999999999994</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.8000000000000274E-3</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="BF36">
+      <c r="BG36">
         <f t="shared" si="1"/>
         <v>-26.52</v>
       </c>
-      <c r="BG36">
+      <c r="BH36">
         <f t="shared" si="2"/>
         <v>-0.36399999999999999</v>
       </c>
-      <c r="BH36">
+      <c r="BI36">
         <f t="shared" si="3"/>
         <v>-159</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -43360,27 +43651,27 @@
         <v>1.9170000000000016</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-2.4500000000000008E-2</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
-      <c r="BF37">
+      <c r="BG37">
         <f t="shared" si="1"/>
         <v>-39.68</v>
       </c>
-      <c r="BG37">
+      <c r="BH37">
         <f t="shared" si="2"/>
         <v>-0.1246</v>
       </c>
-      <c r="BH37">
+      <c r="BI37">
         <f t="shared" si="3"/>
         <v>-250</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -43433,27 +43724,27 @@
         <v>0.44000000000000128</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-1.0900000000000021E-2</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="BF38">
+      <c r="BG38">
         <f t="shared" si="1"/>
         <v>-22.22</v>
       </c>
-      <c r="BG38">
+      <c r="BH38">
         <f t="shared" si="2"/>
         <v>-0.30280000000000001</v>
       </c>
-      <c r="BH38">
+      <c r="BI38">
         <f t="shared" si="3"/>
         <v>-263</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -43504,27 +43795,27 @@
         <v>1.3999999999999346E-2</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.8400000000000007E-2</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="BF39">
+      <c r="BG39">
         <f t="shared" si="1"/>
         <v>-26.34</v>
       </c>
-      <c r="BG39">
+      <c r="BH39">
         <f t="shared" si="2"/>
         <v>-0.22470000000000001</v>
       </c>
-      <c r="BH39">
+      <c r="BI39">
         <f t="shared" si="3"/>
         <v>-137</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -43557,36 +43848,36 @@
         <v>-20.14</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.17030000000000001</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-173</v>
       </c>
-      <c r="BC40">
+      <c r="BD40">
         <v>19.668900000000001</v>
       </c>
-      <c r="BD40" s="81">
+      <c r="BE40" s="81">
         <v>0.33239999999999997</v>
       </c>
-      <c r="BE40">
+      <c r="BF40">
         <v>211</v>
       </c>
-      <c r="BF40">
+      <c r="BG40">
         <f t="shared" si="1"/>
         <v>-0.47109999999999985</v>
       </c>
-      <c r="BG40">
+      <c r="BH40">
         <f t="shared" si="2"/>
         <v>0.16209999999999997</v>
       </c>
-      <c r="BH40">
+      <c r="BI40">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -43619,36 +43910,36 @@
         <v>-9.7100000000000009</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.187</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-248</v>
       </c>
-      <c r="BC41">
+      <c r="BD41">
         <v>9.7552000000000003</v>
       </c>
-      <c r="BD41">
+      <c r="BE41">
         <v>0.16739999999999999</v>
       </c>
-      <c r="BE41">
+      <c r="BF41">
         <v>260</v>
       </c>
-      <c r="BF41">
+      <c r="BG41">
         <f t="shared" si="1"/>
         <v>4.5199999999999463E-2</v>
       </c>
-      <c r="BG41">
+      <c r="BH41">
         <f t="shared" si="2"/>
         <v>-1.9600000000000006E-2</v>
       </c>
-      <c r="BH41">
+      <c r="BI41">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -43681,36 +43972,36 @@
         <v>-12.46</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.19750000000000001</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-108</v>
       </c>
-      <c r="BC42">
+      <c r="BD42">
         <v>12.31058</v>
       </c>
-      <c r="BD42">
+      <c r="BE42">
         <v>0.19095999999999999</v>
       </c>
-      <c r="BE42">
+      <c r="BF42">
         <v>115</v>
       </c>
-      <c r="BF42">
+      <c r="BG42">
         <f t="shared" si="1"/>
         <v>-0.149420000000001</v>
       </c>
-      <c r="BG42">
+      <c r="BH42">
         <f t="shared" si="2"/>
         <v>-6.540000000000018E-3</v>
       </c>
-      <c r="BH42">
+      <c r="BI42">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>186</v>
       </c>
@@ -43743,36 +44034,36 @@
         <v>-33.28</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-0.2903</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-117</v>
       </c>
-      <c r="BC43">
+      <c r="BD43">
         <v>41.243749999999999</v>
       </c>
-      <c r="BD43">
+      <c r="BE43">
         <v>0.32723000000000002</v>
       </c>
-      <c r="BE43">
+      <c r="BF43">
         <v>145</v>
       </c>
-      <c r="BF43">
+      <c r="BG43">
         <f t="shared" si="1"/>
         <v>7.9637499999999974</v>
       </c>
-      <c r="BG43">
+      <c r="BH43">
         <f t="shared" si="2"/>
         <v>3.6930000000000018E-2</v>
       </c>
-      <c r="BH43">
+      <c r="BI43">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
       <c r="Z45">
         <f>SUM(Z5,Z9:Z10,Z13,Z17:Z18,Z21,Z25:Z33,Z36:Z39)</f>
         <v>20.418899999999997</v>
@@ -43781,12 +44072,12 @@
         <f>SUM(AA5,AA9:AA10,AA13,AA17:AA18,AA21,AA25:AA33,AA36:AA39)</f>
         <v>0.1336999999999999</v>
       </c>
-      <c r="BF45">
-        <f>SUM(BF6:BF7,BF9,BF11,BF14,BF16,BF20,BF23:BF24,BF34:BF35,BF40:BF43)</f>
-        <v>27.277845000000013</v>
-      </c>
       <c r="BG45">
         <f>SUM(BG6:BG7,BG9,BG11,BG14,BG16,BG20,BG23:BG24,BG34:BG35,BG40:BG43)</f>
+        <v>27.277845000000013</v>
+      </c>
+      <c r="BH45">
+        <f>SUM(BH6:BH7,BH9,BH11,BH14,BH16,BH20,BH23:BH24,BH34:BH35,BH40:BH43)</f>
         <v>-0.10875460000000006</v>
       </c>
     </row>
@@ -43822,22 +44113,22 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF5:BF43">
+  <conditionalFormatting sqref="BG5:BG43">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG5:BG43">
+  <conditionalFormatting sqref="BH5:BH43">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF45:BG45">
+  <conditionalFormatting sqref="BG45:BH45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH1:BH3 BH5:BH43">
+  <conditionalFormatting sqref="BI1:BI3 BI5:BI43">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8960" windowHeight="4360" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Single Variable GAMs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="232">
   <si>
     <t>Species</t>
   </si>
@@ -715,13 +715,13 @@
     <t>Rexamine removing outliers: mean instead of 100 before removing 1std dev</t>
   </si>
   <si>
-    <t>Rexamine removing outliers: only remove extreme outliers</t>
-  </si>
-  <si>
     <t>Outliers</t>
   </si>
   <si>
     <t>Use EPU_expanded in survdat file (now 11,500 rows are missing EPU or 6,485/273,626 of final data without outliers):</t>
+  </si>
+  <si>
+    <t>Rexamine removing outliers: only remove extreme outliers ( indwt &lt;0.005, length&lt;0, RelCond &gt;300)</t>
   </si>
 </sst>
 </file>
@@ -2098,24 +2098,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="135">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="133">
     <dxf>
       <fill>
         <patternFill>
@@ -16143,44 +16126,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D118 D120:D1048576">
-    <cfRule type="cellIs" dxfId="134" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="132" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B118 B120:B1048576">
-    <cfRule type="cellIs" dxfId="133" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="131" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I85 I119:I1048576 I87:I117">
-    <cfRule type="cellIs" dxfId="130" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="5" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="128" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="3" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="126" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18766,145 +18749,145 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 E2:E17 C19:C26 E19:E26 C28 C30:C119 E28 E30 AC26:AC31 AC2:AC7 AA2:AA7 AC9 AA9 AC11:AC18 AA11:AA18 AC20:AC21 AC24 AA20:AA21 AA24:AA31">
-    <cfRule type="cellIs" dxfId="124" priority="42" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="122" priority="42" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 D2:D17 B19:B26 D19:D26 B28 B30:B119 D28 D30 AB26:AB31 AB2:AB7 Z2:Z7 AB9 Z9 AB11:AB18 Z11:Z18 AB20:AB21 AB24 Z20:Z21 Z24:Z31">
-    <cfRule type="cellIs" dxfId="123" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="40" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="41" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="121" priority="36" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="119" priority="36" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="120" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="34" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="35" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="118" priority="33" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="116" priority="33" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="117" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="31" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="32" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31">
-    <cfRule type="cellIs" dxfId="115" priority="30" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="113" priority="30" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J31">
-    <cfRule type="cellIs" dxfId="114" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="28" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="29" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31">
-    <cfRule type="cellIs" dxfId="112" priority="27" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="110" priority="27" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L31">
-    <cfRule type="cellIs" dxfId="111" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="25" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="26" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="109" priority="24" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="107" priority="24" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="108" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="22" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="23" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q31">
-    <cfRule type="cellIs" dxfId="106" priority="21" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="104" priority="21" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P31">
-    <cfRule type="cellIs" dxfId="105" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="102" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S31">
-    <cfRule type="cellIs" dxfId="103" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="101" priority="18" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R31">
-    <cfRule type="cellIs" dxfId="102" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="100" priority="16" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="17" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U31">
-    <cfRule type="cellIs" dxfId="100" priority="15" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="98" priority="15" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T31">
-    <cfRule type="cellIs" dxfId="99" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="13" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="14" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W31">
-    <cfRule type="cellIs" dxfId="97" priority="12" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="12" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V31">
-    <cfRule type="cellIs" dxfId="96" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y31">
-    <cfRule type="cellIs" dxfId="94" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X31">
-    <cfRule type="cellIs" dxfId="93" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="7" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20727,168 +20710,168 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="W26:W31 W2:W7 U2:U7 W9 U9 W11:W18 U11:U18 W20:W21 W24 U20:U21 U24:U31">
-    <cfRule type="cellIs" dxfId="91" priority="50" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="50" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121:B1048576 B2:B17 B19:B26 B30 B28 D30 V26:V31 V2:V7 T2:T7 V9 T9 V11:V18 T11:T18 V20:V21 V24 T20:T21 T24:T31 D28 D19:D26 D2:D17 B38:B119">
-    <cfRule type="cellIs" dxfId="90" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="48" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="49" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="cellIs" dxfId="88" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="45" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="46" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H31">
-    <cfRule type="cellIs" dxfId="86" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="42" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="43" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2 J5 J10 J14 J17:J18 J21:J22 J24:J25 J27:J29">
-    <cfRule type="cellIs" dxfId="84" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="39" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="40" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M31 L5 L10 L14 L17:L18 L21:L22 L27:L29 L24:L25">
-    <cfRule type="cellIs" dxfId="82" priority="38" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="38" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L4 L6:L9 L11:L13 L15:L16 L19:L20 L23 L30:L31 L26">
-    <cfRule type="cellIs" dxfId="81" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="36" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="37" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O31">
-    <cfRule type="cellIs" dxfId="79" priority="35" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="77" priority="35" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="78" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="33" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="34" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q16 Q30:Q31 Q18:Q26 P4:P9 P11 P13:P15 P19:P21 P24 P30">
-    <cfRule type="cellIs" dxfId="76" priority="29" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="74" priority="29" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P3 P31 P18 P10 P12 P16 P22:P23 P25:P26">
-    <cfRule type="cellIs" dxfId="75" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="27" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="28" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S15">
-    <cfRule type="cellIs" dxfId="73" priority="17" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R15">
-    <cfRule type="cellIs" dxfId="72" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4 S16:S31 S6:S13 R10 R12 R16:R18 R22:R23 R25:R29 R31 R3">
-    <cfRule type="cellIs" dxfId="70" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="68" priority="20" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2 R19:R21 R6:R9 R11 R13 R24 R30 R4">
-    <cfRule type="cellIs" dxfId="69" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27:Q29">
-    <cfRule type="cellIs" dxfId="67" priority="14" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="14" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:P29">
-    <cfRule type="cellIs" dxfId="66" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="cellIs" dxfId="64" priority="11" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="11" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121:C1048576 C1:C17 C19:C26 C28 C30:C119 B31:B37">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E17 E19:E26 E28 E30">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I31">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K31 J3:J4 J6:J9 J11:J13 J15:J16 J19:J20 J23 J26 J30:J31">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29107,87 +29090,87 @@
     <sortCondition ref="R164"/>
   </sortState>
   <conditionalFormatting sqref="I1:I53 I78:I80 I105:I108 I133:I135 I160:I163 I188:I1048576 V164:V171 V174:V178 V180:V182 V184:V185 V187:V192 S164:S171 S174:S178 S180:S182 S184:S185 S187:S192">
-    <cfRule type="cellIs" dxfId="53" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1048576">
-    <cfRule type="cellIs" dxfId="52" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="19" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:L77">
-    <cfRule type="cellIs" dxfId="50" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55:H77">
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:H104">
-    <cfRule type="cellIs" dxfId="48" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="15" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:J104">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:H132">
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="12" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:J132">
-    <cfRule type="cellIs" dxfId="43" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J136:J159">
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H159">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J164:J187">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:H187">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y164:Y192">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T164:T192">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33210,67 +33193,67 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:M1048576">
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX4:AX27">
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ4:AV27">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AI27">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK27">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ4:BJ27">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BH27">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ28:BJ32">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB28:BH32">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39189,28 +39172,28 @@
     <sortCondition ref="I2"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40586,19 +40569,19 @@
     <mergeCell ref="AD2:AH2"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:T20">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>-0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>-0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40609,10 +40592,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO45"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40631,7 +40614,7 @@
     <col min="23" max="25" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="78" t="s">
         <v>216</v>
       </c>
@@ -40660,12 +40643,12 @@
       <c r="W1" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>224</v>
       </c>
-      <c r="BI1"/>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="BJ1"/>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
         <v>210</v>
       </c>
@@ -40673,19 +40656,19 @@
         <v>228</v>
       </c>
       <c r="AK2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR2" t="s">
         <v>227</v>
       </c>
-      <c r="AW2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD2" t="s">
+      <c r="AX2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BE2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="95" t="s">
         <v>178</v>
       </c>
@@ -40723,26 +40706,26 @@
         <v>217</v>
       </c>
       <c r="AD3" s="75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK3" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="AQ3" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="AR3" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="AW3" s="75" t="s">
+      <c r="AX3" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="BD3" s="75" t="s">
+      <c r="BE3" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="BI3"/>
-      <c r="BK3" s="75" t="s">
+      <c r="BJ3"/>
+      <c r="BL3" s="75" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="71" t="s">
         <v>162</v>
       </c>
@@ -40854,74 +40837,77 @@
       <c r="AO4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="AQ4" s="69" t="s">
+      <c r="AP4" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AR4" s="69" t="s">
+      <c r="AS4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AS4" s="69" t="s">
+      <c r="AT4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AT4" s="69" t="s">
+      <c r="AU4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AU4" s="69" t="s">
+      <c r="AV4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="AW4" s="69" t="s">
+      <c r="AX4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AX4" s="69" t="s">
+      <c r="AY4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AY4" s="69" t="s">
+      <c r="AZ4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AZ4" s="69" t="s">
+      <c r="BA4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="BA4" s="69" t="s">
+      <c r="BB4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="BB4" s="69" t="s">
+      <c r="BC4" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="BD4" s="69" t="s">
+      <c r="BE4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="BE4" s="69" t="s">
+      <c r="BF4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BF4" s="69" t="s">
+      <c r="BG4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BG4" s="69" t="s">
+      <c r="BH4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="BH4" s="69" t="s">
+      <c r="BI4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="BI4" s="69" t="s">
+      <c r="BJ4" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="BK4" s="69" t="s">
+      <c r="BL4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="BL4" s="69" t="s">
+      <c r="BM4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BM4" s="69" t="s">
+      <c r="BN4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BN4" s="69" t="s">
+      <c r="BO4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="BO4" s="69" t="s">
+      <c r="BP4" s="69" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -40992,52 +40978,73 @@
         <v>1149</v>
       </c>
       <c r="AG5">
-        <f>AD5-AW5</f>
+        <f>AD5-AX5</f>
         <v>6.3363000000000014</v>
       </c>
       <c r="AH5">
-        <f t="shared" ref="AH5:AI5" si="0">AE5-AX5</f>
+        <f>AE5-AY5</f>
         <v>-6.7799999999999985E-2</v>
       </c>
       <c r="AI5">
+        <f>AF5-AZ5</f>
+        <v>585</v>
+      </c>
+      <c r="AK5">
+        <v>113.81780000000001</v>
+      </c>
+      <c r="AL5">
+        <v>0.115518</v>
+      </c>
+      <c r="AM5">
+        <v>1259</v>
+      </c>
+      <c r="AN5">
+        <f>AK5-AD5</f>
+        <v>85.654899999999998</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" ref="AO5:AP5" si="0">AL5-AE5</f>
+        <v>2.471799999999999E-2</v>
+      </c>
+      <c r="AP5">
         <f t="shared" si="0"/>
-        <v>585</v>
-      </c>
-      <c r="AW5">
+        <v>110</v>
+      </c>
+      <c r="AX5">
         <v>21.826599999999999</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>0.15859999999999999</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>564</v>
-      </c>
-      <c r="AZ5">
-        <f>AW5-BD5</f>
-        <v>21.826599999999999</v>
       </c>
       <c r="BA5">
         <f>AX5-BE5</f>
-        <v>0.15859999999999999</v>
+        <v>21.826599999999999</v>
       </c>
       <c r="BB5">
         <f>AY5-BF5</f>
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="BC5">
+        <f>AZ5-BG5</f>
         <v>564</v>
       </c>
-      <c r="BG5">
-        <f t="shared" ref="BG5:BG43" si="1">BD5-S5</f>
+      <c r="BH5">
+        <f t="shared" ref="BH5:BH43" si="1">BE5-S5</f>
         <v>-23.66</v>
       </c>
-      <c r="BH5">
-        <f t="shared" ref="BH5:BH43" si="2">BE5-T5</f>
+      <c r="BI5">
+        <f t="shared" ref="BI5:BI43" si="2">BF5-T5</f>
         <v>-6.7900000000000002E-2</v>
       </c>
-      <c r="BI5">
-        <f t="shared" ref="BI5:BI43" si="3">BF5-U5</f>
+      <c r="BJ5">
+        <f t="shared" ref="BJ5:BJ43" si="3">BG5-U5</f>
         <v>-722</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -41088,61 +41095,82 @@
         <v>2298</v>
       </c>
       <c r="AG6">
-        <f t="shared" ref="AG6:AG22" si="7">AD6-AW6</f>
+        <f>AD6-AX6</f>
         <v>3.078400000000002</v>
       </c>
       <c r="AH6">
-        <f t="shared" ref="AH6:AH22" si="8">AE6-AX6</f>
+        <f t="shared" ref="AH6:AH22" si="7">AE6-AY6</f>
         <v>-3.2021999999999995E-2</v>
       </c>
       <c r="AI6">
-        <f t="shared" ref="AI6:AI22" si="9">AF6-AY6</f>
+        <f t="shared" ref="AI6:AI22" si="8">AF6-AZ6</f>
         <v>1114</v>
       </c>
-      <c r="AW6">
+      <c r="AK6">
+        <v>99.863500000000002</v>
+      </c>
+      <c r="AL6">
+        <v>9.5115000000000005E-2</v>
+      </c>
+      <c r="AM6">
+        <v>2448</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AN9" si="9">AK6-AD6</f>
+        <v>75.098799999999997</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" ref="AO6:AO9" si="10">AL6-AE6</f>
+        <v>3.2390000000000058E-3</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" ref="AP6:AP9" si="11">AM6-AF6</f>
+        <v>150</v>
+      </c>
+      <c r="AX6">
         <v>21.686299999999999</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>0.12389799999999999</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>1184</v>
       </c>
-      <c r="AZ6">
-        <f t="shared" ref="AZ6:AZ17" si="10">AW6-BD6</f>
+      <c r="BA6">
+        <f t="shared" ref="BA6:BA17" si="12">AX6-BE6</f>
         <v>0.3882399999999997</v>
       </c>
-      <c r="BA6">
-        <f t="shared" ref="BA6:BA17" si="11">AX6-BE6</f>
+      <c r="BB6">
+        <f t="shared" ref="BB6:BB17" si="13">AY6-BF6</f>
         <v>-2.7019999999999961E-3</v>
       </c>
-      <c r="BB6">
-        <f t="shared" ref="BB6:BB17" si="12">AY6-BF6</f>
+      <c r="BC6">
+        <f t="shared" ref="BC6:BC17" si="14">AZ6-BG6</f>
         <v>-855</v>
       </c>
-      <c r="BD6">
+      <c r="BE6">
         <v>21.29806</v>
       </c>
-      <c r="BE6">
+      <c r="BF6">
         <v>0.12659999999999999</v>
       </c>
-      <c r="BF6">
+      <c r="BG6">
         <v>2039</v>
       </c>
-      <c r="BG6">
+      <c r="BH6">
         <f t="shared" si="1"/>
         <v>1.8080600000000011</v>
       </c>
-      <c r="BH6">
+      <c r="BI6">
         <f t="shared" si="2"/>
         <v>-3.1200000000000006E-2</v>
       </c>
-      <c r="BI6">
+      <c r="BJ6">
         <f t="shared" si="3"/>
         <v>1121</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -41192,61 +41220,82 @@
         <v>630</v>
       </c>
       <c r="AG7">
+        <f>AD7-AX7</f>
+        <v>0.74465000000000003</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="7"/>
-        <v>0.74465000000000003</v>
-      </c>
-      <c r="AH7">
+        <v>-4.156999999999994E-3</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="8"/>
-        <v>-4.156999999999994E-3</v>
-      </c>
-      <c r="AI7">
+        <v>101</v>
+      </c>
+      <c r="AK7">
+        <v>81.785700000000006</v>
+      </c>
+      <c r="AL7">
+        <v>0.30153999999999997</v>
+      </c>
+      <c r="AM7">
+        <v>716</v>
+      </c>
+      <c r="AN7">
         <f t="shared" si="9"/>
-        <v>101</v>
-      </c>
-      <c r="AW7">
+        <v>56.589750000000009</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="10"/>
+        <v>0.13285999999999998</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="AX7">
         <v>24.4513</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>0.17283699999999999</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>529</v>
       </c>
-      <c r="AZ7">
-        <f t="shared" si="10"/>
+      <c r="BA7">
+        <f t="shared" si="12"/>
         <v>-2.5864000000000011</v>
       </c>
-      <c r="BA7">
-        <f t="shared" si="11"/>
+      <c r="BB7">
+        <f t="shared" si="13"/>
         <v>3.7637000000000004E-2</v>
       </c>
-      <c r="BB7">
-        <f t="shared" si="12"/>
+      <c r="BC7">
+        <f t="shared" si="14"/>
         <v>-384</v>
       </c>
-      <c r="BD7" s="81">
+      <c r="BE7" s="81">
         <v>27.037700000000001</v>
       </c>
-      <c r="BE7">
+      <c r="BF7">
         <v>0.13519999999999999</v>
       </c>
-      <c r="BF7">
+      <c r="BG7">
         <v>913</v>
       </c>
-      <c r="BG7">
+      <c r="BH7">
         <f t="shared" si="1"/>
         <v>2.9877000000000002</v>
       </c>
-      <c r="BH7">
+      <c r="BI7">
         <f t="shared" si="2"/>
         <v>-3.7000000000000005E-2</v>
       </c>
-      <c r="BI7">
+      <c r="BJ7">
         <f t="shared" si="3"/>
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -41305,52 +41354,73 @@
         <v>868</v>
       </c>
       <c r="AG8">
-        <f>AD8-AW8</f>
+        <f>AD8-AX8</f>
         <v>2.6120000000000001</v>
       </c>
       <c r="AH8">
+        <f t="shared" si="7"/>
+        <v>-4.1987999999999998E-2</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="8"/>
-        <v>-4.1987999999999998E-2</v>
-      </c>
-      <c r="AI8">
+        <v>191</v>
+      </c>
+      <c r="AK8">
+        <v>41.561320000000002</v>
+      </c>
+      <c r="AL8">
+        <v>0.2364</v>
+      </c>
+      <c r="AM8">
+        <v>929</v>
+      </c>
+      <c r="AN8">
         <f t="shared" si="9"/>
-        <v>191</v>
-      </c>
-      <c r="AW8">
+        <v>29.330920000000003</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="10"/>
+        <v>7.0418000000000008E-2</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+      <c r="AX8">
         <v>9.6183999999999994</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>0.20796999999999999</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>677</v>
       </c>
-      <c r="AZ8">
-        <f t="shared" si="10"/>
+      <c r="BA8">
+        <f t="shared" si="12"/>
         <v>9.6183999999999994</v>
       </c>
-      <c r="BA8">
-        <f t="shared" si="11"/>
+      <c r="BB8">
+        <f t="shared" si="13"/>
         <v>0.20796999999999999</v>
       </c>
-      <c r="BB8">
-        <f t="shared" si="12"/>
+      <c r="BC8">
+        <f t="shared" si="14"/>
         <v>677</v>
       </c>
-      <c r="BG8">
+      <c r="BH8">
         <f t="shared" si="1"/>
         <v>-8.4600000000000009</v>
       </c>
-      <c r="BH8">
+      <c r="BI8">
         <f t="shared" si="2"/>
         <v>-0.2122</v>
       </c>
-      <c r="BI8">
+      <c r="BJ8">
         <f t="shared" si="3"/>
         <v>-434</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -41412,61 +41482,82 @@
         <v>2004</v>
       </c>
       <c r="AG9">
+        <f>AD9-AX9</f>
+        <v>24.653100000000002</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="7"/>
-        <v>24.653100000000002</v>
-      </c>
-      <c r="AH9">
+        <v>-1.3899999999999996E-2</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="8"/>
-        <v>-1.3899999999999996E-2</v>
-      </c>
-      <c r="AI9">
+        <v>248</v>
+      </c>
+      <c r="AK9">
+        <v>185.83799999999999</v>
+      </c>
+      <c r="AL9">
+        <v>0.21282999999999999</v>
+      </c>
+      <c r="AM9">
+        <v>2228</v>
+      </c>
+      <c r="AN9">
         <f t="shared" si="9"/>
-        <v>248</v>
-      </c>
-      <c r="AW9">
+        <v>111.53399999999999</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="10"/>
+        <v>8.3379999999999982E-2</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="11"/>
+        <v>224</v>
+      </c>
+      <c r="AX9">
         <v>49.6509</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>0.14335000000000001</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>1756</v>
       </c>
-      <c r="AZ9">
-        <f t="shared" si="10"/>
+      <c r="BA9">
+        <f t="shared" si="12"/>
         <v>-2.4835800000000035</v>
       </c>
-      <c r="BA9">
-        <f t="shared" si="11"/>
+      <c r="BB9">
+        <f t="shared" si="13"/>
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="BB9">
-        <f t="shared" si="12"/>
+      <c r="BC9">
+        <f t="shared" si="14"/>
         <v>-793</v>
       </c>
-      <c r="BD9">
+      <c r="BE9">
         <v>52.134480000000003</v>
       </c>
-      <c r="BE9">
+      <c r="BF9">
         <v>7.7249999999999999E-2</v>
       </c>
-      <c r="BF9">
+      <c r="BG9">
         <v>2549</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <f t="shared" si="1"/>
         <v>5.4644800000000018</v>
       </c>
-      <c r="BH9">
+      <c r="BI9">
         <f t="shared" si="2"/>
         <v>-7.2650000000000006E-2</v>
       </c>
-      <c r="BI9">
+      <c r="BJ9">
         <f t="shared" si="3"/>
         <v>1467</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -41536,52 +41627,73 @@
         <v>883</v>
       </c>
       <c r="AG10">
+        <f>AD10-AX10</f>
+        <v>8.2198600000000006</v>
+      </c>
+      <c r="AH10">
         <f t="shared" si="7"/>
-        <v>8.2198600000000006</v>
-      </c>
-      <c r="AH10">
+        <v>-1.2492000000000003E-2</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="8"/>
-        <v>-1.2492000000000003E-2</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="AW10">
+      <c r="AK10">
+        <v>72.706999999999994</v>
+      </c>
+      <c r="AL10">
+        <v>0.21526000000000001</v>
+      </c>
+      <c r="AM10">
+        <v>1015</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" ref="AN10:AN13" si="15">AK10-AD10</f>
+        <v>43.599399999999989</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" ref="AO10:AO13" si="16">AL10-AE10</f>
+        <v>0.12449200000000001</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" ref="AP10:AP13" si="17">AM10-AF10</f>
+        <v>132</v>
+      </c>
+      <c r="AX10">
         <v>20.887740000000001</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>0.10326</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>857</v>
       </c>
-      <c r="AZ10">
-        <f t="shared" si="10"/>
+      <c r="BA10">
+        <f t="shared" si="12"/>
         <v>20.887740000000001</v>
       </c>
-      <c r="BA10">
-        <f t="shared" si="11"/>
+      <c r="BB10">
+        <f t="shared" si="13"/>
         <v>0.10326</v>
       </c>
-      <c r="BB10">
-        <f t="shared" si="12"/>
+      <c r="BC10">
+        <f t="shared" si="14"/>
         <v>857</v>
       </c>
-      <c r="BG10">
+      <c r="BH10">
         <f t="shared" si="1"/>
         <v>-18.89</v>
       </c>
-      <c r="BH10">
+      <c r="BI10">
         <f t="shared" si="2"/>
         <v>-0.1711</v>
       </c>
-      <c r="BI10">
+      <c r="BJ10">
         <f t="shared" si="3"/>
         <v>-628</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -41631,61 +41743,82 @@
         <v>988</v>
       </c>
       <c r="AG11">
+        <f>AD11-AX11</f>
+        <v>3.8467199999999977</v>
+      </c>
+      <c r="AH11">
         <f t="shared" si="7"/>
-        <v>3.8467199999999977</v>
-      </c>
-      <c r="AH11">
+        <v>-3.033000000000001E-2</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="8"/>
-        <v>-3.033000000000001E-2</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="9"/>
         <v>446</v>
       </c>
-      <c r="AW11">
+      <c r="AK11">
+        <v>68.496600000000001</v>
+      </c>
+      <c r="AL11">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="AM11">
+        <v>1133</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="15"/>
+        <v>48.030640000000005</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="16"/>
+        <v>6.7830000000000015E-2</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="17"/>
+        <v>145</v>
+      </c>
+      <c r="AX11">
         <v>16.619240000000001</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>0.1237</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>542</v>
       </c>
-      <c r="AZ11">
-        <f t="shared" si="10"/>
+      <c r="BA11">
+        <f t="shared" si="12"/>
         <v>-2.7645599999999995</v>
       </c>
-      <c r="BA11">
-        <f t="shared" si="11"/>
+      <c r="BB11">
+        <f t="shared" si="13"/>
         <v>4.224E-2</v>
       </c>
-      <c r="BB11">
-        <f t="shared" si="12"/>
+      <c r="BC11">
+        <f t="shared" si="14"/>
         <v>-320</v>
       </c>
-      <c r="BD11">
+      <c r="BE11">
         <v>19.383800000000001</v>
       </c>
-      <c r="BE11">
+      <c r="BF11">
         <v>8.1460000000000005E-2</v>
       </c>
-      <c r="BF11">
+      <c r="BG11">
         <v>862</v>
       </c>
-      <c r="BG11">
+      <c r="BH11">
         <f t="shared" si="1"/>
         <v>3.3238000000000021</v>
       </c>
-      <c r="BH11">
+      <c r="BI11">
         <f t="shared" si="2"/>
         <v>-4.8839999999999995E-2</v>
       </c>
-      <c r="BI11">
+      <c r="BJ11">
         <f t="shared" si="3"/>
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -41735,43 +41868,64 @@
         <v>-588</v>
       </c>
       <c r="AG12">
+        <f>AD12-AX12</f>
+        <v>0</v>
+      </c>
+      <c r="AH12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="AK12">
+        <v>95.403899999999993</v>
+      </c>
+      <c r="AL12">
+        <v>0.29437999999999998</v>
+      </c>
+      <c r="AM12">
+        <v>1157</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="15"/>
+        <v>95.403899999999993</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="16"/>
+        <v>0.29437999999999998</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="17"/>
+        <v>1157</v>
       </c>
       <c r="BA12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BB12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BG12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BH12">
         <f t="shared" si="1"/>
         <v>-20.85</v>
       </c>
-      <c r="BH12">
+      <c r="BI12">
         <f t="shared" si="2"/>
         <v>-0.32519999999999999</v>
       </c>
-      <c r="BI12">
+      <c r="BJ12">
         <f t="shared" si="3"/>
         <v>-588</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -41831,43 +41985,64 @@
         <v>21</v>
       </c>
       <c r="AG13">
+        <f>AD13-AX13</f>
+        <v>0</v>
+      </c>
+      <c r="AH13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="AK13">
+        <v>114.5904</v>
+      </c>
+      <c r="AL13">
+        <v>0.16016</v>
+      </c>
+      <c r="AM13">
+        <v>1375</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="15"/>
+        <v>114.5904</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="16"/>
+        <v>0.16016</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="17"/>
+        <v>1375</v>
       </c>
       <c r="BA13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BB13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BG13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BH13">
         <f t="shared" si="1"/>
         <v>-33.68</v>
       </c>
-      <c r="BH13">
+      <c r="BI13">
         <f t="shared" si="2"/>
         <v>-0.11020000000000001</v>
       </c>
-      <c r="BI13">
+      <c r="BJ13">
         <f t="shared" si="3"/>
         <v>-778</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -41917,61 +42092,82 @@
         <v>1064</v>
       </c>
       <c r="AG14">
+        <f>AD14-AX14</f>
+        <v>4.7050000000000001</v>
+      </c>
+      <c r="AH14">
         <f t="shared" si="7"/>
-        <v>4.7050000000000001</v>
-      </c>
-      <c r="AH14">
+        <v>-8.7299999999999989E-2</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="8"/>
-        <v>-8.7299999999999989E-2</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="9"/>
         <v>537</v>
       </c>
-      <c r="AW14">
+      <c r="AK14">
+        <v>71.672600000000003</v>
+      </c>
+      <c r="AL14">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="AM14">
+        <v>1154</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" ref="AN14:AN43" si="18">AK14-AD14</f>
+        <v>53.567700000000002</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" ref="AO14:AO43" si="19">AL14-AE14</f>
+        <v>2.8599999999999987E-2</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" ref="AP14:AP43" si="20">AM14-AF14</f>
+        <v>90</v>
+      </c>
+      <c r="AX14">
         <v>13.399900000000001</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>0.215</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>527</v>
       </c>
-      <c r="AZ14">
-        <f t="shared" si="10"/>
+      <c r="BA14">
+        <f t="shared" si="12"/>
         <v>-0.30439999999999934</v>
       </c>
-      <c r="BA14">
-        <f t="shared" si="11"/>
+      <c r="BB14">
+        <f t="shared" si="13"/>
         <v>4.0199999999999986E-2</v>
       </c>
-      <c r="BB14">
-        <f t="shared" si="12"/>
+      <c r="BC14">
+        <f t="shared" si="14"/>
         <v>-495</v>
       </c>
-      <c r="BD14">
+      <c r="BE14">
         <v>13.7043</v>
       </c>
-      <c r="BE14">
+      <c r="BF14">
         <v>0.17480000000000001</v>
       </c>
-      <c r="BF14">
+      <c r="BG14">
         <v>1022</v>
       </c>
-      <c r="BG14">
+      <c r="BH14">
         <f t="shared" si="1"/>
         <v>0.5343</v>
       </c>
-      <c r="BH14">
+      <c r="BI14">
         <f t="shared" si="2"/>
         <v>-4.8999999999999988E-2</v>
       </c>
-      <c r="BI14">
+      <c r="BJ14">
         <f t="shared" si="3"/>
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -42021,43 +42217,64 @@
         <v>-663</v>
       </c>
       <c r="AG15">
+        <f>AD15-AX15</f>
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI15">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="AK15">
+        <v>90.829400000000007</v>
+      </c>
+      <c r="AL15">
+        <v>0.1797</v>
+      </c>
+      <c r="AM15">
+        <v>1656</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="18"/>
+        <v>90.829400000000007</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="19"/>
+        <v>0.1797</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="20"/>
+        <v>1656</v>
       </c>
       <c r="BA15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BB15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BG15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BH15">
         <f t="shared" si="1"/>
         <v>-19.57</v>
       </c>
-      <c r="BH15">
+      <c r="BI15">
         <f t="shared" si="2"/>
         <v>-0.23630000000000001</v>
       </c>
-      <c r="BI15">
+      <c r="BJ15">
         <f t="shared" si="3"/>
         <v>-663</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -42098,52 +42315,73 @@
         <v>-716</v>
       </c>
       <c r="AG16">
+        <f>AD16-AX16</f>
+        <v>0</v>
+      </c>
+      <c r="AH16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI16">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <f t="shared" si="10"/>
+      <c r="AK16">
+        <v>240.0746</v>
+      </c>
+      <c r="AL16">
+        <v>8.5360000000000005E-2</v>
+      </c>
+      <c r="AM16">
+        <v>1396</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="18"/>
+        <v>240.0746</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="19"/>
+        <v>8.5360000000000005E-2</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="20"/>
+        <v>1396</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="12"/>
         <v>-53.034950000000002</v>
       </c>
-      <c r="BA16">
-        <f t="shared" si="11"/>
+      <c r="BB16">
+        <f t="shared" si="13"/>
         <v>-5.9695999999999999E-2</v>
       </c>
-      <c r="BB16">
-        <f t="shared" si="12"/>
+      <c r="BC16">
+        <f t="shared" si="14"/>
         <v>-1133</v>
       </c>
-      <c r="BD16">
+      <c r="BE16">
         <v>53.034950000000002</v>
       </c>
-      <c r="BE16">
+      <c r="BF16">
         <v>5.9695999999999999E-2</v>
       </c>
-      <c r="BF16">
+      <c r="BG16">
         <v>1133</v>
       </c>
-      <c r="BG16">
+      <c r="BH16">
         <f t="shared" si="1"/>
         <v>0.5049500000000009</v>
       </c>
-      <c r="BH16">
+      <c r="BI16">
         <f t="shared" si="2"/>
         <v>1.0396000000000002E-2</v>
       </c>
-      <c r="BI16">
+      <c r="BJ16">
         <f t="shared" si="3"/>
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -42202,43 +42440,64 @@
         <v>57</v>
       </c>
       <c r="AG17">
+        <f>AD17-AX17</f>
+        <v>0</v>
+      </c>
+      <c r="AH17">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="AK17">
+        <v>151.08240000000001</v>
+      </c>
+      <c r="AL17">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="AM17">
+        <v>527</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="18"/>
+        <v>151.08240000000001</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="19"/>
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="20"/>
+        <v>527</v>
       </c>
       <c r="BA17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BB17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BG17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BH17">
         <f t="shared" si="1"/>
         <v>-31.77</v>
       </c>
-      <c r="BH17">
+      <c r="BI17">
         <f t="shared" si="2"/>
         <v>-0.2361</v>
       </c>
-      <c r="BI17">
+      <c r="BJ17">
         <f t="shared" si="3"/>
         <v>-231</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -42297,31 +42556,52 @@
         <v>40</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="7"/>
+        <f>AD18-AX18</f>
         <v>0</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AH18" si="21">AE18-AY18</f>
         <v>0</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BG18">
+        <f t="shared" ref="AI18" si="22">AF18-AZ18</f>
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>76.399000000000001</v>
+      </c>
+      <c r="AL18">
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="AM18">
+        <v>947</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" ref="AN18" si="23">AK18-AD18</f>
+        <v>76.399000000000001</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" ref="AO18" si="24">AL18-AE18</f>
+        <v>0.15029999999999999</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" ref="AP18" si="25">AM18-AF18</f>
+        <v>947</v>
+      </c>
+      <c r="BH18">
         <f t="shared" si="1"/>
         <v>-13.96</v>
       </c>
-      <c r="BH18">
+      <c r="BI18">
         <f t="shared" si="2"/>
         <v>-0.1061</v>
       </c>
-      <c r="BI18">
+      <c r="BJ18">
         <f t="shared" si="3"/>
         <v>-343</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -42372,31 +42652,52 @@
         <v>-320</v>
       </c>
       <c r="AG19">
+        <f>AD19-AX19</f>
+        <v>0</v>
+      </c>
+      <c r="AH19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BG19">
+      <c r="AK19">
+        <v>80.852900000000005</v>
+      </c>
+      <c r="AL19">
+        <v>0.24697</v>
+      </c>
+      <c r="AM19">
+        <v>734</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="18"/>
+        <v>80.852900000000005</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="19"/>
+        <v>0.24697</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="20"/>
+        <v>734</v>
+      </c>
+      <c r="BH19">
         <f t="shared" si="1"/>
         <v>-22.79</v>
       </c>
-      <c r="BH19">
+      <c r="BI19">
         <f t="shared" si="2"/>
         <v>-0.28999999999999998</v>
       </c>
-      <c r="BI19">
+      <c r="BJ19">
         <f t="shared" si="3"/>
         <v>-320</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -42437,40 +42738,61 @@
         <v>-283</v>
       </c>
       <c r="AG20">
+        <f>AD20-AX20</f>
+        <v>0</v>
+      </c>
+      <c r="AH20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI20">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BD20">
+      <c r="AK20">
+        <v>225.16650000000001</v>
+      </c>
+      <c r="AL20">
+        <v>0.1212</v>
+      </c>
+      <c r="AM20">
+        <v>651</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="18"/>
+        <v>225.16650000000001</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="19"/>
+        <v>0.1212</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="20"/>
+        <v>651</v>
+      </c>
+      <c r="BE20">
         <v>68.383750000000006</v>
       </c>
-      <c r="BE20">
+      <c r="BF20">
         <v>0.11585139999999999</v>
       </c>
-      <c r="BF20">
+      <c r="BG20">
         <v>454</v>
       </c>
-      <c r="BG20">
+      <c r="BH20">
         <f t="shared" si="1"/>
         <v>4.6937500000000085</v>
       </c>
-      <c r="BH20">
+      <c r="BI20">
         <f t="shared" si="2"/>
         <v>1.5651399999999996E-2</v>
       </c>
-      <c r="BI20">
+      <c r="BJ20">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -42532,31 +42854,52 @@
         <v>106</v>
       </c>
       <c r="AG21">
+        <f>AD21-AX21</f>
+        <v>0</v>
+      </c>
+      <c r="AH21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI21">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BG21">
+      <c r="AK21">
+        <v>48.740499999999997</v>
+      </c>
+      <c r="AL21">
+        <v>0.1769</v>
+      </c>
+      <c r="AM21">
+        <v>1742</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="18"/>
+        <v>48.740499999999997</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="19"/>
+        <v>0.1769</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="20"/>
+        <v>1742</v>
+      </c>
+      <c r="BH21">
         <f t="shared" si="1"/>
         <v>-11.31</v>
       </c>
-      <c r="BH21">
+      <c r="BI21">
         <f t="shared" si="2"/>
         <v>-0.11219999999999999</v>
       </c>
-      <c r="BI21">
+      <c r="BJ21">
         <f t="shared" si="3"/>
         <v>-646</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -42606,31 +42949,52 @@
         <v>-236</v>
       </c>
       <c r="AG22">
+        <f>AD22-AX22</f>
+        <v>0</v>
+      </c>
+      <c r="AH22">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AI22">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="BG22">
+      <c r="AK22">
+        <v>56.912999999999997</v>
+      </c>
+      <c r="AL22">
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="AM22">
+        <v>963</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="18"/>
+        <v>56.912999999999997</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="19"/>
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="20"/>
+        <v>963</v>
+      </c>
+      <c r="BH22">
         <f t="shared" si="1"/>
         <v>-10.199999999999999</v>
       </c>
-      <c r="BH22">
+      <c r="BI22">
         <f t="shared" si="2"/>
         <v>-0.37130000000000002</v>
       </c>
-      <c r="BI22">
+      <c r="BJ22">
         <f t="shared" si="3"/>
         <v>-236</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -42670,29 +43034,50 @@
         <f t="shared" si="6"/>
         <v>-323</v>
       </c>
-      <c r="BD23">
+      <c r="AK23">
+        <v>74.535600000000002</v>
+      </c>
+      <c r="AL23">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="AM23">
+        <v>579</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="18"/>
+        <v>74.535600000000002</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="19"/>
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="20"/>
+        <v>579</v>
+      </c>
+      <c r="BE23">
         <v>15.04355</v>
       </c>
-      <c r="BE23">
+      <c r="BF23">
         <v>9.3257999999999994E-2</v>
       </c>
-      <c r="BF23">
+      <c r="BG23">
         <v>829</v>
       </c>
-      <c r="BG23">
+      <c r="BH23">
         <f t="shared" si="1"/>
         <v>0.11355000000000004</v>
       </c>
-      <c r="BH23">
+      <c r="BI23">
         <f t="shared" si="2"/>
         <v>-6.9420000000000037E-3</v>
       </c>
-      <c r="BI23">
+      <c r="BJ23">
         <f t="shared" si="3"/>
         <v>506</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -42732,29 +43117,50 @@
         <f t="shared" si="6"/>
         <v>-283</v>
       </c>
-      <c r="BD24">
+      <c r="AK24">
+        <v>121.116</v>
+      </c>
+      <c r="AL24">
+        <v>0.2165</v>
+      </c>
+      <c r="AM24">
+        <v>462</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="18"/>
+        <v>121.116</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="19"/>
+        <v>0.2165</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="20"/>
+        <v>462</v>
+      </c>
+      <c r="BE24">
         <v>21.397960000000001</v>
       </c>
-      <c r="BE24">
+      <c r="BF24">
         <v>0.14054</v>
       </c>
-      <c r="BF24">
+      <c r="BG24">
         <v>602</v>
       </c>
-      <c r="BG24">
+      <c r="BH24">
         <f t="shared" si="1"/>
         <v>-2.0920399999999972</v>
       </c>
-      <c r="BH24">
+      <c r="BI24">
         <f t="shared" si="2"/>
         <v>-8.1600000000000006E-3</v>
       </c>
-      <c r="BI24">
+      <c r="BJ24">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -42813,20 +43219,41 @@
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
-      <c r="BG25">
+      <c r="AK25">
+        <v>98.161590000000004</v>
+      </c>
+      <c r="AL25">
+        <v>0.26608999999999999</v>
+      </c>
+      <c r="AM25">
+        <v>599</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="18"/>
+        <v>98.161590000000004</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="19"/>
+        <v>0.26608999999999999</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="20"/>
+        <v>599</v>
+      </c>
+      <c r="BH25">
         <f t="shared" si="1"/>
         <v>-17.02</v>
       </c>
-      <c r="BH25">
+      <c r="BI25">
         <f t="shared" si="2"/>
         <v>-0.21240000000000001</v>
       </c>
-      <c r="BI25">
+      <c r="BJ25">
         <f t="shared" si="3"/>
         <v>-204</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -42886,20 +43313,41 @@
         <f t="shared" si="6"/>
         <v>121</v>
       </c>
-      <c r="BG26">
+      <c r="AK26">
+        <v>72.231539999999995</v>
+      </c>
+      <c r="AL26">
+        <v>0.2412</v>
+      </c>
+      <c r="AM26">
+        <v>795</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="18"/>
+        <v>72.231539999999995</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="19"/>
+        <v>0.2412</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="20"/>
+        <v>795</v>
+      </c>
+      <c r="BH26">
         <f t="shared" si="1"/>
         <v>-10.1</v>
       </c>
-      <c r="BH26">
+      <c r="BI26">
         <f t="shared" si="2"/>
         <v>-0.3599</v>
       </c>
-      <c r="BI26">
+      <c r="BJ26">
         <f t="shared" si="3"/>
         <v>-220</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -42958,20 +43406,41 @@
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="BG27">
+      <c r="AK27">
+        <v>83.323599999999999</v>
+      </c>
+      <c r="AL27">
+        <v>0.31533</v>
+      </c>
+      <c r="AM27">
+        <v>421</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="18"/>
+        <v>83.323599999999999</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" si="19"/>
+        <v>0.31533</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="20"/>
+        <v>421</v>
+      </c>
+      <c r="BH27">
         <f t="shared" si="1"/>
         <v>-22.76</v>
       </c>
-      <c r="BH27">
+      <c r="BI27">
         <f t="shared" si="2"/>
         <v>-0.27900000000000003</v>
       </c>
-      <c r="BI27">
+      <c r="BJ27">
         <f t="shared" si="3"/>
         <v>-174</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -43031,20 +43500,41 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="BG28">
+      <c r="AK28">
+        <v>119.6892</v>
+      </c>
+      <c r="AL28">
+        <v>0.22966</v>
+      </c>
+      <c r="AM28">
+        <v>408</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="18"/>
+        <v>119.6892</v>
+      </c>
+      <c r="AO28">
+        <f t="shared" si="19"/>
+        <v>0.22966</v>
+      </c>
+      <c r="AP28">
+        <f t="shared" si="20"/>
+        <v>408</v>
+      </c>
+      <c r="BH28">
         <f t="shared" si="1"/>
         <v>-30.57</v>
       </c>
-      <c r="BH28">
+      <c r="BI28">
         <f t="shared" si="2"/>
         <v>-0.26269999999999999</v>
       </c>
-      <c r="BI28">
+      <c r="BJ28">
         <f t="shared" si="3"/>
         <v>-165</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -43104,20 +43594,41 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="BG29">
+      <c r="AK29">
+        <v>91.474900000000005</v>
+      </c>
+      <c r="AL29">
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="AM29">
+        <v>712</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="18"/>
+        <v>91.474900000000005</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="19"/>
+        <v>0.34320000000000001</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="20"/>
+        <v>712</v>
+      </c>
+      <c r="BH29">
         <f t="shared" si="1"/>
         <v>-19.22</v>
       </c>
-      <c r="BH29">
+      <c r="BI29">
         <f t="shared" si="2"/>
         <v>-0.3029</v>
       </c>
-      <c r="BI29">
+      <c r="BJ29">
         <f t="shared" si="3"/>
         <v>-324</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -43177,20 +43688,41 @@
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="BG30">
+      <c r="AK30">
+        <v>88.2821</v>
+      </c>
+      <c r="AL30">
+        <v>8.9889999999999998E-2</v>
+      </c>
+      <c r="AM30">
+        <v>454</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="18"/>
+        <v>88.2821</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="19"/>
+        <v>8.9889999999999998E-2</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="20"/>
+        <v>454</v>
+      </c>
+      <c r="BH30">
         <f t="shared" si="1"/>
         <v>-11.61</v>
       </c>
-      <c r="BH30">
+      <c r="BI30">
         <f t="shared" si="2"/>
         <v>-6.8199999999999997E-2</v>
       </c>
-      <c r="BI30">
+      <c r="BJ30">
         <f t="shared" si="3"/>
         <v>-233</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -43248,20 +43780,41 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="BG31">
+      <c r="AK31">
+        <v>67.405699999999996</v>
+      </c>
+      <c r="AL31">
+        <v>0.19688</v>
+      </c>
+      <c r="AM31">
+        <v>327</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="18"/>
+        <v>67.405699999999996</v>
+      </c>
+      <c r="AO31">
+        <f t="shared" si="19"/>
+        <v>0.19688</v>
+      </c>
+      <c r="AP31">
+        <f t="shared" si="20"/>
+        <v>327</v>
+      </c>
+      <c r="BH31">
         <f t="shared" si="1"/>
         <v>-16.989999999999998</v>
       </c>
-      <c r="BH31">
+      <c r="BI31">
         <f t="shared" si="2"/>
         <v>-0.20349999999999999</v>
       </c>
-      <c r="BI31">
+      <c r="BJ31">
         <f t="shared" si="3"/>
         <v>-140</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -43320,20 +43873,41 @@
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="BG32">
+      <c r="AK32">
+        <v>84.632999999999996</v>
+      </c>
+      <c r="AL32">
+        <v>0.2198</v>
+      </c>
+      <c r="AM32">
+        <v>828</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="18"/>
+        <v>84.632999999999996</v>
+      </c>
+      <c r="AO32">
+        <f t="shared" si="19"/>
+        <v>0.2198</v>
+      </c>
+      <c r="AP32">
+        <f t="shared" si="20"/>
+        <v>828</v>
+      </c>
+      <c r="BH32">
         <f t="shared" si="1"/>
         <v>-14.08</v>
       </c>
-      <c r="BH32">
+      <c r="BI32">
         <f t="shared" si="2"/>
         <v>-0.26400000000000001</v>
       </c>
-      <c r="BI32">
+      <c r="BJ32">
         <f t="shared" si="3"/>
         <v>-318</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -43392,20 +43966,41 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="BG33">
+      <c r="AK33">
+        <v>113.6572</v>
+      </c>
+      <c r="AL33">
+        <v>0.13764999999999999</v>
+      </c>
+      <c r="AM33">
+        <v>1052</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="18"/>
+        <v>113.6572</v>
+      </c>
+      <c r="AO33">
+        <f t="shared" si="19"/>
+        <v>0.13764999999999999</v>
+      </c>
+      <c r="AP33">
+        <f t="shared" si="20"/>
+        <v>1052</v>
+      </c>
+      <c r="BH33">
         <f t="shared" si="1"/>
         <v>-27.43</v>
       </c>
-      <c r="BH33">
+      <c r="BI33">
         <f t="shared" si="2"/>
         <v>-0.1033</v>
       </c>
-      <c r="BI33">
+      <c r="BJ33">
         <f t="shared" si="3"/>
         <v>-477</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -43445,29 +44040,50 @@
         <f t="shared" si="6"/>
         <v>-530</v>
       </c>
-      <c r="BD34">
+      <c r="AK34">
+        <v>46.363799999999998</v>
+      </c>
+      <c r="AL34">
+        <v>0.27146999999999999</v>
+      </c>
+      <c r="AM34">
+        <v>840</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="18"/>
+        <v>46.363799999999998</v>
+      </c>
+      <c r="AO34">
+        <f t="shared" si="19"/>
+        <v>0.27146999999999999</v>
+      </c>
+      <c r="AP34">
+        <f t="shared" si="20"/>
+        <v>840</v>
+      </c>
+      <c r="BE34">
         <v>14.0328</v>
       </c>
-      <c r="BE34">
+      <c r="BF34">
         <v>0.1895</v>
       </c>
-      <c r="BF34">
+      <c r="BG34">
         <v>764</v>
       </c>
-      <c r="BG34">
+      <c r="BH34">
         <f t="shared" si="1"/>
         <v>2.5128000000000004</v>
       </c>
-      <c r="BH34">
+      <c r="BI34">
         <f t="shared" si="2"/>
         <v>-5.1600000000000007E-2</v>
       </c>
-      <c r="BI34">
+      <c r="BJ34">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -43507,29 +44123,50 @@
         <f t="shared" si="6"/>
         <v>-454</v>
       </c>
-      <c r="BD35">
+      <c r="AK35">
+        <v>30.443850000000001</v>
+      </c>
+      <c r="AL35">
+        <v>0.28094999999999998</v>
+      </c>
+      <c r="AM35">
+        <v>610</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="18"/>
+        <v>30.443850000000001</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="19"/>
+        <v>0.28094999999999998</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="20"/>
+        <v>610</v>
+      </c>
+      <c r="BE35">
         <v>8.6080649999999999</v>
       </c>
-      <c r="BE35">
+      <c r="BF35">
         <v>0.2099</v>
       </c>
-      <c r="BF35">
+      <c r="BG35">
         <v>477</v>
       </c>
-      <c r="BG35">
+      <c r="BH35">
         <f t="shared" si="1"/>
         <v>3.8064999999999571E-2</v>
       </c>
-      <c r="BH35">
+      <c r="BI35">
         <f t="shared" si="2"/>
         <v>-2.2999999999999965E-3</v>
       </c>
-      <c r="BI35">
+      <c r="BJ35">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -43587,20 +44224,41 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="BG36">
+      <c r="AK36">
+        <v>66.238900000000001</v>
+      </c>
+      <c r="AL36">
+        <v>0.42817</v>
+      </c>
+      <c r="AM36">
+        <v>307</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="18"/>
+        <v>66.238900000000001</v>
+      </c>
+      <c r="AO36">
+        <f t="shared" si="19"/>
+        <v>0.42817</v>
+      </c>
+      <c r="AP36">
+        <f t="shared" si="20"/>
+        <v>307</v>
+      </c>
+      <c r="BH36">
         <f t="shared" si="1"/>
         <v>-26.52</v>
       </c>
-      <c r="BH36">
+      <c r="BI36">
         <f t="shared" si="2"/>
         <v>-0.36399999999999999</v>
       </c>
-      <c r="BI36">
+      <c r="BJ36">
         <f t="shared" si="3"/>
         <v>-159</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -43658,20 +44316,41 @@
         <f t="shared" si="6"/>
         <v>138</v>
       </c>
-      <c r="BG37">
+      <c r="AK37">
+        <v>157.17169999999999</v>
+      </c>
+      <c r="AL37">
+        <v>9.6170000000000005E-2</v>
+      </c>
+      <c r="AM37">
+        <v>464</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="18"/>
+        <v>157.17169999999999</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" si="19"/>
+        <v>9.6170000000000005E-2</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" si="20"/>
+        <v>464</v>
+      </c>
+      <c r="BH37">
         <f t="shared" si="1"/>
         <v>-39.68</v>
       </c>
-      <c r="BH37">
+      <c r="BI37">
         <f t="shared" si="2"/>
         <v>-0.1246</v>
       </c>
-      <c r="BI37">
+      <c r="BJ37">
         <f t="shared" si="3"/>
         <v>-250</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -43731,20 +44410,41 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="BG38">
+      <c r="AK38">
+        <v>98.72</v>
+      </c>
+      <c r="AL38">
+        <v>0.21548</v>
+      </c>
+      <c r="AM38">
+        <v>508</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="18"/>
+        <v>98.72</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="19"/>
+        <v>0.21548</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="20"/>
+        <v>508</v>
+      </c>
+      <c r="BH38">
         <f t="shared" si="1"/>
         <v>-22.22</v>
       </c>
-      <c r="BH38">
+      <c r="BI38">
         <f t="shared" si="2"/>
         <v>-0.30280000000000001</v>
       </c>
-      <c r="BI38">
+      <c r="BJ38">
         <f t="shared" si="3"/>
         <v>-263</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -43802,20 +44502,41 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="BG39">
+      <c r="AK39">
+        <v>102.0086</v>
+      </c>
+      <c r="AL39">
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="AM39">
+        <v>230</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" si="18"/>
+        <v>102.0086</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="19"/>
+        <v>7.3599999999999999E-2</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="20"/>
+        <v>230</v>
+      </c>
+      <c r="BH39">
         <f t="shared" si="1"/>
         <v>-26.34</v>
       </c>
-      <c r="BH39">
+      <c r="BI39">
         <f t="shared" si="2"/>
         <v>-0.22470000000000001</v>
       </c>
-      <c r="BI39">
+      <c r="BJ39">
         <f t="shared" si="3"/>
         <v>-137</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -43855,29 +44576,50 @@
         <f t="shared" si="6"/>
         <v>-173</v>
       </c>
-      <c r="BD40">
+      <c r="AK40">
+        <v>90.071899999999999</v>
+      </c>
+      <c r="AL40">
+        <v>0.2913</v>
+      </c>
+      <c r="AM40">
+        <v>301</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="18"/>
+        <v>90.071899999999999</v>
+      </c>
+      <c r="AO40">
+        <f t="shared" si="19"/>
+        <v>0.2913</v>
+      </c>
+      <c r="AP40">
+        <f t="shared" si="20"/>
+        <v>301</v>
+      </c>
+      <c r="BE40">
         <v>19.668900000000001</v>
       </c>
-      <c r="BE40" s="81">
+      <c r="BF40" s="81">
         <v>0.33239999999999997</v>
       </c>
-      <c r="BF40">
+      <c r="BG40">
         <v>211</v>
       </c>
-      <c r="BG40">
+      <c r="BH40">
         <f t="shared" si="1"/>
         <v>-0.47109999999999985</v>
       </c>
-      <c r="BH40">
+      <c r="BI40">
         <f t="shared" si="2"/>
         <v>0.16209999999999997</v>
       </c>
-      <c r="BI40">
+      <c r="BJ40">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -43917,29 +44659,50 @@
         <f t="shared" si="6"/>
         <v>-248</v>
       </c>
-      <c r="BD41">
+      <c r="AK41">
+        <v>46.406399999999998</v>
+      </c>
+      <c r="AL41">
+        <v>0.15325</v>
+      </c>
+      <c r="AM41">
+        <v>404</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="18"/>
+        <v>46.406399999999998</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="19"/>
+        <v>0.15325</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="20"/>
+        <v>404</v>
+      </c>
+      <c r="BE41">
         <v>9.7552000000000003</v>
       </c>
-      <c r="BE41">
+      <c r="BF41">
         <v>0.16739999999999999</v>
       </c>
-      <c r="BF41">
+      <c r="BG41">
         <v>260</v>
       </c>
-      <c r="BG41">
+      <c r="BH41">
         <f t="shared" si="1"/>
         <v>4.5199999999999463E-2</v>
       </c>
-      <c r="BH41">
+      <c r="BI41">
         <f t="shared" si="2"/>
         <v>-1.9600000000000006E-2</v>
       </c>
-      <c r="BI41">
+      <c r="BJ41">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -43979,29 +44742,50 @@
         <f t="shared" si="6"/>
         <v>-108</v>
       </c>
-      <c r="BD42">
+      <c r="AK42">
+        <v>83.256900000000002</v>
+      </c>
+      <c r="AL42">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AM42">
+        <v>212</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" si="18"/>
+        <v>83.256900000000002</v>
+      </c>
+      <c r="AO42">
+        <f t="shared" si="19"/>
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AP42">
+        <f t="shared" si="20"/>
+        <v>212</v>
+      </c>
+      <c r="BE42">
         <v>12.31058</v>
       </c>
-      <c r="BE42">
+      <c r="BF42">
         <v>0.19095999999999999</v>
       </c>
-      <c r="BF42">
+      <c r="BG42">
         <v>115</v>
       </c>
-      <c r="BG42">
+      <c r="BH42">
         <f t="shared" si="1"/>
         <v>-0.149420000000001</v>
       </c>
-      <c r="BH42">
+      <c r="BI42">
         <f t="shared" si="2"/>
         <v>-6.540000000000018E-3</v>
       </c>
-      <c r="BI42">
+      <c r="BJ42">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>186</v>
       </c>
@@ -44041,29 +44825,50 @@
         <f t="shared" si="6"/>
         <v>-117</v>
       </c>
-      <c r="BD43">
+      <c r="AK43">
+        <v>215.42920000000001</v>
+      </c>
+      <c r="AL43">
+        <v>0.25890000000000002</v>
+      </c>
+      <c r="AM43">
+        <v>202</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="18"/>
+        <v>215.42920000000001</v>
+      </c>
+      <c r="AO43">
+        <f t="shared" si="19"/>
+        <v>0.25890000000000002</v>
+      </c>
+      <c r="AP43">
+        <f t="shared" si="20"/>
+        <v>202</v>
+      </c>
+      <c r="BE43">
         <v>41.243749999999999</v>
       </c>
-      <c r="BE43">
+      <c r="BF43">
         <v>0.32723000000000002</v>
       </c>
-      <c r="BF43">
+      <c r="BG43">
         <v>145</v>
       </c>
-      <c r="BG43">
+      <c r="BH43">
         <f t="shared" si="1"/>
         <v>7.9637499999999974</v>
       </c>
-      <c r="BH43">
+      <c r="BI43">
         <f t="shared" si="2"/>
         <v>3.6930000000000018E-2</v>
       </c>
-      <c r="BI43">
+      <c r="BJ43">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.35">
       <c r="Z45">
         <f>SUM(Z5,Z9:Z10,Z13,Z17:Z18,Z21,Z25:Z33,Z36:Z39)</f>
         <v>20.418899999999997</v>
@@ -44072,12 +44877,12 @@
         <f>SUM(AA5,AA9:AA10,AA13,AA17:AA18,AA21,AA25:AA33,AA36:AA39)</f>
         <v>0.1336999999999999</v>
       </c>
-      <c r="BG45">
-        <f>SUM(BG6:BG7,BG9,BG11,BG14,BG16,BG20,BG23:BG24,BG34:BG35,BG40:BG43)</f>
-        <v>27.277845000000013</v>
-      </c>
       <c r="BH45">
         <f>SUM(BH6:BH7,BH9,BH11,BH14,BH16,BH20,BH23:BH24,BH34:BH35,BH40:BH43)</f>
+        <v>27.277845000000013</v>
+      </c>
+      <c r="BI45">
+        <f>SUM(BI6:BI7,BI9,BI11,BI14,BI16,BI20,BI23:BI24,BI34:BI35,BI40:BI43)</f>
         <v>-0.10875460000000006</v>
       </c>
     </row>
@@ -44088,47 +44893,37 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:O3"/>
   </mergeCells>
-  <conditionalFormatting sqref="Z5:Z43">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
+  <conditionalFormatting sqref="Z5:Z43 BH5:BH43">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA45:AB45 AA5:AB43">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="AA45:AB45 AA5:AB43 BI5:BJ43">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z45">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA46:AB46">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z46">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG5:BG43">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH5:BH43">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG45:BH45">
+  <conditionalFormatting sqref="BH45:BI45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI1:BI3 BI5:BI43">
+  <conditionalFormatting sqref="BJ1:BJ3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="234">
   <si>
     <t>Species</t>
   </si>
@@ -722,6 +722,12 @@
   </si>
   <si>
     <t>Rexamine removing outliers: only remove extreme outliers ( indwt &lt;0.005, length&lt;0, RelCond &gt;300)</t>
+  </si>
+  <si>
+    <t>% n diff</t>
+  </si>
+  <si>
+    <t>Removing outliers: same as AK2, plus remove outside of 2*Std Dev</t>
   </si>
 </sst>
 </file>
@@ -40592,10 +40598,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BX45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView tabSelected="1" topLeftCell="AR11" workbookViewId="0">
+      <selection activeCell="AT22" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40614,7 +40620,7 @@
     <col min="23" max="25" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:76" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="78" t="s">
         <v>216</v>
       </c>
@@ -40643,12 +40649,12 @@
       <c r="W1" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BF1" t="s">
         <v>224</v>
       </c>
-      <c r="BJ1"/>
-    </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="BR1"/>
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
         <v>210</v>
       </c>
@@ -40658,17 +40664,20 @@
       <c r="AK2" t="s">
         <v>231</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>227</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BF2" t="s">
         <v>230</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BM2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:76" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="95" t="s">
         <v>178</v>
       </c>
@@ -40711,21 +40720,24 @@
       <c r="AK3" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AS3" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="AZ3" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="AX3" s="75" t="s">
+      <c r="BF3" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="BE3" s="75" t="s">
+      <c r="BM3" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="BJ3"/>
-      <c r="BL3" s="75" t="s">
+      <c r="BR3"/>
+      <c r="BT3" s="75" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:76" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="71" t="s">
         <v>162</v>
       </c>
@@ -40840,74 +40852,98 @@
       <c r="AP4" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="AR4" s="69" t="s">
+      <c r="AQ4" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="AS4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AS4" s="69" t="s">
+      <c r="AT4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AT4" s="69" t="s">
+      <c r="AU4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AU4" s="69" t="s">
+      <c r="AV4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="AV4" s="69" t="s">
+      <c r="AW4" s="69" t="s">
         <v>219</v>
       </c>
       <c r="AX4" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY4" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AY4" s="69" t="s">
+      <c r="BA4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AZ4" s="69" t="s">
+      <c r="BB4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BA4" s="69" t="s">
+      <c r="BC4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="BB4" s="69" t="s">
+      <c r="BD4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="BC4" s="69" t="s">
+      <c r="BF4" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG4" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI4" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ4" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="BK4" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="BE4" s="69" t="s">
+      <c r="BM4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="BF4" s="69" t="s">
+      <c r="BN4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BG4" s="69" t="s">
+      <c r="BO4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BH4" s="69" t="s">
+      <c r="BP4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="BI4" s="69" t="s">
+      <c r="BQ4" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="BJ4" s="69" t="s">
+      <c r="BR4" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="BL4" s="69" t="s">
+      <c r="BT4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="69" t="s">
+      <c r="BU4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BN4" s="69" t="s">
+      <c r="BV4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BO4" s="69" t="s">
+      <c r="BW4" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="BP4" s="69" t="s">
+      <c r="BX4" s="69" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -40978,15 +41014,15 @@
         <v>1149</v>
       </c>
       <c r="AG5">
-        <f>AD5-AX5</f>
+        <f>AD5-BF5</f>
         <v>6.3363000000000014</v>
       </c>
       <c r="AH5">
-        <f>AE5-AY5</f>
+        <f>AE5-BG5</f>
         <v>-6.7799999999999985E-2</v>
       </c>
       <c r="AI5">
-        <f>AF5-AZ5</f>
+        <f>AF5-BH5</f>
         <v>585</v>
       </c>
       <c r="AK5">
@@ -41003,48 +41039,77 @@
         <v>85.654899999999998</v>
       </c>
       <c r="AO5">
-        <f t="shared" ref="AO5:AP5" si="0">AL5-AE5</f>
+        <f t="shared" ref="AO5" si="0">AL5-AE5</f>
         <v>2.471799999999999E-2</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="0"/>
+        <f>AM5-AF5</f>
         <v>110</v>
       </c>
+      <c r="AQ5">
+        <f>AP5/AF5</f>
+        <v>9.5735422106179288E-2</v>
+      </c>
+      <c r="AS5">
+        <v>72.116399999999999</v>
+      </c>
+      <c r="AT5">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AU5">
+        <v>635</v>
+      </c>
+      <c r="AV5">
+        <f>AS5-AK5</f>
+        <v>-41.701400000000007</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" ref="AW5:AW43" si="1">AT5-AL5</f>
+        <v>5.2482000000000015E-2</v>
+      </c>
       <c r="AX5">
+        <f>AM5-AU5</f>
+        <v>624</v>
+      </c>
+      <c r="AY5">
+        <f>AX5/AM5</f>
+        <v>0.49563145353455124</v>
+      </c>
+      <c r="BF5">
         <v>21.826599999999999</v>
       </c>
-      <c r="AY5">
+      <c r="BG5">
         <v>0.15859999999999999</v>
       </c>
-      <c r="AZ5">
+      <c r="BH5">
         <v>564</v>
       </c>
-      <c r="BA5">
-        <f>AX5-BE5</f>
+      <c r="BI5">
+        <f>BF5-BM5</f>
         <v>21.826599999999999</v>
       </c>
-      <c r="BB5">
-        <f>AY5-BF5</f>
+      <c r="BJ5">
+        <f>BG5-BN5</f>
         <v>0.15859999999999999</v>
       </c>
-      <c r="BC5">
-        <f>AZ5-BG5</f>
+      <c r="BK5">
+        <f>BH5-BO5</f>
         <v>564</v>
       </c>
-      <c r="BH5">
-        <f t="shared" ref="BH5:BH43" si="1">BE5-S5</f>
+      <c r="BP5">
+        <f t="shared" ref="BP5:BP43" si="2">BM5-S5</f>
         <v>-23.66</v>
       </c>
-      <c r="BI5">
-        <f t="shared" ref="BI5:BI43" si="2">BF5-T5</f>
+      <c r="BQ5">
+        <f t="shared" ref="BQ5:BQ43" si="3">BN5-T5</f>
         <v>-6.7900000000000002E-2</v>
       </c>
-      <c r="BJ5">
-        <f t="shared" ref="BJ5:BJ43" si="3">BG5-U5</f>
+      <c r="BR5">
+        <f t="shared" ref="BR5:BR43" si="4">BO5-U5</f>
         <v>-722</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -41074,15 +41139,15 @@
         <v>918</v>
       </c>
       <c r="Z6">
-        <f t="shared" ref="Z6:Z43" si="4">W6-S6</f>
+        <f t="shared" ref="Z6:Z43" si="5">W6-S6</f>
         <v>-19.489999999999998</v>
       </c>
       <c r="AA6">
-        <f t="shared" ref="AA6:AA43" si="5">X6-T6</f>
+        <f t="shared" ref="AA6:AA43" si="6">X6-T6</f>
         <v>-0.1578</v>
       </c>
       <c r="AB6">
-        <f t="shared" ref="AB6:AB43" si="6">Y6-U6</f>
+        <f t="shared" ref="AB6:AB43" si="7">Y6-U6</f>
         <v>-918</v>
       </c>
       <c r="AD6">
@@ -41095,15 +41160,15 @@
         <v>2298</v>
       </c>
       <c r="AG6">
-        <f>AD6-AX6</f>
+        <f t="shared" ref="AG6:AG22" si="8">AD6-BF6</f>
         <v>3.078400000000002</v>
       </c>
       <c r="AH6">
-        <f t="shared" ref="AH6:AH22" si="7">AE6-AY6</f>
+        <f t="shared" ref="AH6:AH22" si="9">AE6-BG6</f>
         <v>-3.2021999999999995E-2</v>
       </c>
       <c r="AI6">
-        <f t="shared" ref="AI6:AI22" si="8">AF6-AZ6</f>
+        <f t="shared" ref="AI6:AI22" si="10">AF6-BH6</f>
         <v>1114</v>
       </c>
       <c r="AK6">
@@ -41116,61 +41181,90 @@
         <v>2448</v>
       </c>
       <c r="AN6">
-        <f t="shared" ref="AN6:AN9" si="9">AK6-AD6</f>
+        <f t="shared" ref="AN6:AN9" si="11">AK6-AD6</f>
         <v>75.098799999999997</v>
       </c>
       <c r="AO6">
-        <f t="shared" ref="AO6:AO9" si="10">AL6-AE6</f>
+        <f t="shared" ref="AO6:AO9" si="12">AL6-AE6</f>
         <v>3.2390000000000058E-3</v>
       </c>
       <c r="AP6">
-        <f t="shared" ref="AP6:AP9" si="11">AM6-AF6</f>
+        <f t="shared" ref="AP6:AP9" si="13">AM6-AF6</f>
         <v>150</v>
       </c>
+      <c r="AQ6">
+        <f t="shared" ref="AQ6:AQ43" si="14">AP6/AF6</f>
+        <v>6.5274151436031339E-2</v>
+      </c>
+      <c r="AS6">
+        <v>98.552000000000007</v>
+      </c>
+      <c r="AT6">
+        <v>0.11679</v>
+      </c>
+      <c r="AU6">
+        <v>1296</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" ref="AV6:AV43" si="15">AS6-AK6</f>
+        <v>-1.3114999999999952</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" si="1"/>
+        <v>2.1675E-2</v>
+      </c>
       <c r="AX6">
+        <f t="shared" ref="AX6:AX43" si="16">AM6-AU6</f>
+        <v>1152</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ref="AY6:AY43" si="17">AX6/AM6</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="BF6">
         <v>21.686299999999999</v>
       </c>
-      <c r="AY6">
+      <c r="BG6">
         <v>0.12389799999999999</v>
       </c>
-      <c r="AZ6">
+      <c r="BH6">
         <v>1184</v>
       </c>
-      <c r="BA6">
-        <f t="shared" ref="BA6:BA17" si="12">AX6-BE6</f>
+      <c r="BI6">
+        <f t="shared" ref="BI6:BI17" si="18">BF6-BM6</f>
         <v>0.3882399999999997</v>
       </c>
-      <c r="BB6">
-        <f t="shared" ref="BB6:BB17" si="13">AY6-BF6</f>
+      <c r="BJ6">
+        <f t="shared" ref="BJ6:BJ17" si="19">BG6-BN6</f>
         <v>-2.7019999999999961E-3</v>
       </c>
-      <c r="BC6">
-        <f t="shared" ref="BC6:BC17" si="14">AZ6-BG6</f>
+      <c r="BK6">
+        <f t="shared" ref="BK6:BK17" si="20">BH6-BO6</f>
         <v>-855</v>
       </c>
-      <c r="BE6">
+      <c r="BM6">
         <v>21.29806</v>
       </c>
-      <c r="BF6">
+      <c r="BN6">
         <v>0.12659999999999999</v>
       </c>
-      <c r="BG6">
+      <c r="BO6">
         <v>2039</v>
       </c>
-      <c r="BH6">
-        <f t="shared" si="1"/>
+      <c r="BP6">
+        <f t="shared" si="2"/>
         <v>1.8080600000000011</v>
       </c>
-      <c r="BI6">
-        <f t="shared" si="2"/>
+      <c r="BQ6">
+        <f t="shared" si="3"/>
         <v>-3.1200000000000006E-2</v>
       </c>
-      <c r="BJ6">
-        <f t="shared" si="3"/>
+      <c r="BR6">
+        <f t="shared" si="4"/>
         <v>1121</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -41199,15 +41293,15 @@
         <v>514</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-24.05</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.17219999999999999</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-514</v>
       </c>
       <c r="AD7">
@@ -41220,15 +41314,15 @@
         <v>630</v>
       </c>
       <c r="AG7">
-        <f>AD7-AX7</f>
+        <f t="shared" si="8"/>
         <v>0.74465000000000003</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.156999999999994E-3</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="AK7">
@@ -41241,61 +41335,90 @@
         <v>716</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>56.589750000000009</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.13285999999999998</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>86</v>
       </c>
+      <c r="AQ7">
+        <f t="shared" si="14"/>
+        <v>0.13650793650793649</v>
+      </c>
+      <c r="AS7">
+        <v>86.528989999999993</v>
+      </c>
+      <c r="AT7">
+        <v>0.3301268</v>
+      </c>
+      <c r="AU7">
+        <v>587</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="15"/>
+        <v>4.7432899999999876</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="1"/>
+        <v>2.8586800000000023E-2</v>
+      </c>
       <c r="AX7">
+        <f t="shared" si="16"/>
+        <v>129</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="17"/>
+        <v>0.18016759776536312</v>
+      </c>
+      <c r="BF7">
         <v>24.4513</v>
       </c>
-      <c r="AY7">
+      <c r="BG7">
         <v>0.17283699999999999</v>
       </c>
-      <c r="AZ7">
+      <c r="BH7">
         <v>529</v>
       </c>
-      <c r="BA7">
-        <f t="shared" si="12"/>
+      <c r="BI7">
+        <f t="shared" si="18"/>
         <v>-2.5864000000000011</v>
       </c>
-      <c r="BB7">
-        <f t="shared" si="13"/>
+      <c r="BJ7">
+        <f t="shared" si="19"/>
         <v>3.7637000000000004E-2</v>
       </c>
-      <c r="BC7">
-        <f t="shared" si="14"/>
+      <c r="BK7">
+        <f t="shared" si="20"/>
         <v>-384</v>
       </c>
-      <c r="BE7" s="81">
+      <c r="BM7" s="81">
         <v>27.037700000000001</v>
       </c>
-      <c r="BF7">
+      <c r="BN7">
         <v>0.13519999999999999</v>
       </c>
-      <c r="BG7">
+      <c r="BO7">
         <v>913</v>
       </c>
-      <c r="BH7">
-        <f t="shared" si="1"/>
+      <c r="BP7">
+        <f t="shared" si="2"/>
         <v>2.9877000000000002</v>
       </c>
-      <c r="BI7">
-        <f t="shared" si="2"/>
+      <c r="BQ7">
+        <f t="shared" si="3"/>
         <v>-3.7000000000000005E-2</v>
       </c>
-      <c r="BJ7">
-        <f t="shared" si="3"/>
+      <c r="BR7">
+        <f t="shared" si="4"/>
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -41333,15 +41456,15 @@
         <v>434</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.4600000000000009</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.2122</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-434</v>
       </c>
       <c r="AD8">
@@ -41354,15 +41477,15 @@
         <v>868</v>
       </c>
       <c r="AG8">
-        <f>AD8-AX8</f>
+        <f t="shared" si="8"/>
         <v>2.6120000000000001</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.1987999999999998E-2</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
       <c r="AK8">
@@ -41375,52 +41498,81 @@
         <v>929</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>29.330920000000003</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.0418000000000008E-2</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
+      <c r="AQ8">
+        <f t="shared" si="14"/>
+        <v>7.0276497695852536E-2</v>
+      </c>
+      <c r="AS8">
+        <v>42.622</v>
+      </c>
+      <c r="AT8">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="AU8">
+        <v>735</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="15"/>
+        <v>1.0606799999999978</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="1"/>
+        <v>9.000000000000008E-3</v>
+      </c>
       <c r="AX8">
+        <f t="shared" si="16"/>
+        <v>194</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="17"/>
+        <v>0.20882669537136705</v>
+      </c>
+      <c r="BF8">
         <v>9.6183999999999994</v>
       </c>
-      <c r="AY8">
+      <c r="BG8">
         <v>0.20796999999999999</v>
       </c>
-      <c r="AZ8">
+      <c r="BH8">
         <v>677</v>
       </c>
-      <c r="BA8">
-        <f t="shared" si="12"/>
+      <c r="BI8">
+        <f t="shared" si="18"/>
         <v>9.6183999999999994</v>
       </c>
-      <c r="BB8">
-        <f t="shared" si="13"/>
+      <c r="BJ8">
+        <f t="shared" si="19"/>
         <v>0.20796999999999999</v>
       </c>
-      <c r="BC8">
-        <f t="shared" si="14"/>
+      <c r="BK8">
+        <f t="shared" si="20"/>
         <v>677</v>
       </c>
-      <c r="BH8">
-        <f t="shared" si="1"/>
+      <c r="BP8">
+        <f t="shared" si="2"/>
         <v>-8.4600000000000009</v>
       </c>
-      <c r="BI8">
-        <f t="shared" si="2"/>
+      <c r="BQ8">
+        <f t="shared" si="3"/>
         <v>-0.2122</v>
       </c>
-      <c r="BJ8">
-        <f t="shared" si="3"/>
+      <c r="BR8">
+        <f t="shared" si="4"/>
         <v>-434</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -41461,15 +41613,15 @@
         <v>1386</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1599999999999966</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.2699999999999998E-2</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>304</v>
       </c>
       <c r="AD9">
@@ -41482,15 +41634,15 @@
         <v>2004</v>
       </c>
       <c r="AG9">
-        <f>AD9-AX9</f>
+        <f t="shared" si="8"/>
         <v>24.653100000000002</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.3899999999999996E-2</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>248</v>
       </c>
       <c r="AK9">
@@ -41503,61 +41655,90 @@
         <v>2228</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>111.53399999999999</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.3379999999999982E-2</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
+      <c r="AQ9">
+        <f t="shared" si="14"/>
+        <v>0.11177644710578842</v>
+      </c>
+      <c r="AS9">
+        <v>179.22739999999999</v>
+      </c>
+      <c r="AT9">
+        <v>0.22117870000000001</v>
+      </c>
+      <c r="AU9">
+        <v>1950</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="15"/>
+        <v>-6.6106000000000051</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="1"/>
+        <v>8.3487000000000144E-3</v>
+      </c>
       <c r="AX9">
+        <f t="shared" si="16"/>
+        <v>278</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="17"/>
+        <v>0.12477558348294435</v>
+      </c>
+      <c r="BF9">
         <v>49.6509</v>
       </c>
-      <c r="AY9">
+      <c r="BG9">
         <v>0.14335000000000001</v>
       </c>
-      <c r="AZ9">
+      <c r="BH9">
         <v>1756</v>
       </c>
-      <c r="BA9">
-        <f t="shared" si="12"/>
+      <c r="BI9">
+        <f t="shared" si="18"/>
         <v>-2.4835800000000035</v>
       </c>
-      <c r="BB9">
-        <f t="shared" si="13"/>
+      <c r="BJ9">
+        <f t="shared" si="19"/>
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="BC9">
-        <f t="shared" si="14"/>
+      <c r="BK9">
+        <f t="shared" si="20"/>
         <v>-793</v>
       </c>
-      <c r="BE9">
+      <c r="BM9">
         <v>52.134480000000003</v>
       </c>
-      <c r="BF9">
+      <c r="BN9">
         <v>7.7249999999999999E-2</v>
       </c>
-      <c r="BG9">
+      <c r="BO9">
         <v>2549</v>
       </c>
-      <c r="BH9">
-        <f t="shared" si="1"/>
+      <c r="BP9">
+        <f t="shared" si="2"/>
         <v>5.4644800000000018</v>
       </c>
-      <c r="BI9">
-        <f t="shared" si="2"/>
+      <c r="BQ9">
+        <f t="shared" si="3"/>
         <v>-7.2650000000000006E-2</v>
       </c>
-      <c r="BJ9">
-        <f t="shared" si="3"/>
+      <c r="BR9">
+        <f t="shared" si="4"/>
         <v>1467</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -41606,15 +41787,15 @@
         <v>628</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.12000000000000099</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4399999999999996E-2</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD10">
@@ -41627,15 +41808,15 @@
         <v>883</v>
       </c>
       <c r="AG10">
-        <f>AD10-AX10</f>
+        <f t="shared" si="8"/>
         <v>8.2198600000000006</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.2492000000000003E-2</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="AK10">
@@ -41648,52 +41829,81 @@
         <v>1015</v>
       </c>
       <c r="AN10">
-        <f t="shared" ref="AN10:AN13" si="15">AK10-AD10</f>
+        <f t="shared" ref="AN10:AN13" si="21">AK10-AD10</f>
         <v>43.599399999999989</v>
       </c>
       <c r="AO10">
-        <f t="shared" ref="AO10:AO13" si="16">AL10-AE10</f>
+        <f t="shared" ref="AO10:AO13" si="22">AL10-AE10</f>
         <v>0.12449200000000001</v>
       </c>
       <c r="AP10">
-        <f t="shared" ref="AP10:AP13" si="17">AM10-AF10</f>
+        <f t="shared" ref="AP10:AP13" si="23">AM10-AF10</f>
         <v>132</v>
       </c>
+      <c r="AQ10">
+        <f t="shared" si="14"/>
+        <v>0.14949037372593432</v>
+      </c>
+      <c r="AS10">
+        <v>72.649799999999999</v>
+      </c>
+      <c r="AT10">
+        <v>0.2135</v>
+      </c>
+      <c r="AU10">
+        <v>1015</v>
+      </c>
+      <c r="AV10">
+        <f>AS18-AK10</f>
+        <v>-15.236599999999996</v>
+      </c>
+      <c r="AW10">
+        <f>AT18-AL10</f>
+        <v>0.11343999999999999</v>
+      </c>
       <c r="AX10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BF10">
         <v>20.887740000000001</v>
       </c>
-      <c r="AY10">
+      <c r="BG10">
         <v>0.10326</v>
       </c>
-      <c r="AZ10">
+      <c r="BH10">
         <v>857</v>
       </c>
-      <c r="BA10">
-        <f t="shared" si="12"/>
+      <c r="BI10">
+        <f t="shared" si="18"/>
         <v>20.887740000000001</v>
       </c>
-      <c r="BB10">
-        <f t="shared" si="13"/>
+      <c r="BJ10">
+        <f t="shared" si="19"/>
         <v>0.10326</v>
       </c>
-      <c r="BC10">
-        <f t="shared" si="14"/>
+      <c r="BK10">
+        <f t="shared" si="20"/>
         <v>857</v>
       </c>
-      <c r="BH10">
-        <f t="shared" si="1"/>
+      <c r="BP10">
+        <f t="shared" si="2"/>
         <v>-18.89</v>
       </c>
-      <c r="BI10">
-        <f t="shared" si="2"/>
+      <c r="BQ10">
+        <f t="shared" si="3"/>
         <v>-0.1711</v>
       </c>
-      <c r="BJ10">
-        <f t="shared" si="3"/>
+      <c r="BR10">
+        <f t="shared" si="4"/>
         <v>-628</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -41722,15 +41932,15 @@
         <v>525</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-16.059999999999999</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.1303</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-525</v>
       </c>
       <c r="AD11">
@@ -41743,15 +41953,15 @@
         <v>988</v>
       </c>
       <c r="AG11">
-        <f>AD11-AX11</f>
+        <f t="shared" si="8"/>
         <v>3.8467199999999977</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.033000000000001E-2</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>446</v>
       </c>
       <c r="AK11">
@@ -41764,61 +41974,90 @@
         <v>1133</v>
       </c>
       <c r="AN11">
+        <f t="shared" si="21"/>
+        <v>48.030640000000005</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="22"/>
+        <v>6.7830000000000015E-2</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="23"/>
+        <v>145</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="14"/>
+        <v>0.14676113360323886</v>
+      </c>
+      <c r="AS11">
+        <v>54.328000000000003</v>
+      </c>
+      <c r="AT11">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AU11">
+        <v>582</v>
+      </c>
+      <c r="AV11">
         <f t="shared" si="15"/>
-        <v>48.030640000000005</v>
-      </c>
-      <c r="AO11">
+        <v>-14.168599999999998</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="1"/>
+        <v>3.2799999999999996E-2</v>
+      </c>
+      <c r="AX11">
         <f t="shared" si="16"/>
-        <v>6.7830000000000015E-2</v>
-      </c>
-      <c r="AP11">
+        <v>551</v>
+      </c>
+      <c r="AY11">
         <f t="shared" si="17"/>
-        <v>145</v>
-      </c>
-      <c r="AX11">
+        <v>0.48631950573698146</v>
+      </c>
+      <c r="BF11">
         <v>16.619240000000001</v>
       </c>
-      <c r="AY11">
+      <c r="BG11">
         <v>0.1237</v>
       </c>
-      <c r="AZ11">
+      <c r="BH11">
         <v>542</v>
       </c>
-      <c r="BA11">
-        <f t="shared" si="12"/>
+      <c r="BI11">
+        <f t="shared" si="18"/>
         <v>-2.7645599999999995</v>
       </c>
-      <c r="BB11">
-        <f t="shared" si="13"/>
+      <c r="BJ11">
+        <f t="shared" si="19"/>
         <v>4.224E-2</v>
       </c>
-      <c r="BC11">
-        <f t="shared" si="14"/>
+      <c r="BK11">
+        <f t="shared" si="20"/>
         <v>-320</v>
       </c>
-      <c r="BE11">
+      <c r="BM11">
         <v>19.383800000000001</v>
       </c>
-      <c r="BF11">
+      <c r="BN11">
         <v>8.1460000000000005E-2</v>
       </c>
-      <c r="BG11">
+      <c r="BO11">
         <v>862</v>
       </c>
-      <c r="BH11">
-        <f t="shared" si="1"/>
+      <c r="BP11">
+        <f t="shared" si="2"/>
         <v>3.3238000000000021</v>
       </c>
-      <c r="BI11">
-        <f t="shared" si="2"/>
+      <c r="BQ11">
+        <f t="shared" si="3"/>
         <v>-4.8839999999999995E-2</v>
       </c>
-      <c r="BJ11">
-        <f t="shared" si="3"/>
+      <c r="BR11">
+        <f t="shared" si="4"/>
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -41856,27 +42095,27 @@
         <v>588</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-20.85</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.32519999999999999</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-588</v>
       </c>
       <c r="AG12">
-        <f>AD12-AX12</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK12">
@@ -41889,43 +42128,72 @@
         <v>1157</v>
       </c>
       <c r="AN12">
+        <f t="shared" si="21"/>
+        <v>95.403899999999993</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="22"/>
+        <v>0.29437999999999998</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="23"/>
+        <v>1157</v>
+      </c>
+      <c r="AQ12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS12">
+        <v>92.150899999999993</v>
+      </c>
+      <c r="AT12">
+        <v>0.335756</v>
+      </c>
+      <c r="AU12">
+        <v>1041</v>
+      </c>
+      <c r="AV12">
         <f t="shared" si="15"/>
-        <v>95.403899999999993</v>
-      </c>
-      <c r="AO12">
+        <v>-3.2530000000000001</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="1"/>
+        <v>4.1376000000000024E-2</v>
+      </c>
+      <c r="AX12">
         <f t="shared" si="16"/>
-        <v>0.29437999999999998</v>
-      </c>
-      <c r="AP12">
+        <v>116</v>
+      </c>
+      <c r="AY12">
         <f t="shared" si="17"/>
-        <v>1157</v>
-      </c>
-      <c r="BA12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <f t="shared" si="1"/>
+        <v>0.10025929127052723</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="2"/>
         <v>-20.85</v>
       </c>
-      <c r="BI12">
-        <f t="shared" si="2"/>
+      <c r="BQ12">
+        <f t="shared" si="3"/>
         <v>-0.32519999999999999</v>
       </c>
-      <c r="BJ12">
-        <f t="shared" si="3"/>
+      <c r="BR12">
+        <f t="shared" si="4"/>
         <v>-588</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -41973,27 +42241,27 @@
         <v>799</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18999999999999773</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5899999999999984E-2</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="AG13">
-        <f>AD13-AX13</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK13">
@@ -42006,43 +42274,72 @@
         <v>1375</v>
       </c>
       <c r="AN13">
+        <f t="shared" si="21"/>
+        <v>114.5904</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="22"/>
+        <v>0.16016</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="23"/>
+        <v>1375</v>
+      </c>
+      <c r="AQ13" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS13">
+        <v>116.435</v>
+      </c>
+      <c r="AT13">
+        <v>0.16267999999999999</v>
+      </c>
+      <c r="AU13">
+        <v>1264</v>
+      </c>
+      <c r="AV13">
         <f t="shared" si="15"/>
-        <v>114.5904</v>
-      </c>
-      <c r="AO13">
+        <v>1.8445999999999998</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="1"/>
+        <v>2.5199999999999945E-3</v>
+      </c>
+      <c r="AX13">
         <f t="shared" si="16"/>
-        <v>0.16016</v>
-      </c>
-      <c r="AP13">
+        <v>111</v>
+      </c>
+      <c r="AY13">
         <f t="shared" si="17"/>
-        <v>1375</v>
-      </c>
-      <c r="BA13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <f t="shared" si="1"/>
+        <v>8.0727272727272731E-2</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="2"/>
         <v>-33.68</v>
       </c>
-      <c r="BI13">
-        <f t="shared" si="2"/>
+      <c r="BQ13">
+        <f t="shared" si="3"/>
         <v>-0.11020000000000001</v>
       </c>
-      <c r="BJ13">
-        <f t="shared" si="3"/>
+      <c r="BR13">
+        <f t="shared" si="4"/>
         <v>-778</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -42071,15 +42368,15 @@
         <v>514</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-13.17</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.2238</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-514</v>
       </c>
       <c r="AD14">
@@ -42092,15 +42389,15 @@
         <v>1064</v>
       </c>
       <c r="AG14">
-        <f>AD14-AX14</f>
+        <f t="shared" si="8"/>
         <v>4.7050000000000001</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-8.7299999999999989E-2</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>537</v>
       </c>
       <c r="AK14">
@@ -42113,61 +42410,90 @@
         <v>1154</v>
       </c>
       <c r="AN14">
-        <f t="shared" ref="AN14:AN43" si="18">AK14-AD14</f>
+        <f t="shared" ref="AN14:AN43" si="24">AK14-AD14</f>
         <v>53.567700000000002</v>
       </c>
       <c r="AO14">
-        <f t="shared" ref="AO14:AO43" si="19">AL14-AE14</f>
+        <f t="shared" ref="AO14:AO43" si="25">AL14-AE14</f>
         <v>2.8599999999999987E-2</v>
       </c>
       <c r="AP14">
-        <f t="shared" ref="AP14:AP43" si="20">AM14-AF14</f>
+        <f t="shared" ref="AP14:AP43" si="26">AM14-AF14</f>
         <v>90</v>
       </c>
+      <c r="AQ14">
+        <f t="shared" si="14"/>
+        <v>8.4586466165413529E-2</v>
+      </c>
+      <c r="AS14">
+        <v>62.015000000000001</v>
+      </c>
+      <c r="AT14">
+        <v>0.26795999999999998</v>
+      </c>
+      <c r="AU14">
+        <v>586</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="15"/>
+        <v>-9.6576000000000022</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="1"/>
+        <v>0.11165999999999998</v>
+      </c>
       <c r="AX14">
+        <f t="shared" si="16"/>
+        <v>568</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="17"/>
+        <v>0.49220103986135183</v>
+      </c>
+      <c r="BF14">
         <v>13.399900000000001</v>
       </c>
-      <c r="AY14">
+      <c r="BG14">
         <v>0.215</v>
       </c>
-      <c r="AZ14">
+      <c r="BH14">
         <v>527</v>
       </c>
-      <c r="BA14">
-        <f t="shared" si="12"/>
+      <c r="BI14">
+        <f t="shared" si="18"/>
         <v>-0.30439999999999934</v>
       </c>
-      <c r="BB14">
-        <f t="shared" si="13"/>
+      <c r="BJ14">
+        <f t="shared" si="19"/>
         <v>4.0199999999999986E-2</v>
       </c>
-      <c r="BC14">
-        <f t="shared" si="14"/>
+      <c r="BK14">
+        <f t="shared" si="20"/>
         <v>-495</v>
       </c>
-      <c r="BE14">
+      <c r="BM14">
         <v>13.7043</v>
       </c>
-      <c r="BF14">
+      <c r="BN14">
         <v>0.17480000000000001</v>
       </c>
-      <c r="BG14">
+      <c r="BO14">
         <v>1022</v>
       </c>
-      <c r="BH14">
-        <f t="shared" si="1"/>
+      <c r="BP14">
+        <f t="shared" si="2"/>
         <v>0.5343</v>
       </c>
-      <c r="BI14">
-        <f t="shared" si="2"/>
+      <c r="BQ14">
+        <f t="shared" si="3"/>
         <v>-4.8999999999999988E-2</v>
       </c>
-      <c r="BJ14">
-        <f t="shared" si="3"/>
+      <c r="BR14">
+        <f t="shared" si="4"/>
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -42205,27 +42531,27 @@
         <v>663</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-19.57</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.23630000000000001</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-663</v>
       </c>
       <c r="AG15">
-        <f>AD15-AX15</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK15">
@@ -42238,43 +42564,72 @@
         <v>1656</v>
       </c>
       <c r="AN15">
+        <f t="shared" si="24"/>
+        <v>90.829400000000007</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="25"/>
+        <v>0.1797</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="26"/>
+        <v>1656</v>
+      </c>
+      <c r="AQ15" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS15">
+        <v>88.235200000000006</v>
+      </c>
+      <c r="AT15">
+        <v>0.22417000000000001</v>
+      </c>
+      <c r="AU15">
+        <v>900</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="15"/>
+        <v>-2.5942000000000007</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="1"/>
+        <v>4.447000000000001E-2</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="16"/>
+        <v>756</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="17"/>
+        <v>0.45652173913043476</v>
+      </c>
+      <c r="BI15">
         <f t="shared" si="18"/>
-        <v>90.829400000000007</v>
-      </c>
-      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
         <f t="shared" si="19"/>
-        <v>0.1797</v>
-      </c>
-      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
         <f t="shared" si="20"/>
-        <v>1656</v>
-      </c>
-      <c r="BA15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BH15">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <f t="shared" si="2"/>
         <v>-19.57</v>
       </c>
-      <c r="BI15">
-        <f t="shared" si="2"/>
+      <c r="BQ15">
+        <f t="shared" si="3"/>
         <v>-0.23630000000000001</v>
       </c>
-      <c r="BJ15">
-        <f t="shared" si="3"/>
+      <c r="BR15">
+        <f t="shared" si="4"/>
         <v>-663</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -42303,27 +42658,27 @@
         <v>716</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-52.53</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.9299999999999997E-2</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-716</v>
       </c>
       <c r="AG16">
-        <f>AD16-AX16</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK16">
@@ -42336,52 +42691,81 @@
         <v>1396</v>
       </c>
       <c r="AN16">
+        <f t="shared" si="24"/>
+        <v>240.0746</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="25"/>
+        <v>8.5360000000000005E-2</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="26"/>
+        <v>1396</v>
+      </c>
+      <c r="AQ16" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS16">
+        <v>247.203</v>
+      </c>
+      <c r="AT16">
+        <v>0.104228</v>
+      </c>
+      <c r="AU16">
+        <v>876</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="15"/>
+        <v>7.1283999999999992</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="1"/>
+        <v>1.8867999999999996E-2</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="16"/>
+        <v>520</v>
+      </c>
+      <c r="AY16">
+        <f t="shared" si="17"/>
+        <v>0.37249283667621774</v>
+      </c>
+      <c r="BI16">
         <f t="shared" si="18"/>
-        <v>240.0746</v>
-      </c>
-      <c r="AO16">
+        <v>-53.034950000000002</v>
+      </c>
+      <c r="BJ16">
         <f t="shared" si="19"/>
-        <v>8.5360000000000005E-2</v>
-      </c>
-      <c r="AP16">
+        <v>-5.9695999999999999E-2</v>
+      </c>
+      <c r="BK16">
         <f t="shared" si="20"/>
-        <v>1396</v>
-      </c>
-      <c r="BA16">
-        <f t="shared" si="12"/>
-        <v>-53.034950000000002</v>
-      </c>
-      <c r="BB16">
-        <f t="shared" si="13"/>
-        <v>-5.9695999999999999E-2</v>
-      </c>
-      <c r="BC16">
-        <f t="shared" si="14"/>
         <v>-1133</v>
       </c>
-      <c r="BE16">
+      <c r="BM16">
         <v>53.034950000000002</v>
       </c>
-      <c r="BF16">
+      <c r="BN16">
         <v>5.9695999999999999E-2</v>
       </c>
-      <c r="BG16">
+      <c r="BO16">
         <v>1133</v>
       </c>
-      <c r="BH16">
-        <f t="shared" si="1"/>
+      <c r="BP16">
+        <f t="shared" si="2"/>
         <v>0.5049500000000009</v>
       </c>
-      <c r="BI16">
-        <f t="shared" si="2"/>
+      <c r="BQ16">
+        <f t="shared" si="3"/>
         <v>1.0396000000000002E-2</v>
       </c>
-      <c r="BJ16">
-        <f t="shared" si="3"/>
+      <c r="BR16">
+        <f t="shared" si="4"/>
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -42428,27 +42812,27 @@
         <v>288</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9199999999999982</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="AG17">
-        <f>AD17-AX17</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK17">
@@ -42461,43 +42845,72 @@
         <v>527</v>
       </c>
       <c r="AN17">
+        <f t="shared" si="24"/>
+        <v>151.08240000000001</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="25"/>
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="26"/>
+        <v>527</v>
+      </c>
+      <c r="AQ17" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS17">
+        <v>164.26859999999999</v>
+      </c>
+      <c r="AT17">
+        <v>0.31039</v>
+      </c>
+      <c r="AU17">
+        <v>380</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="15"/>
+        <v>13.186199999999985</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="1"/>
+        <v>-5.5109999999999992E-2</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="16"/>
+        <v>147</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="17"/>
+        <v>0.27893738140417457</v>
+      </c>
+      <c r="BI17">
         <f t="shared" si="18"/>
-        <v>151.08240000000001</v>
-      </c>
-      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
         <f t="shared" si="19"/>
-        <v>0.36549999999999999</v>
-      </c>
-      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
         <f t="shared" si="20"/>
-        <v>527</v>
-      </c>
-      <c r="BA17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <f t="shared" si="2"/>
         <v>-31.77</v>
       </c>
-      <c r="BI17">
-        <f t="shared" si="2"/>
+      <c r="BQ17">
+        <f t="shared" si="3"/>
         <v>-0.2361</v>
       </c>
-      <c r="BJ17">
-        <f t="shared" si="3"/>
+      <c r="BR17">
+        <f t="shared" si="4"/>
         <v>-231</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -42544,27 +42957,27 @@
         <v>383</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1899999999999995</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0599999999999988E-2</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="AG18">
-        <f>AD18-AX18</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH18">
-        <f t="shared" ref="AH18" si="21">AE18-AY18</f>
+        <f t="shared" ref="AH18" si="27">AE18-BG18</f>
         <v>0</v>
       </c>
       <c r="AI18">
-        <f t="shared" ref="AI18" si="22">AF18-AZ18</f>
+        <f t="shared" ref="AI18" si="28">AF18-BH18</f>
         <v>0</v>
       </c>
       <c r="AK18">
@@ -42577,31 +42990,60 @@
         <v>947</v>
       </c>
       <c r="AN18">
-        <f t="shared" ref="AN18" si="23">AK18-AD18</f>
+        <f t="shared" ref="AN18" si="29">AK18-AD18</f>
         <v>76.399000000000001</v>
       </c>
       <c r="AO18">
-        <f t="shared" ref="AO18" si="24">AL18-AE18</f>
+        <f t="shared" ref="AO18" si="30">AL18-AE18</f>
         <v>0.15029999999999999</v>
       </c>
       <c r="AP18">
-        <f t="shared" ref="AP18" si="25">AM18-AF18</f>
+        <f t="shared" ref="AP18" si="31">AM18-AF18</f>
         <v>947</v>
       </c>
-      <c r="BH18">
-        <f t="shared" si="1"/>
+      <c r="AQ18" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS18">
+        <v>57.470399999999998</v>
+      </c>
+      <c r="AT18">
+        <v>0.32869999999999999</v>
+      </c>
+      <c r="AU18">
+        <v>477</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" ref="AV18" si="32">AS18-AK18</f>
+        <v>-18.928600000000003</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" ref="AW18" si="33">AT18-AL18</f>
+        <v>0.1784</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="16"/>
+        <v>470</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="17"/>
+        <v>0.49630411826821541</v>
+      </c>
+      <c r="BP18">
+        <f t="shared" si="2"/>
         <v>-13.96</v>
       </c>
-      <c r="BI18">
-        <f t="shared" si="2"/>
+      <c r="BQ18">
+        <f t="shared" si="3"/>
         <v>-0.1061</v>
       </c>
-      <c r="BJ18">
-        <f t="shared" si="3"/>
+      <c r="BR18">
+        <f t="shared" si="4"/>
         <v>-343</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -42640,27 +43082,27 @@
         <v>320</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-22.79</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.28999999999999998</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-320</v>
       </c>
       <c r="AG19">
-        <f>AD19-AX19</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK19">
@@ -42673,31 +43115,60 @@
         <v>734</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>80.852900000000005</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.24697</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>734</v>
       </c>
-      <c r="BH19">
+      <c r="AQ19" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS19">
+        <v>79.593800000000002</v>
+      </c>
+      <c r="AT19">
+        <v>0.25069999999999998</v>
+      </c>
+      <c r="AU19">
+        <v>599</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="15"/>
+        <v>-1.2591000000000037</v>
+      </c>
+      <c r="AW19">
         <f t="shared" si="1"/>
+        <v>3.7299999999999833E-3</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="16"/>
+        <v>135</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="17"/>
+        <v>0.18392370572207084</v>
+      </c>
+      <c r="BP19">
+        <f t="shared" si="2"/>
         <v>-22.79</v>
       </c>
-      <c r="BI19">
-        <f t="shared" si="2"/>
+      <c r="BQ19">
+        <f t="shared" si="3"/>
         <v>-0.28999999999999998</v>
       </c>
-      <c r="BJ19">
-        <f t="shared" si="3"/>
+      <c r="BR19">
+        <f t="shared" si="4"/>
         <v>-320</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -42726,27 +43197,27 @@
         <v>283</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-63.69</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.1002</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-283</v>
       </c>
       <c r="AG20">
-        <f>AD20-AX20</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK20">
@@ -42759,40 +43230,69 @@
         <v>651</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>225.16650000000001</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.1212</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>651</v>
       </c>
-      <c r="BE20">
+      <c r="AQ20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS20">
+        <v>210.01519999999999</v>
+      </c>
+      <c r="AT20">
+        <v>0.1356</v>
+      </c>
+      <c r="AU20">
+        <v>377</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="15"/>
+        <v>-15.15130000000002</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="1"/>
+        <v>1.4399999999999996E-2</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="16"/>
+        <v>274</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="17"/>
+        <v>0.42089093701996927</v>
+      </c>
+      <c r="BM20">
         <v>68.383750000000006</v>
       </c>
-      <c r="BF20">
+      <c r="BN20">
         <v>0.11585139999999999</v>
       </c>
-      <c r="BG20">
+      <c r="BO20">
         <v>454</v>
       </c>
-      <c r="BH20">
-        <f t="shared" si="1"/>
+      <c r="BP20">
+        <f t="shared" si="2"/>
         <v>4.6937500000000085</v>
       </c>
-      <c r="BI20">
-        <f t="shared" si="2"/>
+      <c r="BQ20">
+        <f t="shared" si="3"/>
         <v>1.5651399999999996E-2</v>
       </c>
-      <c r="BJ20">
-        <f t="shared" si="3"/>
+      <c r="BR20">
+        <f t="shared" si="4"/>
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -42842,27 +43342,27 @@
         <v>752</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1120000000000001</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.06</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
       <c r="AG21">
-        <f>AD21-AX21</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK21">
@@ -42875,31 +43375,60 @@
         <v>1742</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>48.740499999999997</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.1769</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1742</v>
       </c>
-      <c r="BH21">
+      <c r="AQ21" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS21">
+        <v>41.736699999999999</v>
+      </c>
+      <c r="AT21">
+        <v>0.21586</v>
+      </c>
+      <c r="AU21">
+        <v>1132</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="15"/>
+        <v>-7.0037999999999982</v>
+      </c>
+      <c r="AW21">
         <f t="shared" si="1"/>
+        <v>3.8959999999999995E-2</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="16"/>
+        <v>610</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="17"/>
+        <v>0.35017221584385766</v>
+      </c>
+      <c r="BP21">
+        <f t="shared" si="2"/>
         <v>-11.31</v>
       </c>
-      <c r="BI21">
-        <f t="shared" si="2"/>
+      <c r="BQ21">
+        <f t="shared" si="3"/>
         <v>-0.11219999999999999</v>
       </c>
-      <c r="BJ21">
-        <f t="shared" si="3"/>
+      <c r="BR21">
+        <f t="shared" si="4"/>
         <v>-646</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -42937,27 +43466,27 @@
         <v>236</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-10.199999999999999</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.37130000000000002</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-236</v>
       </c>
       <c r="AG22">
-        <f>AD22-AX22</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AK22">
@@ -42970,31 +43499,60 @@
         <v>963</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>56.912999999999997</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.26650000000000001</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>963</v>
       </c>
-      <c r="BH22">
+      <c r="AQ22" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS22">
+        <v>41.099600000000002</v>
+      </c>
+      <c r="AT22">
+        <v>0.36631999999999998</v>
+      </c>
+      <c r="AU22">
+        <v>559</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="15"/>
+        <v>-15.813399999999994</v>
+      </c>
+      <c r="AW22">
         <f t="shared" si="1"/>
+        <v>9.9819999999999964E-2</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="16"/>
+        <v>404</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="17"/>
+        <v>0.41952232606438211</v>
+      </c>
+      <c r="BP22">
+        <f t="shared" si="2"/>
         <v>-10.199999999999999</v>
       </c>
-      <c r="BI22">
-        <f t="shared" si="2"/>
+      <c r="BQ22">
+        <f t="shared" si="3"/>
         <v>-0.37130000000000002</v>
       </c>
-      <c r="BJ22">
-        <f t="shared" si="3"/>
+      <c r="BR22">
+        <f t="shared" si="4"/>
         <v>-236</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -43023,15 +43581,15 @@
         <v>323</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-14.93</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.1002</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-323</v>
       </c>
       <c r="AK23">
@@ -43044,40 +43602,69 @@
         <v>579</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>74.535600000000002</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.13339999999999999</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>579</v>
       </c>
-      <c r="BE23">
+      <c r="AQ23" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS23">
+        <v>86.693399999999997</v>
+      </c>
+      <c r="AT23">
+        <v>7.6909000000000005E-2</v>
+      </c>
+      <c r="AU23">
+        <v>418</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="15"/>
+        <v>12.157799999999995</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="1"/>
+        <v>-5.6490999999999986E-2</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="16"/>
+        <v>161</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="17"/>
+        <v>0.27806563039723664</v>
+      </c>
+      <c r="BM23">
         <v>15.04355</v>
       </c>
-      <c r="BF23">
+      <c r="BN23">
         <v>9.3257999999999994E-2</v>
       </c>
-      <c r="BG23">
+      <c r="BO23">
         <v>829</v>
       </c>
-      <c r="BH23">
-        <f t="shared" si="1"/>
+      <c r="BP23">
+        <f t="shared" si="2"/>
         <v>0.11355000000000004</v>
       </c>
-      <c r="BI23">
-        <f t="shared" si="2"/>
+      <c r="BQ23">
+        <f t="shared" si="3"/>
         <v>-6.9420000000000037E-3</v>
       </c>
-      <c r="BJ23">
-        <f t="shared" si="3"/>
+      <c r="BR23">
+        <f t="shared" si="4"/>
         <v>506</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>191</v>
       </c>
@@ -43106,15 +43693,15 @@
         <v>283</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-23.49</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.1487</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-283</v>
       </c>
       <c r="AK24">
@@ -43127,40 +43714,69 @@
         <v>462</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>121.116</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.2165</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>462</v>
       </c>
-      <c r="BE24">
+      <c r="AQ24" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS24">
+        <v>126.21339999999999</v>
+      </c>
+      <c r="AT24">
+        <v>0.23744999999999999</v>
+      </c>
+      <c r="AU24">
+        <v>385</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="15"/>
+        <v>5.0973999999999933</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="1"/>
+        <v>2.0949999999999996E-2</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="17"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="BM24">
         <v>21.397960000000001</v>
       </c>
-      <c r="BF24">
+      <c r="BN24">
         <v>0.14054</v>
       </c>
-      <c r="BG24">
+      <c r="BO24">
         <v>602</v>
       </c>
-      <c r="BH24">
-        <f t="shared" si="1"/>
+      <c r="BP24">
+        <f t="shared" si="2"/>
         <v>-2.0920399999999972</v>
       </c>
-      <c r="BI24">
-        <f t="shared" si="2"/>
+      <c r="BQ24">
+        <f t="shared" si="3"/>
         <v>-8.1600000000000006E-3</v>
       </c>
-      <c r="BJ24">
-        <f t="shared" si="3"/>
+      <c r="BR24">
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -43208,15 +43824,15 @@
         <v>286</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6370000000000005</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.0100000000000015E-2</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="AK25">
@@ -43229,31 +43845,60 @@
         <v>599</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>98.161590000000004</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.26608999999999999</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>599</v>
       </c>
-      <c r="BH25">
+      <c r="AQ25" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS25">
+        <v>112.77500000000001</v>
+      </c>
+      <c r="AT25">
+        <v>0.25979999999999998</v>
+      </c>
+      <c r="AU25">
+        <v>341</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="15"/>
+        <v>14.613410000000002</v>
+      </c>
+      <c r="AW25">
         <f t="shared" si="1"/>
+        <v>-6.2900000000000178E-3</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="16"/>
+        <v>258</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="17"/>
+        <v>0.43071786310517529</v>
+      </c>
+      <c r="BP25">
+        <f t="shared" si="2"/>
         <v>-17.02</v>
       </c>
-      <c r="BI25">
-        <f t="shared" si="2"/>
+      <c r="BQ25">
+        <f t="shared" si="3"/>
         <v>-0.21240000000000001</v>
       </c>
-      <c r="BJ25">
-        <f t="shared" si="3"/>
+      <c r="BR25">
+        <f t="shared" si="4"/>
         <v>-204</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -43302,15 +43947,15 @@
         <v>341</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0500000000000007</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.4700000000000006E-2</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="AK26">
@@ -43323,31 +43968,60 @@
         <v>795</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>72.231539999999995</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.2412</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>795</v>
       </c>
-      <c r="BH26">
+      <c r="AQ26" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS26">
+        <v>65.240600000000001</v>
+      </c>
+      <c r="AT26">
+        <v>0.2424</v>
+      </c>
+      <c r="AU26">
+        <v>442</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="15"/>
+        <v>-6.9909399999999948</v>
+      </c>
+      <c r="AW26">
         <f t="shared" si="1"/>
+        <v>1.2000000000000066E-3</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="16"/>
+        <v>353</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="17"/>
+        <v>0.44402515723270441</v>
+      </c>
+      <c r="BP26">
+        <f t="shared" si="2"/>
         <v>-10.1</v>
       </c>
-      <c r="BI26">
-        <f t="shared" si="2"/>
+      <c r="BQ26">
+        <f t="shared" si="3"/>
         <v>-0.3599</v>
       </c>
-      <c r="BJ26">
-        <f t="shared" si="3"/>
+      <c r="BR26">
+        <f t="shared" si="4"/>
         <v>-220</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -43395,15 +44069,15 @@
         <v>250</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.4648000000000003</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.2099999999999951E-2</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="AK27">
@@ -43416,31 +44090,60 @@
         <v>421</v>
       </c>
       <c r="AN27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>83.323599999999999</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.31533</v>
       </c>
       <c r="AP27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>421</v>
       </c>
-      <c r="BH27">
+      <c r="AQ27" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS27">
+        <v>85.118799999999993</v>
+      </c>
+      <c r="AT27">
+        <v>0.35922999999999999</v>
+      </c>
+      <c r="AU27">
+        <v>354</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="15"/>
+        <v>1.7951999999999941</v>
+      </c>
+      <c r="AW27">
         <f t="shared" si="1"/>
+        <v>4.3899999999999995E-2</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="17"/>
+        <v>0.15914489311163896</v>
+      </c>
+      <c r="BP27">
+        <f t="shared" si="2"/>
         <v>-22.76</v>
       </c>
-      <c r="BI27">
-        <f t="shared" si="2"/>
+      <c r="BQ27">
+        <f t="shared" si="3"/>
         <v>-0.27900000000000003</v>
       </c>
-      <c r="BJ27">
-        <f t="shared" si="3"/>
+      <c r="BR27">
+        <f t="shared" si="4"/>
         <v>-174</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -43489,15 +44192,15 @@
         <v>179</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.0199999999999996E-2</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="AK28">
@@ -43510,31 +44213,60 @@
         <v>408</v>
       </c>
       <c r="AN28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>119.6892</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.22966</v>
       </c>
       <c r="AP28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>408</v>
       </c>
-      <c r="BH28">
+      <c r="AQ28" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS28">
+        <v>119.3027</v>
+      </c>
+      <c r="AT28">
+        <v>0.22609000000000001</v>
+      </c>
+      <c r="AU28">
+        <v>211</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="15"/>
+        <v>-0.38649999999999807</v>
+      </c>
+      <c r="AW28">
         <f t="shared" si="1"/>
+        <v>-3.5699999999999898E-3</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="16"/>
+        <v>197</v>
+      </c>
+      <c r="AY28">
+        <f t="shared" si="17"/>
+        <v>0.48284313725490197</v>
+      </c>
+      <c r="BP28">
+        <f t="shared" si="2"/>
         <v>-30.57</v>
       </c>
-      <c r="BI28">
-        <f t="shared" si="2"/>
+      <c r="BQ28">
+        <f t="shared" si="3"/>
         <v>-0.26269999999999999</v>
       </c>
-      <c r="BJ28">
-        <f t="shared" si="3"/>
+      <c r="BR28">
+        <f t="shared" si="4"/>
         <v>-165</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -43583,15 +44315,15 @@
         <v>384</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3628</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.7200000000000011E-2</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="AK29">
@@ -43604,31 +44336,60 @@
         <v>712</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>91.474900000000005</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.34320000000000001</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>712</v>
       </c>
-      <c r="BH29">
+      <c r="AQ29" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS29">
+        <v>55.037999999999997</v>
+      </c>
+      <c r="AT29">
+        <v>0.49536000000000002</v>
+      </c>
+      <c r="AU29">
+        <v>426</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="15"/>
+        <v>-36.436900000000009</v>
+      </c>
+      <c r="AW29">
         <f t="shared" si="1"/>
+        <v>0.15216000000000002</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="16"/>
+        <v>286</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="17"/>
+        <v>0.40168539325842695</v>
+      </c>
+      <c r="BP29">
+        <f t="shared" si="2"/>
         <v>-19.22</v>
       </c>
-      <c r="BI29">
-        <f t="shared" si="2"/>
+      <c r="BQ29">
+        <f t="shared" si="3"/>
         <v>-0.3029</v>
       </c>
-      <c r="BJ29">
-        <f t="shared" si="3"/>
+      <c r="BR29">
+        <f t="shared" si="4"/>
         <v>-324</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -43677,15 +44438,15 @@
         <v>284</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.7999999999999995E-2</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="AK30">
@@ -43698,31 +44459,60 @@
         <v>454</v>
       </c>
       <c r="AN30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>88.2821</v>
       </c>
       <c r="AO30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>8.9889999999999998E-2</v>
       </c>
       <c r="AP30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>454</v>
       </c>
-      <c r="BH30">
+      <c r="AQ30" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS30">
+        <v>58.882599999999996</v>
+      </c>
+      <c r="AT30">
+        <v>0.11037</v>
+      </c>
+      <c r="AU30">
+        <v>313</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="15"/>
+        <v>-29.399500000000003</v>
+      </c>
+      <c r="AW30">
         <f t="shared" si="1"/>
+        <v>2.0479999999999998E-2</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="16"/>
+        <v>141</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="17"/>
+        <v>0.31057268722466963</v>
+      </c>
+      <c r="BP30">
+        <f t="shared" si="2"/>
         <v>-11.61</v>
       </c>
-      <c r="BI30">
-        <f t="shared" si="2"/>
+      <c r="BQ30">
+        <f t="shared" si="3"/>
         <v>-6.8199999999999997E-2</v>
       </c>
-      <c r="BJ30">
-        <f t="shared" si="3"/>
+      <c r="BR30">
+        <f t="shared" si="4"/>
         <v>-233</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -43769,15 +44559,15 @@
         <v>164</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.135900000000003</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0100000000000007E-2</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="AK31">
@@ -43790,31 +44580,60 @@
         <v>327</v>
       </c>
       <c r="AN31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>67.405699999999996</v>
       </c>
       <c r="AO31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.19688</v>
       </c>
       <c r="AP31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>327</v>
       </c>
-      <c r="BH31">
+      <c r="AQ31" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS31">
+        <v>66.93459</v>
+      </c>
+      <c r="AT31">
+        <v>0.40788999999999997</v>
+      </c>
+      <c r="AU31">
+        <v>211</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="15"/>
+        <v>-0.47110999999999592</v>
+      </c>
+      <c r="AW31">
         <f t="shared" si="1"/>
+        <v>0.21100999999999998</v>
+      </c>
+      <c r="AX31">
+        <f>AM31-AU31</f>
+        <v>116</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="17"/>
+        <v>0.35474006116207951</v>
+      </c>
+      <c r="BP31">
+        <f t="shared" si="2"/>
         <v>-16.989999999999998</v>
       </c>
-      <c r="BI31">
-        <f t="shared" si="2"/>
+      <c r="BQ31">
+        <f t="shared" si="3"/>
         <v>-0.20349999999999999</v>
       </c>
-      <c r="BJ31">
-        <f t="shared" si="3"/>
+      <c r="BR31">
+        <f t="shared" si="4"/>
         <v>-140</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -43862,15 +44681,15 @@
         <v>397</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.6900000000000026E-2</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="AK32">
@@ -43883,31 +44702,60 @@
         <v>828</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>84.632999999999996</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.2198</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>828</v>
       </c>
-      <c r="BH32">
+      <c r="AQ32" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS32">
+        <v>80.6875</v>
+      </c>
+      <c r="AT32">
+        <v>0.32166800000000001</v>
+      </c>
+      <c r="AU32">
+        <v>535</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="15"/>
+        <v>-3.9454999999999956</v>
+      </c>
+      <c r="AW32">
         <f t="shared" si="1"/>
+        <v>0.10186800000000001</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="16"/>
+        <v>293</v>
+      </c>
+      <c r="AY32">
+        <f t="shared" si="17"/>
+        <v>0.35386473429951693</v>
+      </c>
+      <c r="BP32">
+        <f t="shared" si="2"/>
         <v>-14.08</v>
       </c>
-      <c r="BI32">
-        <f t="shared" si="2"/>
+      <c r="BQ32">
+        <f t="shared" si="3"/>
         <v>-0.26400000000000001</v>
       </c>
-      <c r="BJ32">
-        <f t="shared" si="3"/>
+      <c r="BR32">
+        <f t="shared" si="4"/>
         <v>-318</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -43955,15 +44803,15 @@
         <v>477</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.16999999999999815</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.699999999999995E-3</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AK33">
@@ -43976,31 +44824,60 @@
         <v>1052</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>113.6572</v>
       </c>
       <c r="AO33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.13764999999999999</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1052</v>
       </c>
-      <c r="BH33">
+      <c r="AQ33" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS33">
+        <v>92.608599999999996</v>
+      </c>
+      <c r="AT33">
+        <v>0.1507</v>
+      </c>
+      <c r="AU33">
+        <v>739</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="15"/>
+        <v>-21.048600000000008</v>
+      </c>
+      <c r="AW33">
         <f t="shared" si="1"/>
+        <v>1.3050000000000006E-2</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="16"/>
+        <v>313</v>
+      </c>
+      <c r="AY33">
+        <f t="shared" si="17"/>
+        <v>0.29752851711026618</v>
+      </c>
+      <c r="BP33">
+        <f t="shared" si="2"/>
         <v>-27.43</v>
       </c>
-      <c r="BI33">
-        <f t="shared" si="2"/>
+      <c r="BQ33">
+        <f t="shared" si="3"/>
         <v>-0.1033</v>
       </c>
-      <c r="BJ33">
-        <f t="shared" si="3"/>
+      <c r="BR33">
+        <f t="shared" si="4"/>
         <v>-477</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -44029,15 +44906,15 @@
         <v>530</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-11.52</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.24110000000000001</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-530</v>
       </c>
       <c r="AK34">
@@ -44050,40 +44927,69 @@
         <v>840</v>
       </c>
       <c r="AN34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>46.363799999999998</v>
       </c>
       <c r="AO34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.27146999999999999</v>
       </c>
       <c r="AP34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>840</v>
       </c>
-      <c r="BE34">
+      <c r="AQ34" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS34">
+        <v>46.128700000000002</v>
+      </c>
+      <c r="AT34">
+        <v>0.27218999999999999</v>
+      </c>
+      <c r="AU34">
+        <v>840</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="15"/>
+        <v>-0.23509999999999565</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="1"/>
+        <v>7.1999999999999842E-4</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BM34">
         <v>14.0328</v>
       </c>
-      <c r="BF34">
+      <c r="BN34">
         <v>0.1895</v>
       </c>
-      <c r="BG34">
+      <c r="BO34">
         <v>764</v>
       </c>
-      <c r="BH34">
-        <f t="shared" si="1"/>
+      <c r="BP34">
+        <f t="shared" si="2"/>
         <v>2.5128000000000004</v>
       </c>
-      <c r="BI34">
-        <f t="shared" si="2"/>
+      <c r="BQ34">
+        <f t="shared" si="3"/>
         <v>-5.1600000000000007E-2</v>
       </c>
-      <c r="BJ34">
-        <f t="shared" si="3"/>
+      <c r="BR34">
+        <f t="shared" si="4"/>
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -44112,15 +45018,15 @@
         <v>454</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.57</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.2122</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-454</v>
       </c>
       <c r="AK35">
@@ -44133,40 +45039,69 @@
         <v>610</v>
       </c>
       <c r="AN35">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>30.443850000000001</v>
       </c>
       <c r="AO35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.28094999999999998</v>
       </c>
       <c r="AP35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>610</v>
       </c>
-      <c r="BE35">
+      <c r="AQ35" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS35">
+        <v>30.3323</v>
+      </c>
+      <c r="AT35">
+        <v>0.28177000000000002</v>
+      </c>
+      <c r="AU35">
+        <v>610</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="15"/>
+        <v>-0.11155000000000115</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="1"/>
+        <v>8.2000000000004292E-4</v>
+      </c>
+      <c r="AX35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BM35">
         <v>8.6080649999999999</v>
       </c>
-      <c r="BF35">
+      <c r="BN35">
         <v>0.2099</v>
       </c>
-      <c r="BG35">
+      <c r="BO35">
         <v>477</v>
       </c>
-      <c r="BH35">
-        <f t="shared" si="1"/>
+      <c r="BP35">
+        <f t="shared" si="2"/>
         <v>3.8064999999999571E-2</v>
       </c>
-      <c r="BI35">
-        <f t="shared" si="2"/>
+      <c r="BQ35">
+        <f t="shared" si="3"/>
         <v>-2.2999999999999965E-3</v>
       </c>
-      <c r="BJ35">
-        <f t="shared" si="3"/>
+      <c r="BR35">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -44213,15 +45148,15 @@
         <v>162</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6099999999999994</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.8000000000000274E-3</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AK36">
@@ -44234,31 +45169,60 @@
         <v>307</v>
       </c>
       <c r="AN36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>66.238900000000001</v>
       </c>
       <c r="AO36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.42817</v>
       </c>
       <c r="AP36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>307</v>
       </c>
-      <c r="BH36">
+      <c r="AQ36" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS36">
+        <v>64.559700000000007</v>
+      </c>
+      <c r="AT36">
+        <v>0.35189999999999999</v>
+      </c>
+      <c r="AU36">
+        <v>174</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="15"/>
+        <v>-1.6791999999999945</v>
+      </c>
+      <c r="AW36">
         <f t="shared" si="1"/>
+        <v>-7.6270000000000004E-2</v>
+      </c>
+      <c r="AX36">
+        <f t="shared" si="16"/>
+        <v>133</v>
+      </c>
+      <c r="AY36">
+        <f t="shared" si="17"/>
+        <v>0.43322475570032576</v>
+      </c>
+      <c r="BP36">
+        <f t="shared" si="2"/>
         <v>-26.52</v>
       </c>
-      <c r="BI36">
-        <f t="shared" si="2"/>
+      <c r="BQ36">
+        <f t="shared" si="3"/>
         <v>-0.36399999999999999</v>
       </c>
-      <c r="BJ36">
-        <f t="shared" si="3"/>
+      <c r="BR36">
+        <f t="shared" si="4"/>
         <v>-159</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -44305,15 +45269,15 @@
         <v>388</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9170000000000016</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.4500000000000008E-2</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
       <c r="AK37">
@@ -44326,31 +45290,60 @@
         <v>464</v>
       </c>
       <c r="AN37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>157.17169999999999</v>
       </c>
       <c r="AO37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>9.6170000000000005E-2</v>
       </c>
       <c r="AP37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>464</v>
       </c>
-      <c r="BH37">
+      <c r="AQ37" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS37">
+        <v>160.20500000000001</v>
+      </c>
+      <c r="AT37">
+        <v>0.11346000000000001</v>
+      </c>
+      <c r="AU37">
+        <v>434</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="15"/>
+        <v>3.0333000000000254</v>
+      </c>
+      <c r="AW37">
         <f t="shared" si="1"/>
+        <v>1.729E-2</v>
+      </c>
+      <c r="AX37">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="AY37">
+        <f t="shared" si="17"/>
+        <v>6.4655172413793108E-2</v>
+      </c>
+      <c r="BP37">
+        <f t="shared" si="2"/>
         <v>-39.68</v>
       </c>
-      <c r="BI37">
-        <f t="shared" si="2"/>
+      <c r="BQ37">
+        <f t="shared" si="3"/>
         <v>-0.1246</v>
       </c>
-      <c r="BJ37">
-        <f t="shared" si="3"/>
+      <c r="BR37">
+        <f t="shared" si="4"/>
         <v>-250</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -44399,15 +45392,15 @@
         <v>273</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44000000000000128</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.0900000000000021E-2</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AK38">
@@ -44420,31 +45413,60 @@
         <v>508</v>
       </c>
       <c r="AN38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>98.72</v>
       </c>
       <c r="AO38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.21548</v>
       </c>
       <c r="AP38">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>508</v>
       </c>
-      <c r="BH38">
+      <c r="AQ38" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS38">
+        <v>87.449659999999994</v>
+      </c>
+      <c r="AT38">
+        <v>0.36652000000000001</v>
+      </c>
+      <c r="AU38">
+        <v>326</v>
+      </c>
+      <c r="AV38">
+        <f t="shared" si="15"/>
+        <v>-11.270340000000004</v>
+      </c>
+      <c r="AW38">
         <f t="shared" si="1"/>
+        <v>0.15104000000000001</v>
+      </c>
+      <c r="AX38">
+        <f t="shared" si="16"/>
+        <v>182</v>
+      </c>
+      <c r="AY38">
+        <f t="shared" si="17"/>
+        <v>0.35826771653543305</v>
+      </c>
+      <c r="BP38">
+        <f t="shared" si="2"/>
         <v>-22.22</v>
       </c>
-      <c r="BI38">
-        <f t="shared" si="2"/>
+      <c r="BQ38">
+        <f t="shared" si="3"/>
         <v>-0.30280000000000001</v>
       </c>
-      <c r="BJ38">
-        <f t="shared" si="3"/>
+      <c r="BR38">
+        <f t="shared" si="4"/>
         <v>-263</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>160</v>
       </c>
@@ -44491,15 +45513,15 @@
         <v>159</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3999999999999346E-2</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.8400000000000007E-2</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="AK39">
@@ -44512,31 +45534,60 @@
         <v>230</v>
       </c>
       <c r="AN39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>102.0086</v>
       </c>
       <c r="AO39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>7.3599999999999999E-2</v>
       </c>
       <c r="AP39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>230</v>
       </c>
-      <c r="BH39">
+      <c r="AQ39" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS39">
+        <v>103.3746</v>
+      </c>
+      <c r="AT39">
+        <v>0.15547800000000001</v>
+      </c>
+      <c r="AU39">
+        <v>174</v>
+      </c>
+      <c r="AV39">
+        <f t="shared" si="15"/>
+        <v>1.3659999999999997</v>
+      </c>
+      <c r="AW39">
         <f t="shared" si="1"/>
+        <v>8.1878000000000006E-2</v>
+      </c>
+      <c r="AX39">
+        <f t="shared" si="16"/>
+        <v>56</v>
+      </c>
+      <c r="AY39">
+        <f t="shared" si="17"/>
+        <v>0.24347826086956523</v>
+      </c>
+      <c r="BP39">
+        <f t="shared" si="2"/>
         <v>-26.34</v>
       </c>
-      <c r="BI39">
-        <f t="shared" si="2"/>
+      <c r="BQ39">
+        <f t="shared" si="3"/>
         <v>-0.22470000000000001</v>
       </c>
-      <c r="BJ39">
-        <f t="shared" si="3"/>
+      <c r="BR39">
+        <f t="shared" si="4"/>
         <v>-137</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -44565,15 +45616,15 @@
         <v>173</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-20.14</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.17030000000000001</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-173</v>
       </c>
       <c r="AK40">
@@ -44586,40 +45637,69 @@
         <v>301</v>
       </c>
       <c r="AN40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>90.071899999999999</v>
       </c>
       <c r="AO40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.2913</v>
       </c>
       <c r="AP40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>301</v>
       </c>
-      <c r="BE40">
+      <c r="AQ40" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS40">
+        <v>85.150670000000005</v>
+      </c>
+      <c r="AT40">
+        <v>0.34103</v>
+      </c>
+      <c r="AU40">
+        <v>246</v>
+      </c>
+      <c r="AV40">
+        <f t="shared" si="15"/>
+        <v>-4.9212299999999942</v>
+      </c>
+      <c r="AW40">
+        <f t="shared" si="1"/>
+        <v>4.9729999999999996E-2</v>
+      </c>
+      <c r="AX40">
+        <f t="shared" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="AY40">
+        <f t="shared" si="17"/>
+        <v>0.18272425249169436</v>
+      </c>
+      <c r="BM40">
         <v>19.668900000000001</v>
       </c>
-      <c r="BF40" s="81">
+      <c r="BN40" s="81">
         <v>0.33239999999999997</v>
       </c>
-      <c r="BG40">
+      <c r="BO40">
         <v>211</v>
       </c>
-      <c r="BH40">
-        <f t="shared" si="1"/>
+      <c r="BP40">
+        <f t="shared" si="2"/>
         <v>-0.47109999999999985</v>
       </c>
-      <c r="BI40">
-        <f t="shared" si="2"/>
+      <c r="BQ40">
+        <f t="shared" si="3"/>
         <v>0.16209999999999997</v>
       </c>
-      <c r="BJ40">
-        <f t="shared" si="3"/>
+      <c r="BR40">
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>188</v>
       </c>
@@ -44648,15 +45728,15 @@
         <v>248</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.7100000000000009</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.187</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-248</v>
       </c>
       <c r="AK41">
@@ -44669,40 +45749,69 @@
         <v>404</v>
       </c>
       <c r="AN41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>46.406399999999998</v>
       </c>
       <c r="AO41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.15325</v>
       </c>
       <c r="AP41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>404</v>
       </c>
-      <c r="BE41">
+      <c r="AQ41" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS41">
+        <v>47.331699999999998</v>
+      </c>
+      <c r="AT41">
+        <v>0.12736</v>
+      </c>
+      <c r="AU41">
+        <v>329</v>
+      </c>
+      <c r="AV41">
+        <f t="shared" si="15"/>
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="AW41">
+        <f t="shared" si="1"/>
+        <v>-2.5889999999999996E-2</v>
+      </c>
+      <c r="AX41">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="AY41">
+        <f t="shared" si="17"/>
+        <v>0.18564356435643564</v>
+      </c>
+      <c r="BM41">
         <v>9.7552000000000003</v>
       </c>
-      <c r="BF41">
+      <c r="BN41">
         <v>0.16739999999999999</v>
       </c>
-      <c r="BG41">
+      <c r="BO41">
         <v>260</v>
       </c>
-      <c r="BH41">
-        <f t="shared" si="1"/>
+      <c r="BP41">
+        <f t="shared" si="2"/>
         <v>4.5199999999999463E-2</v>
       </c>
-      <c r="BI41">
-        <f t="shared" si="2"/>
+      <c r="BQ41">
+        <f t="shared" si="3"/>
         <v>-1.9600000000000006E-2</v>
       </c>
-      <c r="BJ41">
-        <f t="shared" si="3"/>
+      <c r="BR41">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -44731,15 +45840,15 @@
         <v>108</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-12.46</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.19750000000000001</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-108</v>
       </c>
       <c r="AK42">
@@ -44752,40 +45861,69 @@
         <v>212</v>
       </c>
       <c r="AN42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>83.256900000000002</v>
       </c>
       <c r="AO42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.30740000000000001</v>
       </c>
       <c r="AP42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>212</v>
       </c>
-      <c r="BE42">
+      <c r="AQ42" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS42">
+        <v>68.259200000000007</v>
+      </c>
+      <c r="AT42">
+        <v>0.25735999999999998</v>
+      </c>
+      <c r="AU42">
+        <v>165</v>
+      </c>
+      <c r="AV42">
+        <f t="shared" si="15"/>
+        <v>-14.997699999999995</v>
+      </c>
+      <c r="AW42">
+        <f t="shared" si="1"/>
+        <v>-5.0040000000000029E-2</v>
+      </c>
+      <c r="AX42">
+        <f t="shared" si="16"/>
+        <v>47</v>
+      </c>
+      <c r="AY42">
+        <f t="shared" si="17"/>
+        <v>0.22169811320754718</v>
+      </c>
+      <c r="BM42">
         <v>12.31058</v>
       </c>
-      <c r="BF42">
+      <c r="BN42">
         <v>0.19095999999999999</v>
       </c>
-      <c r="BG42">
+      <c r="BO42">
         <v>115</v>
       </c>
-      <c r="BH42">
-        <f t="shared" si="1"/>
+      <c r="BP42">
+        <f t="shared" si="2"/>
         <v>-0.149420000000001</v>
       </c>
-      <c r="BI42">
-        <f t="shared" si="2"/>
+      <c r="BQ42">
+        <f t="shared" si="3"/>
         <v>-6.540000000000018E-3</v>
       </c>
-      <c r="BJ42">
-        <f t="shared" si="3"/>
+      <c r="BR42">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>186</v>
       </c>
@@ -44814,15 +45952,15 @@
         <v>117</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-33.28</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.2903</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-117</v>
       </c>
       <c r="AK43">
@@ -44835,40 +45973,69 @@
         <v>202</v>
       </c>
       <c r="AN43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>215.42920000000001</v>
       </c>
       <c r="AO43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.25890000000000002</v>
       </c>
       <c r="AP43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>202</v>
       </c>
-      <c r="BE43">
+      <c r="AQ43" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS43">
+        <v>167.8339</v>
+      </c>
+      <c r="AT43">
+        <v>0.19420000000000001</v>
+      </c>
+      <c r="AU43">
+        <v>160</v>
+      </c>
+      <c r="AV43">
+        <f t="shared" si="15"/>
+        <v>-47.595300000000009</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="1"/>
+        <v>-6.4700000000000008E-2</v>
+      </c>
+      <c r="AX43">
+        <f t="shared" si="16"/>
+        <v>42</v>
+      </c>
+      <c r="AY43">
+        <f t="shared" si="17"/>
+        <v>0.20792079207920791</v>
+      </c>
+      <c r="BM43">
         <v>41.243749999999999</v>
       </c>
-      <c r="BF43">
+      <c r="BN43">
         <v>0.32723000000000002</v>
       </c>
-      <c r="BG43">
+      <c r="BO43">
         <v>145</v>
       </c>
-      <c r="BH43">
-        <f t="shared" si="1"/>
+      <c r="BP43">
+        <f t="shared" si="2"/>
         <v>7.9637499999999974</v>
       </c>
-      <c r="BI43">
-        <f t="shared" si="2"/>
+      <c r="BQ43">
+        <f t="shared" si="3"/>
         <v>3.6930000000000018E-2</v>
       </c>
-      <c r="BJ43">
-        <f t="shared" si="3"/>
+      <c r="BR43">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.35">
       <c r="Z45">
         <f>SUM(Z5,Z9:Z10,Z13,Z17:Z18,Z21,Z25:Z33,Z36:Z39)</f>
         <v>20.418899999999997</v>
@@ -44877,12 +46044,12 @@
         <f>SUM(AA5,AA9:AA10,AA13,AA17:AA18,AA21,AA25:AA33,AA36:AA39)</f>
         <v>0.1336999999999999</v>
       </c>
-      <c r="BH45">
-        <f>SUM(BH6:BH7,BH9,BH11,BH14,BH16,BH20,BH23:BH24,BH34:BH35,BH40:BH43)</f>
+      <c r="BP45">
+        <f>SUM(BP6:BP7,BP9,BP11,BP14,BP16,BP20,BP23:BP24,BP34:BP35,BP40:BP43)</f>
         <v>27.277845000000013</v>
       </c>
-      <c r="BI45">
-        <f>SUM(BI6:BI7,BI9,BI11,BI14,BI16,BI20,BI23:BI24,BI34:BI35,BI40:BI43)</f>
+      <c r="BQ45">
+        <f>SUM(BQ6:BQ7,BQ9,BQ11,BQ14,BQ16,BQ20,BQ23:BQ24,BQ34:BQ35,BQ40:BQ43)</f>
         <v>-0.10875460000000006</v>
       </c>
     </row>
@@ -44893,12 +46060,12 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:O3"/>
   </mergeCells>
-  <conditionalFormatting sqref="Z5:Z43 BH5:BH43">
+  <conditionalFormatting sqref="Z5:Z43 BP5:BP43">
     <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA45:AB45 AA5:AB43 BI5:BJ43">
+  <conditionalFormatting sqref="AA45:AB45 AA5:AB43 BQ5:BR43">
     <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -44918,12 +46085,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH45:BI45">
+  <conditionalFormatting sqref="BP45:BQ45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ1:BJ3">
+  <conditionalFormatting sqref="BR1:BR3">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="237">
   <si>
     <t>Species</t>
   </si>
@@ -728,6 +728,15 @@
   </si>
   <si>
     <t>Removing outliers: same as AK2, plus remove outside of 2*Std Dev</t>
+  </si>
+  <si>
+    <t>8/2/2021 updated with small/large copeopod indices by strata for spring, fall and annual</t>
+  </si>
+  <si>
+    <t>small/large index used:</t>
+  </si>
+  <si>
+    <t>EPU</t>
   </si>
 </sst>
 </file>
@@ -40598,10 +40607,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX45"/>
+  <dimension ref="A1:BZ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR11" workbookViewId="0">
-      <selection activeCell="AT22" sqref="AT22"/>
+    <sheetView tabSelected="1" topLeftCell="AR10" workbookViewId="0">
+      <selection activeCell="AW16" sqref="AW16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40618,9 +40627,10 @@
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="18" max="18" width="11.26953125" customWidth="1"/>
     <col min="23" max="25" width="8.81640625" customWidth="1"/>
+    <col min="78" max="78" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="78" t="s">
         <v>216</v>
       </c>
@@ -40653,8 +40663,11 @@
         <v>224</v>
       </c>
       <c r="BR1"/>
-    </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="BT1" s="75" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
         <v>210</v>
       </c>
@@ -40677,7 +40690,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:76" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="95" t="s">
         <v>178</v>
       </c>
@@ -40737,7 +40750,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:76" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="71" t="s">
         <v>162</v>
       </c>
@@ -40942,8 +40955,14 @@
       <c r="BX4" s="69" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="BY4" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="BZ4" s="69" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -41108,8 +41127,32 @@
         <f t="shared" ref="BR5:BR43" si="4">BO5-U5</f>
         <v>-722</v>
       </c>
-    </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="BT5">
+        <v>34.229120000000002</v>
+      </c>
+      <c r="BU5">
+        <v>0.23117009999999999</v>
+      </c>
+      <c r="BV5">
+        <v>403</v>
+      </c>
+      <c r="BW5">
+        <f>BT5-AS5</f>
+        <v>-37.887279999999997</v>
+      </c>
+      <c r="BX5">
+        <f>BU5-AT5</f>
+        <v>6.3170099999999979E-2</v>
+      </c>
+      <c r="BY5">
+        <f>BV5-AU5</f>
+        <v>-232</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -41264,7 +41307,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -41418,7 +41461,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -41572,7 +41615,7 @@
         <v>-434</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -41738,7 +41781,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -41903,7 +41946,7 @@
         <v>-628</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -42057,7 +42100,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -42193,7 +42236,7 @@
         <v>-588</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -42339,7 +42382,7 @@
         <v>-778</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -42493,7 +42536,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -42629,7 +42672,7 @@
         <v>-663</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>

--- a/GAM_Summary_notes_2020.xlsx
+++ b/GAM_Summary_notes_2020.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="246">
   <si>
     <t>Species</t>
   </si>
@@ -737,6 +737,33 @@
   </si>
   <si>
     <t>EPU</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>%n diff</t>
+  </si>
+  <si>
+    <t>6 spring</t>
+  </si>
+  <si>
+    <t>2 fall</t>
+  </si>
+  <si>
+    <t>5 annual</t>
+  </si>
+  <si>
+    <t>23 EPU</t>
   </si>
 </sst>
 </file>
@@ -40607,30 +40634,37 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BZ45"/>
+  <dimension ref="A1:CA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR10" workbookViewId="0">
-      <selection activeCell="AW16" sqref="AW16"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="BZ49" sqref="BZ49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" customWidth="1"/>
-    <col min="18" max="18" width="11.26953125" customWidth="1"/>
-    <col min="23" max="25" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.26953125" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="25" width="8.81640625" hidden="1" customWidth="1"/>
+    <col min="26" max="44" width="0" hidden="1" customWidth="1"/>
+    <col min="52" max="70" width="0" hidden="1" customWidth="1"/>
     <col min="78" max="78" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="69" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:79" s="69" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="78" t="s">
         <v>216</v>
       </c>
@@ -40667,7 +40701,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
         <v>210</v>
       </c>
@@ -40690,7 +40724,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:78" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:79" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="95" t="s">
         <v>178</v>
       </c>
@@ -40750,7 +40784,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:78" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:79" s="69" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="71" t="s">
         <v>162</v>
       </c>
@@ -40961,8 +40995,11 @@
       <c r="BZ4" s="69" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="CA4" s="69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -41151,8 +41188,12 @@
       <c r="BZ5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="CA5">
+        <f>BY5/AU5</f>
+        <v>-0.36535433070866141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -41306,8 +41347,36 @@
         <f t="shared" si="4"/>
         <v>1121</v>
       </c>
-    </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT6">
+        <v>49.546399999999998</v>
+      </c>
+      <c r="BU6">
+        <v>0.22939999999999999</v>
+      </c>
+      <c r="BV6">
+        <v>854</v>
+      </c>
+      <c r="BW6">
+        <f t="shared" ref="BW6:BW43" si="21">BT6-AS6</f>
+        <v>-49.005600000000008</v>
+      </c>
+      <c r="BX6">
+        <f t="shared" ref="BX6:BX43" si="22">BU6-AT6</f>
+        <v>0.11260999999999999</v>
+      </c>
+      <c r="BY6">
+        <f t="shared" ref="BY6:BY43" si="23">BV6-AU6</f>
+        <v>-442</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA6">
+        <f t="shared" ref="CA6:CA43" si="24">BY6/AU6</f>
+        <v>-0.3410493827160494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -41460,8 +41529,36 @@
         <f t="shared" si="4"/>
         <v>399</v>
       </c>
-    </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT7">
+        <v>58.832000000000001</v>
+      </c>
+      <c r="BU7">
+        <v>0.34878999999999999</v>
+      </c>
+      <c r="BV7">
+        <v>422</v>
+      </c>
+      <c r="BW7">
+        <f t="shared" si="21"/>
+        <v>-27.696989999999992</v>
+      </c>
+      <c r="BX7">
+        <f t="shared" si="22"/>
+        <v>1.8663199999999991E-2</v>
+      </c>
+      <c r="BY7">
+        <f t="shared" si="23"/>
+        <v>-165</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>237</v>
+      </c>
+      <c r="CA7">
+        <f t="shared" si="24"/>
+        <v>-0.28109028960817717</v>
+      </c>
+    </row>
+    <row r="8" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -41614,8 +41711,36 @@
         <f t="shared" si="4"/>
         <v>-434</v>
       </c>
-    </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT8">
+        <v>23.154879999999999</v>
+      </c>
+      <c r="BU8">
+        <v>0.32857999999999998</v>
+      </c>
+      <c r="BV8">
+        <v>375</v>
+      </c>
+      <c r="BW8">
+        <f t="shared" si="21"/>
+        <v>-19.467120000000001</v>
+      </c>
+      <c r="BX8">
+        <f t="shared" si="22"/>
+        <v>8.3179999999999976E-2</v>
+      </c>
+      <c r="BY8">
+        <f t="shared" si="23"/>
+        <v>-360</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA8">
+        <f t="shared" si="24"/>
+        <v>-0.48979591836734693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -41780,8 +41905,36 @@
         <f t="shared" si="4"/>
         <v>1467</v>
       </c>
-    </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT9">
+        <v>131.28</v>
+      </c>
+      <c r="BU9">
+        <v>0.22575999999999999</v>
+      </c>
+      <c r="BV9">
+        <v>1240</v>
+      </c>
+      <c r="BW9">
+        <f t="shared" si="21"/>
+        <v>-47.947399999999988</v>
+      </c>
+      <c r="BX9">
+        <f t="shared" si="22"/>
+        <v>4.5812999999999826E-3</v>
+      </c>
+      <c r="BY9">
+        <f t="shared" si="23"/>
+        <v>-710</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA9">
+        <f t="shared" si="24"/>
+        <v>-0.36410256410256409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -41872,15 +42025,15 @@
         <v>1015</v>
       </c>
       <c r="AN10">
-        <f t="shared" ref="AN10:AN13" si="21">AK10-AD10</f>
+        <f t="shared" ref="AN10:AN13" si="25">AK10-AD10</f>
         <v>43.599399999999989</v>
       </c>
       <c r="AO10">
-        <f t="shared" ref="AO10:AO13" si="22">AL10-AE10</f>
+        <f t="shared" ref="AO10:AO13" si="26">AL10-AE10</f>
         <v>0.12449200000000001</v>
       </c>
       <c r="AP10">
-        <f t="shared" ref="AP10:AP13" si="23">AM10-AF10</f>
+        <f t="shared" ref="AP10:AP13" si="27">AM10-AF10</f>
         <v>132</v>
       </c>
       <c r="AQ10">
@@ -41945,8 +42098,36 @@
         <f t="shared" si="4"/>
         <v>-628</v>
       </c>
-    </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT10">
+        <v>56.933999999999997</v>
+      </c>
+      <c r="BU10">
+        <v>0.19596</v>
+      </c>
+      <c r="BV10">
+        <v>993</v>
+      </c>
+      <c r="BW10">
+        <f t="shared" si="21"/>
+        <v>-15.715800000000002</v>
+      </c>
+      <c r="BX10">
+        <f t="shared" si="22"/>
+        <v>-1.754E-2</v>
+      </c>
+      <c r="BY10">
+        <f t="shared" si="23"/>
+        <v>-22</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA10">
+        <f t="shared" si="24"/>
+        <v>-2.167487684729064E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -42017,15 +42198,15 @@
         <v>1133</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>48.030640000000005</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>6.7830000000000015E-2</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>145</v>
       </c>
       <c r="AQ11">
@@ -42099,8 +42280,36 @@
         <f t="shared" si="4"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT11">
+        <v>29.998999999999999</v>
+      </c>
+      <c r="BU11">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="BV11">
+        <v>418</v>
+      </c>
+      <c r="BW11">
+        <f t="shared" si="21"/>
+        <v>-24.329000000000004</v>
+      </c>
+      <c r="BX11">
+        <f t="shared" si="22"/>
+        <v>3.3200000000000007E-2</v>
+      </c>
+      <c r="BY11">
+        <f t="shared" si="23"/>
+        <v>-164</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA11">
+        <f t="shared" si="24"/>
+        <v>-0.28178694158075601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -42171,15 +42380,15 @@
         <v>1157</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>95.403899999999993</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.29437999999999998</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1157</v>
       </c>
       <c r="AQ12" t="e">
@@ -42235,8 +42444,36 @@
         <f t="shared" si="4"/>
         <v>-588</v>
       </c>
-    </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT12">
+        <v>65.5839</v>
+      </c>
+      <c r="BU12">
+        <v>0.35551719999999998</v>
+      </c>
+      <c r="BV12">
+        <v>628</v>
+      </c>
+      <c r="BW12">
+        <f t="shared" si="21"/>
+        <v>-26.566999999999993</v>
+      </c>
+      <c r="BX12">
+        <f t="shared" si="22"/>
+        <v>1.9761199999999979E-2</v>
+      </c>
+      <c r="BY12">
+        <f t="shared" si="23"/>
+        <v>-413</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA12">
+        <f t="shared" si="24"/>
+        <v>-0.3967339097022094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -42317,15 +42554,15 @@
         <v>1375</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>114.5904</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.16016</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1375</v>
       </c>
       <c r="AQ13" t="e">
@@ -42381,8 +42618,36 @@
         <f t="shared" si="4"/>
         <v>-778</v>
       </c>
-    </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT13">
+        <v>73.141499999999994</v>
+      </c>
+      <c r="BU13">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="BV13">
+        <v>1239</v>
+      </c>
+      <c r="BW13">
+        <f t="shared" si="21"/>
+        <v>-43.293500000000009</v>
+      </c>
+      <c r="BX13">
+        <f t="shared" si="22"/>
+        <v>-3.0799999999999994E-3</v>
+      </c>
+      <c r="BY13">
+        <f t="shared" si="23"/>
+        <v>-25</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA13">
+        <f t="shared" si="24"/>
+        <v>-1.9778481012658229E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -42453,15 +42718,15 @@
         <v>1154</v>
       </c>
       <c r="AN14">
-        <f t="shared" ref="AN14:AN43" si="24">AK14-AD14</f>
+        <f t="shared" ref="AN14:AN43" si="28">AK14-AD14</f>
         <v>53.567700000000002</v>
       </c>
       <c r="AO14">
-        <f t="shared" ref="AO14:AO43" si="25">AL14-AE14</f>
+        <f t="shared" ref="AO14:AO43" si="29">AL14-AE14</f>
         <v>2.8599999999999987E-2</v>
       </c>
       <c r="AP14">
-        <f t="shared" ref="AP14:AP43" si="26">AM14-AF14</f>
+        <f t="shared" ref="AP14:AP43" si="30">AM14-AF14</f>
         <v>90</v>
       </c>
       <c r="AQ14">
@@ -42535,8 +42800,36 @@
         <f t="shared" si="4"/>
         <v>508</v>
       </c>
-    </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT14">
+        <v>45.511699999999998</v>
+      </c>
+      <c r="BU14">
+        <v>0.20265</v>
+      </c>
+      <c r="BV14">
+        <v>456</v>
+      </c>
+      <c r="BW14">
+        <f t="shared" si="21"/>
+        <v>-16.503300000000003</v>
+      </c>
+      <c r="BX14">
+        <f t="shared" si="22"/>
+        <v>-6.5309999999999979E-2</v>
+      </c>
+      <c r="BY14">
+        <f t="shared" si="23"/>
+        <v>-130</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA14">
+        <f t="shared" si="24"/>
+        <v>-0.22184300341296928</v>
+      </c>
+    </row>
+    <row r="15" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -42607,15 +42900,15 @@
         <v>1656</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>90.829400000000007</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.1797</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1656</v>
       </c>
       <c r="AQ15" t="e">
@@ -42671,8 +42964,36 @@
         <f t="shared" si="4"/>
         <v>-663</v>
       </c>
-    </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+      <c r="BT15">
+        <v>58.681800000000003</v>
+      </c>
+      <c r="BU15">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="BV15">
+        <v>622</v>
+      </c>
+      <c r="BW15">
+        <f t="shared" si="21"/>
+        <v>-29.553400000000003</v>
+      </c>
+      <c r="BX15">
+        <f t="shared" si="22"/>
+        <v>4.3129999999999974E-2</v>
+      </c>
+      <c r="BY15">
+        <f t="shared" si="23"/>
+        <v>-278</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>238</v>
+      </c>
+      <c r="CA15">
+        <f t="shared" si="24"/>
+        <v>-0.30888888888888888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -42734,15 +43055,15 @@
         <v>1396</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>240.0746</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>8.5360000000000005E-2</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1396</v>
       </c>
       <c r="AQ16" t="e">
@@ -42807,8 +43128,36 @@
         <f t="shared" si="4"/>
         <v>417</v>
       </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="BT16">
+        <v>132.70410000000001</v>
+      </c>
+      <c r="BU16">
+        <v>0.14002999999999999</v>
+      </c>
+      <c r="BV16">
+        <v>620</v>
+      </c>
+      <c r="BW16">
+        <f t="shared" si="21"/>
+        <v>-114.49889999999999</v>
+      </c>
+      <c r="BX16">
+        <f t="shared" si="22"/>
+        <v>3.5801999999999987E-2</v>
+      </c>
+      <c r="BY16">
+        <f t="shared" si="23"/>
+        <v>-256</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>239</v>
+      </c>
+      <c r="CA16">
+        <f t="shared" si="24"/>
+        <v>-0.29223744292237441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -42888,15 +43237,15 @@
         <v>527</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>151.08240000000001</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.36549999999999999</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>527</v>
       </c>
       <c r="AQ17" t="e">
@@ -42952,8 +43301,36 @@
         <f t="shared" si="4"/>
         <v>-231</v>
       </c>
-    </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="BT17">
+        <v>87.540300000000002</v>
+      </c>
+      <c r="BU17">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="BV17">
+        <v>285</v>
+      </c>
+      <c r="BW17">
+        <f t="shared" si="21"/>
+        <v>-76.72829999999999</v>
+      </c>
+      <c r="BX17">
+        <f t="shared" si="22"/>
+        <v>0.13640999999999998</v>
+      </c>
+      <c r="BY17">
+        <f t="shared" si="23"/>
+        <v>-95</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>237</v>
+      </c>
+      <c r="CA17">
+        <f t="shared" si="24"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -43016,11 +43393,11 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <f t="shared" ref="AH18" si="27">AE18-BG18</f>
+        <f t="shared" ref="AH18" si="31">AE18-BG18</f>
         <v>0</v>
       </c>
       <c r="AI18">
-        <f t="shared" ref="AI18" si="28">AF18-BH18</f>
+        <f t="shared" ref="AI18" si="32">AF18-BH18</f>
         <v>0</v>
       </c>
       <c r="AK18">
@@ -43033,15 +43410,15 @@
         <v>947</v>
       </c>
       <c r="AN18">
-        <f t="shared" ref="AN18" si="29">AK18-AD18</f>
+        <f t="shared" ref="AN18" si="33">AK18-AD18</f>
         <v>76.399000000000001</v>
       </c>
       <c r="AO18">
-        <f t="shared" ref="AO18" si="30">AL18-AE18</f>
+        <f t="shared" ref="AO18" si="34">AL18-AE18</f>
         <v>0.15029999999999999</v>
       </c>
       <c r="AP18">
-        <f t="shared" ref="AP18" si="31">AM18-AF18</f>
+        <f t="shared" ref="AP18" si="35">AM18-AF18</f>
         <v>947</v>
       </c>
       <c r="AQ18" t="e">
@@ -43058,11 +43435,11 @@
         <v>477</v>
       </c>
       <c r="AV18">
-        <f t="shared" ref="AV18" si="32">AS18-AK18</f>
+        <f t="shared" ref="AV18" si="36">AS18-AK18</f>
         <v>-18.928600000000003</v>
       </c>
       <c r="AW18">
-        <f t="shared" ref="AW18" si="33">AT18-AL18</f>
+        <f t="shared" ref="AW18" si="37">AT18-AL18</f>
         <v>0.1784</v>
       </c>
       <c r="AX18">
@@ -43085,8 +43462,36 @@
         <f t="shared" si="4"/>
         <v>-343</v>
       </c>
-    </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="BT18">
+        <v>25.470300000000002</v>
+      </c>
+      <c r="BU18">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="BV18">
+        <v>358</v>
+      </c>
+      <c r="BW18">
+        <f t="shared" si="21"/>
+        <v>-32.000099999999996</v>
+      </c>
+      <c r="BX18">
+        <f t="shared" si="22"/>
+        <v>2.7700000000000002E-2</v>
+      </c>
+      <c r="BY18">
+        <f t="shared" si="23"/>
+        <v>-119</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>238</v>
+      </c>
+      <c r="CA18">
+        <f t="shared" si="24"/>
+        <v>-0.24947589098532494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -43158,15 +43563,15 @@
         <v>734</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>80.852900000000005</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.24697</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>734</v>
       </c>
       <c r="AQ19" t="e">
@@ -43210,8 +43615,36 @@
         <f t="shared" si="4"/>
         <v>-320</v>
       </c>
-    </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="BT19">
+        <v>54.324300000000001</v>
+      </c>
+      <c r="BU19">
+        <v>0.32273000000000002</v>
+      </c>
+      <c r="BV19">
+        <v>339</v>
+      </c>
+      <c r="BW19">
+        <f t="shared" si="21"/>
+        <v>-25.269500000000001</v>
+      </c>
+      <c r="BX19">
+        <f t="shared" si="22"/>
+        <v>7.2030000000000038E-2</v>
+      </c>
+      <c r="BY19">
+        <f t="shared" si="23"/>
+        <v>-260</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA19">
+        <f t="shared" si="24"/>
+        <v>-0.43405676126878129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -43273,15 +43706,15 @@
         <v>651</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>225.16650000000001</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.1212</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>651</v>
       </c>
       <c r="AQ20" t="e">
@@ -43334,8 +43767,36 @@
         <f t="shared" si="4"/>
         <v>171</v>
       </c>
-    </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="BT20">
+        <v>162.7996</v>
+      </c>
+      <c r="BU20">
+        <v>0.25974999999999998</v>
+      </c>
+      <c r="BV20">
+        <v>288</v>
+      </c>
+      <c r="BW20">
+        <f t="shared" si="21"/>
+        <v>-47.215599999999995</v>
+      </c>
+      <c r="BX20">
+        <f t="shared" si="22"/>
+        <v>0.12414999999999998</v>
+      </c>
+      <c r="BY20">
+        <f t="shared" si="23"/>
+        <v>-89</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>239</v>
+      </c>
+      <c r="CA20">
+        <f t="shared" si="24"/>
+        <v>-0.23607427055702918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -43418,15 +43879,15 @@
         <v>1742</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>48.740499999999997</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.1769</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1742</v>
       </c>
       <c r="AQ21" t="e">
@@ -43470,8 +43931,36 @@
         <f t="shared" si="4"/>
         <v>-646</v>
       </c>
-    </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="BT21">
+        <v>31.584800000000001</v>
+      </c>
+      <c r="BU21">
+        <v>0.21837000000000001</v>
+      </c>
+      <c r="BV21">
+        <v>1119</v>
+      </c>
+      <c r="BW21">
+        <f t="shared" si="21"/>
+        <v>-10.151899999999998</v>
+      </c>
+      <c r="BX21">
+        <f t="shared" si="22"/>
+        <v>2.5100000000000122E-3</v>
+      </c>
+      <c r="BY21">
+        <f t="shared" si="23"/>
+        <v>-13</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>236</v>
+      </c>
+      <c r="CA21">
+        <f t="shared" si="24"/>
+        <v>-1.1484098939929329E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:79" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -43542,15 +44031,15 @@
         <v>963</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>56.912999999999997</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.26650000000000001</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>963</v>
       </c>
       <c r="AQ22" t="e">
@@ -43594,8 +44083,36 @@
         <f t="shared" si="4"/>
         <v>-236</v>
       </c>
-    </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.35">
+      <c r="BT22">
+        <v>32.496400000000001</v>
+      </c>
+      <c r="BU22">
+        <v>0.37403999999999998</v>
+      </c>
+      <c r="BV22">
+        <v>360</v>
+      </c>
+      <c r="BW22">
+        <f t="shared" si="21"/>
+        <v>-8.6032000000000011</v>
+      </c>
+      <c r="BX22">
+        <f t="shared" si="22"/>
+        <v>7.7200000000000046E-3</v>
+      </c>
+      <c r="BY22">
+        <f t="shared" si="23"/>
+        <v>-199</v>
+      </c>
+      <c 